--- a/src/101.xlsx
+++ b/src/101.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhtuan/Documents/KiwiUniverse/iLawyer/iLawyer228/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhtuan/Documents/KiwiUniverse/iLawyer0330/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="1660" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
   <si>
     <t>STT</t>
   </si>
@@ -2623,6 +2623,6688 @@
     <t xml:space="preserve">Điều 213 Quy định chi tiết
 Chính phủ quy định chi tiết các điều, khoản được giao trong Luật.
 </t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_1"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 1. Phạm vi điều
+chỉnh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Luật này quy định về việc thành lập, tổ
+chức quản lý, tổ chức lại, giải thể và hoạt động có liên quan của doanh nghiệp,
+bao gồm công ty trách nhiệm hữu hạn, công ty cổ phần, công ty hợp danh và doanh
+nghiệp tư nhân; &lt;span style="background:white"&gt;quy định&lt;/span&gt; về nhóm công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_2"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 2. Đối tượng
+áp dụng&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Các doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cơ quan, tổ chức, cá nhân có liên quan
+đến việc thành lập, tổ chức quản lý, tổ chức lại, giải thể và hoạt động có liên
+quan của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_3"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 3. Áp dụng Luật
+doanh nghiệp và các luật chuyên ngành&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp luật chuyên ngành có quy
+định đặc thù về việc thành lập, tổ chức quản lý, tổ chức lại, giải thể và hoạt
+động có liên quan của doanh nghiệp thì áp dụng quy định của Luật đó.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_4"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 4. Giải thích
+từ ngữ&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trong Luật này, các từ ngữ dưới đây được
+hiểu như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. &lt;i&gt;Cá nhân nước ngoài&lt;/i&gt; là người
+không có quốc tịch Việt Nam.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. &lt;i&gt;Cổ đông&lt;/i&gt; là cá nhân, tổ chức
+sở hữu ít nhất một cổ phần của công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;i&gt;&lt;span lang="VI"&gt;Cổ đông sáng lập&lt;/span&gt;&lt;/i&gt;&lt;span lang="VI"&gt; là cổ đông sở hữu ít nhất một cổ phần phổ thông và ký tên trong danh sách
+cổ đông sáng lập công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. &lt;i&gt;Cổ tức&lt;/i&gt; là khoản lợi nhuận ròng
+được trả cho mỗi cổ phần bằng tiền mặt hoặc bằng tài sản khác từ nguồn lợi nhuận
+còn lại của công ty cổ phần sau khi đã thực hiện nghĩa vụ về tài chính.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. &lt;i&gt;Công ty trách nhiệm hữu hạn&lt;/i&gt;
+bao gồm công ty trách nhiệm hữu hạn một thành viên và công ty trách nhiệm hữu
+hạn hai thành viên trở lên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. &lt;i&gt;Cổng thông tin quốc gia&lt;/i&gt; &lt;i&gt;về
+đăng ký doanh nghiệp&lt;/i&gt; là cổng thông tin điện tử được sử dụng để đăng ký doanh
+nghiệp qua mạng, truy cập thông tin về đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. &lt;i&gt;Cơ sở dữ liệu quốc gia về đăng ký
+doanh nghiệp&lt;/i&gt; là tập hợp dữ liệu về đăng ký doanh nghiệp trên phạm vi toàn
+quốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. &lt;i&gt;Doanh nghiệp&lt;/i&gt; là tổ chức có tên
+riêng, có tài sản, có trụ sở giao dịch, được đăng ký thành lập theo quy định
+của pháp luật nhằm mục đích kinh doanh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. &lt;i&gt;Doanh nghiệp nhà nước&lt;/i&gt; là doanh
+nghiệp do Nhà nước nắm giữ 100% vốn điều lệ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. &lt;i&gt;Doanh nghiệp Việt Nam &lt;/i&gt;là doanh
+nghiệp được thành lập hoặc đăng ký thành lập theo pháp luật Việt Nam và có trụ
+sở chính tại Việt Nam.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;10. &lt;i&gt;Địa chỉ thường trú&lt;/i&gt; là địa chỉ
+đăng ký trụ sở chính, đối với tổ chức; địa chỉ đăng ký hộ khẩu thường trú hoặc
+địa chỉ nơi làm việc hoặc địa chỉ khác của cá nhân mà người đó đăng ký với doanh
+nghiệp để làm địa chỉ liên lạc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;11. &lt;i&gt;Giá thị trường của phần vốn góp
+hoặc cổ phần&lt;/i&gt; là giá giao dịch trên thị trường cao nhất ngày hôm trước, giá
+thỏa thuận giữa người bán và người mua, hoặc giá do một tổ chức thẩm định giá
+chuyên nghiệp xác định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;12. &lt;i&gt;Giấy chứng nhận đăng ký doanh nghiệp&lt;/i&gt;
+là &lt;span style="background:white"&gt;văn&lt;/span&gt; bản hoặc bản điện tử mà Cơ quan
+đăng ký kinh doanh cấp cho doanh nghiệp ghi lại những thông tin về đăng ký
+doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;13. &lt;i&gt;Góp vốn&lt;/i&gt; là việc góp tài
+sản để tạo thành vốn điều lệ của công ty. Góp vốn bao gồm góp vốn để thành lập doanh
+nghiệp hoặc góp thêm vốn điều lệ của doanh nghiệp đã được thành lập.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;14. &lt;i&gt;Hệ thống thông tin quốc gia về
+đăng ký doanh nghiệp&lt;/i&gt; bao gồm Cơ sở dữ liệu quốc gia về đăng ký doanh
+nghiệp, Cổng thông tin quốc gia về đăng ký doanh nghiệp và hạ tầng kỹ thuật hệ
+thống.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;15. &lt;i&gt;Hồ sơ hợp lệ&lt;/i&gt; là hồ sơ có
+đầy đủ giấy tờ theo quy định của Luật này và nội dung các giấy tờ đó được kê khai
+đầy đủ theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;16. &lt;i&gt;Kinh doanh&lt;/i&gt; là việc thực
+hiện liên tục một, một số hoặc tất cả các công đoạn của quá trình, đầu tư, từ
+sản xuất đến tiêu thụ sản phẩm hoặc cung ứng dịch vụ trên thị trường nhằm mục
+đích sinh lợi.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;17. &lt;i&gt;Người có liên quan&lt;/i&gt; là tổ chức,
+cá nhân có quan hệ trực tiếp hoặc gián tiếp với doanh nghiệp trong các trường
+hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Công ty mẹ, người quản lý công ty mẹ
+và người có thẩm quyền bổ nhiệm người quản lý đó đối với công ty con &lt;span style="background:white"&gt;trong&lt;/span&gt; nhóm công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Công ty con đối với công ty mẹ &lt;span style="background:white"&gt;trong&lt;/span&gt; nhóm công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Người hoặc nhóm người có khả năng
+chi phối việc ra quyết định, hoạt động của doanh nghiệp đó thông qua cơ quan
+quản lý doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Người quản lý doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Vợ, chồng, cha đẻ, cha nuôi, mẹ
+đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị ruột, em ruột, anh rể, em rể, chị
+dâu, em dâu của người quản lý công ty hoặc của thành viên, cổ đông sở hữu phần
+vốn góp hay cổ phần chi phối;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Cá nhân được ủy quyền đại diện cho
+những người, công ty &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại các
+điểm a, b, c, d và đ khoản này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Doanh nghiệp trong đó những người,
+công ty quy định tại các điểm a, b, c, d, đ, e và h khoản này có sở hữu đến mức
+chi phối việc ra &lt;span style="background:white"&gt;quyết định&lt;/span&gt; của các cơ quan
+quản lý ở doanh nghiệp đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Nhóm người thỏa thuận cùng &lt;span style="background:white"&gt;phối hợp&lt;/span&gt; để thâu tóm phần vốn góp, cổ phần hoặc
+lợi ích ở công ty hoặc để chi phối việc ra quyết định của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;18. &lt;i&gt;Người quản lý doanh nghiệp&lt;/i&gt;
+là người quản lý công ty và người quản lý doanh nghiệp tư nhân, bao gồm chủ doanh
+nghiệp tư nhân, thành viên hợp danh, Chủ tịch Hội đồng thành viên, thành viên
+Hội đồng thành viên, Chủ tịch công ty, Chủ tịch Hội đồng quản trị, thành viên
+Hội đồng quản trị, Giám đốc hoặc Tổng giám đốc và cá nhân giữ chức danh quản lý
+khác có thẩm quyền nhân danh công ty ký kết giao dịch của công ty theo quy định
+tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;19. &lt;i&gt;Người thành lập doanh nghiệp&lt;/i&gt;
+là tổ chức, cá nhân thành lập hoặc góp vốn để thành lập doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;20. &lt;i&gt;Nhà đầu tư nước ngoài&lt;/i&gt; là
+tổ chức, cá nhân được hiểu là nhà đầu tư nước ngoài theo quy định của Luật đầu
+tư.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;21. &lt;i&gt;Phần vốn góp&lt;/i&gt; là tổng giá trị
+tài sản của một thành viên đã góp hoặc cam kết góp vào công ty trách nhiệm hữu
+hạn, công ty hợp danh. Tỷ lệ phần vốn góp là tỷ lệ giữa phần vốn góp của một
+thành viên và vốn điều lệ của công ty trách nhiệm hữu hạn, công ty hợp danh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;22. &lt;i&gt;Sản phẩm, dịch vụ công ích&lt;/i&gt;
+là sản phẩm, dịch vụ thiết yếu đối với đời sống kinh tế - xã hội của đất nước, cộng
+đồng dân cư của một khu vực lãnh thổ mà Nhà nước cần bảo đảm vì lợi ích chung
+hoặc bảo đảm quốc phòng, an ninh và việc sản xuất, cung ứng sản phẩm, dịch vụ
+này theo cơ chế thị trường khó có khả năng bù đắp chi phí.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;23. &lt;i&gt;Thành viên công ty &lt;/i&gt;là cá nhân,
+tổ chức sở hữu một phần hoặc toàn bộ vốn điều lệ của công ty trách nhiệm hữu
+hạn hoặc công ty hợp danh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;24. &lt;i&gt;Thành viên công ty hợp danh&lt;/i&gt;
+bao gồm thành viên hợp danh và thành viên góp vốn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;25. &lt;i&gt;Tổ chức lại doanh nghiệp&lt;/i&gt; là
+việc chia, tách, hợp nhất, sáp nhập hoặc chuyển đổi loại hình doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;26. &lt;i&gt;Tổ chức nước ngoài&lt;/i&gt; là tổ chức
+thành lập ở nước ngoài theo pháp luật nước ngoài.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;27. &lt;i&gt;Tỷ lệ sở hữu cổ phần, phần vốn
+góp của nhà đầu tư nước ngoài&lt;/i&gt; là tổng tỷ lệ sở hữu vốn có quyền biểu quyết của
+tất cả nhà đầu tư nước ngoài trong một doanh nghiệp Việt Nam.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;28. &lt;i&gt;Vốn có quyền biểu quyết&lt;/i&gt; là
+phần vốn góp hoặc cổ phần, theo đó người sở hữu có quyền biểu quyết về những
+vấn đề thuộc thẩm quyền quyết định của Hội đồng thành viên hoặc Đại hội đồng cổ
+đông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;29. &lt;i&gt;Vốn điều lệ&lt;/i&gt; là tổng giá
+trị tài sản do các thành viên đã góp hoặc cam kết góp khi thành lập công ty
+trách nhiệm hữu hạn, công ty hợp danh; là tổng giá trị mệnh giá cổ phần đã bán
+hoặc đã được đăng ký mua khi thành lập doanh nghiệp đối với công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_5"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 5. Bảo đảm
+của Nhà nước đối với doanh nghiệp và chủ sở hữu doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Nhà nước công nhận sự tồn tại lâu dài
+và phát triển của các loại hình doanh nghiệp được quy định tại Luật này; bảo
+đảm bình đẳng trước pháp luật của các doanh nghiệp không phân biệt hình thức sở
+hữu và thành phần &lt;span style="background:white"&gt;kinh tế&lt;/span&gt;; thừa nhận tính
+sinh lợi hợp pháp của hoạt động kinh doanh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Nhà nước công nhận và bảo hộ quyền
+sở hữu tài sản, vốn đầu tư, thu nhập, các quyền và lợi ích hợp pháp khác của doanh
+nghiệp và chủ sở hữu doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tài sản và vốn đầu tư hợp pháp của
+doanh nghiệp và chủ sở hữu doanh nghiệp không bị quốc hữu hóa, không bị tịch thu
+bằng biện pháp hành chính.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp thật cần thiết vì lý do
+quốc phòng, an ninh hoặc vì lợi ích quốc gia, tình trạng khẩn cấp, phòng, chống
+thiên tai, Nhà nước trưng mua hoặc trưng dụng có bồi thường tài sản của doanh
+nghiệp; trường hợp trưng mua thì doanh nghiệp được thanh toán, trường hợp trưng
+dụng thì doanh nghiệp được bồi thường theo giá thị trường tại thời điểm trưng
+mua hoặc trưng dụng. Việc thanh toán hoặc bồi thường phải bảo đảm lợi ích của
+doanh nghiệp và không phân biệt đối xử giữa các loại hình doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_6"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 6. Tổ chức chính
+trị, tổ chức chính trị - xã hội trong doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tổ chức chính trị, tổ chức chính trị
+- xã hội &lt;span style="background:white"&gt;trong&lt;/span&gt; doanh nghiệp hoạt động theo
+quy định của Hiến pháp, pháp luật và Điều lệ tổ chức.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Doanh nghiệp có nghĩa vụ tôn trọng
+và không được cản trở, gây khó khăn cho việc thành lập tổ chức chính trị, tổ
+chức chính trị - xã hội tại doanh nghiệp; không được cản trở, gây khó khăn cho
+người lao động tham gia hoạt động trong các &lt;span style="background:white"&gt;tổ
+chức&lt;/span&gt; này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_7"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 7. Quyền của
+doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tự do kinh doanh &lt;span style="background:white"&gt;trong&lt;/span&gt; những ngành, nghề mà luật không cấm.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tự chủ kinh doanh và lựa chọn hình
+thức tổ chức kinh doanh; chủ động lựa chọn ngành, nghề, địa bàn, hình thức kinh
+doanh; chủ động &lt;span style="background:white"&gt;điều&lt;/span&gt; chỉnh quy mô và ngành,
+nghề kinh doanh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Lựa chọn hình thức, phương thức huy
+động, phân bổ và sử dụng vốn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chủ động tìm kiếm thị trường, khách
+hàng và ký kết hợp đồng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Kinh doanh xuất khẩu, nhập khẩu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Tuyển dụng, thuê và sử dụng lao
+động theo yêu cầu kinh doanh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Chủ động ứng dụng khoa học và công
+nghệ để nâng cao hiệu quả kinh doanh và khả năng cạnh tranh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Chiếm hữu, sử dụng, định đoạt tài sản
+của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Từ chối yêu cầu cung cấp nguồn lực
+không theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;10. Khiếu nại, tố cáo theo quy định
+của pháp luật về khiếu nại, tố cáo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;11. Tham gia tố tụng theo quy định
+của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;12. Quyền khác theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; của luật có liên quan.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_8"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 8. Nghĩa vụ của
+doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Đáp ứng đủ điều kiện kinh doanh khi
+kinh doanh ngành, nghề đầu tư kinh doanh có điều kiện theo quy định của Luật
+đầu tư và bảo đảm duy trì đủ điều kiện đầu tư kinh doanh đó trong suốt quá trình
+hoạt động kinh doanh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tổ chức công tác kế toán, lập và
+nộp báo cáo tài chính trung thực, chính xác, đúng thời hạn theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; của pháp luật về kế toán, thống kê.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Kê khai thuế, nộp thuế và thực
+hiện các nghĩa vụ tài chính khác theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Bảo đảm quyền, lợi ích hợp pháp, chính
+đáng của người lao động theo quy định của pháp luật về lao động; không được
+phân biệt đối xử và xúc phạm danh dự, nhân phẩm của người lao động &lt;span style="background:white"&gt;trong&lt;/span&gt; doanh nghiệp; không được sử dụng lao động
+cưỡng bức và lao động trẻ em; hỗ trợ và tạo điều kiện thuận lợi cho người lao
+động tham gia đào tạo nâng cao trình độ, kỹ năng nghề; thực hiện chế độ bảo
+hiểm xã hội, bảo hiểm thất nghiệp, bảo hiểm y tế và bảo hiểm khác cho người lao
+động theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Bảo đảm và chịu trách nhiệm về
+chất lượng hàng hóa, dịch vụ theo tiêu chuẩn do pháp luật quy định hoặc tiêu
+chuẩn đã đăng ký hoặc công bố.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="khoan_6_8"&gt;&lt;span lang="VI"&gt;6. Thực hiện đầy đủ,
+kịp thời các nghĩa vụ về đăng ký doanh nghiệp, đăng ký thay đổi nội dung đăng
+ký doanh nghiệp, công khai thông tin về thành lập và hoạt động, báo cáo và các
+nghĩa vụ khác theo quy định của Luật này và quy định khác của pháp luật có liên
+quan.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Chịu trách nhiệm về tính trung
+thực, chính xác của thông tin kê khai &lt;span style="background:white"&gt;trong&lt;/span&gt;
+hồ sơ đăng ký doanh nghiệp và các báo cáo; trường hợp phát hiện thông tin đã kê
+khai hoặc báo cáo thiếu chính xác, chưa đầy đủ thì phải kịp thời sửa đổi, bổ
+sung các thông tin đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Tuân thủ quy định của pháp luật về
+quốc phòng, an ninh, trật tự, an toàn xã hội, bình đẳng giới, bảo vệ tài nguyên,
+môi trường, bảo vệ di tích lịch sử-văn hóa và danh lam thắng cảnh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Thực hiện nghĩa vụ về đạo đức kinh
+doanh để bảo đảm quyền, lợi ích hợp pháp của khách hàng và người tiêu dùng.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_9"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 9. Quyền và nghĩa
+vụ của doanh nghiệp cung ứng các sản phẩm, dịch vụ công ích&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Các quyền và nghĩa vụ quy định tại
+Điều 7, Điều 8 và quy định khác có liên quan của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Được hạch toán và bù đắp chi phí theo
+giá do pháp luật về đấu thầu quy định hoặc thu phí sử dụng dịch vụ theo quy
+định của cơ quan nhà nước có thẩm quyền.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Được bảo đảm thời hạn cung ứng sản
+phẩm, dịch vụ thích hợp để thu hồi vốn đầu tư và có lãi hợp lý.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cung ứng sản phẩm, dịch vụ đủ số lượng,
+đúng chất lượng và thời hạn đã cam kết theo giá hoặc phí do cơ quan nhà nước có
+thẩm quyền quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Bảo đảm các điều kiện công bằng và
+thuận lợi như nhau cho các khách hàng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Chịu trách nhiệm trước pháp luật và
+khách hàng về số lượng, chất lượng, điều kiện cung ứng và giá, phí sản phẩm, dịch
+vụ cung ứng.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888902" class="clsBookmark" name="dieu_10" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888902')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888902')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 10. Tiêu chí,
+quyền và nghĩa vụ của doanh nghiệp xã hội&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp xã hội phải đáp ứng
+các tiêu chí sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-969475" class="clsBookmark" name="diem_1_10_1" onclick="LS_Tip_Type_Bookmark('.lqhlTip-969475')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-969475')"&gt;&lt;span lang="VI"&gt;a) Là doanh nghiệp
+được đăng ký thành lập theo quy định của Luật này;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Mục tiêu hoạt động nhằm giải quyết
+vấn đề xã hội, môi trường vì lợi ích cộng đồng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Sử dụng ít nhất 51% tổng lợi nhuận
+hằng năm của doanh nghiệp để tái đầu tư nhằm thực hiện mục tiêu xã hội, môi
+trường như đã đăng ký.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Ngoài các quyền và nghĩa vụ của doanh
+nghiệp theo quy định của Luật này, doanh nghiệp xã hội có các quyền và nghĩa vụ
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-969476" class="clsBookmark" name="diem_2_10_1" onclick="LS_Tip_Type_Bookmark('.lqhlTip-969476')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-969476')"&gt;a) Duy trì mục tiêu và điều kiện
+quy định tại điểm b và điểm c khoản 1 Điều này trong suốt quá trình hoạt động;
+trường hợp doanh nghiệp đang hoạt động muốn chuyển thành doanh nghiệp xã hội
+hoặc doanh nghiệp xã hội muốn từ bỏ mục tiêu xã hội, môi trường, không sử dụng
+lợi nhuận để tái đầu tư thì doanh nghiệp phải thông báo với cơ quan có thẩm
+quyền để tiến hành các thủ tục theo quy định của pháp luật;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chủ sở hữu doanh nghiệp, người
+quản lý doanh nghiệp xã hội được xem xét, tạo thuận lợi và hỗ trợ trong việc
+cấp giấy phép, chứng chỉ và giấy chứng nhận có liên quan theo quy định của pháp
+luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-969477" class="clsBookmark" name="diem_2_10_3" onclick="LS_Tip_Type_Bookmark('.lqhlTip-969477')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-969477')"&gt;c) Được huy động và nhận tài trợ
+dưới các hình thức khác nhau từ các cá nhân, doanh nghiệp, tổ chức phi chính
+phủ và các tổ chức khác của Việt Nam và nước ngoài để bù đắp chi phí quản lý và
+chi phí hoạt động của doanh nghiệp;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Không được sử dụng các khoản tài trợ
+huy động được cho mục đích khác ngoài bù đắp chi phí quản lý và chi phí hoạt
+động để giải quyết vấn đề xã hội, môi trường mà doanh nghiệp đã đăng ký;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Trường hợp được nhận các ưu đãi,
+hỗ trợ, doanh nghiệp xã hội phải định kỳ hằng năm báo cáo cơ quan có thẩm quyền
+về tình hình hoạt động của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-969977" class="clsBookmark" name="khoan_3_10" onclick="LS_Tip_Type_Bookmark('.lqhlTip-969977')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-969977')"&gt;&lt;span lang="VI"&gt;3. Nhà nước có
+chính sách khuyến khích, &lt;span style="background:white"&gt;hỗ trợ&lt;/span&gt; và thúc
+đẩy phát triển doanh nghiệp xã hội.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chính phủ quy định chi tiết Điều
+này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_11"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 11. Chế độ lưu
+giữ tài liệu của doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tùy theo loại hình, doanh nghiệp phải
+lưu giữ các tài liệu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Điều lệ công ty; quy chế quản lý
+nội bộ của công ty; sổ đăng ký thành viên hoặc sổ đăng ký cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Văn bằng bảo hộ quyền sở hữu công nghiệp;
+giấy chứng nhận đăng ký chất lượng sản phẩm; giấy phép và giấy chứng nhận khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tài liệu, giấy tờ xác nhận quyền
+sở hữu tài sản của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Biên bản họp Hội đồng thành viên, Đại
+hội đồng cổ đông, Hội đồng quản trị; các quyết định của doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Bản cáo bạch để phát hành chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt;;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Báo cáo của Ban kiểm soát, kết
+luận của cơ quan thanh tra, kết luận của tổ chức kiểm toán;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Sổ kế toán, chứng từ kế toán, báo cáo
+tài chính hằng năm.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Doanh nghiệp phải lưu giữ các tài liệu
+quy định tại khoản 1 Điều này tại trụ sở chính hoặc địa điểm khác được quy định
+&lt;span style="background:white"&gt;trong&lt;/span&gt; Điều lệ công ty; thời hạn lưu giữ
+thực hiện theo quy định của pháp luật có liên quan.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_12"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 12. Báo cáo
+thay đổi thông tin của người quản lý doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Doanh nghiệp phải báo cáo Cơ quan đăng
+ký kinh doanh nơi doanh nghiệp có trụ sở chính &lt;span style="background:white"&gt;trong&lt;/span&gt;
+thời hạn 05 ngày, kể từ ngày có thay đổi thông tin về họ, tên, địa chỉ liên
+lạc, quốc tịch, số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu
+hoặc chứng thực cá nhân &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt; khác của
+những ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên Hội đồng quản trị đối
+với công ty cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên Ban kiểm soát hoặc Kiểm
+soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Giám đốc hoặc Tổng giám đốc.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_13"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 13. Người
+đại diện theo pháp luật của doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Người đại diện theo pháp luật của doanh
+nghiệp là cá nhân đại diện cho doanh nghiệp thực hiện các quyền và nghĩa vụ
+phát sinh từ giao dịch của doanh nghiệp, đại diện cho doanh nghiệp &lt;span style="background:white"&gt;với&lt;/span&gt; tư cách nguyên đơn, bị đơn, người có quyền lợi,
+nghĩa vụ liên quan trước Trọng tài, Tòa án và các quyền và nghĩa vụ khác theo
+quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty trách nhiệm hữu hạn và
+công ty cổ phần có thể có một hoặc nhiều người đại diện theo pháp luật. Điều lệ
+công ty quy định cụ thể số lượng, chức danh quản lý và quyền, nghĩa vụ của
+người đại diện theo pháp luật của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Doanh nghiệp phải bảo đảm luôn có ít
+nhất một người đại diện theo pháp luật cư trú tại Việt Nam. Trường hợp doanh nghiệp
+chỉ có một người đại diện theo pháp luật thì người đó phải cư trú ở Việt Nam và
+phải ủy quyền bằng văn bản cho người khác thực hiện quyền và nghĩa vụ của người
+đại diện theo pháp luật khi xuất cảnh khỏi Việt Nam. Trường hợp này, người đại
+diện theo pháp luật vẫn phải chịu trách nhiệm về việc thực hiện quyền và nghĩa
+vụ đã ủy quyền.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp hết thời hạn ủy quyền theo
+khoản 3 Điều này mà người đại diện theo pháp luật của doanh nghiệp chưa trở lại
+Việt Nam và không có ủy quyền khác thì thực hiện theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Người được ủy quyền vẫn tiếp tục thực
+hiện các quyền và nghĩa vụ của người đại diện theo pháp luật của doanh nghiệp
+tư nhân &lt;span style="background:white"&gt;trong&lt;/span&gt; phạm vi đã được ủy quyền
+cho đến khi người đại diện theo pháp luật của doanh nghiệp trở lại làm việc tại
+doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Người được ủy quyền vẫn tiếp tục thực
+hiện các quyền và nghĩa vụ của người đại diện theo pháp luật của công ty trách
+nhiệm hữu hạn, công ty cổ phần, công ty hợp danh trong phạm vi đã được &lt;span style="background:white"&gt;ủy quyền&lt;/span&gt; cho đến khi người đại diện theo pháp luật
+của công ty trở lại làm việc tại công ty hoặc cho đến khi chủ sở hữu công ty,
+Hội đồng thành viên, Hội đồng quản trị, quyết định cử người khác làm người đại
+diện theo pháp luật của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;5. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; doanh nghiệp chỉ có một người đại diện theo pháp luật
+và người này vắng mặt tại Việt Nam quá 30 ngày mà không ủy quyền cho người khác
+thực hiện các quyền và nghĩa vụ của người đại diện theo pháp luật của doanh
+nghiệp hoặc bị chết, mất tích, tạm giam, kết án tù, bị hạn chế hoặc mất năng
+lực hành vi dân sự thì chủ sở hữu công ty, Hội đồng thành viên, Hội đồng quản
+trị cử ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i khác làm người đại diện theo
+pháp luật của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Đối với công ty trách nhiệm hữu
+hạn có hai thành viên, nếu có thành viên là cá nhân làm người đại diện theo
+pháp luật của công ty bị tạm giam, kết án tù, trốn khỏi nơi cư trú, bị mất hoặc
+bị hạn chế năng lực hành vi dân sự hoặc bị Tòa án tước quyền hành nghề vì phạm
+tội buôn lậu, làm hàng giả, kinh doanh trái phép, trốn thuế, lừa dối khách hàng
+và tội khác theo quy định của Bộ luật hình sự thì thành viên còn lại đương
+nhiên làm người đại diện theo pháp luật của công ty cho đến khi có quyết định
+mới của Hội đồng thành viên về người đại diện theo pháp luật của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Trong một số trường hợp đặc biệt, Tòa
+án có thẩm quyền có quyền chỉ định người đại diện theo pháp luật &lt;span style="background:white"&gt;trong&lt;/span&gt; quá trình tố tụng tại Tòa án.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_14"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 14. Trách nhiệm
+của người đại diện theo pháp luật của doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Người đại diện theo pháp luật của doanh
+nghiệp có trách nhiệm sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thực hiện các quyền và nghĩa vụ
+được giao một cách trung thực, cẩn trọng, tốt nhất nhằm bảo đảm lợi ích hợp
+pháp của doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Trung thành với lợi ích của doanh nghiệp;
+không sử dụng thông tin, bí quyết, cơ hội kinh doanh của doanh nghiệp, không lạm
+dụng địa vị, chức vụ và sử dụng tài sản của doanh nghiệp để tư lợi hoặc phục vụ
+lợi ích của tổ chức, cá nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thông báo kịp thời, đầy đủ, chính xác
+cho doanh nghiệp về việc người đại diện đó và người có liên quan của họ làm chủ
+hoặc có cổ phần, phần vốn góp chi phối tại các doanh nghiệp khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Người đại diện theo pháp luật của doanh
+nghiệp chịu trách nhiệm cá nhân đối với những thiệt hại cho doanh nghiệp do vi
+phạm nghĩa vụ quy định tại khoản 1 Điều này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_15"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 15. Người
+đại diện theo ủy quyền của chủ sở hữu, thành viên, cổ đông là &lt;span style="background:white"&gt;tổ chức&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i
+đại diện theo ủy quyền của chủ sở hữu, thành viên, cổ đông công ty là tổ chức phải
+là cá nhân được ủy quyền bằng văn bản nhân danh chủ sở hữu, thành viên, cổ đông
+đó thực hiện các quyền và nghĩa vụ theo quy định của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp Điều lệ công ty không có
+quy định khác thì việc cử người đại diện theo ủy quyền thực hiện theo quy định
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tổ chức là thành viên công ty trách
+nhiệm hữu hạn hai thành viên trở lên có sở hữu ít nhất 35% vốn điều lệ có thể
+ủy quyền tối đa 03 người đại diện;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tổ chức là cổ đông công ty cổ phần
+có sở hữu ít nhất 10% tổng số cổ phần phổ thông có thể ủy quyền tối đa 03 người
+đại diện.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp chủ sở hữu, thành viên,
+cổ đông công ty là tổ chức cử nhiều người đại diện theo ủy quyền thì phải xác
+định cụ thể phần vốn góp, số cổ phần, cho mỗi người đại diện. Trường hợp chủ sở
+hữu, thành viên, cổ đông công ty không xác định phần vốn góp, số cổ phần tương
+ứng cho mỗi người đại diện theo ủy quyền, phần vốn góp, số cổ phần sẽ được chia
+đều cho số lượng người đại diện theo ủy quyền.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Việc chỉ định người đại diện theo
+ủy quyền phải bằng văn bản, phải thông báo cho công ty và chỉ có hiệu lực đối
+với công ty kể từ ngày công ty nhận được thông báo. Văn bản ủy quyền phải có
+các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính của chủ sở hữu, thành viên, cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Số lượng người đại diện theo ủy quyền
+và tỷ lệ cổ phần, phần vốn góp tương ứng mỗi ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i
+đại diện theo ủy quyền;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác của từng người đại diện theo ủy quyền;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Thời hạn ủy quyền tương ứng của
+từng người đại diện theo ủy quyền; trong đó ghi rõ ngày bắt đầu được ủy quyền;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Họ, tên, chữ ký của người đại diện
+theo pháp luật của chủ sở hữu, thành viên, cổ đông và của người đại diện theo
+ủy quyền.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Người đại diện theo ủy quyền phải có
+các tiêu chuẩn và điều kiện sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Có năng lực hành vi dân sự đầy đủ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không thuộc đối tượng bị cấm thành
+lập và quản lý doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thành viên, cổ đông là công ty có phần
+vốn góp hay cổ phần do Nhà nước nắm giữ trên 50% vốn điều lệ không được cử vợ
+hoặc chồng, cha đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị
+ruột, em ruột của người quản lý và của người có thẩm quyền bổ nhiệm người quản
+lý công ty làm người đại diện theo ủy quyền tại công ty khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Các tiêu chuẩn và điều kiện khác do
+Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_16"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 16. Trách nhiệm
+của ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i đại diện theo ủy quyền của chủ
+sở hữu, thành viên, cổ đông &lt;span style="background:white"&gt;là&lt;/span&gt; tổ chức&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Người đại diện theo ủy quyền nhân danh
+chủ sở hữu, thành viên, cổ đông thực hiện các quyền và nghĩa vụ của chủ sở hữu,
+thành viên, cổ đông tại Hội đồng thành viên, Đại hội đồng cổ đông theo quy định
+của Luật này. Mọi hạn chế của chủ sở hữu, thành viên, cổ đông đối &lt;span style="background:white"&gt;với&lt;/span&gt; người đại diện theo ủy quyền trong việc
+thực hiện các quyền, nghĩa vụ của chủ sở hữu, thành viên, cổ đông tương ứng tại
+Hội đồng thành viên, Đại hội đồng cổ đông đều không có hiệu lực đối với bên thứ
+ba.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Người đại diện theo ủy quyền có trách
+nhiệm tham dự đầy đủ cuộc họp của Hội đồng thành viên, Đại hội đồng cổ đông;
+thực hiện các quyền và nghĩa vụ được ủy quyền một cách trung thực, cẩn trọng,
+tốt nhất, bảo vệ lợi ích hợp pháp của chủ sở hữu, thành viên, cổ đông ủy quyền.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Người đại diện theo ủy quyền chịu trách
+nhiệm trước chủ sở hữu, thành viên, cổ đông ủy quyền do vi phạm các nghĩa vụ
+quy định tại Điều này. Chủ sở hữu, thành viên, cổ đông ủy quyền chịu trách nhiệm
+trước bên thứ ba đối &lt;span style="background:white"&gt;với&lt;/span&gt; trách nhiệm phát
+sinh liên quan đến quyền và nghĩa vụ được thực hiện thông qua người đại diện
+theo ủy quyền.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_17"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 17. Các hành
+vi bị nghiêm cấm&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cấp hoặc từ chối cấp Giấy chứng
+nhận đăng ký doanh nghiệp, yêu cầu người thành lập doanh nghiệp nộp thêm giấy
+tờ khác trái với quy định của Luật này; gây chậm trễ, phiền hà, cản trở, sách
+nhiễu người thành lập doanh nghiệp và hoạt động kinh doanh của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Ngăn cản chủ sở hữu, thành viên,
+cổ đông của doanh nghiệp thực hiện các quyền, nghĩa vụ theo quy định của Luật
+này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Hoạt động kinh doanh dưới hình
+thức doanh nghiệp mà không &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; hoặc
+tiếp tục kinh doanh khi đã bị thu hồi Giấy chứng nhận &lt;span style="background:
+white"&gt;đăng ký&lt;/span&gt; doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Kê khai không trung thực, không chính
+xác nội dung hồ sơ &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp
+và nội dung hồ sơ đăng ký thay đổi nội dung đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Kê khai khống vốn điều lệ, không góp
+đủ số vốn điều lệ như đã đăng ký; cố ý định giá tài sản góp vốn không đúng giá
+trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Kinh doanh các ngành, nghề cấm đầu
+tư kinh doanh; kinh doanh ngành, nghề đầu tư kinh doanh có điều kiện khi chưa
+đủ các điều kiện kinh doanh theo quy định của Luật đầu tư hoặc không bảo đảm
+duy trì đủ điều kiện kinh doanh trong quá trình hoạt động.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Rửa tiền, lừa đảo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888910" class="clsBookmark" name="chuong_2" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888910')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888910')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Chương II&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_18"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 18. Quyền thành
+lập, góp vốn, mua cổ phần, mua phần vốn góp và quản lý doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tổ chức, cá nhân có quyền thành
+lập và quản lý doanh nghiệp tại Việt Nam theo quy định của Luật này, trừ trường
+hợp quy định tại khoản 2 Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tổ chức, cá nhân sau đây không có quyền
+thành lập và quản lý doanh nghiệp tại Việt Nam:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Cơ quan nhà nước, đơn vị vũ trang nhân
+dân sử dụng tài sản nhà nước để thành lập doanh nghiệp kinh doanh thu lợi riêng
+cho cơ quan, đơn vị mình;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Cán bộ, công chức, viên chức theo quy
+định của pháp luật về cán bộ, công chức, viên chức;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Sĩ quan, hạ sĩ quan, quân nhân chuyên
+nghiệp, công nhân, viên chức quốc phòng &lt;span style="background:white"&gt;trong&lt;/span&gt;
+các cơ quan, đơn vị thuộc Quân đội nhân dân; sĩ quan, hạ sĩ quan chuyên nghiệp &lt;span style="background:white"&gt;trong&lt;/span&gt; các cơ quan, đơn vị thuộc Công an nhân dân
+Việt Nam, trừ những người được cử làm đại diện theo ủy quyền để quản lý phần
+vốn góp của Nhà nước tại doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Cán bộ lãnh đạo, quản lý nghiệp vụ
+trong doanh nghiệp nhà nước, trừ những người được cử làm đại diện theo ủy quyền
+để quản lý phần vốn góp của Nhà nước tại doanh nghiệp khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Người chưa thành niên; người bị
+hạn chế năng lực hành vi dân sự hoặc bị mất năng lực hành vi dân sự; tổ chức
+không có tư cách pháp nhân;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Người đang bị truy cứu trách nhiệm
+hình sự, chấp hành hình phạt tù, quyết định xử lý hành chính tại cơ sở cai
+nghiện bắt buộc, cơ sở giáo dục bắt buộc hoặc đang bị cấm hành nghề kinh doanh,
+đảm nhiệm chức vụ hoặc làm công việc nhất định, liên quan đến kinh doanh theo
+quyết định của Tòa án; các trường hợp khác theo quy định của pháp luật về phá
+sản, phòng, chống tham nhũng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp Cơ quan &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; kinh doanh có yêu cầu, người đăng ký thành
+lập doanh nghiệp phải nộp Phiếu lý lịch tư pháp cho Cơ quan đăng ký kinh doanh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tổ chức, cá nhân có quyền góp vốn,
+mua cổ phần, mua phần vốn góp vào công ty cổ phần, công ty trách nhiệm hữu hạn,
+công ty hợp danh theo quy định của Luật này, trừ trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Cơ quan nhà nước, đơn vị vũ trang nhân
+dân sử dụng tài sản nhà nước góp vốn vào doanh nghiệp để thu lợi riêng cho cơ
+quan, đơn vị mình;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Các đối tượng không được góp vốn vào
+doanh nghiệp theo quy định của pháp luật về cán bộ, công chức.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Thu lợi riêng cho cơ quan, đơn vị mình
+theo điểm a khoản 2 và điểm a khoản 3 Điều này là việc sử dụng thu nhập dưới
+mọi hình thức có được từ hoạt động kinh doanh, từ góp vốn, mua cổ phần, mua
+phần vốn góp vào một &lt;span style="background:white"&gt;trong&lt;/span&gt; các mục đích
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chia dưới mọi hình thức cho một số
+hoặc tất cả những người &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại điểm
+b và điểm c khoản 2 Điều này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Bổ sung vào ngân sách hoạt động
+của cơ quan, đơn vị trái với quy định của pháp luật về ngân sách nhà nước;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Lập quỹ hoặc bổ sung vào quỹ phục vụ
+lợi ích riêng của cơ quan, đơn vị.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_19"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 19. &lt;span style="background:white"&gt;Hợp đồng&lt;/span&gt; trước đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Người thành lập doanh nghiệp được ký
+các loại hợp đồng phục vụ cho việc thành lập và hoạt động của doanh nghiệp trước
+và trong quá trình đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp doanh nghiệp được thành
+lập thì doanh nghiệp phải tiếp tục thực hiện quyền và nghĩa vụ phát sinh từ hợp
+đồng đã ký kết quy định tại khoản 1 Điều này, trừ trường hợp các bên hợp đồng có
+thỏa thuận khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp doanh nghiệp không được
+đăng ký thành lập thì người ký kết hợp đồng theo quy định tại khoản 1 Điều này chịu
+trách nhiệm hoặc người thành lập doanh nghiệp liên đới chịu trách nhiệm thực
+hiện hợp đồng đó.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888913" class="clsBookmark" name="dieu_20" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888913')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888913')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 20. Hồ sơ đăng
+ký doanh nghiệp của doanh nghiệp tư nhân&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935933" class="clsBookmark" name="khoan_1_20" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935933')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935933')"&gt;&lt;span lang="VI"&gt;1. Giấy đề nghị đăng
+ký doanh nghiệp.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Bản sao Thẻ căn cước công dân,
+Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá nhân hợp pháp khác của
+chủ doanh nghiệp tư nhân.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888914" class="clsBookmark" name="dieu_21" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888914')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888914')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 21. Hồ sơ đăng
+ký doanh nghiệp của công ty hợp danh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935934" class="clsBookmark" name="khoan_1_21" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935934')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935934')"&gt;&lt;span lang="VI"&gt;1. Giấy đề nghị đăng
+ký doanh nghiệp.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Danh sách thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Bản sao Thẻ căn cước công dân,
+Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá nhân hợp pháp khác của
+các thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Bản sao Giấy chứng nhận đăng ký
+đầu tư đối với nhà đầu tư nước ngoài theo quy định của Luật đầu tư.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888915" class="clsBookmark" name="dieu_22" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888915')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888915')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 22. Hồ sơ đăng
+ký doanh nghiệp của công ty trách nhiệm hữu hạn&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935935" class="clsBookmark" name="khoan_1_22" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935935')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935935')"&gt;&lt;span lang="VI"&gt;1. Giấy đề nghị đăng
+ký doanh nghiệp.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Danh sách thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Bản sao các giấy tờ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thẻ căn cước công dân, Giấy chứng minh
+nhân dân, Hộ chiếu hoặc chứng thực cá nhân hợp pháp khác của các thành viên là
+cá nhân;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định thành lập, Giấy chứng nhận
+đăng ký doanh nghiệp hoặc tài liệu tương đương khác của tổ chức và văn bản ủy
+quyền; Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực
+cá nhân hợp pháp khác của người đại diện theo ủy quyền của thành viên là tổ
+chức.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Đối &lt;span style="background:white"&gt;với&lt;/span&gt;
+thành viên là tổ chức nước ngoài thì bản sao Giấy chứng nhận đăng ký doanh
+nghiệp hoặc tài liệu tương đương phải được hợp pháp hóa lãnh sự;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Giấy chứng nhận đăng ký đầu tư đối
+&lt;span style="background:white"&gt;với&lt;/span&gt; nhà đầu tư nước ngoài theo quy định
+của Luật đầu tư.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888916" class="clsBookmark" name="dieu_23" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888916')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888916')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 23. Hồ sơ đăng
+ký doanh nghiệp của công ty cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935936" class="clsBookmark" name="khoan_1_23" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935936')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935936')"&gt;&lt;span lang="VI"&gt;1. Giấy đề nghị đăng
+ký doanh nghiệp.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Danh sách cổ đông sáng lập và cổ đông
+là nhà đầu tư nước ngoài.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Bản sao các giấy tờ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thẻ căn cước công dân, Giấy chứng minh
+nhân dân, Hộ chiếu hoặc chứng thực cá nhân hợp pháp khác của các cổ đông sáng
+lập và cổ đông là nhà &lt;span style="background:white"&gt;đầu tư&lt;/span&gt; nước ngoài
+là cá nhân;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định thành lập, Giấy chứng nhận
+đăng ký doanh nghiệp hoặc tài liệu tương đương khác của tổ chức và văn bản ủy
+quyền; Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực
+cá nhân hợp pháp khác &lt;span style="background:white"&gt;của&lt;/span&gt; người đại diện
+theo ủy quyền của cổ đông sáng lập và cổ đông là nhà đầu tư nước ngoài là tổ
+chức.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Đối với cổ đông là tổ chức nước ngoài
+thì bản sao Giấy chứng nhận đăng ký doanh nghiệp hoặc tài liệu tương đương phải
+được &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt; hóa lãnh sự;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Giấy chứng nhận đăng ký đầu tư đối
+với nhà đầu tư nước ngoài theo quy định của Luật đầu tư.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_24"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 24. Nội dung
+giấy đề nghị đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tên doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Địa chỉ trụ sở chính của doanh nghiệp;
+số điện thoại, số fax, thư điện tử (nếu có).&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="khoan_3_24"&gt;&lt;span lang="VI"&gt;3. Ngành, nghề
+kinh doanh.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Vốn điều lệ; vốn đầu tư của chủ doanh
+nghiệp tư nhân.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Các loại cổ phần, mệnh giá mỗi
+loại cổ phần và tổng số cổ phần được quyền chào bán của từng loại cổ phần đối
+với công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Thông tin đăng ký thuế.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Số lượng lao động.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Họ, tên, chữ ký, địa chỉ thường trú,
+quốc tịch, số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc
+chứng thực cá nhân &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt; khác của chủ
+doanh nghiệp tư nhân và thành viên hợp danh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Họ, tên, chữ ký, địa chỉ thường trú,
+quốc tịch, số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc
+chứng thực cá nhân &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt; khác của người
+đại diện theo pháp luật của doanh nghiệp đối với công ty trách nhiệm hữu hạn và
+công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_25"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 25. Điều lệ
+công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Điều lệ công ty bao gồm Điều lệ khi
+đăng ký doanh nghiệp và Điều lệ được &lt;span style="background:white"&gt;sửa đổi&lt;/span&gt;,
+bổ sung trong quá trình hoạt động.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Điều lệ công ty có các nội dung chủ
+yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, địa chỉ trụ sở chính của công
+ty; tên, địa chỉ chi nhánh và văn phòng đại diện (nếu có);&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;b) Ngành, nghề kinh doanh;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Vốn điều lệ; tổng số cổ phần, loại
+cổ phần và mệnh giá từng loại cổ phần đối với công ty cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên, địa chỉ, quốc tịch và các
+đặc điểm cơ bản khác của các thành viên hợp danh đối với công ty hợp danh; của chủ
+sở hữu công ty, thành viên đối với công ty trách nhiệm hữu hạn; của cổ đông sáng
+lập đối với công ty cổ phần; phần vốn góp và giá trị vốn góp của mỗi thành viên
+đối với công ty trách nhiệm hữu hạn và công ty hợp danh; số cổ phần, loại cổ
+phần, mệnh giá cổ phần từng loại của cổ đông sáng lập;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Quyền và nghĩa vụ của thành viên
+đối với công ty trách nhiệm hữu hạn, công ty hợp danh; của cổ đông đối với công
+ty cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Cơ cấu tổ chức quản lý;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Người đại diện theo pháp luật đối &lt;span style="background:white"&gt;với&lt;/span&gt; công ty trách nhiệm hữu hạn, công ty cổ
+phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Thể thức thông qua quyết định của công
+ty; nguyên tắc giải quyết tranh chấp nội bộ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Căn cứ và phương pháp xác định thù
+lao, tiền lương và thưởng cho người quản lý và Kiểm soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;k) Những trường hợp thành viên có
+quyền yêu cầu công ty mua lại phần vốn góp đối với công ty trách nhiệm hữu hạn
+hoặc cổ phần đối với công ty cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;l) Nguyên tắc phân chia lợi nhuận sau
+thuế và xử lý lỗ &lt;span style="background:white"&gt;trong&lt;/span&gt; kinh doanh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;m) Các trường hợp giải thể, trình tự giải
+thể và thủ tục thanh lý tài sản công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;n) Thể thức sửa đổi, bổ sung Điều lệ
+công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Điều lệ khi &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp phải có họ, tên và chữ ký của
+những người sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Các thành viên hợp danh đối với công
+ty hợp danh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chủ sở hữu công ty là cá nhân hoặc
+người đại diện theo pháp luật của chủ sở hữu công ty là tổ chức đối với công ty
+trách nhiệm hữu hạn một thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thành viên là cá nhân và người đại
+diện theo pháp luật hoặc người đại diện theo ủy quyền của thành viên là tổ chức
+đối với công ty trách nhiệm hữu hạn hai thành viên trở lên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Cổ đông sáng lập là cá nhân và
+người đại diện theo pháp luật hoặc người đại diện theo ủy quyền của cổ đông
+sáng lập là tổ chức đối với công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Điều lệ được sửa đổi, bổ sung phải
+có họ, tên và chữ ký của những người sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chủ tịch Hội đồng thành viên đối
+với công ty hợp danh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chủ sở hữu, người đại diện theo pháp
+luật của chủ sở hữu hoặc người đại diện theo pháp luật đối với công ty trách
+nhiệm hữu hạn một thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Người đại diện theo pháp luật đối với
+công ty trách nhiệm hữu hạn hai thành viên trở lên và công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_26"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 26. Danh sách
+thành viên công ty trách nhiệm hữu hạn, công ty hợp danh, danh sách cổ đông
+sáng lập đối &lt;span style="background:white"&gt;với&lt;/span&gt; công ty cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Danh sách thành viên công ty trách nhiệm
+hữu hạn, công ty hợp danh, danh sách cổ đông sáng lập và cổ đông là nhà đầu tư
+nước ngoài đối với công ty cổ phần được lập phải có các nội dung chủ yếu sau
+đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Họ, tên, chữ ký, địa chỉ, quốc
+tịch, địa chỉ thường trú và các đặc điểm cơ bản khác của thành viên là cá nhân
+đối với công ty trách nhiệm hữu hạn và công ty hợp danh; của cổ đông sáng lập
+và cổ đông là nhà đầu tư nước ngoài là cá nhân đối với công ty cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tên, mã số doanh nghiệp và địa chỉ
+trụ sở chính của thành viên là tổ chức đối với công ty trách nhiệm hữu hạn và công
+ty hợp danh; của cổ đông sáng lập và cổ đông là nhà đầu tư nước ngoài là tổ
+chức đối với công ty cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Họ, tên, chữ ký, địa chỉ, quốc
+tịch, địa chỉ thường trú của người đại diện theo ủy quyền hoặc đại diện theo
+pháp luật của thành viên là tổ chức đối với công ty trách nhiệm hữu hạn; của cổ
+đông sáng lập và cổ đông là nhà đầu tư nước ngoài là tổ chức đối với công ty cổ
+phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Phần vốn góp, giá trị vốn góp,
+loại tài sản, số lượng, giá trị của từng loại tài sản góp vốn, thời hạn góp vốn
+phần vốn góp của từng thành viên đối với công ty trách nhiệm hữu hạn, công ty
+hợp danh; số lượng cổ phần, loại cổ phần, loại tài sản, số lượng tài sản, giá
+trị của từng loại tài sản góp vốn cổ phần của từng cổ đông sáng lập và cổ đông
+là nhà đầu tư nước ngoài đối với công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_27"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 27. Trình
+tự, thủ tục đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="khoan_1_27"&gt;&lt;span lang="VI"&gt;1. Người thành
+lập doanh nghiệp hoặc người được ủy quyền gửi hồ sơ đăng ký doanh nghiệp theo
+quy định tại Luật này cho Cơ quan đăng ký kinh doanh.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935222" class="clsBookmark" name="khoan_2_27" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935222')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935222')"&gt;2. Cơ quan đăng ký kinh doanh
+có trách nhiệm xem xét tính hợp lệ của hồ sơ đăng ký doanh nghiệp và cấp Giấy
+chứng nhận đăng ký doanh nghiệp trong thời hạn 03 ngày làm việc, kể từ ngày
+nhận hồ sơ. Trường hợp từ chối cấp Giấy chứng nhận đăng ký doanh nghiệp thì
+phải thông báo bằng văn bản cho người thành lập doanh nghiệp biết. Thông báo
+phải nêu rõ lý do và các yêu cầu sửa đổi, bổ sung hồ sơ.&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935223" class="clsBookmark" name="khoan_3_27" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935223')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935223')"&gt;3. Chính phủ quy định chi tiết
+trình tự, thủ tục, hồ sơ đăng ký doanh nghiệp, sự phối hợp liên thông giữa các
+cơ quan trong cấp Giấy chứng nhận đăng ký doanh nghiệp, đăng ký lao động, bảo
+hiểm xã hội và đăng ký doanh nghiệp qua mạng thông tin điện tử.&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888921" class="clsBookmark" name="dieu_28" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888921')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888921')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 28. Cấp
+Giấy chứng nhận đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp được cấp Giấy chứng nhận
+đăng ký doanh nghiệp khi có đủ các điều kiện sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Ngành, nghề đăng ký kinh doanh không
+bị cấm đầu tư kinh doanh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tên của doanh nghiệp được đặt theo
+đúng quy định tại các Điều 38, 39, 40 và 42 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Có hồ sơ đăng ký doanh nghiệp hợp lệ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935224" class="clsBookmark" name="diem_1_28_4" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935224')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935224')"&gt;&lt;span lang="VI"&gt;d) Nộp đủ lệ phí
+đăng ký doanh nghiệp theo quy định pháp luật về phí và lệ phí.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935225" class="clsBookmark" name="khoan_2_28" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935225')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935225')"&gt;2. Trường hợp Giấy chứng nhận
+đăng ký doanh nghiệp bị mất, bị hủy hoại, bị hư hỏng hoặc bị tiêu hủy dưới hình
+thức khác, doanh nghiệp được cấp lại Giấy chứng nhận đăng ký doanh nghiệp và
+phải trả lệ phí theo quy định pháp luật về phí và lệ phí.&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_29"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 29. Nội dung
+Giấy chứng nhận đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tên doanh nghiệp và mã số doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Địa chỉ trụ sở chính &lt;span style="background:white"&gt;của&lt;/span&gt; doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác của người đại diện theo pháp luật của doanh nghiệp đối với
+công ty trách nhiệm hữu hạn và công ty cổ phần; của các thành viên hợp danh đối
+với công ty hợp danh; của chủ doanh nghiệp đối &lt;span style="background:white"&gt;với&lt;/span&gt;
+doanh nghiệp tư nhân; họ, tên, địa chỉ thường trú, quốc tịch, số Thẻ căn cước
+công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá nhân &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt; khác của thành viên là cá nhân; tên,
+mã số doanh nghiệp và địa chỉ trụ sở chính của thành viên là tổ chức đối với
+công ty trách nhiệm hữu hạn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Vốn điều lệ.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888923" class="clsBookmark" name="dieu_30" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888923')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888923')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 30. Mã số doanh
+nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Mã số doanh nghiệp là dãy số được tạo
+bởi Hệ thống thông tin quốc gia về đăng ký doanh nghiệp, được cấp cho doanh nghiệp
+khi thành lập và được ghi trên Giấy chứng nhận đăng ký doanh nghiệp. Mỗi doanh
+nghiệp có một mã số duy nhất và không được sử dụng lại để cấp cho doanh nghiệp
+khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Mã số doanh nghiệp được dùng để
+thực hiện các nghĩa vụ về thuế, thủ tục hành chính và quyền, nghĩa vụ khác.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-702334" class="clsBookmark" name="dieu_31" onclick="LS_Tip_Type_Bookmark('.lqhlTip-702334')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-702334')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 31. Đăng ký
+thay đổi nội dung Giấy chứng nhận đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp phải đăng ký với Cơ quan
+đăng ký kinh doanh khi thay đổi nội dung Giấy chứng nhận đăng ký doanh nghiệp
+quy định tại Điều 29 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Người đại diện theo pháp luật của doanh
+nghiệp chịu trách nhiệm đăng ký thay đổi nội dung Giấy chứng nhận &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp trong thời hạn 10 ngày, kể
+từ ngày có thay đổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cơ quan đăng ký kinh doanh có trách
+nhiệm xem xét tính hợp lệ của hồ sơ và cấp Giấy chứng nhận đăng ký doanh nghiệp
+mới trong thời hạn 03 ngày làm việc, kể từ ngày nhận được hồ sơ. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt; từ chối thì phải thông báo bằng văn bản
+cho doanh nghiệp biết. Thông báo phải nêu rõ lý do; các yêu cầu sửa đổi, bổ sung
+(nếu có).&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935937" class="clsBookmark" name="khoan_4_31" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935937')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935937')"&gt;4. Đăng ký thay đổi nội dung
+Giấy chứng nhận đăng ký doanh nghiệp theo quyết định của Tòa án hoặc Trọng tài
+thực hiện theo trình tự, thủ tục sau đây:&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Người đề nghị đăng ký thay đổi nội
+dung Giấy chứng nhận đăng ký doanh nghiệp gửi đề nghị &lt;span style="background:
+white"&gt;đăng ký&lt;/span&gt; thay đổi đến Cơ quan đăng ký kinh doanh có thẩm quyền trong
+thời hạn 15 ngày làm việc, kể từ ngày bản án hoặc quyết định có hiệu lực thi
+hành. Kèm theo đăng ký phải có bản sao bản án hoặc quyết định đã có hiệu lực
+thi hành;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Cơ quan đăng ký kinh doanh có trách
+nhiệm xem xét và cấp Giấy chứng nhận đăng ký doanh nghiệp mới theo nội dung bản
+án hoặc quyết định đã có hiệu lực thi hành &lt;span style="background:white"&gt;trong&lt;/span&gt;
+thời hạn 03 ngày làm việc, kể từ ngày nhận được đề nghị đăng ký. Trường hợp từ
+chối thì phải thông báo bằng văn bản cho người đề nghị đăng ký thay đổi biết.
+Thông báo phải nêu rõ lý do; các yêu cầu sửa đổi, bổ sung hồ sơ (nếu có).&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-702335" class="clsBookmark" name="dieu_32" onclick="LS_Tip_Type_Bookmark('.lqhlTip-702335')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-702335')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 32. Thông báo
+thay đổi nội dung đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp phải thông báo với Cơ
+quan đăng ký kinh doanh khi thay đổi về một &lt;span style="background:white"&gt;trong&lt;/span&gt;
+những nội dung sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;a) Thay đổi ngành, nghề kinh doanh;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thay đổi cổ đông sáng lập đối với công
+ty cổ phần và cổ đông là nhà đầu tư nước ngoài, trừ trường hợp đối với công ty
+niêm yết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thay đổi những nội dung khác trong
+hồ sơ đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Người đại diện theo pháp luật của doanh
+nghiệp chịu trách nhiệm thông báo thay đổi nội dung đăng ký doanh nghiệp &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 10 ngày, kể từ ngày có thay đổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty phải thông báo bằng văn
+bản đến Cơ quan đăng ký &lt;span style="background:white"&gt;kinh&lt;/span&gt; doanh nơi
+công ty đặt trụ sở chính &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn
+10 ngày, kể từ ngày có thay đổi đối với cổ đông là nhà đầu tư nước ngoài được
+đăng ký &lt;span style="background:white"&gt;trong&lt;/span&gt; Sổ đăng ký cổ đông của công
+ty. Thông báo phải có nội dung sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Đối với cổ đông là nhà đầu tư nước
+ngoài chuyển nhượng cổ phần: tên, địa chỉ trụ sở chính của cổ đông nước ngoài là
+tổ chức; họ, tên, quốc tịch, địa chỉ của cổ đông là cá nhân; số cổ phần, loại
+cổ phần và tỷ lệ sở hữu cổ phần hiện có của họ trong công ty; số cổ phần và
+loại cổ phần chuyển nhượng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Đối với cổ đông là nhà đầu tư nước
+ngoài nhận chuyển nhượng: tên, địa chỉ trụ sở chính của cổ đông nước ngoài là
+tổ chức; họ, tên, quốc tịch, địa chỉ của cổ đông là cá nhân; số cổ phần và loại
+cổ phần nhận chuyển nhượng; số cổ phần, loại cổ phần và tỷ lệ sở hữu cổ phần
+tương ứng của họ &lt;span style="background:white"&gt;trong&lt;/span&gt; công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên, chữ ký của người đại diện
+theo pháp luật của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cơ quan đăng ký kinh doanh có trách
+nhiệm xem xét tính hợp lệ của hồ sơ và thực hiện thay đổi nội dung đăng ký
+doanh nghiệp &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 03 ngày làm
+việc, kể từ ngày nhận được thông báo. Trường hợp từ chối bổ sung vào hồ sơ đăng
+ký doanh nghiệp thì thông báo bằng văn bản cho doanh nghiệp biết. Thông báo
+phải nêu rõ lý do; các yêu cầu sửa đổi, bổ sung (nếu có).&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="khoan_5_32"&gt;&lt;span lang="VI"&gt;5. Đăng ký thay đổi
+nội dung đăng ký doanh nghiệp theo quyết định của Tòa án hoặc Trọng tài thực
+hiện theo trình tự, thủ tục sau đây:&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Người đề nghị đăng ký thay đổi nội
+dung đăng ký doanh nghiệp gửi Thông báo đăng ký thay đổi đến Cơ quan đăng ký kinh
+doanh có thẩm quyền trong thời hạn 10 ngày làm việc, kể từ ngày bản án hoặc
+quyết định có hiệu lực thi hành. Kèm theo thông báo, phải có bản sao bản án
+hoặc &lt;span style="background:white"&gt;quyết&lt;/span&gt; định đã có hiệu lực thi hành;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Cơ quan &lt;span style="background:
+white"&gt;đăng ký&lt;/span&gt; kinh doanh có trách nhiệm xem xét và thực hiện thay đổi
+nội dung đăng ký doanh nghiệp theo nội dung bản án hoặc quyết định đã có hiệu
+lực thi hành &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 03 ngày làm
+việc, kể từ ngày nhận được thông báo. Trường hợp từ chối bổ sung, sửa đổi thông
+tin theo nội dung thông báo thay đổi đăng ký doanh nghiệp thì thông báo bằng
+văn bản cho người đề nghị đăng ký thay đổi biết. Thông báo phải nêu rõ lý do;
+các yêu cầu sửa đổi, bổ sung hồ sơ (nếu có).&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888924" class="clsBookmark" name="dieu_33" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888924')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888924')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 33. Công bố
+nội dung đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp sau khi được cấp Giấy
+chứng nhận đăng ký doanh nghiệp, phải thông báo công khai trên Cổng thông tin quốc
+gia về &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp theo &lt;span style="background:white"&gt;trình&lt;/span&gt; tự, thủ tục và phải trả phí theo quy
+định. Nội dung công bố bao gồm các nội dung Giấy chứng nhận đăng ký doanh
+nghiệp và các thông tin sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;a) Ngành, nghề kinh doanh;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Danh sách cổ đông sáng lập và cổ đông
+là nhà đầu tư nước ngoài đối với công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp thay đổi nội dung đăng ký
+doanh nghiệp, những thay đổi tương ứng phải được thông báo công khai trên Cổng
+thông tin quốc gia về đăng ký doanh nghiệp trong thời hạn quy định tại khoản 3
+Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thời hạn thông báo công khai các thông
+tin về doanh nghiệp quy định tại khoản 1 và khoản 2 Điều này là 30 ngày, kể từ
+ngày được công khai.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888925" class="clsBookmark" name="dieu_34" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888925')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888925')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 34. Cung
+cấp thông tin về nội dung đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Trong thời hạn 05 ngày làm việc,
+kể từ ngày cấp Giấy chứng nhận đăng ký doanh nghiệp hoặc thay đổi nội dung đăng
+ký doanh nghiệp, Cơ quan đăng ký kinh doanh phải gửi thông tin đăng ký doanh
+nghiệp và thay đổi nội dung &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh
+nghiệp đó cho cơ quan thuế, cơ quan thống kê, cơ quan quản lý lao động, cơ quan
+bảo hiểm xã hội; định kỳ gửi thông tin đăng ký doanh nghiệp và thay đổi nội
+dung đăng ký doanh nghiệp cho cơ quan nhà nước có thẩm quyền khác cùng cấp, &lt;span style="background:white"&gt;Ủy ban&lt;/span&gt; nhân dân huyện, quận, thị xã, thành phố thuộc
+tỉnh (sau đây gọi chung là cấp huyện) nơi doanh nghiệp đặt trụ sở chính.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tổ chức, cá nhân có quyền đề nghị Cơ
+quan đăng ký kinh doanh cung cấp các thông tin mà doanh nghiệp phải công khai
+theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cơ quan đăng ký kinh doanh có nghĩa
+vụ cung cấp đầy đủ và kịp thời thông tin theo quy định tại khoản 2 Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chính phủ quy định chi tiết Điều
+này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_35"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 35. Tài sản
+góp vốn&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tài sản góp vốn có thể là Đồng
+Việt Nam, ngoại tệ tự do chuyển đổi, vàng, giá trị quyền sử dụng đất, giá trị
+quyền sở hữu trí tuệ, công nghệ, bí quyết kỹ thuật, các tài sản khác có thể
+định giá được bằng Đồng Việt Nam.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Quyền sở hữu trí tuệ được sử dụng để
+góp vốn bao gồm quyền tác giả, quyền liên quan đến quyền tác giả, quyền sở hữu
+công nghiệp, quyền đối với giống cây trồng và các quyền sở hữu trí tuệ khác theo
+quy định của pháp luật về sở hữu trí tuệ. Chỉ cá nhân, tổ chức là chủ sở hữu &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt; đối với các quyền nói trên mới có
+quyền sử dụng các tài sản đó để góp vốn.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_36"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 36. Chuyển quyền
+sở hữu tài sản góp vốn&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên công ty trách nhiệm hữu
+hạn, công ty hợp danh và cổ đông công ty cổ phần phải chuyển quyền sở hữu tài
+sản góp vốn cho công ty theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Đối với tài sản có đăng ký quyền
+sở hữu hoặc giá trị quyền sử dụng đất thì người góp vốn phải làm thủ tục chuyển
+quyền sở hữu tài sản đó hoặc quyền sử dụng đất cho công ty tại cơ quan nhà nước
+có thẩm quyền.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Việc chuyển quyền sở hữu đối với tài sản
+góp vốn không phải chịu lệ phí trước bạ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Đối với tài sản không đăng ký
+quyền sở hữu, việc góp vốn phải được thực hiện bằng việc giao nhận tài sản góp
+vốn có xác nhận bằng biên bản.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Biên bản giao nhận phải ghi rõ tên và
+địa chỉ trụ sở chính của công ty; họ, tên, địa chỉ thường trú, số Thẻ căn cước công
+dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá nhân hợp pháp khác,
+số quyết định thành lập hoặc &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; của
+người góp vốn; loại tài sản và số đơn vị tài sản góp vốn; tổng giá trị tài sản
+góp vốn và tỷ lệ của tổng giá trị tài sản đó trong vốn điều lệ của công ty; ngày
+giao nhận; chữ ký của người góp vốn hoặc đại diện theo ủy quyền của người góp
+vốn và người đại diện theo pháp luật của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Cổ phần hoặc phần vốn góp bằng tài
+sản không phải là Đồng Việt Nam, ngoại tệ tự do chuyển đổi, vàng chỉ được coi là
+thanh toán xong khi quyền sở hữu &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt;
+đối với tài sản góp vốn đã chuyển sang công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tài sản được sử dụng vào hoạt động
+kinh doanh của chủ doanh nghiệp tư nhân không phải làm thủ tục chuyển quyền sở hữu
+cho doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thanh toán mọi hoạt động mua, bán,
+chuyển nhượng cổ phần và phần vốn góp và nhận cổ tức của nhà đầu tư nước ngoài đều
+phải được thực hiện thông qua tài khoản vốn của nhà đầu tư đó mở tại ngân hàng
+ở Việt Nam, trừ &lt;span style="background:white"&gt;trường hợp&lt;/span&gt; thanh toán
+bằng tài sản.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_37"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 37. Định giá
+tài sản góp vốn&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tài sản góp vốn không phải là Đồng
+Việt Nam, ngoại tệ tự do chuyển đổi, vàng phải được các thành viên, cổ đông sáng
+lập hoặc tổ chức thẩm định giá chuyên nghiệp định giá và được thể hiện thành
+Đồng Việt Nam.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tài sản góp vốn khi thành lập doanh
+nghiệp phải được các thành viên, cổ đông sáng lập định giá theo nguyên tắc nhất
+trí hoặc do một tổ chức thẩm định giá chuyên nghiệp định giá. Trường hợp tổ
+chức thẩm định giá chuyên nghiệp định giá thì giá trị tài sản góp vốn phải được
+đa số các thành viên, cổ đông sáng lập chấp thuận.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp tài sản góp vốn được định giá
+cao hơn so với giá trị thực tế tại thời điểm góp vốn thì các thành viên, cổ đông
+sáng lập cùng liên đới góp thêm bằng số chênh lệch giữa giá trị được định giá
+và giá trị thực tế của tài sản góp vốn tại thời điểm kết thúc định giá; đồng
+thời liên đới chịu trách nhiệm đối với thiệt hại do cố ý định giá tài sản góp vốn
+cao hơn giá trị thực tế.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tài sản góp vốn trong quá trình
+hoạt động do chủ sở hữu, Hội đồng thành viên đối &lt;span style="background:white"&gt;với&lt;/span&gt;
+công ty trách nhiệm hữu hạn và công ty hợp danh, Hội đồng quản trị đối với công
+ty cổ phần và người góp vốn thỏa thuận định giá hoặc do một tổ chức thẩm định giá
+chuyên nghiệp định giá. Trường hợp tổ chức thẩm định giá chuyên nghiệp định giá
+thì giá trị tài sản góp vốn phải được người góp vốn và doanh nghiệp chấp thuận.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;Trường hợp&lt;/span&gt;&lt;span lang="VI"&gt; nếu tài sản góp vốn được định giá cao hơn giá trị thực tế tại thời
+điểm góp vốn thì người góp vốn, chủ sở hữu, thành viên Hội đồng thành viên đối
+với công ty trách nhiệm hữu hạn và công ty hợp danh, thành viên Hội đồng quản
+trị đối với công ty cổ phần cùng liên đới góp thêm bằng số chênh lệch giữa giá
+trị được định giá và giá trị thực tế của tài sản góp vốn tại thời điểm kết thúc
+định giá; đồng thời, liên đới chịu trách nhiệm đối với thiệt hại do việc cố ý
+định giá tài sản góp vốn cao hơn giá trị thực tế.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888929" class="clsBookmark" name="dieu_38" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888929')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888929')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 38. Tên doanh
+nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tên tiếng Việt của doanh nghiệp bao
+gồm hai thành tố theo thứ tự sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;a) Loại hình doanh nghiệp. Tên loại hình doanh
+nghiệp được viết là “công ty trách nhiệm hữu hạn” hoặc “công ty TNHH” đối với
+công ty trách nhiệm hữu hạn; được viết là “công ty cổ phần” hoặc “công ty CP”
+đối với công ty cổ phần; được viết là “công ty hợp danh” hoặc “công ty HD” đối
+với công ty hợp danh; được viết là “doanh nghiệp tư nhân”, “DNTN” hoặc “doanh
+nghiệp TN” đối với doanh nghiệp tư nhân;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tên riêng. Tên riêng được viết
+bằng các chữ cái trong bảng chữ cái tiếng Việt, các chữ F, J, Z, W, chữ số và
+ký hiệu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tên doanh nghiệp phải được gắn tại
+trụ sở chính, chi nhánh, &lt;span style="background:white"&gt;văn&lt;/span&gt; phòng đại
+diện, địa điểm kinh doanh của doanh nghiệp. Tên doanh nghiệp phải được in hoặc
+viết trên các giấy tờ giao dịch, hồ sơ tài liệu và ấn phẩm do doanh nghiệp phát
+hành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Căn cứ vào quy định tại Điều này và
+các Điều 39, 40 và 42 của Luật này, Cơ quan đăng ký kinh doanh có quyền từ chối
+chấp thuận tên dự kiến đăng ký của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_39"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 39. Những điều
+cấm trong đặt tên doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935227" class="clsBookmark" name="khoan_1_39" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935227')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935227')"&gt;1. Đặt tên trùng hoặc tên gây
+nhầm lẫn với tên của doanh nghiệp đã đăng ký được quy định tại Điều 42 của Luật
+này.&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Sử dụng tên cơ quan nhà nước, đơn vị
+vũ trang nhân dân, tên của tổ chức chính trị, tổ chức chính trị - xã hội, tổ chức
+chính trị xã hội - nghề nghiệp, tổ chức xã hội, &lt;span style="background:white"&gt;tổ
+chức&lt;/span&gt; xã hội - nghề nghiệp để làm toàn bộ hoặc một phần tên riêng của
+doanh nghiệp, trừ trường hợp có sự chấp thuận của cơ quan, đơn vị hoặc &lt;span style="background:white"&gt;tổ chức&lt;/span&gt; đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Sử dụng từ ngữ, ký hiệu vi phạm truyền
+thống lịch sử, văn hóa, đạo đức và thuần phong mỹ tục của dân tộc.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_40"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 40. Tên doanh
+nghiệp bằng tiếng nước ngoài và tên viết tắt của doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tên doanh nghiệp bằng tiếng nước ngoài
+là tên được dịch từ tên tiếng Việt sang một trong những tiếng nước ngoài hệ chữ
+La-tinh. Khi dịch sang tiếng nước ngoài, tên riêng của doanh nghiệp có thể giữ
+nguyên hoặc dịch theo nghĩa tương ứng sang tiếng nước ngoài.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;2. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; doanh nghiệp có tên bằng tiếng nước ngoài, tên bằng
+tiếng nước ngoài của doanh nghiệp được in hoặc viết với khổ chữ nhỏ hơn tên
+tiếng Việt của doanh nghiệp tại trụ sở chính, chi nhánh, văn phòng đại diện,
+địa điểm kinh doanh của doanh nghiệp hoặc trên các giấy tờ giao dịch, hồ sơ tài
+liệu và ấn phẩm do doanh nghiệp phát hành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tên viết tắt của doanh nghiệp được
+viết tắt từ tên tiếng Việt hoặc tên viết bằng tiếng nước ngoài.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888932" class="clsBookmark" name="dieu_41" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888932')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888932')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 41. Tên chi
+nhánh, văn phòng đại diện và địa điểm kinh doanh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tên chi nhánh, &lt;span style="background:white"&gt;văn&lt;/span&gt; phòng đại diện, địa điểm kinh doanh phải
+được viết bằng các chữ cái &lt;span style="background:white"&gt;trong&lt;/span&gt; bảng chữ
+cái tiếng Việt, các chữ cái F, J, Z, W, chữ số và các ký hiệu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tên chi nhánh, văn phòng đại diện phải
+mang tên doanh nghiệp kèm theo cụm từ “Chi nhánh” đối với chi nhánh, cụm từ
+“Văn phòng đại diện” đối với văn phòng đại diện.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tên chi nhánh, văn phòng đại diện,
+địa điểm kinh doanh phải được viết hoặc gắn tại trụ sở chi nhánh, văn phòng đại
+diện và địa điểm kinh doanh. Tên chi nhánh, văn phòng đại diện được in hoặc
+viết với khổ chữ nhỏ hơn tên tiếng Việt của doanh nghiệp trên các giấy tờ giao
+dịch, hồ sơ tài liệu và ấn phẩm do chi nhánh, văn phòng đại diện phát hành.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888933" class="clsBookmark" name="dieu_42" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888933')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888933')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 42. Tên trùng
+và tên gây nhầm lẫn&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tên trùng là tên tiếng Việt của doanh
+nghiệp đề nghị đăng ký được viết hoàn toàn giống với tên tiếng Việt của doanh
+nghiệp đã đăng ký.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="khoan_2_42"&gt;&lt;span lang="VI"&gt;2. Các trường
+hợp sau đây được coi là tên gây nhầm lẫn với tên của doanh nghiệp đã &lt;span style="background:white"&gt;đăng ký&lt;/span&gt;:&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên tiếng Việt của doanh nghiệp đề
+nghị đăng ký được đọc giống như tên doanh nghiệp đã đăng ký;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tên viết tắt của doanh nghiệp đề nghị
+đăng ký trùng với tên viết tắt của doanh nghiệp đã &lt;span style="background:
+white"&gt;đăng ký&lt;/span&gt;;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tên bằng tiếng nước ngoài của doanh
+nghiệp đề nghị đăng ký trùng với tên bằng tiếng nước ngoài của doanh nghiệp đã
+đăng ký;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Tên riêng của doanh nghiệp đề nghị
+đăng ký chỉ khác với tên riêng của doanh nghiệp cùng loại đã đăng ký bởi một số
+tự nhiên, số thứ tự hoặc các chữ cái trong bảng chữ cái tiếng Việt và các chữ cái
+F, J, Z, W ngay sau tên riêng của doanh nghiệp đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Tên riêng của doanh nghiệp đề nghị
+đăng ký chỉ khác với tên riêng của doanh nghiệp cùng loại đã đăng ký bởi ký hiệu
+“&amp;amp;”, “.”, “+”, “-”, “_”;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Tên riêng của doanh nghiệp đề nghị
+đăng ký chỉ khác với tên riêng của doanh nghiệp cùng loại đã đăng ký bởi từ “tân”
+ngay trước hoặc “mới” ngay sau hoặc trước tên riêng của doanh nghiệp đã đăng
+ký;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Tên riêng của doanh nghiệp đề nghị
+đăng ký chỉ khác với tên riêng của doanh nghiệp cùng loại đã đăng ký bởi từ
+“miền Bắc”, “miền Nam”, “miền Trung”, “miền Tây”, “miền Đông” hoặc từ có ý
+nghĩa tương tự.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Các trường hợp quy định tại các điểm d,
+đ, e và g của khoản này không áp dụng đối với trường hợp công ty con của công
+ty đã đăng ký.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_43"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 43. Trụ sở chính
+của doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trụ sở chính của doanh nghiệp là địa điểm
+liên lạc của doanh nghiệp trên lãnh thổ Việt Nam, có địa chỉ được xác định gồm
+số nhà, ngách, hẻm, ngõ phố, phố, đường hoặc thôn, xóm, ấp, xã, phường, thị trấn,
+huyện, quận, thị xã, thành phố thuộc tỉnh, tỉnh, thành phố trực thuộc trung
+ương; số điện thoại, số fax và thư điện tử (nếu có).&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888935" class="clsBookmark" name="dieu_44" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888935')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888935')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 44. Con dấu
+của doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-969478" class="clsBookmark" name="khoan_1_44" onclick="LS_Tip_Type_Bookmark('.lqhlTip-969478')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-969478')"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp có
+quyền quyết định về hình thức, số lượng và nội dung con dấu của doanh nghiệp.
+Nội dung con dấu phải thể hiện những thông tin sau đây:&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Mã số doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-779197" class="clsBookmark" name="khoan_2_44" onclick="LS_Tip_Type_Bookmark('.lqhlTip-779197')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-779197')"&gt;&lt;span lang="VI"&gt;2. Trước khi sử dụng,
+doanh nghiệp có nghĩa vụ thông báo mẫu con dấu với cơ quan đăng ký kinh doanh
+để đăng tải công khai trên Cổng thông tin quốc gia về đăng ký doanh nghiệp.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-969479" class="clsBookmark" name="diem_3_44" onclick="LS_Tip_Type_Bookmark('.lqhlTip-969479')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-969479')"&gt;&lt;span lang="VI"&gt;3. Việc quản lý, sử
+dụng và lưu giữ con dấu thực hiện theo quy định của Điều lệ công ty.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Con dấu được sử dụng trong các
+trường hợp theo quy định của pháp luật hoặc các bên giao dịch có thỏa thuận về
+việc sử dụng dấu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Chính phủ quy định chi tiết Điều
+này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-702348" class="clsBookmark" name="dieu_45" onclick="LS_Tip_Type_Bookmark('.lqhlTip-702348')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-702348')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 45. Chi
+nhánh, văn phòng đại diện và địa điểm kinh doanh của doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chi nhánh là đơn vị phụ thuộc của doanh
+nghiệp, có nhiệm vụ thực hiện toàn bộ hoặc một phần chức năng của doanh nghiệp
+kể cả chức năng đại diện theo ủy quyền. Ngành, nghề &lt;span style="background:
+white"&gt;kinh&lt;/span&gt; doanh của chi nhánh phải đúng với ngành, nghề kinh doanh của
+doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Văn phòng đại diện là đơn vị phụ
+thuộc của doanh nghiệp, có nhiệm vụ đại diện theo ủy quyền cho lợi ích của
+doanh nghiệp và bảo vệ các lợi ích đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="khoan_3_45"&gt;&lt;span lang="VI"&gt;3. Địa điểm kinh
+doanh là nơi mà doanh nghiệp tiến hành hoạt động kinh doanh cụ thể.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-888937" class="clsBookmark" name="dieu_46" onclick="LS_Tip_Type_Bookmark('.lqhlTip-888937')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-888937')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 46. Thành lập
+chi nhánh, văn phòng đại diện của doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp có quyền lập chi nhánh,
+văn phòng đại diện ở &lt;span style="background:white"&gt;trong&lt;/span&gt; nước và nước
+ngoài. Doanh nghiệp có thể đặt một hoặc nhiều chi nhánh, văn phòng đại diện tại
+một địa phương theo địa giới hành chính.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp lập chi nhánh, văn phòng
+đại diện &lt;span style="background:white"&gt;trong&lt;/span&gt; nước, doanh nghiệp gửi hồ
+sơ đăng ký hoạt động của chi nhánh, văn phòng đại diện đến Cơ quan đăng ký kinh
+doanh có thẩm quyền nơi doanh nghiệp đặt chi nhánh, văn phòng đại diện. Hồ sơ
+bao gồm:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thông báo lập chi nhánh, văn phòng
+đại diện;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Bản sao &lt;span style="background:
+white"&gt;quyết định&lt;/span&gt; thành lập và bản sao biên bản họp về việc thành lập chi
+nhánh, văn phòng đại diện của doanh nghiệp; bản sao Thẻ căn cước công dân, Giấy
+chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá nhân hợp pháp khác của người
+đứng đầu chi nhánh, văn phòng đại diện.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="khoan_3_46"&gt;&lt;span lang="VI"&gt;3. Cơ quan đăng ký
+kinh doanh có trách nhiệm xem xét tính hợp lệ của hồ sơ và cấp Giấy chứng nhận
+đăng ký hoạt động chi nhánh, &lt;span style="background:white"&gt;văn&lt;/span&gt; phòng đại
+diện trong thời hạn 03 ngày làm việc, kể từ ngày nhận hồ sơ; nếu từ chối cấp
+Giấy chứng nhận đăng ký hoạt động chi nhánh, văn phòng đại diện thì thông báo
+bằng &lt;span style="background:white"&gt;văn&lt;/span&gt; bản cho doanh nghiệp biết. Thông
+báo phải nêu rõ lý do; các yêu cầu sửa đổi, bổ sung (nếu có).&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cơ quan đăng ký kinh doanh cấp
+Giấy chứng nhận đăng ký hoạt động chi nhánh, văn phòng đại diện phải gửi thông
+tin cho Cơ quan đăng ký kinh doanh nơi doanh nghiệp đặt trụ sở chính và gửi
+thông tin đăng ký hoạt động chi nhánh, văn phòng đại diện cho cơ quan thuế, cơ
+quan thống kê trong thời hạn 05 ngày làm việc, kể từ ngày cấp Giấy chứng nhận
+đăng ký hoạt động chi nhánh, văn phòng đại diện; định kỳ gửi thông tin đăng ký
+hoạt động chi nhánh, văn phòng đại diện cho cơ quan nhà nước có thẩm quyền khác
+cùng cấp, &lt;span style="background:white"&gt;Ủy ban&lt;/span&gt; nhân dân cấp huyện nơi
+đặt chi nhánh, văn phòng đại diện.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Người đại diện theo pháp luật của doanh
+nghiệp chịu trách nhiệm đăng ký thay đổi nội dung Giấy chứng nhận đăng ký hoạt
+động chi nhánh, văn phòng đại diện trong thời hạn 10 ngày, kể từ ngày có thay
+đổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Chính phủ quy định chi tiết Điều
+này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="chuong_3"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Chương III&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="muc_1"&gt;&lt;b&gt;Mục 1: CÔNG TY TRÁCH NHIỆM HỮU HẠN
+HAI THÀNH VIÊN TRỞ LÊN&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_47"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 47. Công ty
+trách nhiệm hữu hạn hai thành viên trở lên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty trách nhiệm hữu hạn hai thành
+viên trở lên là doanh nghiệp, &lt;span style="background:white"&gt;trong&lt;/span&gt; đó:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thành viên có thể là tổ chức, cá nhân;
+số lượng thành viên không vượt quá 50;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thành viên chịu trách nhiệm về các
+khoản nợ và nghĩa vụ tài sản khác của doanh nghiệp &lt;span style="background:
+white"&gt;trong&lt;/span&gt; phạm vi số vốn đã góp vào doanh nghiệp, trừ trường hợp &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại khoản 4 Điều 48 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Phần vốn góp của thành viên chỉ
+được chuyển nhượng theo quy định tại các Điều 52, 53 và 54 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty trách nhiệm hữu hạn hai thành
+viên trở lên có tư cách pháp nhân kể từ ngày được cấp Giấy chứng nhận đăng ký
+doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty trách nhiệm hữu hạn hai thành
+viên trở lên không được quyền phát hành cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_48"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 48. Thực
+hiện góp vốn thành lập công ty và cấp giấy chứng nhận phần vốn góp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Vốn điều lệ của công ty trách
+nhiệm hữu hạn hai thành viên trở lên khi đăng ký doanh nghiệp là tổng giá trị
+phần vốn góp các thành viên cam kết góp vào công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên phải góp vốn phần vốn góp
+cho công ty đủ và đúng loại tài sản như đã cam kết khi đăng ký thành lập doanh
+nghiệp trong thời hạn 90 ngày, kể từ ngày được cấp Giấy chứng nhận đăng ký
+doanh nghiệp. Thành viên công ty chỉ được góp vốn phần vốn góp cho công ty bằng
+các tài sản khác &lt;span style="background:white"&gt;với&lt;/span&gt; loại tài sản đã cam
+kết nếu được sự tán thành của đa số thành viên còn lại. Trong thời hạn này, thành
+viên có các quyền và nghĩa vụ tương ứng với tỷ lệ phần vốn góp như đã cam kết
+góp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Sau thời hạn quy định tại khoản 2 Điều
+này mà vẫn có thành viên chưa góp hoặc chưa góp đủ số vốn đã cam kết thì được
+xử lý như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thành viên chưa góp vốn theo cam
+kết đương nhiên không còn là thành viên của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thành viên chưa góp vốn đủ phần
+vốn góp như đã cam kết có các quyền tương ứng với phần vốn góp đã góp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Phần vốn góp chưa góp của các thành
+viên được chào bán theo quyết định của Hội đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp có thành viên chưa góp hoặc
+chưa góp đủ số vốn đã cam kết, công ty phải đăng ký điều chỉnh, vốn điều lệ, tỷ
+lệ phần vốn góp của các thành viên bằng số vốn đã góp trong thời hạn 60 ngày,
+kể từ ngày cuối cùng phải góp vốn đủ phần vốn góp theo khoản 2 Điều này. Các
+thành viên chưa góp vốn hoặc chưa góp đủ số vốn đã cam kết phải chịu trách nhiệm
+tương ứng với phần vốn góp đã cam kết đối với các nghĩa vụ tài chính của công
+ty phát sinh trong thời gian trước ngày công ty đăng ký thay đổi vốn điều lệ và
+phần vốn góp của thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Tại thời điểm góp đủ phần vốn góp,
+công ty phải cấp giấy chứng nhận phần vốn góp cho thành viên tương ứng với giá trị
+phần vốn đã góp. Giấy chứng nhận phần vốn góp có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Vốn điều lệ của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác đối với thành viên là cá nhân; tên, số quyết định thành lập
+hoặc mã số doanh nghiệp, địa chỉ trụ sở chính đối với thành viên là &lt;span style="background:white"&gt;tổ chức&lt;/span&gt;;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Phần vốn góp, giá trị vốn góp của
+thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Số và ngày cấp giấy chứng nhận
+phần vốn góp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Họ, tên, chữ ký của người đại diện
+theo pháp luật của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Trường hợp giấy chứng nhận phần vốn
+góp bị mất, bị hủy hoại, bị hư hỏng hoặc bị tiêu hủy d&lt;span style="background:
+white"&gt;ướ&lt;/span&gt;i hình thức khác, thành viên được công ty cấp lại giấy chứng
+nhận phần vốn góp theo trình tự, thủ tục quy định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_49"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 49. Sổ đăng
+ký thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty phải lập sổ đăng ký thành viên
+ngay sau khi được cấp Giấy chứng nhận đăng ký doanh nghiệp. Sổ đăng ký thành
+viên phải có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác đối với thành viên là cá nhân; tên, số quyết định thành lập
+hoặc mã số doanh nghiệp, địa chỉ trụ sở chính đối với thành viên là tổ chức;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Phần vốn góp, giá trị vốn đã góp, thời
+điểm góp vốn, loại tài sản góp vốn, số lượng, giá trị của từng loại tài sản góp
+vốn của từng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Chữ ký của thành viên là cá nhân hoặc
+của người đại diện theo pháp luật của thành viên là tổ chức;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Số và ngày cấp giấy chứng nhận
+phần vốn góp của từng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Sổ đăng ký thành viên được lưu giữ
+tại trụ sở chính của công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_50"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 50. Quyền
+của thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tham dự họp Hội đồng thành viên, thảo
+luận, kiến nghị, biểu quyết các vấn đề thuộc thẩm quyền của Hội đồng thành
+viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Có số phiếu biểu quyết tương ứng
+với phần vốn góp, trừ trường hợp quy định tại khoản 2 Điều 48 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Được chia lợi nhuận tương ứng với phần
+vốn góp sau khi công ty đã nộp đủ thuế và hoàn thành các nghĩa vụ tài chính khác
+theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Được chia giá trị tài sản còn lại của
+công ty tương ứng với phần vốn góp khi công ty giải thể hoặc phá sản.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Được ưu tiên góp thêm vốn vào công
+ty khi công ty tăng vốn điều lệ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Định đoạt phần vốn góp của mình
+bằng cách chuyển nhượng một phần hoặc toàn bộ, tặng cho và cách khác theo quy
+định của pháp luật và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Tự mình hoặc nhân danh công ty
+khởi kiện trách nhiệm dân sự đối với Chủ tịch Hội đồng thành viên, Giám đốc
+hoặc Tổng giám đốc, người đại diện theo pháp luật và cán bộ quản lý khác theo
+quy định tại Điều 72 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Trừ trường hợp quy định tại khoản 9
+Điều này, thành viên, nhóm thành viên sở hữu từ 10% số vốn điều lệ trở lên hoặc
+một tỷ lệ khác nhỏ hơn do Điều lệ công ty quy định còn có thêm các quyền sau
+đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Yêu cầu triệu &lt;span style="background:white"&gt;tập h&lt;/span&gt;ọ&lt;span style="background:white"&gt;p&lt;/span&gt; Hội
+đồng thành viên để giải quyết những vấn đề thuộc thẩm quyền;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Kiểm tra, xem xét, tra cứu sổ ghi chép
+và theo dõi các giao dịch, sổ kế toán, báo cáo tài chính hằng năm;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Kiểm tra, xem xét, tra cứu và sao chụp
+sổ đăng ký thành viên, biên bản họp và nghị quyết của Hội đồng thành viên và
+các hồ sơ khác của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Yêu cầu Tòa án hủy bỏ nghị quyết
+của Hội đồng thành viên trong thời hạn 90 ngày, kể từ ngày kết thúc họp Hội
+đồng thành viên, nếu trình tự, thủ tục, điều kiện cuộc họp hoặc nội dung nghị
+quyết đó không thực hiện đúng hoặc không &lt;span style="background:white"&gt;phù hợp&lt;/span&gt;
+với quy định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Trường hợp công ty có một thành viên
+sở hữu &lt;span style="background:white"&gt;trên&lt;/span&gt; 90% vốn điều lệ và Điều lệ
+công ty không quy định một tỷ lệ khác nhỏ hơn theo quy định tại khoản 8 Điều này
+thì nhóm thành viên còn lại đương nhiên có quyền theo quy định tại khoản 8 Điều
+này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;10. Các quyền khác theo quy định của Luật
+này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_51"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 51. Nghĩa
+vụ của thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Góp đủ, đúng hạn số vốn đã cam kết
+và chịu trách nhiệm về các khoản nợ và nghĩa vụ tài sản khác của công ty trong phạm
+vi số vốn đã góp vào công ty, trừ trường hợp quy định tại khoản 2 và khoản 4
+Điều 48 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Không được rút vốn đã góp ra khỏi công
+ty dưới mọi hình thức, trừ trường hợp quy định tại các Điều 52, 53, 54 và 68
+của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tuân thủ Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chấp hành nghị quyết, quyết định
+của Hội đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Chịu trách nhiệm cá nhân khi nhân danh
+công ty để thực hiện các hành vi sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Vi phạm pháp luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tiến hành kinh doanh hoặc giao
+dịch khác không nhằm phục vụ lợi ích của công ty và gây thiệt hại cho người
+khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thanh toán khoản nợ chưa đến hạn trước
+nguy cơ tài chính có thể xảy ra đối với công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Thực hiện nghĩa vụ khác theo quy định
+của Luật này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_52"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 52. Mua lại
+phần vốn góp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên có quyền yêu cầu công ty
+mua lại phần vốn góp của mình, nếu thành viên đó đã bỏ phiếu không tán thành đối
+với nghị &lt;span style="background:white"&gt;quyết&lt;/span&gt; của Hội đồng thành viên về
+vấn đề sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Sửa đổi, bổ sung các nội dung &lt;span style="background:white"&gt;trong&lt;/span&gt; Điều lệ công ty liên quan đến quyền và
+nghĩa vụ của thành viên, Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tổ chức lại công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Các trường hợp khác theo quy định tại
+Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Yêu cầu mua lại phần vốn góp phải
+bằng văn bản và được gửi đến công ty trong thời hạn 15 ngày, kể từ ngày thông
+qua nghị quyết quy định tại khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Khi có yêu cầu của thành viên quy định
+tại khoản 1 Điều này, nếu không thỏa thuận được về giá thì công ty phải mua lại
+phần vốn góp của thành viên đó theo giá thị trường hoặc giá được định theo nguyên
+tắc quy định tại Điều lệ công ty trong thời hạn 15 ngày, kể từ ngày nhận được
+yêu cầu. Việc thanh toán chỉ được thực hiện nếu sau khi thanh toán đủ phần vốn
+góp được mua lại, công ty vẫn thanh toán đủ các khoản nợ và nghĩa vụ tài sản
+khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp công ty không mua lại phần
+vốn góp theo quy định tại khoản 2 Điều này thì thành viên đó có quyền tự do
+chuyển nhượng phần vốn góp của mình cho thành viên khác hoặc người khác không
+phải là thành viên.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_53"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 53. Chuyển nhượng
+phần vốn góp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Trừ trường hợp quy định tại khoản 3
+Điều 52, khoản 5 và khoản 6 Điều 54 của Luật này, thành viên công ty trách nhiệm
+hữu hạn hai thành viên trở lên có quyền chuyển nhượng một phần hoặc toàn bộ
+phần vốn góp của mình cho người khác theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Phải chào bán phần vốn đó cho các thành
+viên còn lại theo tỷ lệ tương ứng với phần vốn góp của họ &lt;span style="background:white"&gt;trong&lt;/span&gt; công ty &lt;span style="background:white"&gt;với&lt;/span&gt;
+cùng điều kiện;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chỉ được chuyển nhượng với cùng
+điều kiện chào bán đối với các thành viên còn lại &lt;span style="background:white"&gt;quy
+định&lt;/span&gt; tại điểm a khoản này cho người không phải là thành viên nếu các thành
+viên còn lại của công ty không mua hoặc không mua hết &lt;span style="background:
+white"&gt;trong&lt;/span&gt; thời hạn 30 ngày, kể từ ngày chào bán.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên chuyển nhượng vẫn có các
+quyền và nghĩa vụ đối với công ty tương ứng với phần vốn góp có liên quan cho
+đến khi thông tin về người mua quy định tại các điểm b, c và d khoản 1 Điều 49
+của Luật này được ghi đầy đủ vào sổ đăng ký thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp chuyển nhượng hoặc thay
+đổi phần vốn góp của các thành viên dẫn đến chỉ còn một thành viên trong công ty,
+công ty phải tổ chức hoạt động theo loại hình công ty trách nhiệm hữu hạn một
+thành viên và đồng thời thực hiện đăng ký thay đổi nội dung đăng ký doanh nghiệp
+trong thời hạn 15 ngày, kể từ ngày hoàn thành việc chuyển nhượng.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_54"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 54. Xử lý phần
+vốn góp trong một số trường hợp đặc biệt&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Trường hợp thành viên là cá nhân chết
+thì người thừa kế theo di chúc hoặc theo pháp luật của thành viên đó là thành
+viên của công ty. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt; thành viên
+là cá nhân bị Tòa án tuyên bố mất tích thì người quản lý tài sản của thành viên
+đó theo quy định của pháp luật về dân sự là thành viên của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp có thành viên bị hạn
+chế hoặc bị mất năng lực hành vi dân sự thì quyền và nghĩa vụ của thành viên đó
+trong công ty được thực hiện thông qua người giám hộ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Phần vốn góp của thành viên được
+công ty mua lại hoặc chuyển nhượng theo quy định tại Điều 52 và Điều 53 của
+Luật này &lt;span style="background:white"&gt;trong&lt;/span&gt; các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Người thừa kế không muốn trở thành
+thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Người được tặng cho theo quy định tại
+khoản 5 Điều này không được Hội đồng thành viên chấp thuận làm thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thành viên là tổ chức đã giải thể hoặc
+phá sản.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp phần vốn góp của thành viên
+là cá nhân chết mà không có người thừa kế, người thừa kế&lt;span style="background:
+white"&gt; từ&lt;/span&gt; chối nhận thừa kế hoặc bị truất quyền thừa kế thì phần vốn
+góp đó được giải quyết theo quy định của pháp luật về dân sự.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Thành viên có quyền tặng cho một phần
+hoặc toàn bộ phần vốn góp của mình tại công ty cho người khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp người được tặng cho là vợ,
+chồng, cha, mẹ, con, người có quan hệ họ hàng đến hàng thừa kế thứ ba thì đương
+nhiên là thành viên của công ty. Trường hợp người được tặng cho là ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i khác thì chỉ trở thành thành viên của công ty
+khi được Hội đồng thành viên chấp thuận.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Trường hợp thành viên sử dụng phần
+vốn góp để trả nợ thì người nhận thanh toán có quyền sử dụng phần vốn góp đó theo
+một trong hai hình thức sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Trở thành thành viên của công ty
+nếu được Hội đồng thành viên chấp thuận;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chào bán và chuyển nhượng phần vốn
+góp đó theo quy định tại Điều 53 của Luật này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_55"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 55. Cơ cấu tổ
+chức quản lý công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Công ty trách nhiệm hữu hạn hai thành
+viên trở lên có Hội đồng thành viên, Chủ tịch Hội đồng thành viên, Giám đốc
+hoặc Tổng giám đốc. Công ty trách nhiệm hữu hạn có từ 11 thành viên trở lên
+phải thành lập Ban kiểm soát; trường hợp có ít hơn 11 thành viên, có thể thành
+lập Ban kiểm soát phù hợp với yêu cầu quản trị công ty. Quyền, nghĩa vụ, tiêu
+chuẩn, điều kiện và chế độ làm việc của Ban kiểm soát, Trưởng Ban kiểm soát do
+Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_56"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 56. Hội
+đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng thành viên gồm tất cả các
+thành viên công ty, là cơ quan quyết định cao nhất của công ty. Điều lệ công ty
+quy định định kỳ họp Hội đồng thành viên, nhưng ít nhất mỗi năm &lt;span style="background:white"&gt;phải&lt;/span&gt; họp một lần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hội đồng thành viên có các quyền và
+nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Quyết định chiến lược phát triển và
+kế hoạch kinh doanh hằng năm của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định tăng hoặc giảm vốn điều
+lệ, quyết định thời điểm và phương thức huy động thêm vốn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Quyết định dự án đầu tư phát triển
+của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Quyết định giải pháp phát triển
+thị trường, tiếp thị và chuyển giao công nghệ; thông qua hợp đồng vay, cho vay,
+bán tài sản có giá trị bằng hoặc lớn hơn 50% tổng giá trị tài sản được ghi &lt;span style="background:white"&gt;trong&lt;/span&gt; báo cáo tài chính tại thời điểm công bố
+gần nhất của công ty hoặc một tỷ lệ hoặc giá trị khác nhỏ hơn quy định tại Điều
+lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Bầu, miễn nhiệm, bãi nhiệm Chủ
+tịch Hội đồng thành viên; &lt;span style="background:white"&gt;quyết định&lt;/span&gt; bổ
+nhiệm, miễn nhiệm, bãi nhiệm, ký và chấm dứt hợp đồng đối với Giám đốc hoặc
+Tổng giám đốc, Kế toán trưởng và người quản lý khác quy định tại Điều lệ công
+ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Quyết định mức lương, thưởng và
+lợi ích khác đối với Chủ tịch Hội đồng thành viên, Giám đốc hoặc Tổng giám đốc,
+&lt;span style="background:white"&gt;Kế toán&lt;/span&gt; trưởng và người quản lý khác quy
+định tại Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Thông qua báo cáo tài chính hằng năm,
+phương án sử dụng và phân chia lợi nhuận hoặc phương án xử lý lỗ của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Quyết định cơ cấu tổ chức quản lý
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Quyết định thành lập công ty con, chi
+nhánh, văn phòng đại diện;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;k) Sửa đổi, bổ sung Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;l) Quyết định tổ chức lại công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;m) Quyết định giải thể hoặc yêu cầu phá
+sản công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;n) Quyền và nghĩa vụ khác theo quy
+định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp cá nhân là thành viên công
+ty trách nhiệm hữu hạn bị tạm giam, bị kết án tù hoặc bị Tòa án tước quyền hành
+nghề theo quy định của Bộ luật hình sự, thành viên đó ủy quyền cho người khác
+tham gia Hội đồng thành viên công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_57"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 57. Chủ
+tịch Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng thành viên bầu một thành viên
+làm Chủ tịch. Chủ tịch Hội đồng thành viên có thể kiêm Giám đốc hoặc Tổng giám
+đốc công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ tịch Hội đồng thành viên có các
+quyền và nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chuẩn bị chương trình, kế hoạch
+hoạt động của Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chuẩn bị chương trình, nội dung, tài
+liệu họp Hội đồng thành viên hoặc để lấy ý kiến các thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Triệu tập và chủ trì cuộc họp Hội đồng
+thành viên hoặc tổ chức việc lấy ý kiến các thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Giám sát hoặc tổ chức giám sát
+việc thực hiện các nghị quyết của Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Thay mặt Hội đồng thành viên ký các
+nghị quyết của Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Quyền và nghĩa vụ khác theo quy
+định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Nhiệm kỳ của Chủ tịch Hội đồng thành
+viên không quá 05 năm. Chủ tịch Hội đồng thành viên có thể được bầu lại với số
+nhiệm kỳ không hạn chế.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp vắng mặt hoặc không đủ
+năng lực để thực hiện các quyền và nghĩa vụ của mình, thì Chủ tịch Hội đồng
+thành viên ủy quyền bằng văn bản cho một thành viên thực hiện các quyền và
+nghĩa vụ của Chủ tịch Hội đồng thành viên theo nguyên tắc quy định tại Điều lệ
+công ty. Trường hợp không có thành viên được ủy quyền thì một &lt;span style="background:white"&gt;trong&lt;/span&gt; số các thành viên Hội đồng thành viên
+triệu &lt;span style="background:white"&gt;tập h&lt;/span&gt;ọ&lt;span style="background:white"&gt;p&lt;/span&gt;
+các thành viên còn lại bầu một người trong số các thành viên tạm thời thực hiện
+quyền và nghĩa vụ của Chủ tịch Hội đồng thành viên theo nguyên tắc đa số quá
+bán.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_58"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 58. Triệu
+tập họp Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng thành viên được triệu tập
+họp theo yêu cầu của Chủ tịch Hội đồng thành viên hoặc theo yêu cầu của thành viên
+hoặc nhóm thành viên quy định tại khoản 8 và khoản 9 Điều 50 của Luật này. Cuộc
+họp của Hội đồng thành viên phải được tổ chức tại trụ sở chính của công ty, trừ
+trường hợp Điều lệ công ty có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Chủ tịch Hội đồng thành viên chuẩn bị
+chương trình, nội dung tài liệu và triệu tập họp Hội đồng thành viên. Thành viên
+có quyền kiến nghị bổ sung nội dung chương trình họp bằng văn bản. Kiến nghị
+phải có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác đối với thành viên là cá nhân; tên, mã số doanh nghiệp hoặc
+số quyết định thành lập, địa chỉ trụ sở chính đối với thành viên là tổ chức;
+họ, tên, chữ ký của thành viên hoặc người đại diện theo ủy quyền;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tỷ lệ phần vốn góp, số và ngày cấp
+giấy chứng nhận phần vốn góp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Nội dung kiến nghị đưa vào chương trình
+họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;d) Lý do kiến nghị.&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Chủ tịch Hội đồng thành viên phải
+chấp thuận kiến nghị và bổ sung chương trình họp Hội đồng thành viên nếu kiến
+nghị có đủ nội dung theo quy định được gửi đến trụ sở chính của công ty chậm
+nhất 01 ngày làm việc trước ngày họp Hội đồng thành viên; trường hợp kiến nghị
+được trình ngay trước khi họp thì kiến nghị được chấp thuận nếu đa số các thành
+viên dự họp tán thành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thông báo mời họp Hội đồng thành viên
+có thể bằng giấy mời, điện thoại, fax hoặc phương tiện điện tử khác do Điều lệ
+công ty &lt;span style="background:white"&gt;quy định&lt;/span&gt; và được gửi trực tiếp
+đến từng thành viên Hội đồng thành viên. Nội dung thông báo mời họp phải xác
+định rõ thời gian, địa điểm và chương trình họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Chương trình và tài liệu họp phải
+được gửi cho thành viên công ty trước khi họp. Tài liệu sử dụng &lt;span style="background:white"&gt;trong&lt;/span&gt; cuộc họp liên quan đến &lt;span style="background:white"&gt;quyết định&lt;/span&gt; về sửa đổi, bổ sung Điều lệ công ty,
+thông qua phương hướng phát triển công ty, thông qua báo cáo tài chính hằng năm,
+tổ chức lại hoặc giải thể công ty phải được gửi đến các thành viên chậm nhất 07
+ngày làm việc trước ngày họp. Thời hạn gửi các tài liệu khác do Điều lệ công ty
+quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp Chủ tịch Hội đồng thành
+viên không triệu tập họp Hội đồng thành viên theo yêu cầu của thành viên, nhóm thành
+viên theo quy định tại khoản 8 và khoản 9 Điều 50 của Luật này trong thời hạn
+15 ngày, kể từ ngày nhận được yêu cầu thì thành viên, nhóm thành viên đó triệu
+tập họp Hội đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp Điều lệ công ty không quy
+định thì yêu cầu triệu tập họp Hội đồng thành viên theo quy định tại khoản 3
+Điều này phải bằng văn bản và có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác đối với thành viên là cá nhân; tên, mã số doanh nghiệp hoặc
+số quyết định thành lập, địa chỉ trụ sở chính đối với thành viên là tổ chức; tỷ
+lệ vốn góp, số và ngày cấp giấy chứng nhận phần vốn góp của từng thành viên yêu
+cầu;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Lý do yêu cầu triệu tập họp Hội
+đồng thành viên và vấn đề cần giải quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Dự kiến chương trình họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên, chữ ký của từng thành viên
+yêu cầu hoặc người đại diện theo ủy quyền của họ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trường hợp yêu cầu triệu tập họp
+Hội đồng thành viên không có đủ nội dung theo quy định tại khoản 4 Điều này thì
+Chủ tịch Hội đồng thành viên phải thông báo bằng văn bản cho thành viên, nhóm
+thành viên có liên quan biết trong thời hạn 07 ngày làm việc, kể từ ngày nhận
+được yêu cầu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trong các trường hợp khác, Chủ tịch
+Hội đồng thành viên phải triệu tập họp Hội đồng thành viên &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 15 ngày, kể từ ngày nhận được
+yêu cầu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;Trường hợp&lt;/span&gt;&lt;span lang="VI"&gt; Chủ tịch Hội đồng thành viên không triệu tập họp Hội đồng thành viên theo
+quy định thì phải chịu trách nhiệm cá nhân trước pháp luật về thiệt hại xảy ra
+đối với công ty và thành viên có liên quan của công ty. Trường hợp này, thành
+viên hoặc nhóm thành viên đã yêu cầu có quyền triệu &lt;span style="background:
+white"&gt;tập họp&lt;/span&gt; Hội đồng thành viên. Chi phí hợp lý cho việc triệu tập và
+tiến hành họp Hội đồng thành viên sẽ được công ty hoàn lại.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_59"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 59. Điều
+kiện và thể thức tiến hành họp Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cuộc họp Hội đồng thành viên được tiến
+hành khi có số thành viên dự họp sở hữu ít nhất 65% vốn điều lệ; tỷ lệ cụ thể
+do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp Điều lệ không quy định hoặc
+không có quy định khác, triệu tập họp Hội đồng thành viên &lt;span style="background:white"&gt;trong&lt;/span&gt; trường hợp cuộc họp lần thứ nhất không đủ
+điều kiện tiến hành theo quy định tại khoản 1 Điều này thì được thực hiện như
+sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Triệu tập họp lần thứ hai phải
+được thực hiện &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 15 ngày, kể
+từ ngày dự định họp lần thứ nhất. Cuộc họp Hội đồng thành viên triệu tập lần
+thứ hai được tiến hành khi có số thành viên dự họp sở hữu ít nhất 50% vốn điều
+lệ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Trường hợp cuộc họp lần thứ hai không
+đủ điều kiện tiến hành theo quy định tại điểm a khoản 2 Điều này thì được triệu
+&lt;span style="background:white"&gt;tập họp&lt;/span&gt; lần thứ ba trong thời hạn 10 ngày
+làm việc, kể từ ngày dự định họp lần thứ hai. Trường hợp này, cuộc họp Hội đồng
+thành viên được tiến hành không phụ thuộc số thành viên dự họp và số vốn điều
+lệ được đại diện bởi số thành viên dự họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thành viên, ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i đại diện theo ủy quyền của thành viên phải tham
+dự và biểu quyết tại cuộc họp Hội đồng thành viên. Thể thức tiến hành họp Hội
+đồng thành viên, hình thức biểu quyết do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;4. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; cuộc họp đủ điều kiện quy định tại Điều này không hoàn
+thành chương trình họp trong thời hạn dự kiến, thì có thể kéo dài phiên họp;
+thời hạn kéo dài không được quá 30 ngày, kể từ ngày khai mạc cuộc họp đó.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_60"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 60. Nghị quyết
+của Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng thành viên thông qua các
+nghị quyết thuộc &lt;span style="background:white"&gt;thẩm quyền&lt;/span&gt; bằng biểu
+quyết tại cuộc họp, lấy ý kiến bằng văn bản hoặc hình thức khác do Điều lệ công
+ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp Điều lệ công ty không có
+quy định khác thì quyết định về các vấn đề sau đây phải được thông qua bằng biểu
+quyết tại cuộc họp Hội đồng thành viên:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Sửa đổi, bổ sung nội dung của Điều
+lệ công ty quy định tại Điều 25 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định phương hướng phát triển
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Bầu, miễn nhiệm, bãi nhiệm Chủ
+tịch Hội đồng thành viên; bổ nhiệm, miễn nhiệm, bãi nhiệm Giám đốc hoặc Tổng
+giám đốc;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Thông qua báo cáo tài chính hằng
+năm;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Tổ chức lại hoặc giải thể công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp Điều lệ công ty không có
+quy định khác, nghị quyết của Hội đồng thành viên được thông qua tại cuộc họp &lt;span style="background:white"&gt;trong&lt;/span&gt; các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Được số phiếu đại diện ít nhất 65%
+tổng số vốn góp của các thành viên dự họp tán thành, trừ trường hợp quy định
+tại điểm b khoản này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Được số phiếu đại diện ít nhất 75%
+tổng số vốn góp của các thành viên dự họp tán thành đối với &lt;span style="background:white"&gt;quyết&lt;/span&gt; định bán tài sản có giá trị bằng hoặc lớn
+hơn 50% tổng giá trị tài sản được ghi &lt;span style="background:white"&gt;trong&lt;/span&gt;
+báo cáo tài chính gần nhất của công ty hoặc một tỷ lệ hoặc giá trị khác nhỏ hơn
+quy định tại Điều lệ công ty; sửa đổi, bổ sung Điều lệ công ty; tổ chức lại,
+giải thể công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Thành viên được coi là tham dự và biểu
+quyết tại cuộc họp Hội đồng thành viên trong trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tham dự và biểu quyết trực tiếp
+tại cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Ủy quyền cho một người khác tham
+dự và biểu quyết tại cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tham dự và biểu quyết thông qua
+hội nghị trực tuyến, bỏ phiếu điện tử hoặc hình thức điện tử khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Gửi phiếu biểu quyết đến cuộc họp thông
+qua thư, fax, thư điện tử.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Nghị quyết của Hội đồng thành viên
+được thông qua dưới hình thức lấy ý kiến bằng văn bản khi được số thành viên sở
+hữu ít nhất 65% vốn điều lệ tán thành; tỷ lệ cụ thể do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_61"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 61. Biên
+bản họp Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Các cuộc họp Hội đồng thành viên phải
+được ghi biên bản và có thể ghi âm hoặc ghi và lưu giữ dưới hình thức điện tử
+khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Biên bản họp Hội đồng thành viên phải
+làm xong và thông qua ngay trước khi kết thúc cuộc họp. Biên bản phải có các
+nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thời gian và địa điểm họp; mục đích,
+chương trình họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Họ, tên, tỷ lệ vốn góp, số và ngày
+cấp giấy chứng nhận phần vốn góp của thành viên, ng&lt;span style="background:
+white"&gt;ườ&lt;/span&gt;i đại diện theo ủy quyền dự họp; họ, tên, tỷ lệ vốn góp, số và ngày
+cấp giấy chứng nhận phần vốn góp của thành viên, ng&lt;span style="background:
+white"&gt;ườ&lt;/span&gt;i đại diện ủy quyền của thành viên không dự họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Vấn đề được thảo luận và biểu
+quyết; tóm tắt ý kiến phát biểu của thành viên về từng vấn đề thảo luận;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Tổng số phiếu biểu quyết hợp lệ, không
+hợp lệ; tán thành, không tán thành đối với từng vấn đề biểu quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Các quyết định được thông qua;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Họ, tên, chữ ký của người ghi biên
+bản và chủ tọa cuộc họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Người ghi biên bản và chủ tọa cuộc
+họp chịu trách nhiệm liên đới về tính chính xác và trung thực của nội dung biên
+bản họp Hội đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_62"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 62. Thủ tục
+thông qua nghị quyết của Hội đồng thành viên theo hình thức lấy ý kiến bằng văn
+bản&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp Điều lệ công ty không quy định
+hoặc không có quy định khác thì thẩm quyền và thể thức lấy ý kiến thành viên
+bằng văn bản để thông qua nghị quyết được thực hiện theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ tịch Hội đồng thành viên quyết
+định việc lấy ý kiến thành viên Hội đồng thành viên bằng văn bản để thông qua &lt;span style="background:white"&gt;quyết định&lt;/span&gt; các vấn đề thuộc thẩm quyền;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ tịch Hội đồng thành viên có trách
+nhiệm tổ chức việc soạn thảo, gửi các báo cáo, tờ trình về nội dung cần quyết
+định, dự thảo nghị quyết và phiếu lấy ý kiến đến các thành viên Hội đồng thành
+viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Phiếu lấy ý kiến phải có các nội dung
+chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Họ, tên, địa chỉ, quốc tịch, số
+Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt; khác, tỷ lệ phần vốn của
+thành viên Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Vấn đề cần lấy ý kiến và ý kiến
+trả lời tương ứng theo thứ tự tán thành, không tán thành và không có ý kiến;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Thời hạn cuối cùng phải gửi phiếu lấy
+ý kiến về công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Họ, tên, chữ ký của Chủ tịch Hội
+đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Phiếu lấy ý kiến có nội dung đầy đủ, có
+chữ ký của thành viên công ty và được gửi về công ty trong thời hạn quy định được
+coi là hợp lệ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chủ tịch Hội đồng thành viên tổ
+chức việc kiểm phiếu, lập báo cáo và thông báo kết quả kiểm phiếu, quyết định
+được thông qua đến các thành viên &lt;span style="background:white"&gt;trong&lt;/span&gt; thời
+hạn 07 ngày làm việc, kể từ ngày kết thúc thời hạn mà thành viên phải gửi ý
+kiến về công ty. Báo cáo kết quả kiểm phiếu có giá trị tương đương biên bản họp
+Hội đồng thành viên và phải có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Mục đích, nội dung lấy ý kiến;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Họ, tên, tỷ lệ vốn góp, số và ngày
+cấp giấy chứng nhận phần vốn góp của thành viên, người đại diện theo ủy quyền đã
+gửi phiếu lấy ý kiến hợp lệ; họ, tên, tỷ lệ vốn góp, số và ngày cấp giấy chứng
+nhận phần vốn góp của thành viên, người đại diện ủy quyền của thành viên mà
+không nhận được phiếu lấy ý kiến hoặc gửi phiếu lấy ý kiến không hợp lệ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Vấn đề được lấy ý kiến và biểu
+quyết; tóm tắt ý kiến của thành viên về từng vấn đề lấy ý kiến (nếu có);&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Tổng số phiếu lấy ý kiến hợp lệ, không
+hợp lệ, không nhận được; tổng số phiếu lấy ý kiến hợp lệ tán thành, không tán
+thành đối với từng vấn đề biểu quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Các quyết định được thông qua và
+tỷ lệ phiếu biểu quyết tương ứng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Họ, tên, chữ ký của người kiểm
+phiếu và Chủ tịch Hội đồng thành viên. Người kiểm phiếu và Chủ tịch Hội đồng
+thành viên chịu trách nhiệm liên đới về tính đầy đủ, chính xác, trung thực của
+nội dung báo cáo kết quả kiểm phiếu.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_63"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 63. Hiệu
+lực nghị quyết của Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp Điều lệ công ty không có quy
+định khác, nghị quyết của Hội đồng thành viên có hiệu lực thi hành kể từ ngày
+được thông qua hoặc từ ngày có hiệu lực được ghi tại nghị quyết đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp thành viên, nhóm thành viên
+yêu cầu Tòa án hoặc Trọng tài hủy bỏ nghị quyết đã được thông qua thì nghị quyết
+đó vẫn có hiệu lực thi hành cho đến khi có quyết định của Tòa án hoặc Trọng tài
+có hiệu lực thi hành.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_64"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 64. Giám
+đốc, Tổng giám đốc&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Giám đốc hoặc Tổng giám đốc công ty
+là người điều hành hoạt động kinh doanh hằng ngày của công ty, chịu trách nhiệm
+trước Hội đồng thành viên về việc thực hiện các quyền và nghĩa vụ của mình.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Giám đốc hoặc Tổng giám đốc có các
+quyền và nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tổ chức thực hiện các nghị quyết
+của Hội đồng thành viên; &lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định các vấn đề liên quan
+đến hoạt động kinh doanh hằng ngày của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tổ chức thực hiện kế hoạch kinh doanh
+và phương án đầu tư của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Ban hành quy chế quản lý nội bộ
+của công ty, trừ trường hợp Điều lệ công ty có quy định khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Bổ nhiệm, miễn nhiệm, bãi nhiệm các
+chức danh quản lý &lt;span style="background:white"&gt;trong&lt;/span&gt; công ty, trừ các
+chức danh thuộc thẩm quyền của Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Ký kết hợp đồng nhân danh công ty,
+trừ &lt;span style="background:white"&gt;trường hợp&lt;/span&gt; thuộc thẩm quyền của Chủ
+tịch Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Kiến nghị phương án cơ cấu tổ chức
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Trình báo cáo quyết toán tài chính
+hằng năm lên Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Kiến nghị phương án sử dụng lợi nhuận
+hoặc xử lý lỗ trong kinh doanh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;k) Tuyển dụng lao động;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;l) Quyền và nghĩa vụ khác được quy
+định tại Điều lệ công ty, hợp đồng lao động mà Giám đốc hoặc Tổng giám đốc ký &lt;span style="background:white"&gt;với&lt;/span&gt; công ty theo nghị quyết của Hội đồng thành
+viên.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_65"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 65. Tiêu chuẩn
+và điều kiện làm Giám đốc, Tổng giám đốc&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Có đủ năng lực hành vi dân sự và không
+thuộc đối tượng không được quản lý doanh nghiệp theo quy định tại khoản 2 Điều
+18 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Có trình độ chuyên môn, kinh
+nghiệm &lt;span style="background:white"&gt;trong&lt;/span&gt; quản trị kinh doanh của công
+ty, nếu Điều lệ công ty không có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Đối với công ty con của công ty có
+phần vốn góp, cổ phần do Nhà nước nắm giữ trên 50% vốn điều lệ thì ngoài các tiêu
+chuẩn và điều kiện quy định tại khoản 1 và khoản 2 Điều này, Giám đốc hoặc Tổng
+giám đốc không được là vợ hoặc chồng, cha đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ,
+con nuôi, anh ruột, chị ruột, em ruột, anh rể, em rể, chị dâu, em dâu của người
+quản lý công ty mẹ và người đại diện phần vốn nhà nước tại công ty đó.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_66"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 66. Thù lao,
+tiền lương và thưởng của Chủ tịch Hội đồng thành viên, Giám đốc, Tổng giám đốc
+và người quản lý khác&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty trả thù lao, tiền lương và
+thưởng cho Chủ tịch Hội đồng thành viên, Giám đốc hoặc Tổng giám đốc và người quản
+lý khác theo kết quả và hiệu quả kinh doanh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thù lao, tiền lương của Chủ tịch
+Hội đồng thành viên, Giám đốc hoặc Tổng giám đốc và người quản lý khác được
+tính vào chi phí kinh doanh theo quy định của pháp luật về thuế thu nhập doanh
+nghiệp, pháp luật có liên quan và phải được thể hiện thành mục riêng &lt;span style="background:white"&gt;trong&lt;/span&gt; báo cáo tài chính hằng năm của công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_67"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 67. &lt;span style="background:white"&gt;Hợp đồng&lt;/span&gt;, giao dịch phải được Hội đồng thành viên
+chấp thuận&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hợp đồng, giao dịch giữa công ty
+với các đối tượng sau đây phải được Hội đồng thành viên chấp thuận:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thành viên, người đại diện theo ủy
+quyền của thành viên, Giám đốc hoặc Tổng giám đốc, người đại diện theo pháp
+luật của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Người có liên quan của những người
+quy định tại điểm a khoản này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Người quản lý công ty mẹ, người có
+thẩm quyền bổ nhiệm người quản lý công ty mẹ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Người có liên quan của người quy
+định tại điểm c khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Người ký kết hợp đồng, giao dịch
+phải thông báo cho các thành viên Hội đồng thành viên, Kiểm soát viên về các
+đối tượng có liên quan đối với &lt;span style="background:white"&gt;hợp đồng&lt;/span&gt;,
+giao dịch đó; kèm theo dự thảo hợp đồng hoặc thông báo nội dung chủ yếu của
+giao dịch dự định tiến hành. Trường hợp Điều lệ công ty không quy định khác thì
+Hội đồng thành viên phải quyết định việc chấp thuận hợp đồng hoặc giao dịch
+trong thời hạn 15 ngày, kể từ ngày nhận được thông báo; trong trường hợp này,
+hợp đồng, giao dịch được chấp thuận nếu có sự tán thành của số thành viên đại
+diện ít nhất 65% tổng số vốn có quyền biểu quyết. Thành viên có liên quan trong
+các hợp đồng, giao dịch không được tính vào việc biểu quyết.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Hợp đồng, giao dịch bị vô hiệu và xử
+lý theo quy định của pháp luật khi được ký kết không đúng quy định tại khoản 1
+và khoản 2 Điều này, gây thiệt hại cho công ty. Người ký &lt;span style="background:white"&gt;kết&lt;/span&gt; hợp đồng, giao dịch, thành viên có liên quan
+và người có liên quan của thành viên đó phải bồi thường thiệt hại phát sinh,
+hoàn trả cho công ty các khoản lợi thu được từ việc thực hiện hợp đồng, giao
+dịch được ký kết không đúng theo quy định tại khoản 1 và khoản 2 Điều này hoặc
+gây thiệt hại cho công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_68"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 68. Thay
+đổi vốn điều lệ&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty có thể tăng vốn điều lệ &lt;span style="background:white"&gt;trong&lt;/span&gt; các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tăng vốn góp của thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tiếp nhận vốn góp của thành viên
+mới.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;2. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; tăng vốn góp của thành viên thì vốn góp thêm được phân
+chia cho các thành viên theo tỷ lệ tương ứng với phần vốn góp của họ &lt;span style="background:white"&gt;trong&lt;/span&gt; vốn điều lệ công ty. Thành viên có thể
+chuyển nhượng quyền góp vốn của mình cho người khác theo quy định tại Điều 53
+của Luật này. Thành viên phản đối quyết định tăng thêm vốn điều lệ có thể không
+góp thêm vốn. Trường hợp này, số vốn góp thêm của thành viên đó được chia cho
+các thành viên khác theo tỷ lệ tương ứng với phần vốn góp của họ &lt;span style="background:white"&gt;trong&lt;/span&gt; vốn điều lệ công ty nếu các thành viên
+không có thỏa thuận khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty có thể giảm vốn điều lệ
+bằng các hình thức sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Hoàn trả một phần vốn góp cho thành
+viên theo tỷ lệ vốn góp của họ &lt;span style="background:white"&gt;trong&lt;/span&gt; vốn
+điều lệ của công ty nếu đã hoạt động kinh doanh liên tục &lt;span style="background:white"&gt;trong&lt;/span&gt; hơn 02 năm, kể từ ngày đăng ký doanh
+nghiệp và bảo đảm thanh toán đủ các khoản nợ và nghĩa vụ tài sản khác sau khi
+đã hoàn trả cho thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Công ty mua lại phần vốn góp của
+thành viên theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại Điều 52 của Luật
+này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Vốn điều lệ không được các thành viên
+thanh toán đầy đủ và đúng hạn theo quy định tại Điều 48 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trong thời hạn 10 ngày, kể từ ngày
+hoàn thành việc tăng hoặc giảm vốn điều lệ, công ty phải thông báo bằng văn bản
+đến Cơ quan đăng ký kinh doanh. Thông báo phải có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, địa chỉ trụ sở chính, mã số doanh
+nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Vốn điều lệ; số vốn dự định tăng hoặc
+giảm;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thời điểm, lý do và hình thức tăng
+hoặc giảm vốn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên, chữ ký của người đại diện
+theo pháp luật của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Đối với trường hợp tăng vốn điều lệ, kèm
+theo thông báo phải có nghị quyết và biên bản họp của Hội đồng thành viên. Đối &lt;span style="background:white"&gt;với&lt;/span&gt; trường hợp giảm vốn điều lệ, kèm theo thông
+báo phải có nghị quyết và biên bản họp của Hội đồng thành viên và báo cáo tài
+chính gần nhất. Cơ quan đăng ký kinh doanh cập nhật thông tin về việc tăng hoặc
+giảm vốn điều lệ &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 03 ngày
+làm việc, kể từ ngày nhận được thông báo.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_69"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 69. Điều
+kiện để chia lợi nhuận&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Công ty chỉ được chia lợi nhuận cho các
+thành viên khi kinh doanh có lãi, đã hoàn thành nghĩa vụ thuế và các nghĩa vụ
+tài chính khác theo quy định của pháp luật và bảo đảm thanh toán đủ các khoản
+nợ và nghĩa vụ tài sản đến hạn trả khác sau khi chia lợi nhuận.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_70"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 70. Thu hồi
+phần vốn góp đã hoàn trả hoặc lợi nhuận đã chia&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp hoàn trả một phần vốn góp do
+giảm vốn điều lệ trái với quy định tại khoản 3 Điều 68 của Luật này hoặc chia
+lợi nhuận cho thành viên trái với quy định tại Điều 69 của Luật này thì các
+thành viên phải hoàn trả cho công ty số tiền, tài sản khác đã nhận hoặc phải
+cùng liên đới chịu trách nhiệm về các khoản nợ và nghĩa vụ tài sản khác của
+công ty cho đến khi các thành viên đã hoàn trả đủ số tiền, tài sản khác đã nhận
+tương đương với phần vốn đã giảm hoặc lợi nhuận đã chia.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_71"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 71. Trách nhiệm
+của Chủ tịch Hội đồng thành viên, Giám đốc, Tổng giám đốc, người đại diện theo
+pháp luật, Kiểm soát viên và ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i quản &lt;span style="background:white"&gt;lý&lt;/span&gt; khác&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ tịch Hội đồng thành viên, Giám
+đốc hoặc Tổng giám đốc, người đại diện theo pháp luật, Kiểm soát viên và người quản
+lý khác của công ty có trách nhiệm sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thực hiện các quyền và nghĩa vụ
+được giao một cách trung thực, cẩn trọng, tốt nhất nhằm bảo đảm lợi ích &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt; tối đa của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Trung thành với lợi ích của công ty;
+không sử dụng thông tin, bí quyết, cơ hội kinh doanh của công ty, không lạm dụng
+địa vị, chức vụ và sử dụng tài sản của công ty để tư lợi hoặc phục vụ lợi ích
+của tổ chức, cá nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thông báo kịp thời, đầy đủ, chính xác
+cho công ty về doanh nghiệp mà họ và người có liên quan của họ làm chủ sở hữu
+hoặc có cổ phần, phần vốn góp chi phối;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Quyền và nghĩa vụ khác theo quy
+định của pháp luật và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Giám đốc hoặc Tổng giám đốc không được
+tăng lương, trả thưởng khi công ty không có khả năng thanh toán đủ các khoản nợ
+đến hạn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Văn bản thông báo người có liên quan
+theo điểm c khoản 1 Điều này bao gồm nội dung sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính, của doanh nghiệp mà họ có sở hữu phần vốn góp hoặc cổ phần; tỷ lệ và
+thời điểm sở hữu phần vốn góp hoặc cổ phần đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tên, mã số doanh nghiệp địa chỉ
+trụ sở chính, của doanh nghiệp mà những người có liên quan của họ cùng sở hữu
+hoặc sở hữu riêng cổ phần hoặc phần vốn góp trên 10% vốn &lt;span style="background:white"&gt;điều&lt;/span&gt; lệ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Việc kê khai quy định tại khoản 1 và
+khoản 3 Điều này phải được thực hiện &lt;span style="background:white"&gt;trong&lt;/span&gt;
+thời hạn 05 ngày làm việc, kể từ ngày phát sinh hoặc thay đổi lợi ích liên
+quan. Công ty phải tập hợp và cập nhật danh sách những người có liên quan của
+công ty và các giao dịch của họ với công ty. Danh sách này phải được lưu giữ
+tại trụ sở chính của công ty. Thành viên, người quản lý, Kiểm soát viên của
+công ty và người đại diện theo ủy quyền của họ có quyền xem, trích lục và sao
+một phần hoặc toàn bộ nội dung thông tin quy định tại khoản 1 và khoản 3 Điều
+này &lt;span style="background:white"&gt;trong&lt;/span&gt; giờ làm việc theo trình tự, thủ
+tục quy định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_72"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 72. Khởi
+kiện ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i quản lý&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên công ty tự mình, hoặc nhân
+danh công ty khởi kiện trách nhiệm dân sự đối &lt;span style="background:white"&gt;với&lt;/span&gt;
+Chủ tịch Hội đồng thành viên, Giám đốc hoặc Tổng giám đốc, người đại diện theo
+pháp luật và cán bộ quản lý khác vi phạm nghĩa vụ của người quản lý trong các
+trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Vi phạm quy định tại Điều 71 của Luật
+này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không thực hiện đúng và đầy đủ
+hoặc thực hiện trái với quy định của pháp luật hoặc Điều lệ công ty về các
+quyền và nghĩa vụ được giao; không thực hiện, thực hiện không đầy đủ, không kịp
+thời nghị quyết của Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Trường hợp khác theo quy định của pháp
+luật và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trình tự, thủ tục khởi kiện thực hiện
+tương ứng theo quy định của pháp luật về tố tụng dân sự.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chi phí khởi kiện &lt;span style="background:white"&gt;trong&lt;/span&gt; trường hợp thành viên khởi kiện nhân danh
+công ty được tính vào chi phí của công ty, trừ trường hợp thành viên khởi kiện bị
+bác yêu cầu khởi kiện.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="muc_2"&gt;&lt;b&gt;Mục 2: CÔNG TY TRÁCH NHIỆM HỮU HẠN
+MỘT THÀNH VIÊN&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_73"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 73. Công ty
+trách nhiệm hữu hạn một thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty trách nhiệm hữu hạn một thành
+viên là doanh nghiệp do một tổ chức hoặc một cá nhân làm chủ sở hữu (sau đây
+gọi là chủ sở hữu công ty); chủ sở hữu công ty chịu trách nhiệm về các khoản nợ
+và nghĩa vụ tài sản khác của công ty &lt;span style="background:white"&gt;trong&lt;/span&gt;
+phạm vi số vốn điều lệ của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty trách nhiệm hữu hạn một thành
+viên có tư cách pháp nhân kể từ ngày được cấp Giấy chứng nhận đăng ký doanh
+nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty trách nhiệm hữu hạn một thành
+viên không được quyền phát hành cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_74"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 74. Thực
+hiện góp vốn thành lập công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Vốn điều lệ của công ty trách
+nhiệm hữu hạn một thành viên tại thời điểm &lt;span style="background:white"&gt;đăng
+ký&lt;/span&gt; doanh nghiệp là tổng giá trị tài sản do chủ sở hữu cam kết góp và ghi
+trong Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ sở hữu phải góp đủ và đúng
+loại tài sản như đã cam kết khi đăng ký thành lập doanh nghiệp trong thời hạn
+90 ngày, kể từ ngày được cấp Giấy chứng nhận đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp không góp đủ vốn điều
+lệ &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn quy định tại khoản 2
+Điều này, chủ sở hữu công ty phải đăng ký điều chỉnh vốn điều lệ bằng giá trị
+số vốn thực góp &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 30 ngày,
+kể từ ngày cuối cùng phải góp đủ vốn điều lệ. Trường hợp này, chủ sở hữu phải
+chịu trách nhiệm tương ứng với phần vốn góp đã cam kết đối với các nghĩa vụ tài
+chính của công ty phát sinh &lt;span style="background:white"&gt;trong&lt;/span&gt; thời
+gian trước khi công ty đăng ký thay đổi vốn điều lệ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chủ sở hữu chịu trách nhiệm bằng toàn
+bộ tài sản của mình đối với các nghĩa vụ tài chính của công ty, thiệt hại xảy
+ra do không góp, không góp đủ, không góp đúng hạn vốn điều lệ.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_75"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 75. Quyền
+của chủ sở hữu công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ sở hữu công ty là tổ chức có các
+quyền sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Quyết định nội dung Điều lệ công
+ty, sửa đổi, bổ sung Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định chiến lược phát triển và
+kế hoạch kinh doanh hằng năm của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Quyết định cơ cấu tổ chức quản lý công
+ty, bổ nhiệm, miễn nhiệm, bãi nhiệm người quản lý công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Quyết định dự án đầu tư phát triển;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Quyết định các giải pháp phát
+triển thị trường, tiếp thị và công nghệ; &lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Thông qua hợp đồng vay, cho vay và
+các hợp đồng khác do Điều lệ công ty quy định có giá trị bằng hoặc lớn hơn 50% tổng
+giá trị tài sản được ghi &lt;span style="background:white"&gt;trong&lt;/span&gt; báo cáo
+tài chính gần nhất của công ty hoặc một tỷ lệ hoặc giá trị khác nhỏ hơn quy định
+tại Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Quyết định bán tài sản có giá trị bằng
+hoặc lớn hơn 50% tổng giá trị tài sản được ghi &lt;span style="background:white"&gt;trong&lt;/span&gt;
+báo cáo tài chính gần nhất của công ty hoặc một tỷ lệ hoặc giá trị khác nhỏ hơn
+quy định tại Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Quyết định tăng vốn điều lệ của
+công ty; chuyển nhượng một phần hoặc toàn bộ vốn &lt;span style="background:white"&gt;điều&lt;/span&gt;
+lệ của công ty cho tổ chức, cá nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Quyết định thành lập công ty con, góp
+vốn vào công ty khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;k) Tổ chức giám sát và đánh giá hoạt động
+kinh doanh của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;l) Quyết định việc sử dụng lợi nhuận sau
+khi đã hoàn thành nghĩa vụ thuế và các nghĩa vụ tài chính khác của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;m) Quyết định tổ chức lại, giải thể và
+yêu cầu phá sản công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;n) Thu hồi toàn bộ giá trị tài sản
+của công ty sau khi công ty hoàn thành giải thể hoặc phá sản;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;o) Quyền khác theo quy định của Luật này
+và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ sở hữu công ty là cá nhân có các
+quyền sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Quyết định nội dung Điều lệ công ty,
+sửa đổi, bổ sung Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định đầu tư, kinh doanh và quản
+trị nội bộ công ty, trừ trường hợp Điều lệ công ty có quy định khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Quyết định tăng vốn điều lệ,
+chuyển nhượng một phần hoặc toàn bộ vốn điều lệ của công ty cho tổ chức, cá
+nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Quyết định việc sử dụng lợi nhuận sau
+khi đã hoàn thành nghĩa vụ thuế và các nghĩa vụ tài chính khác của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Quyết định tổ chức lại, giải thể và
+yêu cầu phá sản công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Thu hồi toàn bộ giá trị tài sản
+của công ty sau khi công ty hoàn thành giải thể hoặc phá sản;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Quyền khác theo quy định của Luật này
+và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_76"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 76. Nghĩa
+vụ của chủ sở hữu công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Góp đầy đủ và đúng hạn vốn &lt;span style="background:white"&gt;điều&lt;/span&gt; lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tuân thủ Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Phải xác định và tách biệt tài sản
+của chủ sở hữu công ty và tài sản của công ty. Chủ sở hữu công ty là cá nhân
+phải tách biệt các chi tiêu của cá nhân và gia đình mình với các chi tiêu trên
+cương vị là Chủ tịch công ty và Giám đốc hoặc Tổng giám đốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Tuân thủ quy định của pháp luật về
+hợp đồng và pháp luật có liên quan &lt;span style="background:white"&gt;trong&lt;/span&gt; việc
+mua, bán, vay, cho vay, thuê, cho thuê và các giao dịch khác giữa công ty và chủ
+sở hữu công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Chủ sở hữu công ty chỉ được quyền rút
+vốn bằng cách chuyển nhượng một phần hoặc toàn bộ vốn điều lệ cho tổ chức hoặc
+cá nhân khác; trường hợp rút một phần hoặc toàn bộ vốn điều lệ đã góp ra khỏi
+công ty dưới hình thức khác thì chủ sở hữu và cá nhân, tổ chức có liên quan phải
+liên đới chịu trách nhiệm về các khoản nợ và nghĩa vụ tài sản khác của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Chủ sở hữu công ty không được rút lợi
+nhuận khi công ty không thanh toán đủ các khoản nợ và nghĩa vụ tài sản khác đến
+hạn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Thực hiện nghĩa vụ khác theo quy
+định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_77"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 77. Thực
+hiện quyền của chủ sở hữu công ty trong một số &lt;span style="background:white"&gt;trường
+hợp&lt;/span&gt; đặc biệt&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Trường hợp chủ sở hữu công ty
+chuyển nhượng, tặng cho một phần vốn điều lệ cho tổ chức hoặc cá nhân khác hoặc
+công ty kết nạp thêm thành viên mới, công ty phải tổ chức hoạt động theo loại
+hình công ty trách nhiệm hữu hạn hai thành viên trở lên hoặc công ty cổ phần và
+đồng thời thực hiện đăng ký thay đổi nội dung đăng ký doanh nghiệp &lt;span style="background:white"&gt;với&lt;/span&gt; Cơ quan đăng ký kinh doanh trong thời hạn 10
+ngày, kể từ ngày hoàn thành việc chuyển nhượng, tặng cho hoặc kết nạp thành viên
+mới.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp chủ sở hữu công ty là cá
+nhân bị tạm giam, bị kết án tù hoặc bị Tòa án tước quyền hành nghề theo quy định
+của pháp luật, thành viên đó ủy quyền cho người khác thực hiện quyền và nghĩa
+vụ của chủ sở hữu công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp chủ sở hữu công ty là cá
+nhân chết thì người thừa kế theo di chúc hoặc theo pháp luật là chủ sở hữu hoặc
+thành viên của công ty. Công ty phải tổ chức hoạt động theo loại hình doanh
+nghiệp tương ứng và &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; thay đổi nội
+dung đăng ký doanh nghiệp trong thời hạn 10 ngày, kể từ ngày kết thúc việc giải
+quyết thừa kế.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp chủ sở hữu công ty là cá nhân
+chết mà không có người thừa kế, ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i thừa
+&lt;span style="background:white"&gt;kế từ&lt;/span&gt; chối nhận thừa kế hoặc bị truất
+quyền thừa kế thì phần vốn góp của chủ sở hữu được giải quyết theo quy định của
+pháp luật về dân sự.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp chủ sở hữu công ty là cá
+nhân bị hạn chế hoặc bị mất năng lực hành vi dân sự thì quyền và nghĩa vụ &lt;span style="background:white"&gt;của&lt;/span&gt; chủ sở hữu công ty được thực hiện thông qua
+người giám hộ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trường hợp chủ sở hữu công ty là
+tổ chức bị giải thể hoặc phá sản thì người nhận chuyển nhượng phần vốn góp của
+chủ sở hữu sẽ trở thành chủ sở hữu hoặc thành viên công ty. Công ty phải tổ
+chức hoạt động theo loại hình doanh nghiệp tương ứng và đăng ký thay đổi nội
+dung đăng ký doanh nghiệp trong thời hạn 10 ngày, kể từ ngày hoàn thành việc
+chuyển nhượng.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_78"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 78. Cơ cấu tổ
+chức quản lý của công ty trách nhiệm hữu hạn một thành viên do tổ chức làm chủ
+sở hữu&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty trách nhiệm hữu hạn một thành
+viên do tổ chức làm chủ sở hữu được tổ chức quản lý và hoạt động theo một &lt;span style="background:white"&gt;trong&lt;/span&gt; hai mô hình sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chủ tịch công ty, Giám đốc hoặc
+Tổng giám đốc và Kiểm soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Hội đồng thành viên, Giám đốc hoặc
+Tổng giám đốc và Kiểm soát viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp Điều lệ công ty không quy
+định thì Chủ tịch Hội đồng thành viên hoặc Chủ tịch công ty là người đại diện
+theo pháp luật của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp Điều lệ công ty không quy
+định khác, thì chức năng, quyền và nghĩa vụ của Hội đồng thành viên, Chủ tịch
+công ty, Giám đốc hoặc Tổng giám đốc và Kiểm soát viên thực hiện theo quy định
+của Luật này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_79"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 79. Hội
+đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên Hội đồng thành viên do chủ
+sở hữu công ty bổ nhiệm, miễn nhiệm gồm từ 03 đến 07 thành viên với nhiệm kỳ không
+quá 05 năm. Hội đồng thành viên nhân danh chủ sở hữu công ty thực hiện các
+quyền và nghĩa vụ của chủ sở hữu công ty; nhân danh công ty thực hiện các quyền
+và nghĩa vụ của công ty, trừ quyền và nghĩa vụ của Giám đốc hoặc Tổng giám đốc;
+chịu trách nhiệm trước pháp luật và chủ sở hữu công ty về việc thực hiện các
+quyền và nghĩa vụ được giao theo quy định của Luật này và quy định khác của
+pháp luật có liên quan.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Quyền, nghĩa vụ và quan hệ làm
+việc của Hội đồng thành viên đối với chủ sở hữu công ty được thực hiện theo quy
+định tại Điều lệ công ty và pháp luật có liên quan.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chủ tịch Hội đồng thành viên do
+chủ sở hữu bổ nhiệm hoặc do các thành viên Hội đồng thành viên bầu theo nguyên
+tắc quá bán, theo trình tự, thủ tục quy định tại Điều lệ công ty. Trường hợp
+Điều lệ công ty không có quy định khác, thì nhiệm kỳ, quyền và nghĩa vụ của Chủ
+tịch Hội đồng thành viên áp dụng theo quy định tại Điều 57 và quy định khác có
+liên quan của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Thẩm quyền, cách thức triệu tập
+họp Hội đồng thành viên áp dụng theo quy định tại Điều 58 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Cuộc họp của Hội đồng thành viên được
+tiến hành khi có ít nhất hai phần ba tổng số thành viên dự họp. Trường hợp Điều
+lệ công ty không có quy định khác thì mỗi thành viên có một phiếu biểu quyết có
+giá trị như nhau. Hội đồng thành viên có thể thông qua quyết định theo hình
+thức lấy ý kiến bằng văn bản.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Nghị quyết của Hội đồng thành viên
+được thông qua khi có hơn một nửa số thành viên dự họp tán thành. Việc sửa đổi,
+bổ sung Điều lệ công ty, tổ chức lại công ty, chuyển nhượng một phần hoặc toàn bộ
+vốn điều lệ của công ty phải được ít nhất ba phần tư số thành viên dự họp tán
+thành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Nghị quyết của Hội đồng thành viên có
+hiệu lực kể từ ngày được thông qua hoặc từ ngày ghi tại nghị quyết đó, trừ
+trường hợp Điều lệ công ty có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Các cuộc họp của Hội đồng thành viên
+phải được ghi biên bản, có thể được ghi âm hoặc ghi và lưu giữ dưới hình thức
+điện tử khác. Nội dung biên bản họp Hội đồng thành viên áp dụng theo quy định
+tại Điều 61 của Luật này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_80"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 80. Chủ
+tịch công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ tịch công ty do chủ sở hữu bổ nhiệm.
+Chủ tịch công ty nhân danh chủ sở hữu thực hiện các quyền và nghĩa vụ của chủ
+sở hữu công ty; nhân danh công ty thực hiện các quyền và nghĩa vụ của công ty,
+trừ quyền và nghĩa vụ của Giám đốc hoặc Tổng giám đốc; chịu trách nhiệm trước
+pháp luật và chủ sở hữu công ty về việc thực hiện các quyền và nghĩa vụ được
+giao theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; của Luật này, pháp
+luật có liên quan và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Quyền, nghĩa vụ và chế độ làm việc
+của Chủ tịch công ty đối với chủ sở hữu công ty được thực hiện theo quy định
+tại Điều lệ công ty, Luật này và pháp luật có liên quan.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Quyết định của Chủ tịch công ty về
+thực hiện quyền và nghĩa vụ của chủ sở hữu công ty có hiệu lực kể từ ngày được chủ
+sở hữu công ty phê duyệt, trừ trường hợp Điều lệ công ty có quy định khác.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_81"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 81. Giám
+đốc, Tổng giám đốc&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng thành viên hoặc Chủ tịch công
+ty bổ nhiệm hoặc thuê Giám đốc hoặc Tổng giám đốc &lt;span style="background:white"&gt;với&lt;/span&gt;
+nhiệm kỳ không quá 05 năm để điều hành hoạt động kinh doanh hằng ngày của công
+ty. Giám đốc hoặc Tổng giám đốc chịu trách nhiệm trước pháp luật và Hội đồng
+thành viên hoặc Chủ tịch công ty về việc thực hiện quyền và nghĩa vụ của mình.
+Chủ tịch Hội đồng thành viên, thành viên khác của Hội đồng thành viên hoặc Chủ
+tịch công ty có thể kiêm Giám đốc hoặc Tổng giám đốc trừ trường hợp pháp luật,
+Điều lệ công ty có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Giám đốc hoặc Tổng giám đốc có các
+quyền và nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tổ chức thực hiện quyết định của
+Hội đồng thành viên hoặc Chủ tịch công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định các vấn đề liên quan
+đến hoạt động kinh doanh hằng ngày của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tổ chức thực hiện kế hoạch kinh doanh
+và phương án đầu tư của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Ban hành quy chế quản lý nội bộ
+của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Bổ nhiệm, miễn nhiệm, bãi nhiệm người
+quản lý trong công ty, trừ các đối tượng thuộc thẩm quyền của Hội đồng thành
+viên hoặc Chủ tịch công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Ký kết hợp đồng nhân danh công ty,
+trừ trường hợp thuộc thẩm quyền của Chủ tịch Hội đồng thành viên hoặc Chủ tịch
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Kiến nghị phương án cơ cấu tổ chức
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Trình báo cáo quyết toán tài chính
+hằng năm lên Hội đồng thành viên hoặc Chủ tịch công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Kiến nghị phương án sử dụng lợi nhuận
+hoặc xử lý lỗ trong kinh doanh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;k) Tuyển dụng lao động;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;l) Quyền và nghĩa vụ khác được quy định
+tại Điều lệ công ty, hợp đồng lao động mà Giám đốc hoặc Tổng giám đốc ký với Chủ
+tịch Hội đồng thành viên hoặc Chủ tịch công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Giám đốc hoặc Tổng giám đốc phải có
+các tiêu chuẩn và điều kiện sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Có năng lực hành vi dân sự đầy đủ và
+không thuộc đối tượng quy định tại khoản 2 Điều 18 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Có trình độ chuyên môn, kinh
+nghiệm thực tế &lt;span style="background:white"&gt;trong&lt;/span&gt; quản trị kinh doanh
+của công ty, nếu Điều lệ công ty không có quy định khác.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_82"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 82. Kiểm
+soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ sở hữu công ty quyết định số lượng
+Kiểm soát viên, bổ nhiệm Kiểm soát viên với nhiệm kỳ không quá 05 năm và việc
+thành lập Ban kiểm soát. Kiểm soát viên chịu trách nhiệm trước pháp luật và chủ
+sở hữu công ty về việc thực hiện các quyền và nghĩa vụ của mình.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Kiểm soát viên có các quyền và nghĩa
+vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Kiểm tra tính hợp pháp, trung
+thực, cẩn trọng của Hội đồng thành viên, Chủ tịch công ty và Giám đốc hoặc Tổng
+giám đốc &lt;span style="background:white"&gt;trong&lt;/span&gt; tổ chức thực hiện quyền
+chủ sở hữu, &lt;span style="background:white"&gt;trong&lt;/span&gt; quản lý điều hành công
+việc kinh doanh của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thẩm định báo cáo tài chính, báo cáo
+tình hình kinh doanh, báo cáo đánh giá công tác quản lý và các báo cáo khác trước
+khi trình chủ sở hữu công ty hoặc cơ quan nhà nước có liên quan; trình chủ sở
+hữu công ty báo cáo thẩm định;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Kiến nghị chủ sở hữu công ty các giải
+pháp sửa đổi, bổ sung, cơ cấu tổ chức quản lý, điều hành công việc kinh doanh
+của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Xem xét bất kỳ hồ sơ, tài liệu nào
+của công ty tại trụ sở chính hoặc chi nhánh, văn phòng đại diện của công ty. Thành
+viên Hội đồng thành viên, Chủ tịch công ty, Giám đốc hoặc Tổng giám đốc và
+người quản lý khác có nghĩa vụ cung cấp đầy đủ, kịp thời các thông tin về thực
+hiện quyền chủ sở hữu, về quản lý, điều hành và hoạt động kinh doanh của công
+ty theo yêu cầu của Kiểm soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Tham dự và thảo luận tại các cuộc họp
+Hội đồng thành viên và các cuộc họp khác &lt;span style="background:white"&gt;trong&lt;/span&gt;
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Quyền và nghĩa vụ khác quy định
+tại Điều lệ công ty hoặc theo yêu cầu, &lt;span style="background:white"&gt;quyết&lt;/span&gt;
+định của chủ sở hữu công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Kiểm soát viên phải có các tiêu chuẩn
+và điều kiện sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Có năng lực hành vi dân sự đầy đủ và
+không thuộc đối tượng &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại khoản
+2 Điều 18 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không phải là người có liên quan
+của thành viên Hội đồng thành viên, Chủ tịch công ty, Giám đốc hoặc Tổng giám
+đốc, người có thẩm quyền trực tiếp bổ nhiệm Kiểm soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Có trình độ chuyên môn, kinh
+nghiệm nghề nghiệp về kế toán, kiểm toán hoặc trình độ chuyên môn, kinh nghiệm
+thực tế &lt;span style="background:white"&gt;trong&lt;/span&gt; ngành, nghề kinh doanh của
+công ty hoặc tiêu chuẩn, điều kiện khác quy định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Điều lệ công ty quy định cụ thể về
+nội dung và cách thức phối hợp hoạt động của các Kiểm soát viên.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_83"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 83. Trách nhiệm
+của thành viên Hội đồng thành viên, Chủ tịch công ty, Giám đốc, Tổng giám đốc
+và Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tuân thủ pháp luật, Điều lệ công ty,
+quyết định của chủ sở hữu công ty trong việc thực hiện các quyền và nghĩa vụ
+được giao.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thực hiện các quyền và nghĩa vụ
+được giao một cách trung thực, cẩn trọng, tốt nhất nhằm bảo đảm lợi ích hợp
+pháp tối đa của công ty và chủ sở hữu công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trung thành với lợi ích của công ty
+và chủ sở hữu công ty; không sử dụng thông tin, bí quyết, cơ hội kinh doanh của
+công ty, lạm dụng địa vị, chức vụ và &lt;span style="background:white"&gt;sử dụng&lt;/span&gt;
+tài sản của công ty để tư lợi hoặc phục vụ lợi ích của tổ chức, cá nhân khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Thông báo kịp thời, đầy đủ và chính
+xác cho công ty về doanh nghiệp mà họ và người có liên quan của họ làm chủ sở
+hữu hoặc có cổ phần, phần vốn góp chi phối. Thông báo này được niêm yết tại trụ
+sở chính và chi nhánh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Quyền và nghĩa vụ khác theo quy
+định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_84"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 84. Thù lao,
+tiền lương và lợi ích khác của người quản lý công ty và Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Người quản lý công ty và Kiểm soát
+viên được hưởng thù lao hoặc tiền lương và lợi ích khác theo kết quả và hiệu
+quả kinh doanh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ sở hữu công ty quyết định mức thù
+lao, tiền lương và lợi ích khác của thành viên Hội đồng thành viên, Chủ tịch
+công ty và Kiểm soát viên. Thù lao, tiền lương và lợi ích khác của người quản
+lý công ty và Kiểm soát viên được tính vào chi phí kinh doanh theo quy định của
+pháp luật về thuế, pháp luật có liên quan và được thể hiện thành mục riêng &lt;span style="background:white"&gt;trong&lt;/span&gt; báo cáo tài chính hằng năm của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thù lao, tiền lương và lợi ích khác
+của kiểm soát viên có thể do chủ sở hữu công ty chi trả trực tiếp theo quy định
+tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_85"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 85. Cơ cấu tổ
+chức quản lý công ty trách nhiệm hữu hạn một thành viên do cá nhân làm chủ sở
+hữu&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty trách nhiệm hữu hạn một thành
+viên do cá nhân làm chủ sở hữu có Chủ tịch công ty, Giám đốc hoặc Tổng giám đốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ tịch công ty có thể kiêm nhiệm
+hoặc thuê người khác làm Giám đốc hoặc Tổng giám đốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Quyền, nghĩa vụ của Giám đốc hoặc Tổng
+giám đốc được quy định tại Điều lệ công ty, hợp đồng lao động mà Giám đốc hoặc
+Tổng giám đốc ký với Chủ tịch công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_86"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 86. Hợp
+đồng, giao dịch của công ty &lt;span style="background:white"&gt;với&lt;/span&gt; những
+người có liên quan&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Trường hợp Điều lệ công ty không có
+quy định khác, hợp đồng, giao dịch giữa công ty trách nhiệm hữu hạn một thành
+viên do tổ chức làm chủ sở hữu với những người sau đây phải được Hội đồng thành
+viên hoặc Chủ tịch công ty, Giám đốc hoặc Tổng giám đốc và Kiểm soát viên xem
+xét quyết định:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chủ sở hữu công ty và người có liên
+quan của chủ sở hữu công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thành viên Hội đồng thành viên, Giám
+đốc hoặc Tổng giám đốc và Kiểm soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Người có liên quan của những người
+quy định tại điểm b khoản này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Người quản lý của chủ sở hữu công ty,
+người có thẩm quyền bổ nhiệm những người quản lý đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Người có liên quan của những người
+quy định tại điểm d khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Người ký kết hợp đồng phải thông báo cho
+Hội đồng thành viên hoặc Chủ tịch công ty, Giám đốc hoặc Tổng giám đốc và Kiểm
+soát viên về các đối tượng có liên quan đối với hợp đồng, giao dịch đó; đồng
+thời kèm theo dự thảo &lt;span style="background:white"&gt;hợp đồng&lt;/span&gt; hoặc nội
+dung chủ yếu của giao dịch đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp Điều lệ công ty không có
+quy định khác, Hội đồng thành viên, Chủ tịch công ty và Kiểm soát viên phải quyết
+định việc chấp thuận hợp đồng hoặc giao dịch trong thời hạn 10 ngày, kể từ ngày
+nhận được thông báo theo nguyên tắc đa số, mỗi người có một phiếu biểu quyết;
+người có lợi ích liên quan không có quyền biểu quyết.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Hợp đồng, giao dịch quy định tại khoản
+1 Điều này chỉ được chấp thuận khi có đủ các điều kiện sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Các bên ký kết hợp đồng hoặc thực hiện
+giao dịch là những chủ thể pháp lý độc lập, có quyền, nghĩa vụ, tài sản và lợi
+ích riêng biệt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Giá sử dụng trong &lt;span style="background:white"&gt;hợp đồng&lt;/span&gt; hoặc giao dịch là giá thị trường tại thời
+điểm &lt;span style="background:white"&gt;hợp đồng&lt;/span&gt; được ký kết hoặc giao dịch
+được thực hiện;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Chủ sở hữu công ty tuân thủ đúng nghĩa
+vụ quy định tại khoản 4 Điều 76 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Hợp đồng, giao dịch bị vô hiệu và xử
+lý theo quy định của pháp luật nếu được ký kết không đúng quy định tại các khoản
+1, 2 và 3 Điều này, gây thiệt hại cho công ty. Người ký hợp đồng và người có
+liên quan là các bên của hợp đồng liên đới chịu trách nhiệm về thiệt hại phát
+sinh và hoàn trả cho công ty các khoản lợi thu được từ việc thực hiện hợp đồng,
+giao dịch đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Hợp đồng, giao dịch giữa công ty trách
+nhiệm hữu hạn một thành viên do cá nhân làm chủ sở hữu với chủ sở hữu công ty
+hoặc người có liên quan của chủ sở hữu công ty phải được ghi chép lại và lưu
+giữ thành hồ sơ riêng của công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_87"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 87. Thay
+đổi vốn điều lệ&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty trách nhiệm hữu hạn một thành
+viên thay đổi vốn điều lệ trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Hoàn trả một phần vốn góp &lt;span style="background:white"&gt;trong&lt;/span&gt; vốn điều lệ của công ty nếu đã hoạt động kinh
+doanh liên tục trong hơn 02 năm, kể từ ngày đăng ký doanh nghiệp và bảo đảm
+thanh toán đủ các khoản nợ và nghĩa vụ tài sản khác sau khi đã hoàn trả cho chủ
+sở hữu;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Vốn điều lệ không được chủ sở hữu thanh
+toán đầy đủ và đúng hạn theo quy định tại Điều 74 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty trách nhiệm hữu hạn một thành
+viên tăng vốn điều lệ bằng việc chủ sở hữu công ty đầu tư thêm hoặc huy động
+thêm vốn góp của người khác. Chủ sở hữu &lt;span style="background:white"&gt;quyết&lt;/span&gt;
+định hình thức tăng và mức tăng vốn điều lệ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp tăng vốn &lt;span style="background:white"&gt;điều&lt;/span&gt; lệ bằng việc huy động thêm phần vốn góp
+của người khác, công ty phải tổ chức quản lý theo một trong hai loại hình sau
+đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Công ty trách nhiệm hai thành viên
+trở lên và công ty phải thông báo thay đổi nội dung đăng ký doanh nghiệp trong thời
+hạn 10 ngày, kể từ ngày hoàn thành việc thay đổi vốn điều lệ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Công ty cổ phần theo quy định tại Điều
+196 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="chuong_4"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Chương IV&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_88"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 88. Áp dụng
+quy định đối với doanh nghiệp nhà nước&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp nhà nước được tổ chức
+quản lý theo quy định tại Chương này, các quy định tương ứng tại mục 2 Chương III
+và các quy định khác có liên quan của Luật này. Trường hợp có sự khác nhau giữa
+quy định của Chương IV với Chương III và các quy định có liên quan khác của
+Luật này, thì áp dụng quy định tại Chương này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Việc tổ chức quản lý doanh nghiệp do
+Nhà nước nắm giữ dưới 100% vốn điều lệ thực hiện theo các quy định tương ứng tại
+mục 1 Chương III và Chương V của Luật này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_89"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 89. Cơ cấu tổ
+chức quản lý&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Cơ quan đại diện chủ sở hữu quyết
+định tổ chức quản lý doanh nghiệp nhà nước dưới hình thức công ty trách nhiệm
+hữu hạn theo một &lt;span style="background:white"&gt;trong&lt;/span&gt; hai mô hình quy
+định tại khoản 1 Điều 78 của Luật này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_90"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 90. Hội
+đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng thành viên nhân danh công
+ty thực hiện các quyền và nghĩa vụ của công ty theo quy định của Luật này và quy
+định khác của pháp luật có liên quan.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hội đồng thành viên bao gồm Chủ
+tịch và các thành viên khác, số lượng không quá 07 người. Thành viên Hội đồng
+thành viên làm việc theo chế độ chuyên trách và do cơ quan đại diện chủ sở hữu
+quyết định, bổ nhiệm, miễn nhiệm, cách chức hoặc khen thưởng, kỷ luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Nhiệm kỳ của Chủ tịch và thành viên
+khác của Hội đồng thành viên không quá 05 năm. Thành viên Hội đồng thành viên
+có thể được bổ nhiệm lại nhưng chỉ được bổ nhiệm làm thành viên Hội đồng thành
+viên của một công ty không quá 02 nhiệm kỳ.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_91"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 91. Quyền và
+nghĩa vụ của Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng thành viên nhân danh công
+ty thực hiện các quyền, nghĩa vụ của chủ sở hữu, cổ đông, thành viên đối với
+công ty do công ty làm chủ sở hữu hoặc sở hữu cổ phần, phần vốn góp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hội đồng thành viên có các quyền và
+nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Quyết định các nội dung theo quy
+định tại Luật quản lý, sử dụng vốn nhà nước đầu tư vào sản xuất, kinh doanh tại
+doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định thành lập, tổ chức lại,
+giải thể chi nhánh, văn phòng đại diện và các đơn vị hạch toán phụ thuộc;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Quyết định kế hoạch sản xuất kinh doanh
+hằng năm, chủ trương phát triển thị trường, tiếp thị và công nghệ của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Tổ chức hoạt động kiểm toán nội bộ
+và quyết định thành lập đơn vị kiểm toán nội bộ của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Quyền và nghĩa vụ khác theo quy
+định của Luật này, pháp luật có liên quan và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_92"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 92. Tiêu chuẩn
+và điều kiện đối &lt;span style="background:white"&gt;với&lt;/span&gt; thành viên Hội đồng
+thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Có trình độ chuyên môn, kinh
+nghiệm thực tế &lt;span style="background:white"&gt;trong&lt;/span&gt; quản trị kinh doanh
+hoặc &lt;span style="background:white"&gt;trong&lt;/span&gt; lĩnh vực, ngành, nghề hoạt
+động của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Không phải là vợ hoặc chồng, cha
+đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị ruột, em ruột,
+anh rể, em rể, chị dâu, em dâu của người đứng đầu, cấp phó của người đứng đầu
+cơ quan đại diện chủ sở hữu; thành viên Hội đồng thành viên; Giám đốc, Phó Giám
+đốc hoặc Tổng giám đốc, Phó Tổng giám đốc và &lt;span style="background:white"&gt;Kế
+toán&lt;/span&gt; trưởng của công ty; Kiểm soát viên công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Không phải là cán bộ, công chức &lt;span style="background:white"&gt;trong&lt;/span&gt; cơ quan nhà nước, tổ chức chính trị, tổ chức
+chính trị - xã hội hoặc không phải là người quản lý, điều hành tại doanh nghiệp
+thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chưa từng bị cách chức Chủ tịch
+Hội đồng thành viên, thành viên Hội đồng thành viên hoặc Chủ tịch công ty, Giám
+đốc, Phó Giám đốc hoặc Tổng giám đốc, Phó Tổng giám đốc của doanh nghiệp nhà
+nước.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Các tiêu chuẩn và điều kiện khác quy
+định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_93"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 93. Miễn nhiệm,
+cách chức thành viên Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ tịch và thành viên khác của
+Hội đồng thành viên bị miễn nhiệm trong những trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Không còn đủ tiêu chuẩn và điều
+kiện &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại Điều 92 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Có đơn xin từ chức và được cơ quan
+đại diện chủ sở hữu chấp thuận bằng văn bản;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Có quyết định điều chuyển, bố trí công
+việc khác hoặc nghỉ hưu;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Không đủ năng lực, trình độ đảm
+nhận công việc được giao; bị mất hoặc bị hạn chế năng lực hành vi dân sự;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Không đủ sức khỏe hoặc không còn
+uy tín để giữ chức vụ thành viên Hội đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ tịch và thành viên khác của
+Hội đồng thành viên bị cách chức trong những &lt;span style="background:white"&gt;trường
+hợp&lt;/span&gt; sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Công ty không hoàn thành các mục tiêu,
+chỉ tiêu kế hoạch hằng năm, không bảo toàn và phát triển vốn đầu tư theo yêu
+cầu của cơ quan đại diện chủ sở hữu mà không giải trình được nguyên nhân khách
+quan hoặc giải trình nguyên nhân không được cơ quan đại diện chủ sở hữu chấp
+thuận;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Bị truy tố và bị Tòa án tuyên là có
+tội;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Không trung thực &lt;span style="background:white"&gt;trong&lt;/span&gt; thực thi quyền, nghĩa vụ hoặc lạm dụng
+địa vị, chức vụ, sử dụng tài sản của công ty để tư lợi hoặc phục vụ lợi ích của
+tổ chức, cá nhân khác; báo cáo không trung thực tình hình tài chính và kết quả
+sản xuất kinh doanh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trong thời hạn 60 ngày, kể từ ngày
+có quyết định miễn nhiệm, cách chức, cơ quan đại diện chủ sở hữu xem xét, quyết
+định tuyển chọn, bổ nhiệm người khác thay thế.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_94"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 94. Chủ
+tịch Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ tịch Hội đồng thành viên do cơ
+quan đại diện chủ sở hữu bổ nhiệm. Chủ tịch Hội đồng thành viên không được kiêm
+Giám đốc hoặc Tổng giám đốc công ty của công ty mình và các doanh nghiệp khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ tịch Hội đồng thành viên có quyền
+và nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Xây dựng kế hoạch hoạt động hằng quý
+và hằng năm của Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chuẩn bị chương trình, tài liệu
+cuộc họp hoặc lấy ý kiến Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Triệu tập và chủ trì cuộc họp Hội đồng
+thành viên hoặc lấy ý kiến các thành viên Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Tổ chức thực hiện các nghị quyết
+của cơ quan đại diện chủ sở hữu và nghị quyết Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Tổ chức giám sát, trực tiếp giám sát
+và đánh giá kết quả thực hiện mục tiêu chiến lược, kết quả hoạt động của công
+ty, kết quả quản lý điều hành của Giám đốc hoặc Tổng giám đốc công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Tổ chức công bố, công khai thông tin
+về công ty theo quy định của pháp luật; chịu trách nhiệm về tính đầy đủ, kịp
+thời, chính xác, trung thực và tính hệ thống của thông tin được công bố;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Quyền và nghĩa vụ khác theo quy
+định của Luật này, pháp luật có liên quan và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Ngoài các trường hợp quy định tại Điều
+93 của Luật này, Chủ tịch Hội đồng thành viên có thể bị miễn nhiệm, cách chức
+nếu không thực hiện được các nhiệm vụ quy định tại khoản 2 Điều này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_95"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 95. Quyền và
+nghĩa vụ của các thành viên khác của Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tham dự cuộc họp Hội đồng thành
+viên, thảo luận, kiến nghị, biểu quyết các vấn đề thuộc &lt;span style="background:
+white"&gt;thẩm quyền&lt;/span&gt; của Hội đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Kiểm tra, xem xét, tra cứu, sao chép
+hoặc trích lục sổ ghi chép và theo dõi các giao dịch, sổ kế toán, báo cáo tài
+chính hằng năm, sổ biên bản họp Hội đồng thành viên, các giấy tờ và tài liệu
+khác của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Quyền và nghĩa vụ khác theo quy
+định của Luật này, pháp luật có liên quan và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_96"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 96. Trách nhiệm
+của Chủ tịch và các thành viên khác của Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tuân thủ pháp luật, Điều lệ công ty,
+quyết định của chủ sở hữu công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thực hiện các quyền và nghĩa vụ
+một cách trung thực, cẩn trọng, tốt nhất nhằm bảo đảm tối đa lợi ích hợp pháp
+của công ty và Nhà nước.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trung thành với lợi ích của công ty
+và Nhà nước; không sử dụng thông tin, bí quyết, cơ hội kinh doanh của công ty,
+địa vị, chức vụ, tài sản của công ty để tư lợi hoặc phục vụ cho lợi ích của tổ
+chức, cá nhân khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Thông báo kịp thời, đầy đủ và chính
+xác cho công ty về các doanh nghiệp mà mình và người có liên quan làm chủ sở
+hữu hoặc có cổ phần, phần vốn góp. Thông báo này được niêm yết tại trụ sở chính
+và chi nhánh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Chấp hành các nghị quyết của Hội
+đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Chịu trách nhiệm cá nhân khi lợi
+dụng danh nghĩa công ty thực hiện hành vi vi phạm pháp luật; tiến hành kinh
+doanh hoặc giao dịch khác không nhằm phục vụ lợi ích của công ty và gây thiệt
+hại cho người khác; thanh toán các khoản nợ chưa đến hạn khi có nguy cơ rủi ro
+tài chính có thể xảy ra đối với công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Trường hợp phát hiện thành viên
+Hội đồng thành viên có hành vi vi phạm nghĩa vụ &lt;span style="background:white"&gt;trong&lt;/span&gt;
+thực hiện quyền và nghĩa vụ được giao thì thành viên khác của Hội đồng thành viên
+có nghĩa vụ báo cáo bằng văn bản với cơ quan đại diện chủ sở hữu; yêu cầu chấm
+dứt hành vi vi phạm và có giải pháp khắc phục hậu quả.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_97"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 97. Chế độ
+làm việc, điều kiện và thể thức tiến hành họp Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng thành viên làm việc theo chế
+độ tập thể; họp ít nhất một lần trong một quý để xem xét và quyết định những
+vấn đề thuộc quyền, nghĩa vụ của mình. Đối với những vấn đề không yêu cầu thảo
+luận thì Hội đồng thành viên có thể lấy ý kiến các thành viên bằng văn bản theo
+quy định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Hội đồng thành viên có thể họp bất thường
+để giải quyết những vấn đề cấp bách theo yêu cầu của cơ quan đại diện chủ sở
+hữu công ty hoặc theo đề nghị của Chủ tịch Hội đồng thành viên hoặc trên 50%
+tổng số thành viên Hội đồng thành viên hoặc Giám đốc hoặc Tổng giám đốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ tịch Hội đồng thành viên hoặc thành
+viên được Chủ tịch Hội đồng thành viên ủy quyền có trách nhiệm chuẩn bị chương
+trình, nội dung tài liệu, triệu tập và chủ trì cuộc họp Hội đồng thành viên.
+Các thành viên Hội đồng thành viên có quyền kiến nghị bằng văn bản về chương
+trình họp. Nội dung và các tài liệu cuộc họp phải gửi đến các thành viên Hội
+đồng thành viên và các đại biểu được mời dự họp, nếu có trước ngày họp ít nhất
+03 ngày làm việc. Tài liệu sử dụng trong cuộc họp liên quan đến việc kiến nghị
+cơ quan đại diện chủ sở hữu công ty sửa đổi, bổ sung Điều lệ công ty, thông qua
+phương hướng phát triển công ty, thông qua báo cáo tài chính hằng năm, tổ chức
+lại hoặc giải thể công ty phải được gửi đến các thành viên chậm nhất 05 ngày
+làm việc trước ngày họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thông báo mời họp có thể bằng giấy
+mời, điện thoại, fax hoặc các phương tiện điện tử khác và được gửi trực tiếp
+đến từng thành viên Hội đồng thành viên và đại biểu khác được mời dự họp. Nội
+dung thông báo mời họp phải xác định rõ &lt;span style="background:white"&gt;thời
+gian&lt;/span&gt;, địa điểm và chương trình họp. Hình thức họp trực tuyến có thể được
+áp dụng khi cần thiết.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cuộc họp lấy ý kiến các thành viên
+của Hội đồng thành viên hợp lệ khi có ít nhất hai phần ba tổng số thành viên
+Hội đồng thành viên tham dự. Nghị quyết của Hội đồng thành viên được thông qua
+khi có quá nửa tổng số thành viên tham dự biểu quyết tán thành; &lt;span style="background:white"&gt;trường hợp&lt;/span&gt; có số phiếu ngang nhau thì nội dung có
+phiếu tán thành của Chủ tịch Hội đồng thành viên hoặc người được Chủ tịch Hội
+đồng thành viên ủy quyền chủ trì cuộc họp là nội dung được thông qua. Thành viên
+Hội đồng thành viên có quyền bảo lưu ý kiến của mình và kiến nghị lên cơ quan
+đại diện chủ sở hữu công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;5. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; lấy ý kiến các thành viên Hội đồng thành viên bằng văn
+bản thì nghị quyết của Hội đồng thành viên được thông qua khi có hơn một nửa
+tổng số thành viên tán thành.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Nghị quyết có thể được thông qua bằng
+cách sử dụng nhiều bản sao của cùng một văn bản nếu mỗi bản sao đó có ít nhất
+một chữ ký của thành viên Hội đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Căn cứ vào nội dung và chương trình
+cuộc họp, khi xét thấy cần thiết, Hội đồng thành viên có quyền hoặc có trách
+nhiệm mời đại diện có thẩm quyền của các cơ quan, tổ chức có liên quan tham dự
+và thảo luận các vấn đề cụ thể trong chương trình cuộc họp. Đại diện các cơ
+quan, tổ chức được mời dự họp có quyền phát biểu ý kiến nhưng không tham gia
+biểu quyết. Các ý kiến phát biểu của đại diện được mời dự họp được ghi đầy đủ
+vào biên bản của cuộc họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Nội dung các vấn đề thảo luận, các
+ý kiến phát biểu, kết quả biểu quyết, các &lt;span style="background:white"&gt;quyết định&lt;/span&gt;
+được Hội đồng thành viên thông qua và kết luận của các cuộc họp của Hội đồng
+thành viên phải được ghi biên bản. Chủ tọa và thư ký cuộc họp phải liên đới
+chịu trách nhiệm về tính chính xác và tính trung thực của biên bản họp Hội đồng
+thành viên. Biên bản họp Hội đồng thành viên phải làm xong và thông qua trước
+khi kết thúc cuộc họp. Biên bản phải có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thời gian, địa điểm, mục đích, chương
+trình họp; danh sách thành viên dự họp; vấn đề được thảo luận và biểu quyết;
+tóm tắt ý kiến phát biểu của thành viên về từng vấn đề thảo luận;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Số phiếu biểu quyết tán thành và
+không tán thành đối &lt;span style="background:white"&gt;với&lt;/span&gt; trường hợp không
+áp dụng phương thức bỏ phiếu trắng hoặc số phiếu biểu quyết tán thành, không
+tán thành và không có ý kiến đối &lt;span style="background:white"&gt;với&lt;/span&gt; trường
+hợp có áp dụng phương thức bỏ phiếu trắng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Các quyết định được thông qua; họ,
+tên, chữ ký của thành viên dự họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Thành viên Hội đồng thành viên có quyền
+yêu cầu Giám đốc, Phó Giám đốc hoặc Tổng giám đốc, Phó Tổng giám đốc, &lt;span style="background:white"&gt;Kế toán&lt;/span&gt; trưởng và người quản lý, điều hành trong
+công ty, công ty con do công ty nắm 100% vốn điều lệ, người đại diện phần vốn
+góp của công ty tại các doanh nghiệp khác cung cấp các thông tin, tài liệu về
+tình hình tài chính, hoạt động của doanh nghiệp theo quy chế thông tin do Hội
+đồng thành viên quy định hoặc theo nghị quyết của Hội đồng thành viên. Người
+được yêu cầu cung cấp thông tin phải cung cấp kịp thời, đầy đủ và chính xác các
+thông tin, tài liệu theo yêu cầu của thành viên Hội đồng thành viên, trừ &lt;span style="background:white"&gt;trường hợp&lt;/span&gt; Hội đồng thành viên có quyết định
+khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Hội đồng thành viên sử dụng bộ máy
+điều hành, bộ phận giúp việc (nếu có) và con dấu của công ty để thực hiện nhiệm
+vụ của mình.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;10. Chi phí hoạt động của Hội đồng thành
+viên, tiền lương, phụ cấp và thù lao khác được tính vào chi phí quản lý công
+ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;11. Trường hợp cần thiết, Hội đồng thành
+viên tổ chức việc lấy ý kiến các chuyên gia tư vấn trong nước và ngoài nước
+trước khi quyết định các vấn đề quan trọng thuộc &lt;span style="background:white"&gt;thẩm
+quyền&lt;/span&gt; của Hội đồng thành viên. Chi phí lấy ý kiến chuyên gia tư vấn được
+&lt;span style="background:white"&gt;quy định&lt;/span&gt; tại quy chế quản lý tài chính
+của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;12. Nghị quyết của Hội đồng thành viên
+có hiệu lực kể từ ngày được thông qua hoặc từ ngày có hiệu lực ghi &lt;span style="background:white"&gt;trong&lt;/span&gt; nghị quyết đó, trừ các trường hợp phải
+được cơ quan đại diện chủ sở hữu chấp thuận.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_98"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 98. Chủ
+tịch công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ tịch công ty do cơ quan đại diện
+chủ sở hữu bổ nhiệm theo quy định của pháp luật. Chủ tịch công ty có nhiệm kỳ
+không quá 05 năm. Chủ tịch công ty có thể được bổ nhiệm lại nhưng không quá hai
+nhiệm kỳ. Tiêu chuẩn, điều kiện và các trường hợp miễn nhiệm, cách chức Chủ tịch
+công ty được thực hiện theo quy định tại Điều 92 và Điều 93 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ tịch công ty thực hiện các
+quyền, nghĩa vụ của người đại diện chủ sở hữu trực tiếp tại công ty theo quy
+định của Luật quản lý, sử dụng vốn nhà nước đầu tư vào sản xuất, kinh doanh tại
+doanh nghiệp; các quyền và nghĩa vụ khác theo quy định tại Điều 91 và Điều 96
+của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tiền lương, thưởng và quyền lợi khác
+của Chủ tịch công ty do cơ quan đại diện chủ sở hữu quyết định và được tính vào
+chi phí quản lý công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chủ tịch công ty sử dụng bộ máy
+quản lý, điều hành, bộ phận giúp &lt;span style="background:white"&gt;việc&lt;/span&gt; (nếu
+có) và con dấu của công ty để thực hiện quyền và nghĩa vụ của mình. Trường hợp
+cần thiết, Chủ tịch công ty tổ chức việc lấy ý kiến các chuyên gia tư vấn trong
+và ngoài nước trước khi quyết định các vấn đề quan trọng thuộc thẩm quyền của
+Chủ tịch công ty. Chi phí lấy ý kiến chuyên gia tư vấn được quy định tại quy
+chế quản lý tài chính của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Các quyết định thuộc thẩm quyền quy
+định tại khoản 2 Điều này phải được lập thành văn bản, ký tên với chức danh Chủ
+tịch công ty bao gồm cả trường hợp Chủ tịch công ty kiêm Giám đốc hoặc Tổng giám
+đốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Quyết định của Chủ tịch công ty có
+hiệu lực kể từ ngày ký hoặc từ ngày có hiệu lực ghi trong quyết định đó, trừ trường
+hợp phải được cơ quan đại diện chủ sở hữu chấp thuận.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Trường hợp Chủ tịch công ty vắng
+mặt ở Việt Nam trên 30 ngày thì phải ủy quyền bằng văn bản cho người khác thực
+hiện một số quyền, nghĩa vụ của Chủ tịch công ty; việc ủy quyền phải được thông
+báo kịp thời bằng văn bản đến cơ quan đại diện chủ sở hữu. Các trường hợp ủy
+quyền khác thực hiện theo quy định tại quy chế quản lý nội bộ của công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_99"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 99. Giám
+đốc, Tổng giám đốc công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Giám đốc hoặc Tổng giám đốc công ty
+do Hội đồng thành viên hoặc Chủ tịch công ty bổ nhiệm hoặc thuê theo phương án
+nhân sự đã được cơ quan đại diện chủ sở hữu chấp thuận. Công ty có một hoặc một
+số Phó Tổng giám đốc hoặc Phó Giám đốc. Số lượng, thẩm quyền bổ nhiệm Phó Tổng
+giám đốc hoặc Phó Giám đốc quy định tại Điều lệ công ty. Quyền và nghĩa vụ của
+Phó Giám đốc hoặc Phó Tổng giám đốc quy định tại Điều lệ công ty hoặc &lt;span style="background:white"&gt;hợp đồng&lt;/span&gt; lao động.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Giám đốc hoặc Tổng giám đốc có
+nhiệm vụ điều hành các hoạt động hằng ngày của công ty và có các quyền và nghĩa
+vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tổ chức thực hiện và đánh giá kết quả
+thực hiện kế hoạch, phương án kinh doanh, kế hoạch đầu tư của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tổ chức thực hiện và đánh giá kết quả
+thực hiện các nghị quyết của Hội đồng thành viên, Chủ tịch công ty và của cơ
+quan đại diện chủ sở hữu công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Quyết định các công việc hằng ngày
+của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Ban hành quy chế quản lý nội bộ
+của công ty đã được Hội đồng thành viên hoặc Chủ tịch công ty chấp thuận;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Ký hợp đồng, thỏa thuận nhân danh công
+ty, trừ trường hợp thuộc thẩm quyền của Chủ tịch Hội đồng thành viên hoặc Chủ
+tịch công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Bổ nhiệm, thuê, miễn nhiệm, cách chức,
+chấm dứt hợp đồng đối &lt;span style="background:white"&gt;với&lt;/span&gt; các chức danh
+quản lý trong công ty, trừ các chức danh thuộc &lt;span style="background:white"&gt;thẩm
+quyền&lt;/span&gt; của Hội đồng thành viên hoặc Chủ tịch công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;g) Tuyển dụng lao động;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Lập và trình Hội đồng thành viên hoặc
+Chủ tịch công ty báo cáo định kỳ hằng quý, hằng năm về &lt;span style="background:
+white"&gt;kết&lt;/span&gt; quả thực hiện mục tiêu kế hoạch kinh doanh và báo cáo tài
+chính hằng năm;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Kiến nghị phương án tổ chức lại công
+ty, khi xét thấy cần thiết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;k) Kiến nghị phân bổ và sử dụng lợi nhuận
+sau thuế và các nghĩa vụ tài chính khác của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;l) Quyền và nghĩa vụ khác theo quy
+định của pháp luật và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_100"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 100. Tiêu chuẩn,
+điều kiện của Giám đốc, Tổng giám đốc&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Có trình độ chuyên môn, kinh
+nghiệm thực tế trong quản trị kinh doanh hoặc trong lĩnh vực, ngành, nghề kinh
+doanh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Không phải là vợ hoặc chồng, cha
+đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị ruột, em ruột của
+người đứng đầu, cấp phó của người đứng đầu cơ quan đại diện chủ sở hữu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Không phải là vợ hoặc chồng, cha
+đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị ruột, em ruột của
+thành viên Hội đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Không phải là vợ hoặc chồng, cha
+đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị ruột, em ruột của
+Phó Tổng giám đốc, Phó Giám đốc và &lt;span style="background:white"&gt;Kế toán&lt;/span&gt;
+trưởng của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Không phải là vợ hoặc chồng, cha
+đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị ruột, em ruột,
+anh rể, em rể, chị dâu, em dâu của Kiểm soát viên công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Không đồng thời là cán bộ, công
+chức trong cơ quan nhà nước hoặc tổ chức chính trị, tổ chức chính trị - xã hội.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Chưa từng bị cách chức Chủ tịch
+Hội đồng thành viên, thành viên Hội đồng thành viên, Chủ tịch công ty, Giám đốc
+hoặc Tổng giám đốc, Phó Tổng giám đốc hoặc Phó Giám đốc tại công ty hoặc ở
+doanh nghiệp nhà nước khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Không được kiêm Giám đốc hoặc Tổng
+giám đốc của doanh nghiệp khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Các tiêu chuẩn, &lt;span style="background:white"&gt;điều&lt;/span&gt; kiện khác quy định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_101"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 101. Miễn nhiệm,
+cách chức đối &lt;span style="background:white"&gt;với&lt;/span&gt; Giám đốc, Tổng giám đốc
+và ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i quản lý công ty khác&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Giám đốc hoặc Tổng giám đốc bị
+miễn nhiệm trong các &lt;span style="background:white"&gt;trường hợp&lt;/span&gt; sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Không còn đủ tiêu chuẩn và điều
+kiện quy định tại Điều 100 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Có đơn xin nghỉ việc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Giám đốc hoặc Tổng giám đốc bị cách
+chức trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Doanh nghiệp không bảo toàn được
+vốn theo quy định pháp luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Doanh nghiệp không hoàn thành các mục
+tiêu kế hoạch kinh doanh hằng năm;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Không có đủ trình độ và năng lực đáp
+ứng yêu cầu của chiến lược phát triển và kế hoạch kinh doanh mới của doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Doanh nghiệp vi phạm pháp luật
+hoặc có hoạt động kinh doanh trái &lt;span style="background:white"&gt;với&lt;/span&gt; quy
+định của pháp luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Vi phạm một trong số các nghĩa vụ của
+người quản lý &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại Điều 96 của
+Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Các trường hợp khác quy định tại Điều
+lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;3. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; miễn nhiệm, cách chức đối &lt;span style="background:
+white"&gt;với&lt;/span&gt; Phó Tổng giám đốc, Phó Giám đốc, &lt;span style="background:
+white"&gt;Kế toán&lt;/span&gt; trưởng và người quản lý công ty khác do Điều lệ công ty
+quy định.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_102"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 102. Ban
+kiểm soát&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Căn cứ quy mô của công ty, cơ quan
+đại diện chủ sở hữu quyết định bổ nhiệm 01 Kiểm soát viên hoặc thành lập Ban
+kiểm soát gồm 03 đến 05 Kiểm soát viên. Nhiệm kỳ Kiểm soát viên không quá 05
+năm và được bổ nhiệm lại nhưng mỗi cá nhân chỉ được bổ nhiệm làm Kiểm soát viên
+của một công ty không quá 02 nhiệm kỳ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Ban kiểm soát có các quyền và nghĩa
+vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Giám sát việc tổ chức thực hiện chiến
+lược phát triển, kế hoạch kinh doanh, thực hiện các mục tiêu chiến lược và mục
+tiêu kế hoạch của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Giám sát và đánh giá việc thực
+hiện các quyền, nghĩa vụ của thành viên Hội đồng thành viên và Hội đồng thành
+viên, Giám đốc hoặc Tổng giám đốc công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Giám sát và đánh giá hiệu lực và
+mức độ tuân thủ quy chế kiểm toán nội bộ, quy chế quản lý và phòng ngừa rủi ro,
+quy chế báo cáo và các quy chế quản trị nội bộ khác của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Giám sát tính hợp pháp, tính hệ
+thống và trung thực trong công tác kế toán, sổ kế toán, trong nội dung báo cáo
+tài chính, các phụ lục và tài liệu liên quan;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Giám sát các giao dịch của công ty
+với các bên có liên quan;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Giám sát thực hiện các dự án đầu tư
+lớn, giao dịch mua, bán và giao dịch kinh doanh khác có quy mô lớn hoặc giao dịch
+kinh doanh bất thường của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Lập và gửi báo cáo đánh giá, kiến nghị
+về các nội dung quy định tại các điểm a, b, c, d, đ và e khoản này cho cơ quan
+đại diện chủ sở hữu và Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Thực hiện các quyền và nghĩa vụ khác
+theo yêu cầu của cơ quan đại diện chủ sở hữu hoặc quy định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tiền lương, thưởng của Kiểm soát viên
+do cơ quan đại diện chủ sở hữu quyết định và chi trả.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chính phủ quy định chi tiết Điều
+này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_103"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 103. Tiêu chuẩn
+và điều kiện đối &lt;span style="background:white"&gt;với&lt;/span&gt; Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Được đào tạo một &lt;span style="background:white"&gt;trong&lt;/span&gt; các chuyên ngành về tài chính, kế toán, kiểm
+toán, luật, quản trị kinh doanh và có ít nhất 03 năm kinh nghiệm làm việc; Trưởng
+Ban kiểm soát phải có ít nhất 05 năm kinh nghiệm làm việc liên quan đến chuyên
+ngành tài chính, kế toán, kiểm toán, luật, quản trị kinh doanh được đào tạo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Không phải là người lao động của
+công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Không phải là vợ hoặc chồng, cha
+đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị ruột, em ruột,
+anh rể, em rể, chị dâu, em dâu của đối tượng sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Người đứng đầu, cấp phó của người đứng
+đầu cơ quan đại diện chủ sở hữu của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thành viên Hội đồng thành viên của
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Phó Giám đốc hoặc Phó &lt;span style="background:white"&gt;Tổng&lt;/span&gt; giám đốc và Kế toán trưởng của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Kiểm soát viên khác của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Không được kiêm Giám đốc hoặc Tổng
+giám đốc của doanh nghiệp khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Không được đồng thời là Kiểm soát viên,
+thành viên Hội đồng thành viên, thành viên Hội đồng quản trị của doanh nghiệp
+không phải là doanh nghiệp nhà nước.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Các tiêu chuẩn và điều kiện khác quy
+định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_104"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 104. Quyền
+của Ban kiểm soát và Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tham gia các cuộc họp của Hội đồng
+thành viên, các cuộc tham vấn và trao đổi chính thức và không chính thức của cơ
+quan đại diện chủ sở hữu với Hội đồng thành viên; có quyền chất vấn Hội đồng thành
+viên, thành viên Hội đồng thành viên và Giám đốc hoặc Tổng giám đốc công ty về
+các kế hoạch, dự án hay chương trình đầu tư phát triển và các quyết định khác &lt;span style="background:white"&gt;trong&lt;/span&gt; quản lý điều hành công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Xem xét sổ sách kế toán, báo cáo, hợp
+đồng, giao dịch và tài liệu khác của công ty; kiểm tra công việc quản lý điều
+hành của Hội đồng thành viên, thành viên Hội đồng thành viên, Giám đốc hoặc
+Tổng giám đốc khi xét thấy cần thiết hoặc theo yêu cầu của cơ quan đại diện chủ
+sở hữu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Xem xét, đánh giá thực trạng hoạt động
+kinh doanh, thực trạng tài chính của công ty, thực trạng vận hành và hiệu lực
+các quy chế quản trị nội bộ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Yêu cầu thành viên Hội đồng thành viên,
+Giám đốc, Phó Giám đốc hoặc Tổng giám đốc, Phó Tổng giám đốc, &lt;span style="background:white"&gt;Kế toán&lt;/span&gt; trưởng và những người quản lý khác báo cáo,
+cung cấp thông tin về bất cứ việc gì &lt;span style="background:white"&gt;trong&lt;/span&gt;
+phạm vi quản lý và hoạt động &lt;span style="background:white"&gt;đầu tư&lt;/span&gt;, kinh
+doanh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Yêu cầu những người quản lý công ty
+báo cáo về thực trạng tài chính, thực trạng và kết quả kinh doanh của công ty
+con khi xét thấy cần thiết để thực hiện các nhiệm vụ theo quy định của pháp luật
+và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Trường hợp phát hiện có thành viên
+Hội đồng thành viên, Giám đốc hoặc Tổng giám đốc và những người quản lý khác làm
+trái các quy định về quyền, nghĩa vụ và trách nhiệm của họ hoặc có nguy cơ làm
+trái các &lt;span style="background:white"&gt;quy định&lt;/span&gt; đó; hoặc phát hiện hành
+vi vi phạm pháp luật, làm trái các quy định về quản lý kinh tế, trái quy định
+Điều lệ công ty hoặc các quy chế quản trị nội bộ công ty phải báo cáo ngay cho
+cơ quan đại diện chủ sở hữu công ty, các thành viên khác của Ban kiểm soát và
+cá nhân có liên quan.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Đề nghị cơ quan đại diện chủ sở
+hữu thành lập đơn vị thực hiện nhiệm vụ kiểm toán tham mưu và trực tiếp &lt;span style="background:white"&gt;hỗ trợ&lt;/span&gt; Ban kiểm soát thực hiện các quyền và
+nghĩa vụ được giao.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Thực hiện các quyền khác quy định tại
+Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_105"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 105. Chế
+độ làm &lt;span style="background:white"&gt;việc&lt;/span&gt; của Ban kiểm soát và Kiểm
+soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Trưởng Ban kiểm soát làm việc chuyên
+trách tại công ty; các thành viên khác có thể tham gia Ban kiểm soát của không
+quá 04 doanh nghiệp nhà nước nhưng phải được sự đồng ý bằng văn bản của cơ quan
+đại diện chủ sở hữu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trưởng Ban kiểm soát xây dựng kế hoạch
+công tác hằng tháng, hằng quý và hằng năm của Ban kiểm soát; phân công nhiệm vụ
+và công việc cụ thể cho từng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Kiểm soát viên độc lập và chủ động
+thực hiện các nhiệm vụ và công việc được phân công; đề xuất, kiến nghị thực
+hiện các nhiệm vụ, công việc kiểm soát khác ngoài kế hoạch, ngoài phạm vi được
+phân công khi xét thấy cần thiết.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Ban kiểm soát họp ít nhất mỗi tháng
+một lần để rà soát, đánh giá, thông qua báo cáo kết quả kiểm soát trong tháng
+trình cơ quan đại diện chủ sở hữu; thảo luận và thông qua kế hoạch hoạt động
+tiếp theo của Ban kiểm soát.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Quyết định của Ban kiểm soát được thông
+qua khi có đa số thành viên dự họp tán thành. Các ý kiến khác với nội dung
+quyết định đã được thông qua phải được ghi chép đầy đủ, chính xác và báo cáo cơ
+quan đại diện chủ sở hữu.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_106"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 106. Trách
+nhiệm của Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tuân thủ pháp luật, Điều lệ công ty,
+quyết định của cơ quan đại diện chủ sở hữu và đạo đức nghề nghiệp &lt;span style="background:white"&gt;trong&lt;/span&gt; thực hiện các quyền và nghĩa vụ quy định tại
+Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thực hiện các quyền và nghĩa vụ
+được giao một cách trung thực, cẩn trọng, tốt nhất để bảo vệ lợi ích của Nhà
+nước và lợi ích hợp pháp của các bên tại công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trung thành với lợi ích của Nhà
+nước và công ty; không được sử dụng thông tin, bí quyết, cơ hội kinh doanh, lạm
+dụng địa vị, chức vụ, tài sản của công ty để tư lợi hoặc phục vụ cho lợi ích
+của tổ chức, cá nhân khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Các nghĩa vụ khác theo quy định
+của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trường hợp vi phạm nghĩa vụ quy
+định tại các khoản 1, 2, 3 và 4 Điều này mà gây thiệt hại cho công ty thì Kiểm
+soát viên phải chịu trách nhiệm cá nhân hoặc liên đới bồi thường thiệt hại đó;
+tùy theo tính chất, mức độ vi phạm và thiệt hại còn có thể bị xử lý kỷ luật, xử
+phạt vi phạm hành chính hoặc bị truy cứu trách nhiệm hình sự theo quy định pháp
+luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Mọi thu nhập và lợi ích khác mà Kiểm
+soát viên trực tiếp hoặc gián tiếp có được do vi phạm nghĩa vụ quy định tại các
+khoản 1, 2, 3 và 4 Điều này đều phải trả lại công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;7. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; phát hiện có Kiểm soát viên vi phạm nghĩa vụ trong
+thực hiện quyền và nghĩa vụ được giao thì thành viên khác của Ban kiểm soát có
+nghĩa vụ báo cáo bằng văn bản đến cơ quan đại diện chủ sở hữu; yêu cầu chấm dứt
+hành vi vi phạm và có giải pháp khắc phục hậu quả.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_107"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 107. Miễn nhiệm,
+cách chức Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Kiểm soát viên bị miễn nhiệm trong
+các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Không còn đủ tiêu chuẩn và điều
+kiện theo quy định tại Điều 103 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Có đơn xin từ chức và được cơ quan
+đại diện chủ sở hữu chấp thuận;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Được cơ quan đại diện chủ sở hữu hoặc
+cơ quan có thẩm quyền khác điều động, phân công thực hiện nhiệm vụ khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;d) Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; khác theo quy định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Kiểm soát viên bị cách chức trong các
+trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Không hoàn thành nhiệm vụ, công
+việc được phân công;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không thực hiện quyền và nghĩa vụ của
+mình trong 03 tháng liên tục, trừ trường hợp bất khả kháng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Vi phạm nghiêm trọng hoặc vi phạm nhiều
+lần nghĩa vụ của Kiểm soát viên quy định của Luật này và Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Trường hợp khác theo quy định tại Điều
+lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889003" class="clsBookmark" name="dieu_108" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889003')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889003')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 108. Công bố
+thông tin định kỳ&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-941868" class="clsBookmark" name="khoan_1_108" onclick="LS_Tip_Type_Bookmark('.lqhlTip-941868')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-941868')"&gt;&lt;span lang="VI"&gt;1. Công ty phải
+công bố định kỳ &lt;span style="background:white"&gt;trên&lt;/span&gt; trang thông tin điện
+tử của công ty và của cơ quan đại diện chủ sở hữu những thông tin sau đây:&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thông tin cơ bản về công ty và
+điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="diem_1_108_2"&gt;&lt;span lang="VI"&gt;b) Mục tiêu
+tổng quát, mục tiêu, chỉ tiêu cụ thể của kế hoạch kinh doanh hằng năm;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-941870" class="clsBookmark" name="diem_1_108_3" onclick="LS_Tip_Type_Bookmark('.lqhlTip-941870')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-941870')"&gt;&lt;span lang="VI"&gt;c) Báo cáo và tóm
+tắt Báo cáo tài chính hằng năm đã được kiểm toán bởi tổ chức kiểm toán độc lập
+trong thời hạn không quá 150 ngày, kể từ ngày &lt;span style="background:white"&gt;kết&lt;/span&gt;
+thúc năm tài chính;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-941987" class="clsBookmark" name="diem_1_108_4" onclick="LS_Tip_Type_Bookmark('.lqhlTip-941987')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-941987')"&gt;&lt;span lang="VI"&gt;d) Báo cáo và tóm
+tắt Báo cáo tài chính giữa năm đã được kiểm toán bởi tổ chức kiểm toán độc lập;
+thời hạn công bố phải trước ngày 31 tháng 07 hằng năm;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Nội dung công bố thông tin &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại điểm c và điểm d khoản này bao gồm
+Báo cáo tài chính của công ty mẹ và Báo cáo tài chính hợp nhất;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-941871" class="clsBookmark" name="diem_1_108_5" onclick="LS_Tip_Type_Bookmark('.lqhlTip-941871')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-941871')"&gt;&lt;span lang="VI"&gt;đ) Báo cáo đánh
+giá về kết quả thực hiện kế hoạch sản xuất kinh doanh hằng năm và 03 năm gần
+nhất tính đến năm báo cáo;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-941872" class="clsBookmark" name="diem_1_108_6" onclick="LS_Tip_Type_Bookmark('.lqhlTip-941872')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-941872')"&gt;&lt;span lang="VI"&gt;e) Báo cáo kết
+quả thực hiện các nhiệm vụ công ích được giao theo kế hoạch hoặc đấu thầu (nếu có)
+và trách nhiệm xã hội khác;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-941873" class="clsBookmark" name="diem_1_108_7" onclick="LS_Tip_Type_Bookmark('.lqhlTip-941873')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-941873')"&gt;&lt;span lang="VI"&gt;g) Báo cáo về
+thực trạng quản trị, cơ cấu tổ chức công ty.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-941874" class="clsBookmark" name="khoan_2_108" onclick="LS_Tip_Type_Bookmark('.lqhlTip-941874')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-941874')"&gt;&lt;span lang="VI"&gt;2. Báo cáo thực
+trạng quản trị công ty bao gồm các thông tin sau đây:&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thông tin về cơ quan đại diện chủ sở
+hữu, người đứng đầu và cấp phó của người đứng đầu cơ quan đại diện chủ sở hữu;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="diem_2_108_2"&gt;&lt;span lang="VI"&gt;b) Thông tin
+về người quản lý công ty, bao gồm trình độ chuyên môn, kinh nghiệm nghề nghiệp,
+các vị trí quản lý đã nắm giữ, cách thức được bổ nhiệm, công việc quản lý được giao,
+mức tiền lương, thưởng, cách thức trả tiền lương và các lợi ích khác; những
+người có liên quan và ích lợi có liên quan của họ với công ty; bản tự kiểm
+điểm, đánh giá hằng năm của họ trên cương vị là người quản lý công ty;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="diem_2_108_3"&gt;&lt;span lang="VI"&gt;c) Các quyết
+định có liên quan của cơ quan đại diện chủ sở hữu; các quyết định, nghị quyết
+của Hội đồng thành viên hoặc Chủ tịch công ty;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Thông tin về Ban kiểm soát, Kiểm soát
+viên và hoạt động của họ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-941876" class="clsBookmark" name="diem_2_108_5" onclick="LS_Tip_Type_Bookmark('.lqhlTip-941876')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-941876')"&gt;&lt;span lang="VI"&gt;đ) Thông tin
+về Đại hội công nhân, viên chức; số lượng lao động bình quân năm và tại thời
+điểm báo cáo, tiền lương và lợi ích khác bình quân năm &lt;span style="background:
+white"&gt;trên&lt;/span&gt; người lao động;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Báo cáo &lt;span style="background:
+white"&gt;kết&lt;/span&gt; luận của cơ quan thanh tra (nếu có) và các báo cáo của Ban
+kiểm soát, Kiểm soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Thông tin về các bên có liên quan của
+công ty, giao dịch của công ty với bên có liên quan;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Các thông tin khác theo quy định
+của Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thông tin được báo cáo và công bố phải
+đầy đủ, chính xác và kịp thời theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Người đại diện theo pháp luật hoặc
+người được ủy quyền công bố thông tin thực hiện công bố thông tin. Người đại
+diện theo pháp luật phải chịu trách nhiệm về tính đầy đủ, kịp thời, trung thực
+và chính xác của thông tin được công bố.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Chính phủ quy định chi tiết Điều
+này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889004" class="clsBookmark" name="dieu_109" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889004')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889004')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 109. Công bố
+thông tin bất thường&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty phải công bố trên trang thông
+tin điện tử và ấn phẩm (nếu có) và niêm yết công khai tại trụ sở chính và địa
+điểm kinh doanh của công ty &lt;span style="background:white"&gt;về&lt;/span&gt; các thông
+tin bất thường trong thời hạn 36 giờ, kể từ khi xảy ra một trong các sự kiện
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tài khoản của công ty tại ngân hàng
+bị phong tỏa hoặc được phép hoạt động trở lại sau khi bị phong tỏa;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tạm ngừng một phần hoặc toàn bộ hoạt
+động kinh doanh; bị thu hồi Giấy chứng nhận đăng ký doanh nghiệp, giấy phép thành
+lập hoặc giấy phép thành lập và hoạt động hoặc giấy phép hoạt động hoặc giấy
+phép khác liên quan đến kinh doanh của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Sửa đổi, bổ sung nội dung Giấy
+chứng nhận đăng ký doanh nghiệp, giấy phép thành lập và hoạt động, giấy phép
+hoạt động hoặc bất kỳ giấy phép, giấy chứng nhận khác có liên quan đến hoạt
+động của doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Thay đổi người quản lý công ty,
+gồm thành viên Hội đồng thành viên, Chủ tịch công ty, Giám đốc, Phó Giám đốc
+hoặc Tổng giám đốc, Phó Tổng giám đốc, Trưởng Ban kiểm soát hoặc Kiểm soát
+viên, &lt;span style="background:white"&gt;Kế toán&lt;/span&gt; trưởng, trưởng phòng tài
+chính kế toán;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Có quyết định kỷ luật, khởi tố, có
+bản án, quyết định của Tòa án đối với một trong số các người quản lý doanh
+nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Có &lt;span style="background:white"&gt;kết&lt;/span&gt;
+luận của cơ quan thanh tra hoặc của cơ quan quản lý thuế về việc vi phạm pháp luật
+của doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Có quyết định thay đổi tổ chức
+kiểm toán độc lập, hoặc bị từ chối kiểm toán báo cáo tài chính;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Có quyết định, thành lập, giải
+thể, hợp nhất, sáp nhập, chuyển đổi công ty con; quyết định đầu tư, giảm vốn
+hoặc &lt;span style="background:white"&gt;thoái&lt;/span&gt; vốn đầu tư tại các công ty
+khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chính phủ quy định chi tiết Điều
+này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="chuong_5"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Chương V&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_110"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 110. Công ty
+cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty cổ phần là doanh nghiệp,
+trong đó:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Vốn điều lệ được chia thành nhiều phần
+bằng nhau gọi là cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Cổ đông có thể là tổ chức, cá nhân;
+số lượng cổ đông tối thiểu là 03 và không hạn chế số lượng tối đa;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Cổ đông chỉ chịu trách nhiệm về các
+khoản nợ và nghĩa vụ tài sản khác của doanh nghiệp trong phạm vi số vốn đã góp
+vào doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Cổ đông có quyền tự do chuyển
+nhượng cổ phần của mình cho người khác, trừ trường hợp quy định tại khoản 3
+Điều 119 và khoản 1 Điều 126 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty cổ phần có tư cách pháp nhân
+kể từ ngày được cấp Giấy chứng nhận đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty cổ phần có quyền phát hành
+cổ phần các loại để huy động vốn.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_111"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 111. Vốn công
+ty cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Vốn điều lệ công ty cổ phần là
+tổng giá trị mệnh giá cổ phần đã bán các loại. Vốn điều lệ của công ty cổ phần
+tại thời điểm đăng ký thành lập doanh nghiệp là tổng giá trị mệnh giá cổ phần
+các loại đã được đăng ký mua và được ghi trong Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ phần đã bán là số cổ phần được quyền
+chào bán đã được các cổ đông thanh toán đủ cho công ty. Tại thời điểm đăng ký
+thành lập doanh nghiệp, cổ phần đã bán là tổng số cổ phần các loại đã được đăng
+ký mua.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cổ phần được quyền chào bán của công
+ty cổ phần là tổng số cổ phần các loại mà Đại hội đồng cổ đông quyết định sẽ
+chào bán để huy động vốn. Số cổ phần được quyền chào bán của công ty cổ phần tại
+&lt;span style="background:white"&gt;thời điểm&lt;/span&gt; đăng ký doanh nghiệp là tổng số
+cổ phần các loại mà công ty sẽ bán để huy động vốn, bao gồm cổ phần đã được
+đăng ký mua và cổ phần chưa được đăng ký mua.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cổ phần chưa bán là cổ phần được quyền
+chào bán và chưa được thanh toán. Tại thời điểm đăng ký thành lập doanh nghiệp,
+cổ phần chưa bán là tổng số cổ phần mà chưa được các cổ đông đăng ký mua.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Công ty có thể thay đổi vốn điều
+lệ trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Theo quyết định của Đại hội đồng
+cổ đông, công ty hoàn trả một phần vốn góp cho cổ đông theo tỷ lệ sở hữu cổ
+phần của họ &lt;span style="background:white"&gt;trong&lt;/span&gt; công ty nếu công ty đã
+hoạt động kinh doanh liên tục &lt;span style="background:white"&gt;trong&lt;/span&gt; hơn
+02 năm, kể từ ngày đăng ký doanh nghiệp và bảo đảm thanh toán đủ các khoản nợ
+và nghĩa vụ tài sản khác sau khi đã hoàn trả cho cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Công ty mua lại cổ phần đã phát hành
+quy định tại Điều 129 và Điều 130 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Vốn điều lệ không được các cổ đông
+thanh toán đầy đủ và đúng hạn theo quy định tại Điều 112 của Luật này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_112"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 112. Thanh
+toán cổ phần đã đăng ký mua khi đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Các cổ đông phải thanh toán đủ số cổ
+phần đã đăng ký mua trong thời hạn 90 ngày, kể từ ngày được cấp Giấy chứng nhận
+đăng ký doanh nghiệp, trừ trường hợp Điều lệ công ty hoặc hợp đồng đăng ký mua
+cổ phần quy định một thời hạn khác ngắn hơn. Hội đồng quản trị chịu trách nhiệm
+giám sát, đôn đốc thanh toán đủ và đúng hạn các cổ phần các cổ đông đã đăng ký
+mua.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trong thời hạn từ ngày công ty
+được cấp Giấy chứng nhận đăng ký doanh nghiệp đến ngày cuối cùng phải thanh
+toán đủ số cổ phần đã đăng ký mua &lt;span style="background:white"&gt;quy định&lt;/span&gt;
+tại khoản 1 Điều này, số phiếu biểu quyết của các cổ đông được tính theo số cổ
+phần phổ thông đã được đăng ký mua, trừ trường hợp Điều lệ công ty có &lt;span style="background:white"&gt;quy định&lt;/span&gt; khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Nếu sau thời hạn &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại khoản 1 Điều này có cổ đông chưa thanh
+toán hoặc chỉ thanh toán được một phần số cổ phần đã đăng ký mua, thì thực hiện
+theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Cổ đông chưa thanh toán số cổ phần
+đã đăng ký mua sẽ đương nhiên không còn là cổ đông của công ty và không được chuyển
+nhượng quyền mua cổ phần đó cho người khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Cổ đông chỉ thanh toán một phần số
+cổ phần đã đăng ký mua sẽ có quyền biểu quyết, nhận lợi tức và các quyền khác
+tương ứng với số cổ phần đã thanh toán; không được chuyển nhượng quyền mua số
+cổ phần chưa thanh toán cho người khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Số cổ phần chưa thanh toán được coi
+là cổ phần chưa bán và Hội đồng quản trị được quyền bán;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Công ty phải đăng ký điều chỉnh
+vốn điều lệ bằng giá trị mệnh giá số cổ phần đã được thanh toán đủ và thay đổi
+cổ đông sáng lập &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 30 ngày,
+kể từ ngày kết thúc thời hạn phải thanh toán đủ số cổ phần đã đăng ký mua theo
+quy định tại khoản 1 Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cổ đông chưa thanh toán hoặc chưa thanh
+toán đủ số cổ phần đã đăng ký mua phải chịu trách nhiệm tương ứng với tổng giá
+trị mệnh giá cổ phần đã đăng ký mua đối với các nghĩa vụ tài chính của công ty
+phát sinh &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn quy định tại
+khoản 1 Điều này. Thành viên Hội đồng quản trị, người đại diện theo pháp luật
+phải chịu trách nhiệm liên đới về các thiệt hại phát sinh do không thực hiện
+hoặc không thực hiện đúng quy định tại khoản 1 và điểm d khoản 3 Điều này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_113"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 113. Các loại
+cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty cổ phần phải có cổ phần
+phổ thông. Người sở hữu cổ phần phổ thông là cổ đông phổ thông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Ngoài cổ phần phổ thông, công ty
+cổ phần có thể có cổ phần ưu đãi. Người sở hữu cổ phần ưu đãi gọi là cổ đông ưu
+đãi. Cổ phần ưu đãi gồm các loại sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Cổ phần ưu đãi biểu quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Cổ phần ưu đãi cổ tức;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Cổ phần ưu đãi hoàn lại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Cổ phần ưu đãi khác do Điều lệ công
+ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chỉ có tổ chức được Chính phủ ủy quyền
+và cổ đông sáng lập được quyền nắm giữ cổ phần ưu đãi biểu quyết. Ưu đãi biểu
+quyết của cổ đông sáng lập chỉ có hiệu lực &lt;span style="background:white"&gt;trong&lt;/span&gt;
+03 năm, kể từ ngày công ty được cấp Giấy chứng nhận đăng ký doanh nghiệp. Sau thời
+hạn đó, cổ phần ưu đãi biểu quyết của cổ đông sáng lập chuyển đổi thành cổ phần
+phổ thông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Người được quyền mua cổ phần ưu đãi
+cổ tức, cổ phần ưu đãi hoàn lại và cổ phần ưu đãi khác do Điều lệ công ty quy
+định hoặc do Đại hội đồng cổ đông &lt;span style="background:white"&gt;quyết&lt;/span&gt; định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Mỗi cổ phần của cùng một loại đều tạo
+cho người sở hữu nó các quyền, nghĩa vụ và lợi ích ngang nhau.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Cổ phần phổ thông không thể chuyển
+đổi thành cổ phần ưu đãi. Cổ phần ưu đãi có thể chuyển đổi thành cổ phần phổ thông
+theo nghị quyết của Đại hội đồng cổ đông.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_114"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 114. Quyền
+của cổ đông phổ thông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ đông phổ thông có các quyền sau
+đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tham dự và phát biểu trong các Đại
+hội đồng cổ đông và thực hiện quyền biểu quyết trực tiếp hoặc thông qua đại
+diện theo ủy quyền hoặc theo hình thức khác do pháp luật, Điều lệ công ty quy
+định. Mỗi cổ phần phổ thông có một phiếu biểu quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Nhận cổ tức với mức theo quyết
+định của Đại hội đồng cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Ưu tiên mua cổ phần mới chào bán tương
+ứng với tỷ lệ cổ phần phổ thông của từng cổ đông &lt;span style="background:white"&gt;trong&lt;/span&gt;
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Tự do chuyển nhượng cổ phần của mình
+cho người khác, trừ trường hợp quy định tại khoản 3 Điều 119 và khoản 1 Điều
+126 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Xem xét, tra cứu và trích lục các thông
+tin trong Danh sách cổ đông có quyền biểu quyết và yêu cầu sửa đổi các thông
+tin không chính xác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Xem xét, tra cứu, trích lục hoặc sao
+chụp Điều lệ công ty, biên bản họp Đại hội đồng cổ đông và các nghị quyết của
+Đại hội đồng cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Khi công ty giải thể hoặc phá sản,
+được nhận một phần tài sản còn lại tương ứng với tỷ lệ sở hữu cổ phần tại công
+ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ đông hoặc nhóm cổ đông sở hữu
+từ 10% tổng số cổ phần phổ thông trở lên &lt;span style="background:white"&gt;trong&lt;/span&gt;
+thời hạn liên tục ít nhất 06 tháng hoặc một tỷ lệ khác nhỏ hơn quy định tại
+Điều lệ công ty có các quyền sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Đề cử người vào Hội đồng quản trị và
+Ban kiểm soát;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Xem xét và trích lục sổ biên bản
+và các nghị quyết của Hội đồng quản trị, báo cáo tài chính giữa năm và hằng năm
+theo mẫu của hệ thống kế toán Việt Nam và các báo cáo của Ban kiểm soát;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Yêu cầu triệu tập họp Đại hội đồng
+cổ đông &lt;span style="background:white"&gt;trong&lt;/span&gt; trường hợp quy định tại
+khoản 3 Điều này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Yêu cầu Ban kiểm soát kiểm tra
+từng vấn đề cụ thể liên quan đến quản lý, điều hành hoạt động của công ty khi
+xét thấy cần thiết. Yêu cầu phải bằng văn bản; phải có họ, tên, địa chỉ thường
+trú, quốc tịch, số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu
+hoặc chứng thực cá nhân hợp pháp khác đối với cổ đông là cá nhân; tên, địa chỉ
+thường trú, quốc tịch, số quyết định thành lập hoặc số đăng ký doanh nghiệp đối
+với cổ đông là tổ chức; số lượng cổ phần và thời điểm đăng ký cổ phần của từng
+cổ đông, tổng số cổ phần của cả nhóm cổ đông và tỷ lệ sở hữu trong tổng số cổ
+phần của công ty; vấn đề cần kiểm tra, mục đích kiểm tra;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Các quyền khác theo quy định của Luật
+này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cổ đông hoặc nhóm cổ đông quy định
+tại khoản 2 Điều này có quyền yêu cầu triệu tập họp Đại hội đồng cổ đông trong các
+trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Hội đồng quản trị vi phạm nghiêm trọng
+quyền của cổ đông, nghĩa vụ của người quản lý hoặc ra quyết định vượt quá thẩm
+quyền được giao;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Nhiệm kỳ của Hội đồng quản trị đã vượt
+quá 06 tháng mà Hội đồng quản trị mới chưa được bầu thay thế;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Trường hợp khác theo quy định của Điều
+lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Yêu cầu triệu tập họp Đại hội đồng cổ
+đông phải được lập bằng văn bản và phải có họ, tên, địa chỉ thường trú, số Thẻ căn
+cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá nhân hợp
+pháp khác đối &lt;span style="background:white"&gt;với&lt;/span&gt; cổ đông là cá nhân; tên,
+mã số doanh nghiệp hoặc số quyết định thành lập, địa chỉ trụ sở chính đối với
+cổ đông là tổ chức; số cổ phần và thời điểm &lt;span style="background:white"&gt;đăng
+ký&lt;/span&gt; cổ phần của từng cổ đông, tổng số cổ phần của cả nhóm cổ đông và tỷ lệ
+sở hữu trong tổng số cổ phần của công ty, căn cứ và lý do yêu cầu triệu tập họp
+Đại hội đồng cổ đông. Kèm theo yêu cầu triệu tập họp phải có các tài liệu, chứng
+cứ về các vi phạm của Hội đồng quản trị, mức độ vi phạm hoặc &lt;span style="background:white"&gt;về&lt;/span&gt; &lt;span style="background:white"&gt;quyết&lt;/span&gt; định
+vượt quá &lt;span style="background:white"&gt;thẩm quyền&lt;/span&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp Điều lệ công ty không có
+quy định khác thì việc đề cử người &lt;span style="background:white"&gt;và&lt;/span&gt;o Hội
+đồng quản trị và Ban kiểm soát quy định tại điểm a khoản 2 Điều này được thực
+hiện như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Các cổ đông phổ thông hợp thành
+nhóm để đề cử người vào Hội đồng quản trị và Ban kiểm soát phải thông báo về
+việc họp nhóm cho các cổ đông dự họp biết trước khi khai mạc Đại hội đồng cổ
+đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Căn cứ số lượng thành viên Hội
+đồng quản trị và Ban kiểm soát, cổ đông hoặc nhóm cổ đông quy định tại khoản 2
+Điều này được quyền đề cử một hoặc một số ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i
+theo quyết định của Đại hội đồng cổ đông làm ứng cử viên Hội đồng quản trị và Ban
+kiểm soát. Trường hợp số ứng cử viên được cổ đông hoặc nhóm cổ đông đề cử thấp
+hơn số ứng cử viên mà họ được quyền đề cử theo quyết định của Đại hội đồng cổ
+đông thì số ứng cử viên còn lại do Hội đồng quản trị, Ban kiểm soát và các cổ
+đông khác đề cử.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Các quyền khác theo quy định của Luật
+này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_115"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 115. Nghĩa
+vụ của cổ đông phổ thông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thanh toán đủ và đúng thời hạn số cổ
+phần cam &lt;span style="background:white"&gt;kết&lt;/span&gt; mua.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Không được rút vốn đã góp bằng cổ
+phần phổ thông ra khỏi công ty dưới mọi hình thức, trừ trường hợp được công ty
+hoặc người khác mua lại cổ phần. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt;
+có cổ đông rút một phần hoặc toàn bộ vốn cổ phần đã góp trái với quy định tại
+khoản này thì cổ đông đó và người có lợi ích liên quan trong công ty phải cùng
+liên đới chịu trách nhiệm về các khoản nợ và nghĩa vụ tài sản khác của công ty
+trong phạm vi giá trị cổ phần đã bị rút và các thiệt hại xảy ra.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tuân thủ Điều lệ và quy chế quản lý
+nội bộ của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chấp hành nghị quyết của Đại hội
+đồng cổ đông, Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Thực hiện các nghĩa vụ khác theo quy
+định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_116"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 116. Cổ
+phần ưu đãi biểu quyết và quyền của cổ đông ưu đãi biểu quyết&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ phần ưu đãi biểu quyết là cổ
+phần có số phiếu biểu quyết nhiều hơn so với cổ phần phổ thông. Số phiếu biểu
+quyết của một cổ phần ưu đãi biểu quyết do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ đông sở hữu cổ phần ưu đãi biểu
+quyết có các quyền sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Biểu quyết về các vấn đề thuộc
+thẩm quyền của Đại hội đồng cổ đông với số phiếu biểu quyết theo quy định tại
+khoản 1 Điều này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Các quyền khác như cổ đông phổ thông,
+trừ trường &lt;span style="background:white"&gt;hợp quy&lt;/span&gt; định tại khoản 3 Điều
+này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cổ đông sở hữu cổ phần ưu đãi biểu
+quyết không được chuyển nhượng cổ phần đó cho người khác.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_117"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 117. Cổ
+phần ưu đãi cổ tức và quyền của cổ đông ưu đãi cổ tức&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ phần ưu đãi cổ tức là cổ phần được
+trả cổ tức với mức cao hơn so với mức cổ tức của cổ phần phổ thông hoặc mức ổn
+định hằng năm. Cổ tức được chia hằng năm gồm cổ tức cố định và cổ tức thưởng.
+Cổ tức cố định không phụ thuộc vào kết quả kinh doanh của công ty. Mức cổ tức
+cố định cụ thể và phương thức xác định cổ tức thưởng được ghi trên cổ phiếu của
+cổ phần ưu đãi cổ tức.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ đông sở hữu cổ phần ưu đãi cổ
+tức có các quyền sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Nhận cổ tức theo quy định tại
+khoản 1 Điều này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Nhận phần tài sản còn lại tương
+ứng với tỷ lệ sở hữu cổ phần tại công ty, sau khi công ty đã thanh toán hết các
+khoản nợ, cổ phần ưu đãi hoàn lại khi công ty giải thể hoặc phá sản;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Các quyền khác như cổ đông phổ thông,
+trừ trường &lt;span style="background:white"&gt;hợp quy&lt;/span&gt; định tại khoản 3 Điều
+này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cổ đông sở hữu cổ phần ưu đãi cổ
+tức không có quyền biểu quyết, dự họp Đại hội đồng cổ đông, đề cử người vào Hội
+đồng quản trị và Ban kiểm soát.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_118"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 118. Cổ
+phần ưu đãi hoàn lại và quyền của cổ đông ưu đãi hoàn lại&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ phần ưu đãi hoàn lại là cổ phần
+được công ty hoàn lại vốn góp theo yêu cầu của người sở hữu hoặc theo các điều kiện
+được ghi tại cổ phiếu của cổ phần ưu đãi hoàn lại.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ đông sở hữu cổ phần ưu đãi hoàn
+lại có các quyền khác như cổ đông phổ thông, trừ trường hợp quy định tại khoản 3
+Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cổ đông sở hữu cổ phần ưu đãi hoàn
+lại không có quyền biểu quyết, dự họp Đại hội đồng cổ đông, đề cử người vào Hội
+đồng quản trị và Ban kiểm soát.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_119"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 119. Cổ
+phần phổ thông của cổ đông sáng lập&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty cổ phần mới thành lập phải
+có ít nhất 03 cổ đông sáng lập; công ty cổ phần được chuyển đổi từ doanh nghiệp
+nhà nước hoặc từ công ty trách nhiệm hữu hạn hoặc được chia, tách, hợp nhất, sáp
+nhập từ công ty cổ phần khác không nhất thiết phải có cổ đông sáng lập.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp không có cổ đông sáng lập,
+Điều lệ công ty cổ phần trong hồ sơ đăng ký doanh nghiệp phải có chữ ký của
+người đại diện theo pháp luật hoặc các cổ đông phổ thông của công ty đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Các cổ đông sáng lập phải cùng nhau
+đăng ký mua ít nhất 20% tổng số cổ phần phổ thông được quyền chào bán tại &lt;span style="background:white"&gt;thời điểm&lt;/span&gt; đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trong thời hạn 03 năm, kể từ ngày công
+ty được cấp Giấy chứng nhận đăng ký doanh nghiệp, cổ đông sáng lập có quyền tự
+do chuyển nhượng cổ phần của mình cho cổ đông sáng lập khác và chỉ được chuyển
+nhượng cổ phần phổ thông của mình cho người không phải là cổ đông sáng lập nếu
+được sự chấp thuận của Đại hội đồng cổ đông. Trường hợp này, cổ đông dự định
+chuyển nhượng cổ phần không có quyền biểu quyết về việc chuyển nhượng các cổ
+phần đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Các hạn chế đối với cổ phần phổ thông
+của cổ đông sáng lập được bãi bỏ sau thời hạn 03 năm, kể từ ngày công ty được
+cấp Giấy chứng nhận đăng ký doanh nghiệp. Các hạn chế của quy định này không áp
+dụng đối với cổ phần mà cổ đông sáng lập có thêm sau khi đăng ký thành lập
+doanh nghiệp và cổ phần mà cổ đông sáng lập chuyển nhượng cho người khác không
+phải là cổ đông sáng lập của công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_120"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 120. Cổ phiếu&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ phiếu là chứng chỉ do công ty
+cổ phần phát hành, bút toán ghi sổ hoặc dữ liệu điện tử xác nhận quyền sở hữu
+một hoặc một số cổ phần của công ty đó. Cổ phiếu phải có các nội dung chủ yếu
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Số lượng cổ phần và loại cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Mệnh giá mỗi cổ phần và tổng mệnh giá
+số cổ phần ghi trên cổ phiếu;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác của cổ đông là cá nhân; tên, mã số doanh nghiệp hoặc số
+quyết định thành lập, địa chỉ trụ sở chính của cổ đông là tổ chức;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Tóm tắt về thủ tục chuyển nhượng
+cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Chữ ký của người đại diện theo pháp
+luật và dấu của công ty (nếu có);&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Số &lt;span style="background:white"&gt;đăng
+ký&lt;/span&gt; tại sổ đăng ký cổ đông của công ty và ngày phát hành cổ phiếu;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Các nội dung khác theo quy định
+tại các Điều 116, 117 và 118 của Luật này đối với cổ phiếu của cổ phần ưu đãi.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;2. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; có sai sót trong nội dung và hình thức cổ phiếu do
+công ty phát hành thì quyền và lợi ích của người sở hữu nó không bị ảnh hưởng.
+Người đại diện theo pháp luật công ty chịu trách nhiệm về thiệt hại do những
+sai sót đó gây ra.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp cổ phiếu bị mất, bị hủy
+hoại hoặc bị hư hỏng dưới hình thức khác thì cổ đông được công ty cấp lại cổ phiếu
+theo đề nghị của cổ đông đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Đề nghị của cổ đông phải có các nội
+dung sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Cổ phiếu đã bị mất, bị hủy hoại
+hoặc bị hư hỏng dưới hình thức khác; trường hợp bị mất thì phải cam đoan rằng
+đã tiến hành tìm kiếm hết mức và nếu tìm lại được sẽ đem trả công ty để tiêu
+hủy;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chịu trách nhiệm về những tranh
+chấp phát sinh từ việc cấp lại cổ phiếu mới.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Đối với cổ phiếu có tổng mệnh giá trên
+mười triệu Đồng Việt Nam, trước khi tiếp nhận đề nghị cấp cổ phiếu mới, người
+đại diện theo pháp luật của công ty có thể yêu cầu chủ sở hữu cổ phiếu đăng
+thông báo về việc cổ phiếu bị mất, bị hủy hoại hoặc bị hư hỏng dưới hình thức
+khác và sau 15 ngày, kể từ ngày đăng thông báo sẽ đề nghị công ty cấp cổ phiếu
+mới.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_121"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 121. Sổ đăng
+ký cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty cổ phần phải lập và lưu
+giữ sổ đăng ký cổ đông từ khi được cấp Giấy chứng nhận đăng ký doanh nghiệp. Sổ
+đăng ký cổ đông có thể là văn bản, tập dữ liệu điện tử hoặc cả hai loại này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Sổ &lt;span style="background:white"&gt;đăng
+ký&lt;/span&gt; cổ đông phải có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, địa chỉ trụ sở chính của công
+ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tổng số cổ phần được quyền chào bán,
+loại cổ phần được quyền chào bán và số cổ phần được quyền chào bán của từng
+loại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tổng số cổ phần đã bán của từng loại
+và giá trị vốn cổ phần đã góp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác đối với cổ đông là cá nhân; tên, mã số doanh nghiệp hoặc số
+quyết định thành lập, địa chỉ trụ sở chính đối với cổ đông là tổ chức;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Số lượng cổ phần từng loại của mỗi
+cổ đông, ngày đăng ký cổ phần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Sổ đăng ký cổ đông được lưu giữ
+tại trụ sở chính của công ty hoặc Trung tâm lưu ký chứng khoán. Cổ đông có
+quyền kiểm tra, tra cứu hoặc trích lục, sao chép nội dung sổ đăng ký cổ đông
+trong giờ làm việc của công ty hoặc Trung tâm lưu ký chứng khoán.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp cổ đông có thay đổi địa
+chỉ thường trú thì phải thông báo kịp thời với công ty để cập nhật vào sổ đăng
+ký cổ đông. Công ty không chịu trách nhiệm về việc không liên lạc được với cổ
+đông do không được thông báo thay đổi địa chỉ của cổ đông.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_122"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 122. Chào bán
+cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chào bán cổ phần là việc công ty tăng
+thêm số lượng cổ phần được quyền chào bán và bán các cổ phần đó &lt;span style="background:white"&gt;trong&lt;/span&gt; quá trình hoạt động để tăng vốn điều lệ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chào bán cổ phần có thể thực hiện theo
+một &lt;span style="background:white"&gt;trong&lt;/span&gt; các hình thức sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chào bán cho các cổ đông hiện hữu;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chào bán ra công chúng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Chào bán cổ phần riêng lẻ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chào bán cổ phần ra công chúng, chào
+bán cổ phần của công ty cổ phần niêm yết và đại chúng thực hiện theo các quy
+định của pháp luật về chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Công ty thực hiện đăng ký thay đổi
+vốn điều lệ trong thời hạn 10 ngày, kể từ ngày hoàn thành đợt bán cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_123"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 123. Chào bán
+cổ phần riêng lẻ&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Việc chào bán cổ phần riêng lẻ của công
+ty cổ phần không phải là công ty cổ phần đại chúng được quy định như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Trong thời hạn 05 ngày làm việc,
+kể từ ngày ra quyết định chào bán cổ phần riêng lẻ, công ty phải thông báo việc
+chào bán cổ phần riêng lẻ với Cơ quan đăng ký kinh doanh. Kèm theo thông báo
+chào bán cổ phần riêng lẻ phải có các tài liệu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Nghị quyết của Đại hội đồng cổ đông
+về chào bán cổ phần riêng lẻ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Phương án chào bán cổ phần riêng
+lẻ đã được Đại hội đồng cổ đông thông qua (nếu có);&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thông báo chào bán cổ phần riêng
+lẻ bao gồm các nội dung sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, địa chỉ trụ sở chính, mã số doanh
+nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tổng số cổ phần dự định chào bán; các
+loại cổ phần chào bán và số lượng cổ phần chào bán mỗi loại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;c) Thời điểm&lt;/span&gt;&lt;span lang="VI"&gt;, hình thức chào bán cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên, chữ ký của người đại diện
+theo pháp luật của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty có quyền bán cổ phần sau 05
+ngày làm việc, kể từ ngày gửi thông báo mà không nhận được ý kiến phản đối của
+Cơ quan đăng ký &lt;span style="background:white"&gt;kinh&lt;/span&gt; doanh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Công ty thực hiện đăng ký thay đổi
+vốn điều lệ với cơ quan đăng ký kinh doanh &lt;span style="background:white"&gt;trong&lt;/span&gt;
+thời hạn 10 ngày, kể từ ngày hoàn thành đợt bán cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_124"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 124. Chào bán
+cổ phần cho cổ đông hiện hữu&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chào bán cổ phần cho cổ đông hiện hữu
+là trường hợp công ty tăng thêm số lượng cổ phần được quyền chào bán và bán toàn
+bộ số cổ phần đó cho tất cả cổ đông theo tỷ lệ cổ phần hiện có của họ tại công
+ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chào bán cổ phần cho cổ đông hiện hữu
+của công ty cổ phần không phải là công ty cổ phần đại chúng được thực hiện như
+sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Công ty phải thông báo bằng văn
+bản đến các cổ đông theo phương thức bảo đảm đến được địa chỉ thường trú hoặc
+địa chỉ liên lạc của họ trong sổ đăng ký cổ đông chậm nhất 15 ngày trước ngày
+kết thúc thời hạn đăng ký mua cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thông báo phải có họ, tên, địa chỉ
+thường trú, quốc tịch, số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu
+hoặc chứng thực cá nhân hợp pháp khác của cổ đông là cá nhân; tên, mã số doanh
+nghiệp hoặc số quyết định thành lập, địa chỉ trụ sở chính của cổ đông là tổ
+chức; số cổ phần và tỷ lệ cổ phần hiện có của cổ đông tại công ty; tổng số cổ
+phần dự kiến chào bán và số cổ phần cổ đông được quyền mua; giá chào bán cổ phần;
+thời hạn đăng ký mua; họ, tên, chữ ký của người đại diện theo pháp luật của
+công ty. Kèm theo thông báo phải có mẫu phiếu đăng ký mua cổ phần do công ty
+phát hành. Trường hợp phiếu đăng ký mua cổ phần không được gửi về công ty đúng
+hạn như thông báo thì cổ đông có liên quan coi như đã không nhận quyền ưu tiên
+mua;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Cổ đông có quyền chuyển quyền ưu tiên
+mua cổ phần của mình cho người khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp số lượng cổ phần dự
+kiến chào bán không được cổ đông và người nhận chuyển quyền ưu tiên mua đăng ký
+mua hết thì Hội đồng quản trị có quyền bán số cổ phần được quyền chào bán còn
+lại đó cho cổ đông của công ty hoặc người khác theo cách thức hợp lý với điều
+kiện không thuận lợi hơn so với những điều kiện đã chào bán cho các cổ đông,
+trừ trường hợp Đại hội đồng cổ đông có chấp thuận khác hoặc cổ phần được bán
+qua Sở giao dịch chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cổ phần được coi là đã bán khi
+được thanh toán đủ và những thông tin về người mua quy định tại khoản 2 Điều
+121 của Luật này được ghi đầy đủ vào sổ đăng ký cổ đông; kể từ thời điểm đó, người
+mua cổ phần trở thành cổ đông của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Sau khi cổ phần được thanh toán
+đầy đủ, công ty phải phát hành và trao cổ phiếu cho người mua. Công ty có thể
+bán cổ phần mà không trao cổ phiếu. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt;
+này, các thông tin về cổ đông quy định tại khoản 2 Điều 121 của Luật này được ghi
+vào sổ đăng ký cổ đông để chứng thực quyền sở hữu cổ phần &lt;span style="background:white"&gt;của&lt;/span&gt; cổ đông đó &lt;span style="background:white"&gt;trong&lt;/span&gt;
+công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_125"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 125. Bán
+cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Hội đồng quản trị quyết định thời
+điểm, phương thức và giá bán cổ phần. Giá bán cổ phần không được thấp hơn giá thị
+trường tại thời điểm chào bán hoặc giá trị được ghi &lt;span style="background:
+white"&gt;trong&lt;/span&gt; sổ sách của cổ phần tại thời điểm gần nhất, trừ những
+trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ phần chào bán lần đầu tiên cho những
+người không phải là cổ đông sáng lập;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ phần chào bán cho tất cả cổ
+đông theo tỷ lệ cổ phần hiện có của họ ở công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cổ phần chào bán cho người môi
+giới hoặc người bảo lãnh. Trường hợp này, số chiết khấu hoặc tỷ lệ chiết khấu
+cụ thể phải được sự chấp thuận của Đại hội đồng cổ đông, trừ trường hợp Điều lệ
+công ty quy định khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp khác và mức chiết khấu trong
+các trường hợp đó do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_126"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 126.
+Chuyển nhượng cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ phần được tự do chuyển nhượng, trừ
+trường hợp quy định tại khoản 3 Điều 119 của Luật này và Điều lệ công ty có quy
+định hạn chế chuyển nhượng cổ phần. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt;
+Điều lệ công ty có quy định hạn chế về chuyển nhượng cổ phần thì các quy định
+này chỉ có hiệu lực khi được nêu rõ trong cổ phiếu của cổ phần tương ứng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Việc chuyển nhượng được thực hiện bằng
+hợp đồng theo cách thông thường hoặc thông qua giao dịch trên thị trường chứng
+k&lt;span style="background:white"&gt;hoán&lt;/span&gt;. Trường hợp chuyển nhượng bằng hợp
+đồng thì giấy tờ chuyển nhượng phải được bên chuyển nhượng và bên nhận chuyển
+nhượng hoặc đại diện ủy quyền của họ ký. Trường hợp chuyển nhượng thông qua
+giao dịch trên thị trường chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt;, trình
+tự, thủ tục và việc ghi nhận sở hữu thực hiện theo quy định của pháp luật về
+chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp cổ đông là cá nhân chết
+thì người thừa kế theo di chúc hoặc theo pháp luật của cổ đông đó là cổ đông của
+công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp cổ phần của cổ đông là cá
+nhân chết mà không có người thừa kế, người thừa kế&lt;span style="background:white"&gt;
+từ&lt;/span&gt; chối nhận thừa kế hoặc bị truất quyền thừa kế thì số cổ phần đó được
+giải quyết theo quy định của pháp luật về dân sự.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Cổ đông có quyền tặng cho một phần
+hoặc toàn bộ cổ phần của mình tại công ty cho người khác; sử dụng cổ phần để
+trả nợ. Trường hợp này, người được tặng cho hoặc nhận trả nợ bằng cổ phần sẽ là
+cổ đông của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Trường hợp cổ đông chuyển nhượng
+một số cổ phần thì cổ phiếu cũ bị hủy bỏ và công ty phát hành cổ phiếu mới ghi
+nhận số cổ phần đã chuyển nhượng và số cổ phần còn lại.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Người nhận cổ phần trong các
+trường hợp quy định tại Điều này chỉ trở thành cổ đông công ty từ thời điểm các
+thông tin của họ quy định tại khoản 2 Điều 121 của Luật này được ghi đầy đủ vào
+sổ đăng ký cổ đông.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_127"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 127. Phát hành
+trái phiếu&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty cổ phần có quyền phát hành
+trái phiếu, trái phiếu chuyển đổi và các loại trái phiếu khác theo quy định của
+pháp luật và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty không thanh toán đủ cả gốc
+và lãi của trái phiếu đã phát hành, không thanh toán hoặc thanh toán không đủ các
+khoản nợ đến hạn &lt;span style="background:white"&gt;trong&lt;/span&gt; 03 năm liên tiếp
+trước đó sẽ không được quyền phát hành trái phiếu, trừ trường hợp pháp luật &lt;span style="background:white"&gt;về&lt;/span&gt; chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt;
+có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Việc phát hành trái phiếu cho các chủ
+nợ là tổ chức tài chính được lựa chọn không bị hạn chế bởi quy định tại khoản 2
+Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp Điều lệ công ty không quy
+định khác thì Hội đồng quản trị có quyền quyết định loại trái phiếu, tổng giá
+trị trái phiếu và thời điểm phát hành, nhưng phải báo cáo Đại hội đồng cổ đông
+tại cuộc họp gần nhất. Báo cáo phải kèm theo tài liệu và hồ sơ giải trình nghị
+quyết của Hội đồng quản trị về phát hành trái phiếu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trường hợp công ty cổ phần phát hành
+trái phiếu chuyển đổi thành cổ phần thì thực hiện theo trình tự, thủ tục tương
+ứng chào bán cổ phần theo quy định của Luật này và quy định khác của pháp luật
+có liên quan. Công ty thực hiện đăng ký thay đổi vốn điều lệ trong thời hạn 10
+ngày kể từ ngày hoàn thành việc chuyển đổi trái phiếu thành cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_128"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 128. Mua
+cổ phần, trái phiếu&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Cổ phần, trái phiếu của công ty cổ
+phần có thể được mua bằng Đồng Việt Nam, ngoại tệ tự do chuyển đổi, vàng, giá
+trị quyền sử dụng đất, giá trị quyền sở hữu trí tuệ, công nghệ, bí quyết kỹ
+thuật, các tài sản khác quy định tại Điều lệ công ty và phải được thanh toán đủ
+một lần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_129"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 129. Mua
+lại cổ phần theo yêu cầu của cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ đông biểu quyết phản đối nghị quyết
+về việc tổ chức lại công ty hoặc thay đổi quyền, nghĩa vụ của cổ đông quy định
+tại Điều lệ công ty có quyền yêu cầu công ty mua lại cổ phần của mình. Yêu cầu
+phải bằng văn bản, &lt;span style="background:white"&gt;trong&lt;/span&gt; đó nêu rõ tên,
+địa chỉ của cổ đông, số lượng cổ phần từng loại, giá dự định bán, lý do yêu cầu
+công ty mua lại. Yêu cầu phải được gửi đến công ty &lt;span style="background:
+white"&gt;trong&lt;/span&gt; thời hạn 10 ngày, kể từ ngày Đại hội đồng cổ đông thông qua
+nghị quyết về các vấn đề quy định tại khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty phải mua lại cổ phần theo yêu
+cầu của cổ đông quy định tại khoản 1 Điều này với giá thị trường hoặc giá được
+tính theo nguyên tắc quy định tại Điều lệ công ty trong thời hạn 90 ngày, kể từ
+ngày nhận được yêu cầu. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt; không
+thỏa thuận được về giá thì các bên có thể yêu cầu một tổ chức thẩm định giá
+chuyên nghiệp định giá. Công ty giới thiệu ít nhất 03 tổ chức thẩm định giá chuyên
+nghiệp để cổ đông lựa chọn và lựa chọn đó là quyết định cuối cùng.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_130"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 130. Mua
+lại cổ phần theo quyết định của công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Công ty có quyền mua lại không quá 30%
+tổng số cổ phần phổ thông đã bán, một phần hoặc toàn bộ cổ phần ưu đãi cổ tức
+đã bán theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng quản trị có quyền quyết
+định mua lại không quá 10% tổng số cổ phần của từng loại đã được chào bán &lt;span style="background:white"&gt;trong&lt;/span&gt; 12 tháng. Trường hợp khác, việc mua lại
+cổ phần do Đại hội đồng cổ đông quyết định;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hội đồng quản trị quyết định giá
+mua lại cổ phần. Đối với cổ phần phổ thông, giá mua lại không được cao hơn giá
+thị trường tại thời điểm mua lại, trừ trường &lt;span style="background:white"&gt;hợp
+quy&lt;/span&gt; định tại khoản 3 Điều này. Đối với cổ phần loại khác, nếu Điều lệ
+công ty không &lt;span style="background:white"&gt;quy định&lt;/span&gt; hoặc công ty và cổ
+đông có liên quan không có thỏa thuận khác thì giá mua lại không được thấp hơn
+giá thị trường;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty có thể mua lại cổ phần của
+từng cổ đông tương ứng với tỷ lệ cổ phần của họ trong công ty. Trường hợp này, quyết
+định mua lại cổ phần của công ty phải được thông báo bằng phương thức bảo đảm
+đến được tất cả cổ đông trong thời hạn 30 ngày, kể từ ngày quyết định đó được
+thông qua. Thông báo phải có tên, địa chỉ trụ sở chính của công ty, tổng số cổ
+phần và loại cổ phần được mua lại, giá mua lại hoặc nguyên tắc định giá mua
+lại, thủ tục và thời hạn thanh toán, thủ tục và thời hạn để cổ đông chào bán cổ
+phần của họ cho công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Cổ đông đồng ý bán lại cổ phần phải
+gửi chào bán cổ phần của mình bằng phương thức bảo đảm đến được công ty trong
+thời hạn 30 ngày, kể từ ngày thông báo. Chào bán phải có họ, tên, địa chỉ
+thường trú, số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc
+chứng thực cá nhân &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt; khác của cổ
+đông là cá nhân; tên, mã số doanh nghiệp hoặc số quyết định thành lập, địa chỉ
+trụ sở chính của cổ đông là tổ chức; số cổ phần sở hữu và số cổ phần chào bán;
+phương thức thanh toán; chữ ký của cổ đông hoặc người đại diện theo pháp luật
+của cổ đông. Công ty chỉ mua lại cổ phần được chào bán trong thời hạn nói trên.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_131"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 131. Điều kiện
+thanh toán và xử lý các cổ phần được mua lại&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty chỉ được quyền thanh toán cổ
+phần được mua lại cho cổ đông theo quy định tại Điều 129 và Điều 130 của Luật
+này nếu ngay sau khi thanh toán hết số cổ phần được mua lại, công ty vẫn bảo
+đảm thanh toán đủ các khoản nợ và nghĩa vụ tài sản khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ phần được mua lại theo quy định
+tại Điều 129 và Điều 130 của Luật này được coi là cổ phần chưa bán theo quy
+định tại khoản 4 Điều 111 của Luật này. Công ty phải làm thủ tục điều chỉnh
+giảm vốn điều lệ tương ứng với tổng giá trị mệnh giá các cổ phần được công ty
+mua lại &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 10 ngày, kể từ
+ngày hoàn thành việc thanh toán mua lại cổ phần, trừ trường hợp pháp luật về
+chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt; có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cổ phiếu xác nhận quyền sở hữu cổ phần
+đã được mua lại phải được tiêu hủy ngay sau khi cổ phần tương ứng đã được thanh
+toán đủ. Chủ tịch Hội đồng quản trị và Giám đốc hoặc Tổng giám đốc phải liên
+đới chịu trách nhiệm về thiệt hại do không tiêu hủy hoặc chậm tiêu hủy cổ phiếu
+gây ra đối với công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Sau khi thanh toán hết số cổ phần mua
+lại, nếu tổng giá trị tài sản được ghi &lt;span style="background:white"&gt;trong&lt;/span&gt;
+sổ kế toán của công ty giảm hơn 10% thì công ty phải thông báo cho tất cả các chủ
+nợ biết trong thời hạn 15 ngày, kể từ ngày thanh toán hết số cổ phần mua lại.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_132"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 132. Trả
+cổ tức&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ tức trả cho cổ phần ưu đãi được
+thực hiện theo các điều kiện áp dụng riêng cho mỗi loại cổ phần ưu đãi.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ tức trả cho cổ phần phổ thông được
+xác định căn cứ vào số lợi nhuận ròng đã thực hiện và khoản chi trả cổ tức được
+trích từ nguồn lợi nhuận giữ lại của công ty. Công ty cổ phần chỉ được trả cổ
+tức của cổ phần phổ thông khi có đủ các điều kiện sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Công ty đã hoàn thành nghĩa vụ thuế
+và các nghĩa vụ tài chính khác theo quy định của pháp luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Đã trích lập các quỹ công ty và bù
+đắp đủ lỗ trước đó theo quy định của pháp luật và Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Ngay sau khi trả hết số cổ tức đã định,
+công ty vẫn bảo đảm thanh toán đủ các khoản nợ và nghĩa vụ tài sản khác đến hạn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cổ tức có thể được chi trả bằng
+tiền mặt, bằng cổ phần của công ty hoặc bằng tài sản khác quy định tại Điều lệ
+công ty. Nếu chi trả bằng tiền mặt thì phải được thực hiện bằng Đồng Việt Nam
+và có thể được chi trả bằng séc, chuyển khoản hoặc lệnh trả tiền gửi bằng bưu
+điện đến địa chỉ thường trú hoặc địa chỉ liên lạc của cổ đông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cổ tức phải được thanh toán đầy đủ
+trong thời hạn 06 tháng, kể từ ngày kết thúc họp Đại hội đồng cổ đông thường niên.
+Hội đồng quản trị lập danh sách cổ đông được nhận cổ tức, xác định mức cổ tức
+được trả đối với từng cổ phần, thời hạn và hình thức trả chậm nhất 30 ngày trước
+mỗi lần trả cổ tức. Thông báo về trả cổ tức được gửi bằng phương thức bảo đảm
+đến cổ đông theo địa chỉ đăng ký &lt;span style="background:white"&gt;trong&lt;/span&gt; sổ
+đăng ký cổ đông chậm nhất 15 ngày trước khi thực hiện trả cổ tức. Thông báo phải
+có các nội dung sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên công ty và địa chỉ trụ sở chính
+của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác của cổ đông là cá nhân;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tên, mã số doanh nghiệp hoặc số quyết
+định thành lập, địa chỉ trụ sở chính của cổ đông là tổ chức;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Số lượng cổ phần từng loại của cổ đông;
+mức cổ tức đối với từng cổ phần và tổng số cổ tức mà cổ đông đó được nhận;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Thời điểm và phương thức trả cổ
+tức;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Họ, tên, chữ ký của Chủ tịch Hội
+đồng quản trị và người đại diện theo pháp luật của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trường hợp cổ đông chuyển nhượng
+cổ phần của mình trong thời gian giữa thời điểm kết thúc lập danh sách cổ đông
+và thời điểm trả cổ tức thì người chuyển nhượng là người nhận cổ tức từ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Trường hợp chi trả cổ tức bằng cổ phần,
+công ty không phải làm thủ tục chào bán cổ phần theo quy định tại các điều 122,
+123 và 124 của Luật này. Công ty phải đăng ký tăng vốn điều lệ tương ứng với
+tổng giá trị mệnh giá các cổ phần dùng để chi trả cổ tức trong thời hạn 10
+ngày, kể từ ngày hoàn thành việc thanh toán cổ tức.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_133"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 133. Thu
+hồi tiền thanh toán cổ phần mua lại hoặc cổ tức&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp việc thanh toán cổ phần mua
+lại trái với quy định tại khoản 1 Điều 131 của Luật này hoặc trả cổ tức trái
+với quy định tại Điều 132 của Luật này thì các cổ đông phải hoàn trả cho công
+ty số tiền, tài sản khác đã nhận; trường hợp cổ đông không hoàn trả được cho
+công ty thì tất cả thành viên Hội đồng quản trị phải cùng liên đới chịu trách
+nhiệm về các khoản nợ và nghĩa vụ tài sản khác của công ty trong phạm vi giá
+trị số tiền, tài sản đã trả cho cổ đông mà chưa được hoàn lại.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_134"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 134. Cơ
+cấu tổ chức quản lý công ty cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty cổ phần có quyền lựa chọn tổ
+chức quản lý và hoạt động theo một trong hai mô hình sau đây, trừ trường hợp pháp
+luật về chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt; có quy định khác:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Đại hội đồng cổ đông, Hội đồng
+quản trị, Ban kiểm soát và Giám đốc hoặc Tổng giám đốc. Trường hợp công ty cổ
+phần có dưới 11 cổ đông và các cổ đông là tổ chức sở hữu d&lt;span style="background:white"&gt;ướ&lt;/span&gt;i 50% tổng số cổ phần của công ty thì không
+bắt buộc phải có Ban kiểm soát;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Đại hội đồng cổ đông, Hội đồng
+quản trị và Giám đốc hoặc Tổng giám đốc. Trường hợp này ít nhất 20% số thành
+viên Hội đồng quản trị phải là thành viên độc lập và có Ban kiểm toán nội bộ
+trực thuộc Hội đồng quản trị. Các thành viên độc lập thực hiện chức năng giám
+sát và tổ chức thực hiện kiểm soát đối với việc quản lý điều hành công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp chỉ có một người đại
+diện theo pháp luật, thì Chủ tịch Hội đồng quản trị hoặc Giám đốc hoặc Tổng
+giám đốc là người đại diện theo pháp luật của công ty; trường hợp Điều lệ không
+có quy định khác thì Chủ tịch Hội đồng quản trị là người đại diện theo pháp
+luật của công ty. Trường hợp có hơn một người đại diện theo pháp luật, thì Chủ
+tịch Hội đồng quản trị và Giám đốc hoặc Tổng giám đốc đương nhiên là người đại
+diện theo pháp luật của công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_135"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 135. Đại
+hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Đại hội đồng cổ đông gồm tất cả cổ
+đông có quyền biểu quyết, là cơ quan quyết định cao nhất của công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Đại hội đồng cổ đông có các quyền và
+nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thông qua định hướng phát triển
+của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Quyết định loại cổ phần và tổng số
+cổ phần của từng loại được quyền chào bán; quyết định mức cổ tức hằng năm của
+từng loại cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Bầu, miễn nhiệm, bãi nhiệm thành viên
+Hội đồng quản trị, Kiểm soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Quyết định đầu tư hoặc bán số tài sản
+có giá trị bằng hoặc lớn hơn 35% tổng giá trị tài sản được ghi trong báo cáo
+tài chính gần nhất của công ty nếu Điều lệ công ty không quy định một tỷ lệ hoặc
+một giá trị khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Quyết định sửa đổi, bổ sung Điều
+lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Thông qua báo cáo tài chính hằng
+năm;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Quyết định mua lại trên 10% tổng
+số cổ phần đã bán của mỗi loại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Xem xét và xử lý các vi phạm của
+Hội đồng quản trị, Ban kiểm soát gây thiệt hại cho công ty và cổ đông công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Quyết định tổ chức lại, giải thể
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;k) Quyền và nghĩa vụ khác theo quy
+định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_136"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 136. Thẩm quyền
+triệu tập họp Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Đại hội đồng cổ đông họp thường niên
+mỗi năm một lần. Ngoài cuộc họp thường niên, Đại hội đồng cổ đông có thể họp
+bất thường. Địa điểm họp Đại hội đồng cổ đông phải ở trên lãnh thổ Việt Nam.
+Trường hợp cuộc họp Đại hội đồng cổ đông được tổ chức đồng thời ở nhiều địa
+điểm khác nhau thì địa điểm họp Đại hội đồng cổ đông được xác định là nơi chủ
+tọa tham dự họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Đại hội đồng cổ đông phải họp
+thường niên trong thời hạn 04 tháng, kể từ ngày kết thúc năm tài chính. Theo đề
+nghị của Hội đồng quản trị, Cơ quan &lt;span style="background:white"&gt;đăng ký&lt;/span&gt;
+kinh doanh có thể gia hạn, nhưng không quá 06 tháng, kể từ ngày kết thúc năm
+tài chính.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Đại hội đồng cổ đông thường niên thảo
+luận và thông qua các vấn đề sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;a) Kế hoạch&lt;/span&gt;&lt;span lang="VI"&gt; kinh doanh hằng năm của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Báo cáo tài chính hằng năm;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Báo cáo của Hội đồng quản trị về quản
+trị và kết quả hoạt động của Hội đồng quản trị và từng thành viên Hội đồng quản
+trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Báo cáo của Ban kiểm soát về kết quả
+kinh doanh của công ty, về kết quả hoạt động của Hội đồng quản trị, Giám đốc
+hoặc Tổng giám đốc;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Báo cáo tự đánh giá kết quả hoạt
+động của Ban kiểm soát và của từng Kiểm soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Mức cổ tức đối với mỗi cổ phần của
+từng loại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Các vấn đề khác thuộc thẩm quyền.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Hội đồng quản trị phải triệu tập
+họp bất thường Đại hội đồng cổ đông trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Hội đồng quản trị xét thấy cần
+thiết vì lợi ích của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Số thành viên Hội đồng quản trị, Ban
+kiểm soát còn lại ít hơn số thành viên theo quy định của pháp luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Theo yêu cầu của cổ đông hoặc nhóm
+cổ đông quy định tại khoản 2 Điều 114 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Theo yêu cầu của Ban kiểm soát;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Các trường hợp khác theo quy định của
+pháp luật và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp Điều lệ công ty không quy
+định khác, thì Hội đồng quản trị phải triệu tập họp Đại hội đồng cổ đông trong
+thời hạn 30 ngày, kể từ ngày số thành viên Hội đồng quản trị còn lại theo quy
+định tại điểm b hoặc nhận được yêu cầu quy định tại điểm c và điểm d khoản 3
+Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp Hội đồng quản trị không triệu
+tập họp Đại hội đồng cổ đông theo quy định thì Chủ tịch Hội đồng quản trị và
+các thành viên Hội đồng quản trị phải chịu trách nhiệm trước pháp luật và phải
+bồi thường thiệt hại phát sinh cho công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;5. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; Hội đồng quản trị không triệu tập họp Đại hội đồng cổ
+đông theo quy định tại khoản 4 Điều này thì trong thời hạn 30 ngày tiếp theo,
+Ban kiểm soát thay thế Hội đồng quản trị triệu tập họp Đại hội đồng cổ đông
+theo quy định của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;Trường hợp&lt;/span&gt;&lt;span lang="VI"&gt; Ban kiểm soát không triệu tập họp Đại hội đồng cổ đông theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; thì Ban kiểm soát phải chịu trách
+nhiệm trước pháp luật và bồi thường thiệt hại phát sinh cho công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Trường hợp Ban kiểm soát không
+triệu tập họp Đại hội đồng cổ đông theo quy định tại khoản 5 Điều này thì cổ
+đông hoặc nhóm cổ đông theo quy định tại khoản 2 Điều 114 của Luật này có quyền
+đại diện công ty triệu tập họp Đại hội đồng cổ đông theo quy định của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Người triệu tập phải thực hiện các
+công việc sau đây để tổ chức họp Đại hội đồng cổ đông:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Lập danh sách cổ đông có quyền dự họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Cung cấp thông tin và giải quyết khiếu
+nại liên quan đến danh sách cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Lập chương trình và nội dung cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Chuẩn bị tài liệu cho cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Dự thảo nghị quyết của Đại hội
+đồng cổ đông theo nội dung dự kiến của cuộc họp; danh sách và thông tin chi
+tiết của các ứng cử viên trong trường hợp bầu thành viên Hội đồng quản trị,
+Kiểm soát viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Xác định thời gian và địa điểm họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Gửi thông báo mời họp đến từng cổ đông
+có quyền dự họp theo quy định của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Các công việc khác phục vụ cuộc
+họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Chi phí triệu tập và tiến hành họp
+Đại hội đồng cổ đông theo quy định tại các khoản 4, 5 và 6 của Điều này sẽ được
+công ty hoàn lại.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_137"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 137. Danh sách
+cổ đông có quyền dự họp Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Danh sách cổ đông có quyền dự họp Đại
+hội đồng cổ đông được lập dựa trên sổ đăng ký cổ đông của công ty. Danh sách cổ
+đông có quyền dự họp Đại hội đồng cổ đông được lập không sớm hơn 05 ngày trước
+ngày gửi giấy mời họp Đại hội đồng cổ đông nếu Điều lệ công ty không quy định
+thời hạn dài hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Danh sách cổ đông có quyền dự họp Đại
+hội đồng cổ đông phải có họ, tên, địa chỉ thường trú, quốc tịch, số Thẻ căn cước
+công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá nhân hợp pháp
+khác của cổ đông là cá nhân; tên, mã số doanh nghiệp hoặc số quyết định thành lập,
+địa chỉ trụ sở chính của cổ đông là tổ chức; số lượng cổ phần từng loại, số và
+ngày đăng ký cổ đông của từng cổ đông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cổ đông có quyền kiểm tra, tra
+cứu, trích lục và sao danh sách cổ đông có quyền dự họp Đại hội đồng cổ đông;
+yêu cầu sửa đổi những thông tin sai lệch hoặc bổ sung những thông tin cần thiết
+về mình &lt;span style="background:white"&gt;trong&lt;/span&gt; danh sách cổ đông có quyền
+dự họp Đại hội đồng cổ đông. Người quản lý công ty phải cung cấp kịp thời thông
+tin sổ đăng ký cổ đông, sửa đổi, bổ sung thông tin sai lệch theo yêu cầu của cổ
+đông; đồng thời chịu trách nhiệm bồi thường thiệt hại phát sinh do không cung
+cấp hoặc cung cấp không kịp thời, không chính xác thông tin sổ đăng ký cổ đông
+theo yêu cầu. Trình tự, thủ tục yêu cầu cung cấp thông tin &lt;span style="background:white"&gt;trong&lt;/span&gt; sổ đăng ký cổ đông thực hiện theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_138"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 138. Chương
+trình và nội dung họp Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i
+triệu tập họp Đại hội đồng cổ đông phải chuẩn bị chương trình, nội dung cuộc
+họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ đông hoặc nhóm cổ đông quy định
+tại khoản 2 Điều 114 của Luật này có quyền kiến nghị vấn đề đưa vào chương trình
+họp Đại hội đồng cổ đông. Kiến nghị phải bằng văn bản và được gửi đến công ty
+chậm nhất 03 ngày làm việc trước ngày khai mạc, trừ &lt;span style="background:
+white"&gt;trường hợp&lt;/span&gt; Điều lệ công ty có quy định thời hạn khác. Kiến nghị
+phải ghi rõ tên cổ đông, số lượng từng loại cổ phần của cổ đông hoặc thông tin
+tương đương, vấn đề kiến nghị đưa vào chương trình họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Người triệu tập họp Đại hội đồng
+cổ đông có quyền từ chối kiến nghị quy định tại khoản 2 Điều này nếu thuộc một trong
+các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Kiến nghị được gửi đến không đúng thời
+hạn hoặc không đủ, không đúng nội dung;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Vấn đề kiến nghị không thuộc thẩm quyền
+quyết định của Đại hội đồng cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Trường hợp khác theo quy định của Điều
+lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Người triệu tập họp Đại hội đồng
+cổ đông phải chấp nhận và đưa kiến nghị quy định tại khoản 2 Điều này vào dự
+kiến chương trình và nội dung cuộc họp, trừ trường hợp quy định tại khoản 3
+Điều này; kiến nghị được chính thức bổ sung vào chương trình và nội dung cuộc
+họp nếu được Đại hội đồng cổ đông chấp thuận.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_139"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 139. Mời
+họp Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Người triệu tập họp Đại hội đồng
+cổ đông phải gửi thông báo mời họp đến tất cả các cổ đông &lt;span style="background:white"&gt;trong&lt;/span&gt; Danh sách cổ đông có quyền dự họp chậm
+nhất 10 ngày trước ngày khai mạc nếu Điều lệ công ty không quy định thời hạn
+dài hơn. Thông báo mời họp phải có tên, địa chỉ trụ sở chính, mã số doanh
+nghiệp; tên, địa chỉ thường trú của cổ đông, thời gian, địa điểm họp và những
+yêu cầu khác đối với người dự họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thông báo được gửi bằng phương
+thức bảo đảm đến được địa chỉ liên lạc của cổ đông; đồng thời đăng trên trang
+thông tin điện tử của công ty và đăng báo hằng ngày của trung ương hoặc địa
+phương, khi xét thấy cần thiết theo quy định của Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thông báo mời họp phải được gửi
+kèm theo các tài liệu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chương trình họp, các tài liệu sử dụng
+trong cuộc họp và dự thảo nghị quyết đối với từng vấn đề trong chương trình họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Phiếu biểu quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Mẫu chỉ định đại diện theo ủy
+quyền dự họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp công ty có trang thông tin
+điện tử, việc gửi tài liệu họp theo thông báo mời &lt;span style="background:white"&gt;hợp
+quy&lt;/span&gt; định tại khoản 3 Điều này có thể thay thế bằng đăng tải lên trang
+thông tin điện tử của công ty. Trường hợp này, thông báo mời họp phải ghi rõ
+nơi, cách thức tải tài liệu và công ty phải gửi tài liệu họp cho cổ đông nếu cổ
+đông yêu cầu.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_140"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 140. Thực hiện
+quyền dự họp Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ đông có thể trực tiếp tham dự
+họp, ủy quyền bằng văn bản cho một người khác dự họp hoặc thông qua một &lt;span style="background:white"&gt;trong&lt;/span&gt; các hình thức quy định tại khoản 2 Điều này.
+Trường hợp cổ đông là tổ chức chưa có người đại diện theo ủy quyền quy định tại
+khoản 4 Điều 15 của Luật này thì ủy quyền cho ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i
+khác dự họp Đại hội đồng cổ đông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Việc ủy quyền cho người đại diện dự
+họp Đại hội đồng cổ đông phải lập thành văn bản theo mẫu do công ty phát hành.
+Người được ủy quyền dự họp Đại hội đồng cổ đông phải xuất trình văn bản ủy
+quyền khi đăng ký dự họp trước khi vào phòng họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cổ đông được coi là tham dự và
+biểu quyết tại cuộc họp Đại hội đồng cổ đông trong &lt;span style="background:
+white"&gt;trường hợp&lt;/span&gt; sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tham dự và biểu quyết trực tiếp
+tại cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Ủy quyền cho một người khác tham
+dự và biểu quyết tại cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tham dự và biểu quyết thông qua
+hội nghị trực tuyến, bỏ phiếu điện tử hoặc hình thức điện tử khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Gửi phiếu biểu quyết đến cuộc họp thông
+qua gửi thư, fax, thư điện tử.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_141"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 141. Điều kiện
+tiến hành họp Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cuộc họp Đại hội đồng cổ đông được
+tiến hành khi có số cổ đông dự họp đại diện ít nhất 51% tổng số phiếu biểu
+quyết; tỷ lệ cụ thể do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp cuộc họp lần thứ nhất không
+đủ điều kiện tiến hành theo quy định tại khoản 1 Điều này thì được triệu tập
+họp lần thứ hai trong thời hạn 30 ngày, kể từ ngày dự định họp lần thứ nhất,
+nếu Điều lệ công ty không quy định khác. Cuộc họp của Đại hội đồng cổ đông
+triệu tập lần thứ hai được tiến hành khi có số cổ đông dự họp đại diện ít nhất
+33% tổng số phiếu biểu quyết; tỷ lệ cụ thể do Điều lệ công ty &lt;span style="background:white"&gt;quy định&lt;/span&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;3. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; cuộc họp triệu tập lần thứ hai không đủ điều kiện tiến
+hành theo quy định tại khoản 2 Điều này thì được triệu tập họp lần thứ ba trong
+thời hạn 20 ngày, kể từ ngày dự định họp lần thứ hai, nếu Điều lệ công ty không
+quy định khác. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt; này, cuộc họp
+của Đại hội đồng cổ đông được tiến hành không phụ thuộc vào tổng số phiếu biểu
+quyết của các cổ đông dự họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chỉ có Đại hội đồng cổ đông mới có
+quyền quyết định thay đổi chương trình họp đã được gửi kèm theo thông báo mời
+họp theo quy định tại Điều 139 của Luật này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_142"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 142. Thể thức
+tiến hành họp và biểu quyết tại Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trong trường hợp Điều lệ công ty không
+có quy định khác thì thể thức tiến hành họp và biểu quyết tại cuộc họp Đại hội
+đồng cổ đông được tiến hành như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Trước khi khai mạc cuộc họp, phải tiến
+hành đăng ký cổ đông dự họp Đại hội đồng cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Việc bầu Chủ tọa, thư ký và ban
+kiểm phiếu được quy định như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chủ tịch Hội đồng quản trị làm chủ
+tọa các cuộc họp do Hội đồng quản trị triệu tập; &lt;span style="background:white"&gt;trường
+hợp&lt;/span&gt; Chủ tịch vắng mặt hoặc tạm thời mất khả năng làm việc thì các thành
+viên Hội đồng quản trị còn lại bầu một người trong số họ làm chủ tọa cuộc họp
+theo nguyên tắc đa số; trường hợp không bầu được người làm chủ tọa thì Trưởng
+Ban kiểm soát điều khiển để Đại hội đồng cổ đông bầu chủ tọa cuộc họp và người
+có số phiếu bầu cao nhất làm chủ tọa cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Trường hợp khác, người ký tên
+triệu tập họp Đại hội đồng cổ đông điều khiển để Đại hội đồng cổ đông bầu chủ
+tọa cuộc họp và người có số phiếu bầu cao nhất làm chủ tọa cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Chủ tọa cử một hoặc một số người làm
+thư ký cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Đại hội đồng cổ đông bầu một hoặc một
+số ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i vào ban kiểm phiếu theo đề nghị
+của chủ tọa cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chương trình và nội dung họp phải được
+Đại hội đồng cổ đông thông qua &lt;span style="background:white"&gt;trong&lt;/span&gt; phiên
+khai mạc. Chương trình phải xác định rõ và chi tiết &lt;span style="background:
+white"&gt;thời gian&lt;/span&gt; đối &lt;span style="background:white"&gt;với&lt;/span&gt; từng vấn
+đề trong nội dung chương trình họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chủ tọa có quyền thực hiện các
+biện pháp cần thiết và hợp lý để điều khiển cuộc họp một cách có trật tự, đúng
+theo chương trình đã được thông qua và phản ánh được mong muốn của đa số người
+dự họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Đại hội đồng cổ đông thảo luận và biểu
+quyết theo từng vấn đề trong nội dung chương trình. Việc biểu quyết được tiến
+hành bằng cách thu thẻ biểu quyết tán thành nghị quyết, sau đó thu thẻ biểu &lt;span style="background:white"&gt;quyết&lt;/span&gt; không tán thành, cuối cùng kiểm phiếu tập
+hợp số phiếu biểu quyết tán thành, không tán thành, không có ý kiến. Kết quả
+kiểm phiếu được chủ tọa công bố ngay trước khi bế mạc cuộc họp, trừ trường hợp
+Điều lệ có quy định khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Cổ đông hoặc người được ủy quyền
+dự họp đến sau khi cuộc họp đã khai mạc vẫn được đăng ký và có quyền tham gia
+biểu quyết ngay sau khi đăng ký; &lt;span style="background:white"&gt;trong&lt;/span&gt; trường
+hợp này, hiệu lực của những nội dung đã được biểu quyết trước đó không thay đổi;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Người triệu tập họp Đại hội đồng
+cổ đông có các quyền sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Yêu cầu tất cả người dự họp chịu
+sự kiểm tra hoặc các biện pháp an ninh hợp pháp, hợp lý khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Yêu cầu cơ quan có thẩm quyền duy trì
+trật tự cuộc họp; trục xuất những người không tuân thủ quyền điều hành của chủ
+tọa, cố ý gây rối trật tự, ngăn cản tiến triển bình thường của cuộc họp hoặc
+không tuân thủ các yêu cầu về kiểm tra an ninh ra khỏi cuộc họp Đại hội đồng cổ
+đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Chủ tọa có quyền hoãn cuộc họp Đại
+hội đồng cổ đông đã có đủ số người đăng ký dự họp theo quy định đến một thời
+điểm khác hoặc thay đổi địa điểm họp trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Địa điểm họp không có đủ chỗ ngồi thuận
+tiện cho tất cả người dự họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Các phương tiện thông tin tại địa điểm
+họp không bảo đảm cho các cổ đông dự họp tham gia, thảo luận và biểu quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Có người dự họp cản trở, gây rối trật
+tự, có nguy cơ làm cho cuộc họp không được tiến hành một cách công bằng và hợp
+pháp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Thời gian hoãn tối đa không quá 03 ngày,
+kể từ ngày cuộc họp dự định khai mạc;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Trường hợp chủ tọa hoãn hoặc tạm
+dừng họp Đại hội đồng cổ đông trái với quy định tại khoản 8 Điều này, Đại hội
+đồng cổ đông bầu một người khác trong số những người dự họp để thay thế chủ tọa
+điều hành cuộc họp cho đến lúc kết thúc; tất cả các nghị quyết được thông qua
+tại cuộc họp đó đều có hiệu lực thi hành.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_143"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 143. Hình thức
+thông qua nghị quyết của Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Đại hội đồng cổ đông thông qua các
+quyết định thuộc &lt;span style="background:white"&gt;thẩm quyền&lt;/span&gt; bằng hình
+thức biểu quyết tại cuộc họp hoặc lấy ý kiến bằng văn bản.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trường hợp Điều lệ công ty không có
+quy định khác thì nghị quyết của Đại hội đồng cổ đông về các vấn đề sau đây phải
+được thông qua bằng hình thức biểu quyết tại cuộc họp Đại hội đồng cổ đông:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Sửa đổi, bổ sung các nội dung của Điều
+lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Định hướng phát triển công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Loại cổ phần và tổng số cổ phần
+của từng loại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Bầu, miễn nhiệm, bãi nhiệm thành viên
+Hội đồng quản trị và Ban kiểm soát;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Quyết định đầu tư hoặc bán số tài sản
+có giá trị bằng hoặc lớn hơn 35% tổng giá trị tài sản được ghi trong báo cáo
+tài chính gần nhất của công ty, hoặc một tỷ lệ, giá trị khác nhỏ hơn do Điều lệ
+công ty quy định;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Thông qua báo cáo tài chính hằng
+năm;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Tổ chức lại, giải thể công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_144"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 144. Điều kiện
+để nghị quyết được thông qua&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Nghị quyết về nội dung sau đây
+được thông qua nếu được số cổ đông đại diện ít nhất 65% tổng số phiếu biểu
+quyết của tất cả cổ đông dự họp tán thành; tỷ lệ cụ thể do Điều lệ công ty &lt;span style="background:white"&gt;quy định&lt;/span&gt;:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Loại cổ phần và tổng số cổ phần
+của từng loại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thay đổi ngành, nghề và lĩnh vực
+kinh doanh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thay đổi cơ cấu tổ chức quản lý
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Dự án đầu tư hoặc bán tài sản có giá
+trị bằng hoặc lớn hơn 35% tổng giá trị tài sản được ghi &lt;span style="background:
+white"&gt;trong&lt;/span&gt; báo cáo tài chính gần nhất của công ty, hoặc tỷ lệ, giá trị
+khác nhỏ hơn do Điều lệ công ty quy định;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Tổ chức lại, giải thể công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Các vấn đề khác do Điều lệ công ty
+quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Các nghị quyết khác được thông qua
+khi được số cổ đông đại diện cho ít nhất 51% tổng số phiếu biểu quyết của tất
+cả cổ đông dự họp tán thành, trừ trường hợp quy định tại khoản 1 và khoản 3
+Điều này; tỷ lệ cụ thể do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp Điều lệ công ty không quy
+định khác, việc biểu quyết bầu thành viên Hội đồng quản trị và Ban kiểm soát
+phải thực hiện theo phương thức bầu dồn phiếu, theo đó mỗi cổ đông có tổng số
+phiếu biểu quyết tương ứng với tổng số cổ phần sở hữu nhân với số thành viên được
+bầu của Hội đồng quản trị hoặc Ban kiểm soát và cổ đông có quyền dồn hết hoặc
+một phần tổng số phiếu bầu của mình cho một hoặc một số ứng cử viên. Người trúng
+cử thành viên Hội đồng quản trị hoặc Kiểm soát viên được xác định theo số phiếu
+bầu tính từ cao xuống thấp, bắt đầu từ ứng cử viên có số phiếu bầu cao nhất cho
+đến khi đủ số thành viên quy định tại Điều lệ công ty. Trường hợp có từ 02 ứng
+cử viên trở lên đạt cùng số phiếu bầu như nhau cho thành viên cuối cùng của Hội
+đồng quản trị hoặc Ban kiểm soát thì sẽ tiến hành bầu lại trong số các ứng cử
+viên có số phiếu bầu ngang nhau hoặc lựa chọn theo tiêu chí quy chế bầu cử hoặc
+Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp thông qua nghị quyết
+dưới hình thức lấy ý kiến bằng văn bản thì nghị quyết của Đại hội đồng cổ đông
+được thông qua nếu được số cổ đông đại diện ít nhất 51% tổng số phiếu biểu
+quyết tán thành; tỷ lệ cụ thể do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Nghị quyết của Đại hội đồng cổ đông
+phải được thông báo đến cổ đông có quyền dự họp Đại hội đồng cổ đông trong thời
+hạn 15 ngày, kể từ ngày nghị &lt;span style="background:white"&gt;quyết&lt;/span&gt; được thông
+qua; trường hợp công ty có trang thông tin điện tử, việc gửi nghị quyết có thể
+thay thế bằng việc đăng tải lên trang thông tin điện tử của công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_145"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 145. Thẩm quyền
+và thể thức lấy ý kiến cổ đông bằng văn bản để thông qua nghị quyết của Đại hội
+đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp Điều lệ công ty không có quy
+định khác thì thẩm quyền và thể thức lấy ý kiến cổ đông bằng văn bản để thông
+qua nghị quyết của Đại hội đồng cổ đông được thực hiện theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng quản trị có quyền lấy ý kiến
+cổ đông bằng văn bản để thông qua nghị quyết của Đại hội đồng cổ đông khi xét
+thấy cần thiết vì lợi ích của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hội đồng quản trị chuẩn bị phiếu
+lấy ý kiến, dự thảo nghị quyết của Đại hội đồng cổ đông, các tài liệu giải
+trình dự thảo nghị quyết và gửi đến tất cả các cổ đông có quyền biểu quyết chậm
+nhất 10 ngày trước thời hạn phải gửi lại phiếu lấy ý kiến, nếu Điều lệ công ty
+không quy định thời hạn khác dài hơn. Việc lập danh sách cổ đông gửi phiếu lấy
+ý kiến thực hiện theo quy định tại khoản 1 và khoản 2 Điều 137 của Luật này.
+Yêu cầu và cách thức gửi phiếu lấy ý kiến và tài liệu kèm theo thực hiện theo
+quy định tại Điều 139 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Phiếu lấy ý kiến phải có các nội dung
+chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, địa chỉ trụ sở chính, mã số doanh
+nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Mục đích lấy ý kiến;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Họ, tên, địa chỉ thường trú, quốc tịch,
+số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng thực cá
+nhân hợp pháp khác của cổ đông là cá nhân; tên, mã số doanh nghiệp hoặc số
+quyết định thành lập, địa chỉ trụ sở chính của cổ đông là tổ chức hoặc họ, tên,
+địa chỉ thường trú, quốc tịch, số Thẻ căn cước công dân, Giấy chứng minh nhân
+dân, Hộ chiếu hoặc chứng thực cá nhân &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt;
+khác của đại diện theo ủy quyền của cổ đông là tổ chức; số lượng cổ phần của
+từng loại và số phiếu biểu quyết của cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Vấn đề cần lấy ý kiến để thông
+qua;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Phương án biểu quyết bao gồm tán
+thành, không tán thành và không có ý kiến;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Thời hạn phải gửi về công ty phiếu
+lấy ý kiến đã được trả lời;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Họ, tên, chữ ký của Chủ tịch Hội
+đồng quản trị và người đại diện theo pháp luật của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cổ đông có thể gửi phiếu lấy ý
+kiến đã trả lời đến công ty theo một trong các hình thức sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Gửi thư. Phiếu lấy ý kiến đã được trả
+lời phải có chữ ký của cổ đông là cá nhân, của người đại diện theo ủy quyền hoặc
+người đại diện theo pháp luật của cổ đông là tổ chức. Phiếu lấy ý kiến gửi về
+công ty phải được đựng trong phong bì dán kín và không ai được quyền mở trước
+khi kiểm phiếu;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Gửi fax hoặc thư điện tử. Phiếu
+lấy ý kiến gửi về công ty qua fax hoặc thư điện tử phải được giữ bí mật đến
+thời điểm kiểm phiếu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Các phiếu lấy ý kiến gửi về công ty sau
+thời hạn đã xác định tại nội dung phiếu lấy ý kiến hoặc đã bị mở &lt;span style="background:white"&gt;trong&lt;/span&gt; trường hợp gửi thư và bị tiết lộ trong trường
+hợp gửi fax, thư điện tử là không hợp lệ. Phiếu lấy ý kiến không được gửi về
+được coi là phiếu không tham gia biểu quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Hội đồng quản trị tổ chức kiểm
+phiếu và lập biên bản kiểm phiếu dưới sự chứng kiến của Ban kiểm soát hoặc của
+cổ đông không nắm giữ chức vụ quản lý công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Biên bản kiểm phiếu phải có các nội dung
+chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, địa chỉ trụ sở chính, mã số doanh
+nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Mục đích và các vấn đề cần lấy ý kiến
+để thông qua nghị quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Số cổ đông với tổng số phiếu biểu quyết
+đã tham gia biểu quyết, &lt;span style="background:white"&gt;trong&lt;/span&gt; đó phân
+biệt số phiếu biểu quyết hợp lệ và số biểu quyết không hợp lệ và phương thức
+gửi biểu quyết, kèm theo phụ lục danh sách cổ đông tham gia biểu quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Tổng số phiếu tán thành, không tán
+thành và không có ý kiến đối với từng vấn đề;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Các vấn đề đã được thông qua;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Họ, tên, chữ ký của Chủ tịch Hội
+đồng quản trị, người đại diện theo pháp luật của công ty, người giám sát kiểm
+phiếu và người kiểm phiếu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Các thành viên Hội đồng quản trị,
+người kiểm phiếu và người giám sát kiểm phiếu phải liên đới chịu trách nhiệm về
+tính trung thực, chính xác của biên bản kiểm phiếu; liên đới chịu trách nhiệm
+về các thiệt hại phát sinh từ các quyết định được thông qua do kiểm phiếu không
+trung thực, không chính xác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Biên bản kiểm phiếu phải được gửi đến
+các cổ đông &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 15 ngày, kể từ
+ngày kết thúc kiểm phiếu. Trường hợp công ty có trang thông tin điện tử, việc
+gửi biên bản kiểm phiếu có thể thay thế bằng việc đăng tải lên trang thông tin
+điện tử của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Phiếu lấy ý kiến đã được trả lời, biên
+bản kiểm phiếu, nghị quyết đã được thông qua và tài liệu có liên quan gửi kèm
+theo phiếu lấy ý kiến được lưu giữ tại trụ sở chính của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Nghị quyết được thông qua theo hình
+thức lấy ý kiến cổ đông bằng văn bản có giá trị như nghị quyết được thông qua
+tại cuộc họp Đại hội đồng cổ đông.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_146"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 146. Biên bản
+họp Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cuộc họp Đại hội đồng cổ đông phải
+được ghi biên bản và có thể ghi âm hoặc ghi và lưu giữ dưới hình thức điện tử khác.
+Biên bản phải lập bằng tiếng Việt, có thể lập thêm bằng tiếng nước ngoài và có
+các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, địa chỉ trụ sở chính, mã số doanh
+nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thời gian và địa điểm họp Đại hội đồng
+cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Chương trình và nội dung cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên chủ tọa và thư ký;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Tóm tắt diễn biến cuộc họp và các ý
+kiến phát biểu tại Đại hội đồng cổ đông về từng vấn đề trong nội dung chương trình
+họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Số cổ đông và tổng số phiếu biểu quyết
+của các cổ đông dự họp, phụ lục danh sách đăng ký cổ đông, đại diện cổ đông dự
+họp với số cổ phần và số phiếu bầu tương ứng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Tổng số phiếu biểu quyết đối với
+từng vấn đề biểu quyết, &lt;span style="background:white"&gt;trong&lt;/span&gt; đó ghi rõ
+phương thức biểu quyết, tổng số phiếu hợp lệ, không hợp lệ, tán thành, không
+tán thành và không có ý kiến; tỷ lệ tương ứng trên &lt;span style="background:
+white"&gt;tổng&lt;/span&gt; số phiếu biểu quyết của cổ đông dự họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Các vấn đề đã được thông qua và tỷ
+lệ phiếu biểu quyết thông qua tương ứng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Chữ ký của chủ tọa và thư ký.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Biên bản được lập bằng tiếng Việt và tiếng
+nước ngoài đều có hiệu lực pháp lý như nhau. Trường hợp có sự khác nhau về nội
+dung biên bản tiếng Việt và tiếng nước ngoài thì nội dung &lt;span style="background:white"&gt;trong&lt;/span&gt; biên bản tiếng Việt có hiệu lực áp dụng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Biên bản họp Đại hội đồng cổ đông phải
+làm xong và thông qua trước khi kết thúc cuộc họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chủ tọa và thư ký cuộc họp phải liên
+đới chịu trách nhiệm về tính trung thực, chính xác của nội dung biên bản.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Biên bản họp Đại hội đồng cổ đông
+phải được gửi đến tất cả cổ đông &lt;span style="background:white"&gt;trong&lt;/span&gt; thời
+hạn 15 ngày, kể từ ngày kết thúc cuộc họp; việc gửi biên bản kiểm phiếu có thể
+thay thế bằng việc đăng tải lên trang thông tin điện tử của công ty (nếu có).&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Biên bản họp Đại hội đồng cổ đông,
+phụ lục danh sách cổ đông đăng ký dự họp, nghị quyết đã được thông qua và tài
+liệu có liên quan gửi kèm theo thông báo mời họp phải được lưu giữ tại trụ sở
+chính của công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_147"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 147. Yêu
+cầu hủy bỏ nghị quyết của Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trong thời hạn 90 ngày, kể từ ngày
+nhận được biên bản họp Đại hội đồng cổ đông hoặc biên bản kết quả kiểm phiếu
+lấy ý kiến Đại hội đồng cổ đông, cổ đông, nhóm cổ đông quy định tại khoản 2
+Điều 114 của Luật này có quyền yêu cầu Tòa án hoặc Trọng tài xem xét, hủy bỏ
+nghị quyết hoặc một phần nội dung nghị quyết của Đại hội đồng cổ đông &lt;span style="background:white"&gt;trong&lt;/span&gt; các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Trình tự và thủ tục triệu tập họp và
+ra quyết định của Đại hội đồng cổ đông không thực hiện đúng theo quy định của
+Luật này và Điều lệ công ty, trừ trường &lt;span style="background:white"&gt;hợp quy&lt;/span&gt;
+định tại khoản 2 Điều 148 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Nội dung nghị quyết vi phạm pháp luật
+hoặc Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_148"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 148. Hiệu lực
+các nghị quyết của Đại hội đồng cổ đông&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Các nghị quyết của Đại hội đồng cổ
+đông có hiệu lực kể từ ngày được thông qua hoặc từ thời điểm hiệu lực ghi tại nghị
+quyết đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Các nghị quyết của Đại hội đồng cổ
+đông được thông qua bằng 100% tổng số cổ phần có quyền biểu quyết là hợp pháp và
+có hiệu lực ngay cả khi trình tự và thủ tục thông qua nghị quyết đó không được
+thực hiện đúng như quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp có cổ đông, nhóm cổ đông
+yêu cầu Tòa án hoặc Trọng tài hủy bỏ nghị quyết của Đại hội đồng cổ đông theo
+quy định tại Điều 147 của Luật này, thì các nghị quyết đó vẫn có hiệu lực thi
+hành cho đến khi Tòa án, Trọng tài có quyết định khác, trừ trường hợp áp dụng
+biện pháp khẩn cấp tạm thời theo quyết định của cơ quan có thẩm quyền.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_149"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 149. Hội
+đồng quản trị&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng quản trị là cơ quan quản lý
+công ty, có toàn quyền nhân danh công ty để quyết định, thực hiện các quyền và
+nghĩa vụ của công ty không thuộc thẩm quyền của Đại hội đồng cổ đông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hội đồng quản trị có các quyền và nghĩa
+vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Quyết định chiến lược, kế hoạch phát
+triển trung hạn và kế hoạch kinh doanh hằng năm của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Kiến nghị loại cổ phần và tổng số cổ
+phần được quyền chào bán của từng loại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Quyết định bán cổ phần mới trong
+phạm vi số cổ phần được quyền chào bán của từng loại; quyết định huy động thêm
+vốn theo hình thức khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Quyết định giá bán cổ phần và trái
+phiếu của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Quyết định mua lại cổ phần theo quy
+định tại khoản 1 Điều 130 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Quyết định phương án đầu tư và &lt;span style="background:white"&gt;dự án&lt;/span&gt; đầu tư trong thẩm quyền và giới hạn theo quy
+định của pháp luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Quyết định giải pháp phát triển
+thị trường, tiếp thị và công nghệ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Thông qua &lt;span style="background:
+white"&gt;hợp đồng&lt;/span&gt; mua, bán, vay, cho vay và hợp đồng khác có giá trị bằng hoặc
+lớn hơn 35% tổng giá trị tài sản được ghi trong báo cáo tài chính gần nhất của
+công ty, nếu Điều lệ công ty không quy định một tỷ lệ hoặc giá trị khác. Quy
+định này không áp dụng đối với hợp đồng và giao dịch quy định, tại điểm d khoản
+2 Điều 135, khoản 1 và khoản 3 Điều 162 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Bầu, miễn nhiệm, bãi nhiệm Chủ
+tịch Hội đồng quản trị; bổ nhiệm, miễn nhiệm, ký hợp đồng, chấm dứt hợp đồng
+đối với Giám đốc hoặc Tổng giám đốc và người quản lý quan trọng khác do Điều lệ
+công ty quy định; quyết định, tiền lương và quyền lợi khác của những người quản
+lý đó; cử người đại diện theo ủy quyền tham gia Hội đồng thành viên hoặc Đại
+hội đồng cổ đông ở công ty khác, quyết định mức thù lao và quyền lợi khác của
+những người đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;k) Giám sát, chỉ đạo Giám đốc hoặc
+Tổng giám đốc và người quản lý khác trong điều hành công việc kinh doanh hằng
+ngày của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;l) Quyết định cơ cấu tổ chức, quy chế
+quản lý nội bộ của công ty, quyết định thành lập công ty con, lập chi nhánh, văn
+phòng đại diện và việc góp vốn, mua cổ phần của doanh nghiệp khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;m) Duyệt chương trình, nội dung tài liệu
+phục vụ họp Đại hội đồng cổ đông, triệu tập họp Đại hội đồng cổ đông hoặc lấy ý
+kiến để Đại hội đồng cổ đông thông qua quyết định;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;n) Trình báo cáo quyết toán tài chính
+hằng năm lên Đại hội đồng cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;o) Kiến nghị mức cổ tức được trả;
+quyết định thời hạn và thủ tục trả cổ tức hoặc xử lý lỗ phát sinh &lt;span style="background:white"&gt;trong&lt;/span&gt; quá trình kinh doanh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;p) Kiến nghị việc tổ chức lại, giải thể,
+yêu cầu phá sản công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;q) Quyền và nghĩa vụ khác theo quy
+định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Hội đồng quản trị thông qua quyết định
+bằng biểu quyết tại cuộc họp, lấy ý kiến bằng văn bản hoặc hình thức khác do
+Điều lệ công ty quy định. Mỗi thành viên Hội đồng quản trị có một phiếu biểu quyết.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Khi thực hiện chức năng, quyền và nghĩa
+vụ của mình, Hội đồng quản trị tuân thủ đúng quy định của pháp luật, Điều lệ
+công ty và nghị quyết của Đại hội đồng cổ đông. Trong trường hợp nghị quyết do
+Hội đồng quản trị thông qua trái với quy định của pháp luật hoặc Điều lệ công
+ty gây thiệt hại cho công ty thì các thành viên tán thành thông qua nghị quyết
+đó phải cùng liên đới chịu trách nhiệm cá nhân về nghị quyết đó và phải đền bù
+thiệt hại cho công ty; thành viên phản đối thông qua nghị quyết nói trên được
+miễn trừ trách nhiệm. Trường hợp này, cổ đông sở hữu cổ phần của công ty liên
+tục trong thời hạn ít nhất 01 năm có quyền yêu cầu Hội đồng quản trị đình chỉ
+thực hiện nghị quyết nói trên.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_150"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 150. Nhiệm
+kỳ và số lượng thành viên Hội đồng quản trị&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng quản trị có từ 03 đến 11 thành
+viên. Điều lệ công ty quy định cụ thể số lượng thành viên Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Nhiệm kỳ của thành viên Hội đồng quản
+trị, thành viên độc lập Hội đồng quản trị không quá 05 năm và có thể được bầu
+lại với số nhiệm kỳ không hạn chế. Số lượng, thời hạn cụ thể của nhiệm kỳ, số
+thành viên Hội đồng quản trị phải thường trú ở Việt Nam do Điều lệ công ty quy
+định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;3. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; tất cả thành viên Hội đồng quản trị cùng kết thúc
+nhiệm kỳ thì các thành viên đó tiếp tục là thành viên Hội đồng quản trị cho đến
+khi có thành viên mới được bầu thay thế và tiếp quản công việc, trừ trường hợp
+Điều lệ công ty có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trường hợp công ty cổ phần được tổ
+chức quản lý theo quy định tại điểm b khoản 1 Điều 134 của Luật này thì các
+giấy tờ, giao dịch của công ty phải ghi rõ “thành viên độc lập” trước họ, tên
+của thành viên Hội đồng quản trị tương ứng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Điều lệ công ty quy định cụ thể số
+lượng, quyền, nghĩa vụ, cách thức tổ chức và phối hợp hoạt động của các thành viên
+độc lập Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_151"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 151. Cơ
+cấu, tiêu chuẩn và điều kiện làm thành viên Hội đồng quản trị&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên Hội đồng quản trị phải có
+các tiêu chuẩn và điều kiện sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Có năng lực hành vi dân sự đầy đủ,
+không thuộc đối tượng không được quản lý doanh nghiệp theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại khoản 2 Điều 18 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Có trình độ chuyên môn, kinh
+nghiệm trong quản lý kinh doanh của công ty và không nhất thiết phải là cổ đông
+của công ty, trừ trường hợp Điều lệ công ty quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thành viên Hội đồng quản trị công ty
+có thể đồng thời là thành viên Hội đồng quản trị của công ty khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Đối với công ty con mà Nhà nước
+nắm giữ trên 50% vốn điều lệ thì thành viên Hội đồng quản trị không được là vợ
+hoặc chồng, cha đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị
+ruột, em ruột, anh rể, em rể, chị dâu, em dâu của Giám đốc, Tổng giám đốc và
+người quản lý khác của công ty; không được là người có liên quan của người quản
+lý, người có thẩm quyền bổ nhiệm người quản lý công ty mẹ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên độc lập Hội đồng quản trị
+theo quy định tại điểm b khoản 1 Điều 134 của Luật này có các tiêu chuẩn và điều
+kiện sau đây, trừ trường hợp pháp luật &lt;span style="background:white"&gt;về&lt;/span&gt;
+chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt; có &lt;span style="background:
+white"&gt;quy định&lt;/span&gt; khác:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Không phải là người đang làm việc
+cho công ty, công ty con của công ty; không phải là người đã từng làm việc cho
+công ty, công ty con của công ty ít nhất &lt;span style="background:white"&gt;trong&lt;/span&gt;
+03 năm liền trước đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không phải là người đang hưởng lương,
+thù lao từ công ty, trừ các khoản phụ cấp mà thành viên Hội đồng quản trị được
+hưởng theo &lt;span style="background:white"&gt;quy định&lt;/span&gt;;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Không phải là người có vợ hoặc
+chồng, cha đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị ruột,
+em ruột là cổ đông lớn của công ty; là ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i
+quản lý của công ty hoặc công ty con của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Không phải là người trực tiếp hoặc
+gián tiếp sở hữu ít nhất 1% tổng số cổ phần có quyền biểu quyết của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Không phải là người đã từng làm thành
+viên Hội đồng quản trị, Ban kiểm soát của công ty ít nhất trong 05 năm liền
+trước đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thành viên độc lập Hội đồng quản trị
+phải thông báo với Hội đồng quản trị về việc không còn đáp ứng đủ điều kiện theo
+quy định tại khoản 2 Điều này và đương nhiên không còn là thành viên độc lập
+Hội đồng quản trị kể từ ngày không đáp ứng đủ điều kiện. Hội đồng quản trị phải
+thông báo trường hợp thành viên độc lập Hội đồng quản trị không còn đáp ứng đủ
+điều kiện tại cuộc họp Đại hội đồng cổ đông gần nhất hoặc triệu tập họp Đại hội
+đồng cổ đông để bầu bổ sung hoặc thay thế thành viên độc lập Hội đồng quản trị
+đó &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 06 tháng kể từ ngày
+nhận được thông báo của thành viên độc lập Hội đồng quản trị có liên quan.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_152"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 152. Chủ
+tịch Hội đồng quản trị&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng quản trị bầu một thành viên
+của Hội đồng quản trị làm Chủ tịch. Chủ tịch Hội đồng quản trị có thể kiêm Giám
+đốc hoặc Tổng giám đốc công ty trừ trường hợp quy định tại khoản 2 Điều này và
+Điều lệ công ty, pháp luật về chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt;
+không có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty cổ phần do Nhà nước nắm
+giữ trên 50% tổng số phiếu biểu quyết thì Chủ tịch Hội đồng quản trị không được
+kiêm Giám đốc hoặc Tổng giám đốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chủ tịch Hội đồng quản trị có các quyền
+và nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Lập chương trình, kế hoạch hoạt
+động của Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chuẩn bị chương trình, nội dung, tài
+liệu phục vụ cuộc họp; triệu tập và chủ tọa cuộc họp Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;c) Tổ chức&lt;/span&gt;&lt;span lang="VI"&gt; việc thông qua nghị quyết của Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Giám sát quá trình tổ chức thực
+hiện các nghị quyết của Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Chủ tọa cuộc họp Đại hội đồng cổ đông,
+cuộc họp Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Quyền và nghĩa vụ khác theo quy
+định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;4. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; Chủ tịch Hội đồng quản trị vắng mặt hoặc không thể
+thực hiện được nhiệm vụ của mình thì ủy quyền bằng văn bản cho một thành viên
+khác thực hiện các quyền và nghĩa vụ của Chủ tịch Hội đồng quản trị theo nguyên
+tắc quy định tại Điều lệ công ty. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt;
+không có người được ủy quyền thì các thành viên còn lại bầu một người &lt;span style="background:white"&gt;trong&lt;/span&gt; số các thành viên tạm thời giữ chức Chủ
+tịch Hội đồng quản trị theo nguyên tắc đa số.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Khi xét thấy cần thiết, Chủ tịch
+Hội đồng quản trị tuyển dụng thư ký công ty để &lt;span style="background:white"&gt;hỗ
+trợ&lt;/span&gt; Hội đồng quản trị và Chủ tịch Hội đồng quản trị thực hiện các nghĩa
+vụ thuộc thẩm quyền theo quy định của pháp luật và Điều lệ công ty. Thư ký công
+ty có các quyền và nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;a) Hỗ trợ&lt;/span&gt;&lt;span lang="VI"&gt; tổ chức triệu tập họp Đại hội đồng cổ đông, Hội đồng quản trị; ghi chép
+các biên bản họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Hỗ trợ thành viên Hội đồng quản
+trị &lt;span style="background:white"&gt;trong&lt;/span&gt; việc thực hiện quyền và nghĩa
+vụ được giao;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Hỗ trợ Hội đồng quản trị &lt;span style="background:white"&gt;trong&lt;/span&gt; áp dụng và thực hiện nguyên tắc quản trị
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Hỗ trợ công ty &lt;span style="background:white"&gt;trong&lt;/span&gt; xây dựng quan hệ cổ đông và bảo vệ quyền và
+lợi ích hợp pháp của cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) &lt;span style="background:white"&gt;Hỗ trợ&lt;/span&gt;
+công ty &lt;span style="background:white"&gt;trong&lt;/span&gt; việc tuân thủ đúng các
+nghĩa vụ cung cấp thông tin, công khai hóa thông tin và thủ tục hành chính;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Quyền và nghĩa vụ khác theo quy
+định tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Chủ tịch Hội đồng quản trị có thể bị
+bãi miễn theo quyết định của Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_153"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 153. Cuộc họp
+Hội đồng quản trị&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ tịch Hội đồng quản trị sẽ được
+bầu trong cuộc họp đầu tiên của nhiệm kỳ Hội đồng quản trị trong thời hạn 07 ngày
+làm việc, kể từ ngày kết thúc bầu cử Hội đồng quản trị nhiệm kỳ đó. Cuộc họp
+này do thành viên có số phiếu bầu cao nhất hoặc tỷ lệ phiếu bầu cao nhất triệu
+tập và chủ trì. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt; có nhiều hơn
+một thành viên có số phiếu bầu hoặc tỷ lệ phiếu bầu cao nhất và ngang nhau thì
+các thành viên bầu theo nguyên tắc đa số để chọn 01 người trong số họ triệu tập
+họp Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hội đồng quản trị có thể họp định kỳ
+hoặc bất thường. Hội đồng quản trị họp tại trụ sở chính của công ty hoặc ở nơi
+khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Cuộc họp của Hội đồng quản trị do Chủ
+tịch Hội đồng quản trị triệu tập khi xét thấy cần thiết, nhưng mỗi quý phải họp
+ít nhất một lần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chủ tịch Hội đồng quản trị phải triệu
+tập họp Hội đồng quản trị khi có một &lt;span style="background:white"&gt;trong&lt;/span&gt;
+các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Có đề nghị của Ban kiểm soát hoặc thành
+viên độc lập;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Có đề nghị của Giám đốc hoặc Tổng giám
+đốc hoặc ít nhất 05 người quản lý khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Có đề nghị của ít nhất 02 thành viên
+điều hành của Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Các trường hợp khác do Điều lệ công
+ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Đề nghị phải được lập thành văn bản, &lt;span style="background:white"&gt;trong&lt;/span&gt; đó nêu rõ mục đích, vấn đề cần thảo luận và
+quyết định thuộc thẩm quyền của Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Chủ tịch Hội đồng quản trị phải triệu
+tập họp Hội đồng quản trị trong thời hạn 07 ngày làm việc, kể từ ngày nhận được
+đề nghị quy định tại khoản 4 Điều này. Trường hợp Chủ tịch không triệu tập họp
+Hội đồng quản trị theo đề nghị thì Chủ tịch phải chịu trách nhiệm về những
+thiệt hại xảy ra đối với công ty; người đề nghị có quyền thay thế Hội đồng quản
+trị triệu tập họp Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Chủ tịch Hội đồng quản trị hoặc người
+triệu &lt;span style="background:white"&gt;tập họp&lt;/span&gt; Hội đồng quản trị phải gửi
+thông báo mời họp chậm nhất 03 ngày làm việc trước ngày họp nếu Điều lệ công ty
+không có quy định khác. Thông báo mời họp phải xác định cụ thể thời gian và địa
+điểm họp, chương trình, các vấn đề thảo luận và quyết định. Kèm theo thông báo
+mời họp phải có tài liệu sử dụng tại cuộc họp và phiếu biểu quyết của thành
+viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Thông báo mời họp được gửi bằng bưu điện,
+fax, thư điện tử hoặc phương tiện khác, nhưng phải bảo đảm đến được địa chỉ
+liên lạc của từng thành viên Hội đồng quản trị được đăng ký tại công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Chủ tịch Hội đồng quản trị hoặc người
+triệu tập gửi thông báo mời họp và các tài liệu kèm theo đến các Kiểm soát viên
+như đối với các thành viên Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Kiểm soát viên có quyền dự các cuộc
+họp của Hội đồng quản trị; có quyền thảo luận nhưng không được biểu quyết.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Cuộc họp Hội đồng quản trị được
+tiến hành khi có từ ba phần tư tổng số thành viên trở lên dự họp. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt; cuộc họp được triệu tập theo quy
+định khoản này không đủ số thành viên dự họp theo quy định thì được triệu tập
+lần thứ hai trong thời hạn 07 ngày, kể từ ngày dự định họp lần thứ nhất, trừ &lt;span style="background:white"&gt;trường hợp&lt;/span&gt; Điều lệ quy định thời hạn khác ngắn hơn.
+Trường hợp này, cuộc họp được tiến hành, nếu có hơn một nửa số thành viên Hội
+đồng quản trị dự họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Thành viên Hội đồng quản trị được coi
+là tham dự và biểu quyết tại cuộc họp &lt;span style="background:white"&gt;trong&lt;/span&gt;
+trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tham dự và biểu quyết trực tiếp
+tại cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Ủy quyền cho người khác đến dự họp
+theo quy định tại khoản 10 Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tham dự và biểu quyết thông qua
+hội nghị trực tuyến hoặc hình thức tương tự khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Gửi phiếu biểu quyết đến cuộc họp thông
+qua thư, fax, thư điện tử.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp gửi phiếu biểu quyết đến cuộc
+họp thông qua thư, phiếu biểu quyết phải đựng &lt;span style="background:white"&gt;trong&lt;/span&gt;
+phong bì kín và phải được chuyển đến Chủ tịch Hội đồng quản trị chậm nhất một
+giờ trước khi khai mạc. Phiếu biểu quyết chỉ được mở trước sự chứng kiến của
+tất cả những người dự họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trừ trường hợp Điều lệ công ty có quy
+định tỷ lệ khác cao hơn, nghị quyết của Hội đồng quản trị được thông qua nếu
+được đa số thành viên dự họp tán thành; trường hợp số phiếu ngang nhau thì
+quyết định cuối cùng thuộc về phía có ý kiến của Chủ tịch Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;10. Thành viên phải tham dự đầy đủ
+các cuộc họp của Hội đồng quản trị. Thành viên được ủy quyền cho người khác dự
+họp nếu được đa số thành viên Hội đồng quản trị chấp thuận.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_154"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 154. Biên bản
+họp Hội đồng quản trị&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Các cuộc họp của Hội đồng quản trị
+phải được ghi biên bản và có thể ghi âm, ghi và lưu giữ dưới hình thức điện tử khác.
+Biên bản phải lập bằng tiếng Việt và có thể lập thêm bằng tiếng nước ngoài, có
+các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, địa chỉ trụ sở chính, mã số doanh
+nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Mục đích, chương trình và nội dung
+họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thời gian, địa điểm họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên từng thành viên dự họp
+hoặc người được ủy quyền dự họp và cách thức dự họp; họ, tên các thành viên
+không dự họp và lý do;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Các vấn đề được thảo luận và biểu quyết
+tại cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Tóm tắt phát biểu ý kiến của từng thành
+viên dự họp theo trình tự diễn biến của cuộc họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Kết quả biểu quyết trong đó ghi rõ
+những thành viên tán thành, không tán thành và không có ý kiến;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Các vấn đề đã được thông qua;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Họ, tên, chữ ký chủ tọa và người ghi
+biên bản.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Chủ tọa và người ghi biên bản phải
+chịu trách nhiệm về tính trung thực và chính xác của nội dung biên bản họp Hội
+đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Biên bản họp Hội đồng quản trị và tài
+liệu sử dụng &lt;span style="background:white"&gt;trong&lt;/span&gt; cuộc họp phải được lưu
+giữ tại trụ sở chính của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Biên bản lập bằng tiếng Việt và
+tiếng nước ngoài có hiệu lực ngang nhau. &lt;span style="background:white"&gt;Trường
+hợp&lt;/span&gt; có sự khác nhau về nội dung biên bản tiếng Việt và tiếng nước ngoài
+thì nội dung &lt;span style="background:white"&gt;trong&lt;/span&gt; biên bản tiếng Việt có
+hiệu lực áp dụng.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_155"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 155. Quyền
+được cung cấp thông tin của thành viên Hội đồng quản trị&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên Hội đồng quản trị có quyền
+yêu cầu Giám đốc, Phó Giám đốc hoặc Tổng giám đốc, Phó &lt;span style="background:
+white"&gt;tổng&lt;/span&gt; giám đốc, người quản lý các đơn vị trong công ty cung cấp
+các thông tin, tài liệu về tình hình tài chính, hoạt động kinh doanh của công
+ty và của các đơn vị &lt;span style="background:white"&gt;trong&lt;/span&gt; công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Người quản lý được yêu cầu phải cung
+cấp kịp thời, đầy đủ và chính xác các thông tin, tài liệu theo yêu cầu của thành
+viên Hội đồng quản trị. Trình tự, thủ tục yêu cầu và cung cấp thông tin do Điều
+lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_156"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 156. Miễn nhiệm,
+bãi nhiệm và bổ sung thành viên Hội đồng quản trị&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên Hội đồng quản trị bị
+miễn nhiệm &lt;span style="background:white"&gt;trong&lt;/span&gt; các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Không có đủ tiêu chuẩn và điều
+kiện theo quy định tại Điều 151 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không tham gia các hoạt động của
+Hội đồng quản trị trong 06 tháng liên tục, trừ &lt;span style="background:white"&gt;trường
+hợp&lt;/span&gt; bất khả kháng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Có đơn từ chức;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Trường hợp khác quy định tại Điều lệ
+công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên Hội đồng quản trị có
+thể bị bãi nhiệm theo nghị quyết của Đại hội đồng cổ đông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Hội đồng quản trị phải triệu tập
+họp Đại hội đồng cổ đông để bầu bổ sung thành viên Hội đồng quản trị trong
+trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Số thành viên Hội đồng quản trị bị
+giảm quá một phần ba so với số quy định tại Điều lệ công ty. Trường hợp này,
+Hội đồng quản trị phải triệu &lt;span style="background:white"&gt;tập họp&lt;/span&gt; Đại
+hội đồng cổ đông &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 60 ngày,
+kể từ ngày số thành viên bị giảm quá một phần ba;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Số lượng thành viên độc lập Hội
+đồng quản trị giảm xuống, không bảo đảm tỷ lệ theo quy định tại khoản 1 Điều
+134 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp khác, tại cuộc họp gần nhất,
+Đại hội đồng cổ đông bầu thành viên mới thay thế thành viên Hội đồng quản trị
+đã bị miễn nhiệm, bãi nhiệm.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_157"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 157. Giám đốc,
+Tổng giám đốc công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hội đồng quản trị bổ nhiệm một
+người &lt;span style="background:white"&gt;trong&lt;/span&gt; số họ hoặc thuê người khác
+làm Giám đốc hoặc Tổng giám đốc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Giám đốc hoặc Tổng giám đốc là
+người điều hành công việc kinh doanh hằng ngày của công ty; chịu sự giám sát
+của Hội đồng quản trị; chịu trách nhiệm trước Hội đồng quản trị và trước pháp
+luật về việc thực hiện các quyền và nghĩa vụ được giao.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Nhiệm kỳ của Giám đốc hoặc Tổng giám đốc
+không quá 05 năm; có thể được bổ nhiệm lại với số nhiệm kỳ không hạn chế.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Tiêu chuẩn và điều kiện của Giám đốc hoặc
+Tổng giám đốc áp dụng theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại Điều
+65 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Giám đốc hoặc Tổng giám đốc có các
+quyền và nghĩa vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Quyết định các vấn đề liên quan
+đến công việc kinh doanh hằng ngày của công ty mà không cần phải có quyết định
+của Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tổ chức thực hiện các nghị quyết
+của Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tổ chức thực hiện kế hoạch kinh doanh
+và phương án đầu tư của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Kiến nghị phương án cơ cấu tổ
+chức, quy chế quản lý nội bộ của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Bổ nhiệm, miễn nhiệm, bãi nhiệm các
+chức danh quản lý &lt;span style="background:white"&gt;trong&lt;/span&gt; công ty, trừ các
+chức danh thuộc thẩm quyền của Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Quyết định tiền lương và quyền lợi
+khác đối với người lao động trong công ty kể cả người quản lý thuộc thẩm quyền bổ
+nhiệm của Giám đốc hoặc Tổng giám đốc;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;g) Tuyển dụng lao động;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Kiến nghị phương án trả cổ tức
+hoặc xử lý lỗ &lt;span style="background:white"&gt;trong&lt;/span&gt; kinh doanh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Quyền và nghĩa vụ khác theo quy
+định của pháp luật, Điều lệ công ty và nghị quyết của Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Giám đốc hoặc Tổng giám đốc phải điều
+hành công việc kinh doanh hằng ngày của công ty theo đúng quy định của pháp
+luật, Điều lệ công ty, hợp đồng lao động ký với công ty và nghị &lt;span style="background:white"&gt;quyết&lt;/span&gt; của Hội đồng quản trị. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt; điều hành trái &lt;span style="background:white"&gt;với&lt;/span&gt; quy định này mà gây thiệt hại cho công ty thì
+Giám đốc hoặc Tổng giám đốc phải chịu trách nhiệm trước pháp luật và phải bồi
+thường thiệt hại cho công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_158"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 158. Thù lao,
+tiền lương và lợi ích khác của thành viên Hội đồng quản trị, Giám đốc, Tổng
+Giám đốc&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty có quyền trả thù lao cho thành
+viên Hội đồng quản trị, trả lương cho Giám đốc hoặc Tổng giám đốc và người quản
+lý khác theo kết quả và hiệu quả kinh doanh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;2. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; Điều lệ công ty không có quy định khác thì thù lao,
+tiền lương và quyền lợi khác của thành viên Hội đồng quản trị, Giám đốc hoặc
+Tổng giám đốc được trả theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thành viên Hội đồng quản trị được hưởng
+thù lao công việc và tiền thưởng. Thù lao công việc được tính theo số ngày công
+cần thiết hoàn thành nhiệm vụ của thành viên Hội đồng quản trị và mức thù lao
+mỗi ngày. Hội đồng quản trị dự tính mức thù lao cho từng thành viên theo nguyên
+tắc nhất trí. Tổng mức thù lao của Hội đồng quản trị do Đại hội đồng cổ đông
+quyết định tại cuộc họp thường niên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thành viên Hội đồng quản trị có quyền
+được thanh toán các chi phí ăn, ở, đi lại và chi phí &lt;span style="background:
+white"&gt;hợp lý&lt;/span&gt; khác mà họ chi trả khi thực hiện nhiệm vụ được giao;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Giám đốc hoặc Tổng giám đốc được trả
+lương và tiền thưởng. Tiền lương của Giám đốc hoặc Tổng giám đốc do Hội đồng
+quản trị quyết định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thù lao của thành viên Hội đồng
+quản trị và tiền lương của Giám đốc hoặc Tổng giám đốc và người quản lý khác
+được tính vào chi phí kinh doanh của công ty theo quy định của pháp luật về
+thuế thu nhập doanh nghiệp và phải được thể hiện thành mục riêng &lt;span style="background:white"&gt;trong&lt;/span&gt; báo cáo tài chính hằng năm của công ty,
+phải báo cáo Đại hội đồng cổ đông tại cuộc họp thường niên.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_159"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 159. Công khai
+các lợi ích liên quan&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp Điều lệ công ty không có quy
+định khác chặt chẽ hơn, việc công khai hóa lợi ích và người có liên quan của
+công ty thực hiện theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty phải tập hợp và cập nhật danh
+sách những người có liên quan của công ty theo quy định tại khoản 17 Điều 4 của
+Luật này và các giao dịch tương ứng của họ với công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên Hội đồng quản trị, Kiểm
+soát viên, Giám đốc hoặc Tổng giám đốc và người quản lý khác &lt;span style="background:white"&gt;của&lt;/span&gt; công ty phải kê khai các lợi ích liên quan của
+họ với công ty, bao gồm:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính, ngành, nghề kinh doanh của doanh nghiệp mà họ có sở hữu phần vốn góp
+hoặc cổ phần; tỷ lệ và thời điểm sở hữu phần vốn góp hoặc cổ phần đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính, ngành, nghề kinh doanh của doanh nghiệp mà những người có liên quan
+của họ cùng sở hữu hoặc sở hữu riêng phần vốn góp hoặc cổ phần trên 10% vốn điều
+lệ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Việc kê khai quy định tại khoản 2 Điều
+này phải được thực hiện &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 07
+ngày làm việc, kể từ ngày phát sinh lợi ích liên quan; việc sửa đổi, bổ sung
+phải được thông báo với công ty &lt;span style="background:white"&gt;trong&lt;/span&gt; thời
+hạn 07 ngày làm việc, kể từ ngày có sửa đổi, bổ sung tương ứng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Việc công khai, xem xét, trích
+lục, sao chép Danh sách người có liên quan và lợi ích có liên quan được kê khai
+quy định tại khoản 1 và khoản 2 Điều này được thực hiện như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Công ty phải thông báo Danh sách người
+có liên quan và lợi ích có liên quan cho Đại hội đồng cổ đông tại cuộc họp
+thường niên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Danh sách người có liên quan và lợi
+ích có liên quan được lưu giữ tại trụ sở chính của doanh nghiệp; trường hợp cần
+thiết có thể lưu giữ một phần hoặc toàn bộ nội dung Danh sách nói trên tại các
+chi nhánh của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Cổ đông, đại diện theo ủy quyền
+của cổ đông, thành viên Hội đồng quản trị, Ban kiểm soát, Giám đốc hoặc Tổng
+giám đốc và người quản lý khác có quyền xem xét, trích lục và sao một phần hoặc
+toàn bộ nội dung kê khai &lt;span style="background:white"&gt;trong&lt;/span&gt; giờ làm
+việc;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Công ty phải tạo điều kiện để
+những người quy định tại điểm c khoản này tiếp cận, xem, trích lục và sao chép
+danh sách những người có liên quan của công ty và những nội dung khác một cách
+nhanh nhất, thuận lợi nhất; không được ngăn cản, gây khó khăn đối với họ trong
+thực hiện quyền này. Trình tự, thủ tục xem xét, trích lục và sao chép nội dung
+kê khai người có liên quan và lợi ích có liên quan được thực hiện theo quy định
+tại Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Thành viên Hội đồng quản trị, Giám
+đốc hoặc Tổng giám đốc nhân danh cá nhân hoặc nhân danh người khác để thực hiện
+công việc dưới mọi hình thức trong phạm vi công việc kinh doanh của công ty đều
+phải giải trình bản chất, nội dung của công việc đó trước Hội đồng quản trị, Ban
+kiểm soát và chỉ được thực hiện khi được đa số thành viên còn lại của Hội đồng
+quản trị chấp thuận; nếu thực hiện mà không khai báo hoặc không được sự chấp
+thuận của Hội đồng quản trị thì tất cả thu nhập có được từ hoạt động đó thuộc
+về công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_160"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 160. Trách
+nhiệm của người quản lý công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên Hội đồng quản trị, Giám
+đốc hoặc Tổng giám đốc và người quản lý khác có trách nhiệm sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thực hiện các quyền và nghĩa vụ
+được giao theo đúng quy định của Luật này, pháp luật có liên quan, Điều lệ công
+ty, nghị quyết của Đại hội đồng cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thực hiện các quyền và nghĩa vụ
+được giao một cách trung thực, cẩn trọng, tốt nhất nhằm bảo đảm lợi ích hợp
+pháp tối đa của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Trung thành với lợi ích của công ty
+và cổ đông; không sử dụng thông tin, bí quyết, cơ hội kinh doanh của công ty,
+địa vị, chức vụ và sử dụng tài sản của công ty để tư lợi hoặc phục vụ lợi ích
+của tổ chức, cá nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Thông báo kịp thời, đầy đủ, chính xác
+cho công ty về doanh nghiệp mà họ và người có liên quan của họ làm chủ hoặc có
+phần vốn góp, cổ phần chi phối; thông báo này được niêm yết tại trụ sở chính và
+chi nhánh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Các nghĩa vụ khác theo quy định
+của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_161"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 161. Quyền
+khởi kiện đối &lt;span style="background:white"&gt;với&lt;/span&gt; thành viên Hội đồng
+quản trị, Giám đốc, Tổng giám đốc&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cổ đông, nhóm cổ đông sở hữu ít
+nhất 1% số cổ phần phổ thông liên tục trong thời hạn 06 tháng có quyền tự mình
+hoặc nhân danh công ty khởi kiện trách nhiệm dân sự đối với thành viên Hội đồng
+quản trị, Giám đốc hoặc Tổng giám đốc trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Vi phạm nghĩa vụ người quản lý công
+ty theo quy định tại Điều 160 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không thực hiện đúng các quyền và nghĩa
+vụ được giao; không thực hiện, thực hiện không đầy đủ, không kịp thời nghị
+quyết của Hội đồng quản trị;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thực hiện các quyền và nghĩa vụ
+được giao trái với quy định của pháp luật, Điều lệ công ty hoặc nghị quyết của
+Đại hội đồng cổ đông;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Sử dụng thông tin, bí quyết, cơ
+hội kinh doanh của công ty để tư lợi riêng hoặc phục vụ cho lợi ích của tổ
+chức, cá nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Sử dụng địa vị, chức vụ và sử dụng
+tài sản của công ty để tư lợi riêng hoặc phục vụ lợi ích của tổ chức, cá nhân
+khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Các trường hợp khác theo quy định của
+pháp luật và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trình tự, thủ tục khởi kiện thực hiện
+tương ứng theo quy định của pháp luật về tố tụng dân sự. Chi phí khởi kiện trong
+trường hợp cổ đông, nhóm cổ đông khởi kiện nhân danh công ty sẽ tính vào chi
+phí của công ty, trừ trường hợp thành viên khởi kiện bị bác yêu cầu khởi kiện.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_162"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 162. Hợp
+đồng, giao dịch phải được Đại hội đồng cổ đông hoặc Hội đồng quản trị chấp thuận&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hợp đồng, giao dịch giữa công ty với
+các đối tượng sau đây phải được Đại hội đồng cổ đông hoặc Hội đồng quản trị chấp
+thuận:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Cổ đông, người đại diện ủy quyền
+của cổ đông sở hữu trên 10% tổng số cổ phần phổ thông của công ty và những
+người có liên quan của họ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thành viên Hội đồng quản trị, Giám
+đốc hoặc Tổng giám đốc và người có liên quan của họ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Doanh nghiệp quy định tại khoản 2 Điều
+159 Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hội đồng quản trị chấp thuận các &lt;span style="background:white"&gt;hợp đồng&lt;/span&gt; và giao dịch có giá trị nhỏ hơn 35%
+tổng giá trị tài sản doanh nghiệp ghi trong báo cáo tài chính, gần nhất hoặc
+một tỷ lệ khác nhỏ hơn quy định tại Điều lệ công ty. Trường hợp này, người đại
+diện công ty ký hợp đồng phải thông báo các thành viên Hội đồng quản trị, Kiểm
+soát viên về các đối tượng có liên quan đối với hợp đồng, giao dịch đó; đồng
+thời kèm theo dự thảo hợp đồng hoặc nội dung chủ yếu của giao dịch. Hội đồng
+quản trị quyết định việc chấp thuận hợp đồng hoặc giao dịch &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 15 ngày, kể từ ngày nhận được
+thông báo trừ trường hợp Điều lệ công ty quy định một thời hạn khác; thành viên
+có lợi ích liên quan không có quyền biểu quyết.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Đại hội đồng cổ đông chấp thuận các
+hợp đồng và giao dịch khác ngoài các giao dịch quy định tại khoản 2 Điều này. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt; này, người đại diện công ty ký hợp
+đồng phải thông báo Hội đồng quản trị và Kiểm soát viên về các đối tượng có
+liên quan đối với hợp đồng, giao dịch đó; đồng thời kèm theo dự thảo hợp đồng
+hoặc thông báo nội dung chủ yếu của giao dịch. Hội đồng quản trị trình dự thảo &lt;span style="background:white"&gt;hợp đồng&lt;/span&gt; hoặc giải trình &lt;span style="background:white"&gt;về&lt;/span&gt; nội dung chủ yếu của giao dịch tại cuộc họp
+Đại hội đồng cổ đông hoặc lấy ý kiến cổ đông bằng &lt;span style="background:white"&gt;văn&lt;/span&gt;
+bản. &lt;span style="background:white"&gt;Trường hợp&lt;/span&gt; này, cổ đông có lợi ích liên
+quan không có quyền biểu quyết; hợp đồng hoặc giao dịch được chấp thuận khi có
+số cổ đông đại diện 65% tổng số phiếu biểu quyết còn lại tán thành, trừ trường
+hợp Điều lệ công ty quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Hợp đồng, giao dịch bị vô hiệu và xử
+lý theo quy định của pháp luật khi được ký kết hoặc thực hiện mà chưa được chấp
+thuận theo quy định tại khoản 2 và khoản 3 Điều này, gây thiệt hại cho công ty;
+người ký kết hợp đồng, cổ đông, thành viên Hội đồng quản trị hoặc Giám đốc hoặc
+Tổng giám đốc có liên quan phải liên đới bồi thường thiệt hại phát sinh, hoàn
+trả cho công ty các khoản lợi thu được từ việc thực hiện hợp đồng, giao dịch đó.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_163"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 163. Ban kiểm
+soát&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Ban kiểm soát có từ 03 đến 05 thành
+viên, nhiệm kỳ của Kiểm soát viên không quá 05 năm và Kiểm soát viên có thể
+được bầu lại &lt;span style="background:white"&gt;với&lt;/span&gt; số nhiệm kỳ không hạn
+chế.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Các Kiểm soát viên bầu một người
+trong số họ làm Trưởng Ban kiểm soát theo nguyên tắc đa số. Quyền và nghĩa vụ
+của Trưởng Ban kiểm soát do Điều lệ công ty quy định. Ban kiểm soát phải có hơn
+một nửa số thành viên thường trú ở Việt Nam. Trưởng Ban kiểm soát phải là kế
+toán viên hoặc kiểm toán viên chuyên nghiệp và phải làm việc chuyên trách tại
+công ty, trừ trường hợp Điều lệ công ty quy định tiêu chuẩn khác cao hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp Kiểm soát viên có cùng thời
+điểm kết thúc nhiệm kỳ mà Kiểm soát viên nhiệm kỳ mới chưa được bầu thì Kiểm
+soát viên đã hết nhiệm kỳ vẫn tiếp tục thực hiện quyền và nghĩa vụ cho đến khi
+Kiểm soát viên nhiệm kỳ mới được bầu và nhận nhiệm vụ.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_164"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 164. Tiêu chuẩn
+và điều kiện của Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Kiểm soát viên phải có tiêu chuẩn và
+điều kiện sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Có năng lực hành vi dân sự đầy đủ và
+không thuộc đối tượng bị cấm thành lập và quản lý doanh nghiệp theo quy định của
+Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không phải là vợ hoặc chồng, cha
+đẻ, cha nuôi, mẹ đẻ, mẹ nuôi, con đẻ, con nuôi, anh ruột, chị ruột, em ruột của
+thành viên Hội đồng quản trị, Giám đốc hoặc Tổng giám đốc và người quản lý khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Không được giữ các chức vụ quản lý
+công ty; không nhất thiết phải là cổ đông hoặc người lao động của công ty, trừ trường
+hợp Điều lệ công ty có quy định khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Các tiêu chuẩn và điều kiện khác theo
+quy định khác của pháp luật có liên quan và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Kiểm soát viên công ty cổ phần niêm
+yết, công ty do Nhà nước nắm giữ trên 50% vốn điều lệ phải là kiểm toán viên
+hoặc kế toán viên.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_165"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 165. Quyền
+và nghĩa vụ của Ban kiểm soát&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Ban kiểm soát thực hiện giám sát
+Hội đồng quản trị, Giám đốc hoặc Tổng giám đốc trong việc quản lý và điều hành
+công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Kiểm tra tính hợp lý, hợp pháp, tính
+trung thực và mức độ cẩn trọng &lt;span style="background:white"&gt;trong&lt;/span&gt; quản
+lý, điều hành hoạt động kinh doanh; tính hệ thống, nhất quán và phù hợp của
+công tác kế toán, thống kê và lập báo cáo tài chính.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thẩm định tính đầy đủ, hợp pháp và
+trung thực của báo cáo tình hình kinh doanh, báo cáo tài chính hằng năm và 06 tháng
+của công ty, báo cáo đánh giá công tác quản lý của Hội đồng quản trị và trình
+báo cáo thẩm định tại cuộc họp thường niên Đại hội đồng cổ đông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Rà soát, kiểm tra và đánh giá hiệu
+lực và hiệu quả của hệ thống kiểm soát nội bộ, kiểm toán nội bộ, quản lý rủi ro
+và cảnh báo sớm của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Xem xét sổ kế toán, ghi chép kế toán
+và các tài liệu khác của công ty, các công việc quản lý, điều hành hoạt động
+của công ty khi xét thấy cần thiết hoặc theo nghị quyết của Đại hội đồng cổ
+đông hoặc theo yêu cầu của cổ đông hoặc nhóm cổ đông quy định tại khoản 2 Điều
+114 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Khi có yêu cầu của cổ đông hoặc nhóm
+cổ đông quy định tại khoản 2 Điều 114 của Luật này, Ban kiểm soát thực hiện
+kiểm tra &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 07 ngày làm việc,
+kể từ ngày nhận được yêu cầu. Trong thời hạn 15 ngày, kể từ ngày kết thúc kiểm
+tra, Ban kiểm soát phải báo cáo giải trình về những vấn đề được yêu cầu kiểm
+tra đến Hội đồng quản trị và cổ đông hoặc nhóm cổ đông có yêu cầu.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Việc kiểm tra của Ban kiểm soát quy
+định tại khoản này không được cản trở hoạt động bình thường của Hội đồng quản
+trị, không gây gián đoạn điều hành hoạt động kinh doanh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Kiến nghị Hội đồng quản trị hoặc
+Đại hội đồng cổ đông các biện pháp sửa đổi, bổ sung, cải tiến cơ cấu tổ chức
+quản lý, giám sát và &lt;span style="background:white"&gt;điều&lt;/span&gt; hành hoạt động
+kinh doanh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Khi phát hiện có thành viên Hội
+đồng quản trị, Giám đốc hoặc Tổng giám đốc vi phạm quy định tại Điều 160 của
+Luật này thì phải thông báo ngay bằng văn bản với Hội đồng quản trị, yêu cầu người
+có hành vi vi phạm chấm dứt hành vi vi phạm và có giải pháp khắc phục hậu quả.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Có quyền tham dự và tham gia thảo luận
+tại các cuộc họp Đại hội đồng cổ đông, Hội đồng quản trị và các cuộc họp khác
+của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;10. Có quyền sử dụng tư vấn độc lập, bộ
+phận kiểm toán nội bộ của công ty để thực hiện các nhiệm vụ được giao.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;11. Ban kiểm soát có thể tham khảo ý kiến
+của Hội đồng quản trị trước khi trình báo cáo, kết luận và kiến nghị lên Đại
+hội đồng cổ đông.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;12. Thực hiện các quyền và nghĩa vụ khác
+theo quy định của Luật này, Điều lệ công ty và nghị quyết của Đại hội đồng cổ
+đông.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_166"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 166. Quyền
+được cung cấp thông tin của Ban kiểm soát&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thông báo mời họp, phiếu lấy ý
+kiến thành viên Hội đồng quản trị và các tài liệu kèm theo phải được gửi đến
+các Kiểm soát viên cùng thời điểm và theo phương thức như đối với thành viên
+Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Các nghị quyết và biên bản họp của
+Đại hội đồng cổ đông, Hội đồng quản trị phải được gửi đến cho các Kiểm soát viên
+cùng thời điểm và theo phương thức như đối với cổ đông, thành viên Hội đồng quản
+trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Báo cáo của Giám đốc hoặc Tổng giám
+đốc trình Hội đồng quản trị hoặc tài liệu khác do công ty phát hành được gửi
+đến các Kiểm soát viên cùng thời điểm và theo phương thức như đối với thành viên
+Hội đồng quản trị.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Kiểm soát viên có quyền tiếp cận
+các hồ sơ, tài liệu của công ty lưu giữ tại trụ sở chính, chi nhánh và địa điểm
+khác; có quyền đến các địa điểm làm việc của người quản lý và nhân viên của
+công ty trong giờ làm việc.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Hội đồng quản trị, thành viên Hội đồng
+quản trị, Giám đốc hoặc Tổng giám đốc, người quản lý khác phải cung cấp đầy đủ,
+chính xác và kịp thời thông tin, tài liệu về công tác quản lý, điều hành và
+hoạt động kinh doanh của công ty theo yêu cầu của thành viên Ban kiểm soát hoặc
+Ban kiểm soát.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_167"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 167. Tiền
+lương và quyền lợi khác của Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trong trường hợp Điều lệ công ty không
+có quy định khác, thì tiền lương và quyền lợi khác của Kiểm soát viên được thực
+hiện theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Kiểm soát viên được trả tiền lương
+hoặc thù lao và được hưởng các quyền lợi khác theo quyết định của Đại hội đồng cổ
+đông. Đại hội đồng cổ đông quyết định tổng mức lương, thù lao và ngân sách hoạt
+động hằng năm của Ban kiểm soát;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Kiểm soát viên được thanh toán chi
+phí ăn, ở, đi lại, chi phí sử dụng dịch vụ tư vấn độc lập với mức hợp lý. Tổng mức
+thù lao và chi phí này không vượt quá tổng ngân sách hoạt động hằng năm của Ban
+kiểm soát đã được Đại hội đồng cổ đông chấp thuận, trừ trường hợp Đại hội đồng
+cổ đông có quyết định khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tiền lương và chi phí hoạt động
+của Ban kiểm soát được tính vào chi phí kinh doanh của công ty theo quy định
+của pháp luật về thuế thu nhập doanh nghiệp, pháp luật có liên quan và phải
+được lập thành mục riêng &lt;span style="background:white"&gt;trong&lt;/span&gt; báo cáo
+tài chính hằng năm của công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_168"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 168. Trách
+nhiệm của Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tuân thủ đúng pháp luật, Điều lệ công
+ty, nghị quyết của Đại hội đồng cổ đông và đạo đức nghề nghiệp &lt;span style="background:white"&gt;trong&lt;/span&gt; thực hiện các quyền và nghĩa vụ được
+giao.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thực hiện các quyền và nghĩa vụ
+được giao một cách trung thực, cẩn trọng, tốt nhất nhằm bảo đảm lợi ích hợp
+pháp tối đa của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trung thành với lợi ích của công ty
+và cổ đông; không sử dụng thông tin, bí quyết, cơ hội kinh doanh của công ty,
+địa vị, chức vụ và sử dụng tài sản của công ty để tư lợi hoặc phục vụ lợi ích
+của tổ chức, cá nhân khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Các nghĩa vụ khác theo quy định
+của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trường hợp vi phạm quy định tại các
+khoản 1, 2, 3 và 4 Điều này mà gây thiệt hại cho công ty hoặc người khác thì
+Kiểm soát viên phải chịu trách nhiệm cá nhân hoặc liên đới bồi thường thiệt hại
+đó. Mọi thu nhập và lợi ích khác mà Kiểm soát viên có được phải hoàn trả cho
+công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Trường hợp phát hiện có Kiểm soát viên
+vi phạm &lt;span style="background:white"&gt;trong&lt;/span&gt; thực hiện quyền và nghĩa vụ
+được giao thì Hội đồng quản trị phải thông báo bằng văn bản đến Ban kiểm soát;
+yêu cầu người có hành vi vi phạm chấm dứt hành vi vi phạm và có giải pháp khắc
+phục hậu quả.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_169"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 169. Miễn nhiệm,
+bãi nhiệm Kiểm soát viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Kiểm soát viên bị miễn nhiệm trong
+các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Không còn đủ tiêu chuẩn và điều
+kiện làm Kiểm soát viên theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại
+Điều 164 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không thực hiện quyền và nghĩa vụ của
+mình trong 06 tháng liên tục, trừ trường hợp bất khả kháng;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Có đơn từ chức và được chấp thuận;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Các trường hợp khác do Điều lệ công
+ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Kiểm soát viên bị bãi nhiệm trong các
+trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Không hoàn thành nhiệm vụ, công
+việc được phân công;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Vi phạm nghiêm trọng hoặc vi phạm nhiều
+lần nghĩa vụ của Kiểm soát viên quy định của Luật này và Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Theo quyết định của Đại hội đồng
+cổ đông.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_170"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 170. Trình
+báo cáo hằng năm&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tại thời điểm kết thúc năm tài chính,
+Hội đồng quản trị phải chuẩn bị các báo cáo và tài liệu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Báo cáo kết quả kinh doanh của
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Báo cáo tài chính;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Báo cáo đánh giá công tác quản lý,
+điều hành công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Đối với công ty cổ phần mà pháp
+luật yêu cầu phải kiểm toán thì báo cáo tài chính hằng năm của công ty cổ phần
+phải được kiểm toán trước khi trình Đại hội đồng cổ đông xem xét, thông qua.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Các báo cáo và tài liệu quy định tại
+khoản 1 Điều này phải được gửi đến Ban kiểm soát để thẩm định chậm nhất 30 ngày
+trước ngày khai mạc cuộc họp thường niên của Đại hội đồng cổ đông nếu Điều lệ công
+ty không có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Báo cáo và tài liệu do Hội đồng
+quản trị chuẩn bị; báo cáo thẩm định của Ban kiểm soát và báo cáo kiểm toán
+phải có ở trụ sở chính và chi nhánh của công ty chậm nhất 10 ngày trước ngày
+khai mạc cuộc họp thường niên của Đại hội đồng cổ đông nếu Điều lệ công ty
+không quy định thời hạn khác dài hơn.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Cổ đông sở hữu cổ phần của công ty liên
+tục ít nhất 01 năm có quyền tự mình hoặc cùng với luật sư hoặc kế toán và kiểm
+toán viên có chứng chỉ hành nghề trực tiếp xem xét các báo cáo quy định tại
+Điều này trong thời gian &lt;span style="background:white"&gt;hợp lý&lt;/span&gt;.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_171"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 171. Công khai
+thông tin công ty cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty cổ phần phải gửi báo cáo tài
+chính hằng năm đã được Đại hội đồng cổ đông thông qua đến cơ quan nhà nước có &lt;span style="background:white"&gt;thẩm quyền&lt;/span&gt; theo quy định của luật về kế toán và
+pháp luật có liên quan.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty cổ phần công bố trên trang
+thông tin điện tử (nếu có) của mình các thông tin sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;a) Điều lệ công ty;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Sơ yếu lý lịch, trình độ học vấn và
+kinh nghiệm nghề nghiệp của các thành viên Hội đồng quản trị, Kiểm soát viên,
+Giám đốc hoặc Tổng giám đốc công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Báo cáo tài chính hằng năm đã được
+Đại hội đồng cổ đông thông qua;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Báo cáo đánh giá &lt;span style="background:white"&gt;kết&lt;/span&gt; quả hoạt động hằng năm của Hội đồng quản
+trị và Ban kiểm soát.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty cổ phần không phải là công
+ty niêm yết phải thông báo cho Cơ quan đăng ký kinh doanh nơi công ty có trụ sở
+chính chậm nhất 03 ngày sau khi có thông tin hoặc có thay đổi các thông tin về họ,
+tên, quốc tịch, số hộ chiếu, địa chỉ thường trú, số cổ phần và loại cổ phần của
+cổ đông là cá nhân nước ngoài; tên, mã số doanh nghiệp, địa chỉ trụ sở chính,
+số cổ phần và loại cổ phần và họ, tên, quốc tịch, số hộ chiếu, địa chỉ thường
+trú người đại diện theo &lt;span style="background:white"&gt;ủy quyền&lt;/span&gt; của cổ
+đông là tổ chức nước ngoài.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Công ty cổ phần đại chúng thực
+hiện công bố, công khai thông tin theo &lt;span style="background:white"&gt;quy định&lt;/span&gt;
+của pháp luật về chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt;. Công ty cổ phần
+mà Nhà nước nắm giữ trên 50% vốn điều lệ công bố, công khai thông tin theo quy
+định tại Điều 108 và Điều 109 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="chuong_6"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Chương VI&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_172"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 172. Công ty
+hợp danh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty hợp danh là doanh nghiệp,
+trong đó:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Phải có ít nhất 02 thành viên là chủ
+sở hữu chung của công ty, cùng nhau kinh doanh dưới một tên chung (sau đây gọi
+là thành viên hợp danh). Ngoài các thành viên hợp danh, công ty có thể có thêm
+thành viên góp vốn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thành viên hợp danh phải là cá nhân,
+chịu trách nhiệm bằng toàn bộ tài sản của mình về các nghĩa vụ của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thành viên góp vốn chỉ chịu trách nhiệm
+về các khoản nợ của công ty &lt;span style="background:white"&gt;trong&lt;/span&gt; phạm vi
+số vốn đã góp vào công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty hợp danh có tư cách pháp nhân
+kể từ ngày được cấp Giấy chứng nhận đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty hợp danh không được phát hành
+bất kỳ loại chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt; nào.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_173"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 173. Thực hiện
+góp vốn và cấp giấy chứng nhận phần vốn góp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên hợp danh và thành viên góp
+vốn phải góp đủ và đúng hạn số vốn như đã cam kết.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên hợp danh không góp đủ và
+đúng hạn số vốn đã cam kết gây thiệt hại cho công ty phải chịu trách nhiệm bồi
+thường thiệt hại cho công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp có thành viên góp vốn không
+góp đủ và đúng hạn số vốn đã cam kết thì số vốn chưa góp đủ được coi là khoản
+nợ của thành viên đó đối với công ty; trong trường hợp này, thành viên góp vốn
+có liên quan có thể bị khai trừ khỏi công ty theo quyết định của Hội đồng thành
+viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Tại &lt;span style="background:white"&gt;thời
+điểm&lt;/span&gt; góp đủ vốn như đã cam kết, thành viên được cấp giấy chứng nhận phần
+vốn góp. Giấy chứng nhận phần vốn góp phải có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Vốn điều lệ của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tên, địa chỉ thường trú, quốc
+tịch, số Thẻ căn cước công dân, Giấy chứng minh nhân dân, Hộ chiếu hoặc chứng
+thực cá nhân hợp pháp khác của thành viên; loại thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Giá trị phần vốn góp và loại tài
+sản góp vốn của thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Số và ngày cấp giấy chứng nhận
+phần vốn góp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Quyền và nghĩa vụ của người sở hữu
+giấy chứng nhận phần vốn góp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Họ, tên, chữ ký của người sở hữu giấy
+chứng nhận phần vốn góp và của các thành viên hợp danh của công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trường hợp giấy chứng nhận phần
+vốn góp bị mất, bị hủy hoại, bị hư hỏng hoặc bị tiêu hủy dưới hình thức khác,
+thành viên được công ty cấp lại giấy chứng nhận phần vốn góp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_174"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 174. Tài
+sản của công ty hợp danh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Tài sản của công ty hợp danh bao gồm:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tài sản góp vốn của các thành viên
+đã được chuyển quyền sở hữu cho công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tài sản tạo lập được mang tên công
+ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Tài sản thu được từ hoạt động kinh
+doanh do các thành viên hợp danh thực hiện nhân danh công ty và từ các hoạt
+động kinh doanh của công ty do các thành viên hợp danh nhân danh cá nhân thực
+hiện;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Các tài sản khác theo quy định của
+pháp luật.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_175"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 175. Hạn chế
+quyền đối với thành viên hợp danh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên hợp danh không được làm
+chủ doanh nghiệp tư nhân hoặc thành viên hợp danh của công ty hợp danh khác,
+trừ trường hợp được sự nhất trí của các thành viên hợp danh còn lại.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên hợp danh không được
+quyền nhân danh cá nhân hoặc nhân danh người khác thực hiện kinh doanh cùng
+ngành, nghề kinh doanh của công ty đó để tư lợi hoặc phục vụ lợi ích của tổ
+chức, cá nhân khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thành viên hợp danh không được
+quyền chuyển một phần hoặc toàn bộ phần vốn góp của mình tại công ty cho người
+khác nếu không được sự chấp thuận của các thành viên hợp danh còn lại.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_176"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 176. Quyền
+và nghĩa vụ của thành viên hợp danh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên hợp danh có các quyền
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tham gia họp, thảo luận và biểu quyết
+về các vấn đề của công ty; mỗi thành viên hợp danh có một phiếu biểu quyết hoặc
+có số phiếu biểu quyết khác quy định tại Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Nhân danh công ty tiến hành hoạt
+động kinh doanh các ngành, nghề &lt;span style="background:white"&gt;kinh&lt;/span&gt; doanh
+của công ty; đàm phán và ký kết hợp đồng, thỏa thuận hoặc giao ước với những
+điều kiện mà thành viên hợp danh đó cho là có lợi nhất cho công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Sử dụng con dấu, tài sản của công ty
+để hoạt động kinh doanh các ngành, nghề kinh doanh của công ty; trường hợp ứng
+trước tiền của mình để thực hiện công việc kinh doanh của công ty thì có quyền
+yêu cầu công ty hoàn trả lại cả số tiền gốc và lãi theo lãi suất thị trường
+trên số tiền gốc đã ứng trước;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Yêu cầu công ty bù đắp thiệt hại
+từ hoạt động kinh doanh trong thẩm quyền nếu thiệt hại đó xảy ra không phải do
+sai sót cá nhân của chính thành viên đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Yêu cầu công ty, thành viên hợp danh
+khác cung cấp thông tin về tình hình kinh doanh của công ty; kiểm tra tài sản,
+sổ kế toán và các tài liệu khác của công ty khi xét thấy cần thiết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Được chia lợi nhuận tương ứng với tỷ
+lệ vốn góp hoặc theo thỏa thuận quy định tại Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Khi công ty giải thể hoặc phá sản,
+được chia một phần giá trị tài sản còn lại tương ứng theo tỷ lệ phần vốn góp vào
+công ty nếu Điều lệ công ty không quy định một tỷ lệ khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Trường hợp thành viên hợp danh
+chết thì người thừa kế của thành viên được hưởng phần giá trị tài sản tại công
+ty sau khi đã trừ đi phần nợ thuộc trách nhiệm của thành viên đó. Người thừa kế
+có thể trở thành thành viên hợp danh nếu được Hội đồng thành viên chấp thuận;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Các quyền khác theo quy định của Luật
+này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên hợp danh có các nghĩa
+vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tiến hành quản lý và thực hiện công
+việc kinh doanh một cách trung thực, cẩn trọng và tốt nhất bảo đảm lợi ích hợp
+pháp tối đa cho công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Tiến hành quản lý và hoạt động kinh
+doanh của công ty theo đúng quy định của pháp luật, Điều lệ công ty và nghị
+quyết của Hội đồng thành viên; nếu làm trái quy định tại điểm này, gây thiệt
+hại cho công ty thì phải chịu trách nhiệm bồi thường thiệt hại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Không được sử dụng tài sản của công
+ty để tư lợi hoặc phục vụ lợi ích của tổ chức, cá nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Hoàn trả cho công ty số tiền, tài sản
+đã nhận và bồi thường thiệt hại gây ra đối với công ty &lt;span style="background:
+white"&gt;trong&lt;/span&gt; trường hợp nhân danh công ty, nhân danh cá nhân hoặc nhân
+danh người khác để nhận tiền hoặc tài sản khác từ hoạt động kinh doanh của công
+ty mà không đem nộp cho công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Liên đới chịu trách nhiệm thanh toán
+hết số nợ còn lại của công ty nếu tài sản của công ty không đủ để trang trải số
+nợ của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Chịu lỗ tương ứng &lt;span style="background:white"&gt;với&lt;/span&gt; phần vốn góp vào công ty hoặc theo thỏa
+thuận quy định tại Điều lệ công ty &lt;span style="background:white"&gt;trong&lt;/span&gt; trường
+hợp công ty kinh doanh bị lỗ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Định kỳ hằng tháng báo cáo trung thực,
+chính xác bằng văn bản tình hình và kết quả kinh doanh của mình &lt;span style="background:white"&gt;với&lt;/span&gt; công ty; cung cấp thông tin về tình hình và
+kết quả kinh doanh của mình cho thành viên có yêu cầu;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Các nghĩa vụ khác theo quy định
+của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_177"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 177. Hội
+đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tất cả thành viên hợp lại thành
+Hội đồng thành viên. Hội đồng thành viên bầu một thành viên hợp danh làm Chủ
+tịch Hội đồng thành viên, đồng thời kiêm Giám đốc hoặc Tổng giám đốc công ty
+nếu Điều lệ công ty không có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên hợp danh có quyền yêu
+cầu triệu tập họp Hội đồng thành viên để thảo luận và quyết định công việc kinh
+doanh của công ty. Thành viên yêu cầu triệu tập họp phải chuẩn bị nội dung,
+chương trình và tài liệu họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Hội đồng thành viên có quyền quyết
+định tất cả công việc kinh doanh của công ty. Nếu Điều lệ công ty không quy
+định thì quyết định các vấn đề sau đây phải được ít nhất ba phần tư tổng số
+thành viên hợp danh chấp thuận:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;a) Phương hướng phát triển công ty;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Sửa đổi, bổ sung Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tiếp nhận thêm thành viên hợp danh
+mới;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Chấp nhận thành viên hợp danh rút khỏi
+công ty hoặc quyết định khai trừ thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Quyết định dự án đầu tư;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Quyết định việc vay và huy động
+vốn dưới hình thức khác, cho vay với giá trị bằng hoặc lớn hơn 50% vốn điều lệ
+của công ty, trừ trường hợp Điều lệ công ty quy định một tỷ lệ khác cao hơn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Quyết định mua, bán tài sản có giá
+trị bằng hoặc lớn hơn vốn điều lệ của công ty, trừ trường hợp Điều lệ công ty quy
+định một tỷ lệ khác cao hơn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Quyết định thông qua báo cáo tài chính
+hằng năm, tổng số lợi nhuận, được chia và số lợi nhuận chia cho từng thành
+viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;i) Quyết định giải thể công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Quyết định về các vấn đề khác không
+quy định tại khoản 3 Điều này được thông qua nếu được ít nhất hai phần ba tổng
+số thành viên hợp danh tán thành; tỷ lệ cụ thể do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Quyền tham gia biểu quyết của thành
+viên góp vốn được thực hiện theo quy định của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_178"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 178. Triệu
+tập họp Hội đồng thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ tịch Hội đồng thành viên có
+thể triệu &lt;span style="background:white"&gt;tập họp&lt;/span&gt; Hội đồng thành viên khi
+xét thấy cần thiết hoặc theo yêu cầu của thành viên hợp danh. Trường hợp Chủ
+tịch Hội đồng thành viên không triệu &lt;span style="background:white"&gt;tập họp&lt;/span&gt;
+theo yêu cầu của thành viên hợp danh thì thành viên đó triệu &lt;span style="background:white"&gt;tập họp&lt;/span&gt; Hội đồng thành viên.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thông báo mời họp có thể bằng giấy
+mời, điện thoại, fax hoặc phương tiện điện tử khác. Thông báo mời họp phải nêu rõ
+mục đích, yêu cầu và nội dung họp, chương trình và địa điểm họp, tên thành viên
+yêu cầu triệu tập họp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Các tài liệu thảo luận được sử dụng
+để quyết định các vấn đề quy định tại khoản 3 Điều 177 của Luật này phải được
+gửi trước đến tất cả thành viên; thời hạn gửi trước do Điều lệ công ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chủ tịch Hội đồng thành viên hoặc thành
+viên yêu cầu triệu tập họp chủ tọa cuộc họp. Cuộc họp của Hội đồng thành viên
+phải được ghi biên bản của công ty. Nội dung biên bản phải có các nội dung chủ
+yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, mã số doanh nghiệp, địa chỉ trụ
+sở chính;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Mục đích, chương trình và nội dung
+họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thời gian, địa điểm họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Họ, tên chủ tọa, thành viên dự họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Các ý kiến của thành viên dự họp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Các nghị quyết được thông qua, số thành
+viên tán thành và nội dung cơ bản của các nghị quyết đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Họ, tên, chữ ký của các thành viên
+dự họp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_179"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 179. Điều hành
+kinh doanh của công ty hợp danh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Các thành viên hợp danh có quyền
+đại diện theo pháp luật và tổ chức &lt;span style="background:white"&gt;điều&lt;/span&gt;
+hành hoạt động kinh doanh hằng ngày của công ty. Mọi hạn chế đối &lt;span style="background:white"&gt;với&lt;/span&gt; thành viên hợp danh trong thực hiện công
+việc kinh doanh hằng ngày của công ty chỉ có hiệu lực đối với bên thứ ba khi
+người đó được biết về hạn chế đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trong điều hành hoạt động kinh doanh
+của công ty, thành viên hợp danh phân công nhau đảm nhiệm các chức danh quản lý
+và kiểm soát công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Khi một số hoặc tất cả thành viên hợp
+danh cùng thực hiện một số công việc kinh doanh thì quyết định được thông qua theo
+nguyên tắc đa số.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Hoạt động do thành viên hợp danh thực
+hiện ngoài phạm vi hoạt động kinh doanh của công ty đều không thuộc trách nhiệm
+của công ty, trừ &lt;span style="background:white"&gt;trường hợp&lt;/span&gt; hoạt động đó đã
+được các thành viên còn lại chấp thuận.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty có thể mở một hoặc một số tài
+khoản tại ngân hàng. Hội đồng thành viên chỉ định thành viên được ủy quyền gửi
+và rút tiền từ các tài khoản đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chủ tịch Hội đồng thành viên, Giám
+đốc hoặc Tổng giám đốc có các nhiệm vụ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Quản lý và &lt;span style="background:
+white"&gt;điều&lt;/span&gt; hành công việc kinh doanh hằng ngày của công ty với tư cách là
+thành viên hợp danh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Triệu tập và tổ chức họp Hội đồng thành
+viên; ký các nghị quyết của Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Phân công, phối hợp công việc &lt;span style="background:white"&gt;kinh&lt;/span&gt; doanh giữa các thành viên hợp danh;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Tổ chức sắp xếp, lưu giữ đầy đủ và
+trung thực sổ kế toán, hóa đơn, chứng từ và các tài liệu khác của công ty theo quy
+định của pháp luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Đại diện cho công ty trong quan hệ
+với cơ quan nhà nước; đại diện cho công ty với tư cách là bị đơn hoặc nguyên đơn
+&lt;span style="background:white"&gt;trong&lt;/span&gt; các vụ kiện, tranh chấp thương mại
+hoặc các tranh chấp khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Các nghĩa vụ khác do Điều lệ công ty
+quy định.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_180"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 180. Chấm dứt
+tư cách thành viên hợp danh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tư cách thành viên hợp danh chấm
+dứt trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tự nguyện rút vốn khỏi công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Đã chết, bị Tòa án tuyên bố là mất
+tích, hạn chế năng lực hành vi dân sự hoặc mất năng lực hành vi dân sự;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Bị khai trừ khỏi công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Các trường hợp khác do Điều lệ công
+ty quy định.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên hợp danh có quyền rút
+vốn khỏi công ty nếu được Hội đồng thành viên chấp thuận. Trường hợp này, thành
+viên muốn rút vốn khỏi công ty phải thông báo bằng văn bản yêu cầu rút vốn chậm
+nhất 06 tháng trước ngày rút vốn; chỉ được rút vốn vào &lt;span style="background:
+white"&gt;thời điểm&lt;/span&gt; kết thúc năm tài chính và báo cáo tài chính của năm tài
+chính đó đã được thông qua.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thành viên hợp danh bị khai trừ
+khỏi công ty trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Không có khả năng góp vốn hoặc không
+góp vốn như đã cam kết sau khi công ty đã có yêu cầu lần thứ hai;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Vi phạm quy định tại Điều 175 của Luật
+này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tiến hành công &lt;span style="background:white"&gt;việc&lt;/span&gt; kinh doanh không trung thực, không cẩn
+trọng hoặc có hành vi không thích hợp khác gây thiệt hại nghiêm trọng đến lợi
+ích của công ty và các thành viên khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Không thực hiện đúng các nghĩa vụ của
+thành viên hợp danh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;4. Trường
+hợp&lt;/span&gt;&lt;span lang="VI"&gt; chấm dứt tư cách thành viên của thành viên bị hạn chế
+hoặc bị mất năng lực hành vi dân sự thì phần vốn góp của thành viên đó được
+hoàn trả công bằng và thỏa đáng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trong thời hạn 02 năm, kể từ ngày chấm
+dứt tư cách thành viên hợp danh theo quy định tại điểm a và điểm c khoản 1 Điều
+này thì người đó vẫn phải liên đới chịu trách nhiệm bằng toàn bộ tài sản của
+mình đối với các khoản nợ của công ty đã phát sinh trước ngày chấm dứt tư cách
+thành viên. &lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Sau khi chấm dứt tư cách thành viên,
+nếu tên của thành viên bị chấm dứt đã được sử dụng làm thành một phần hoặc toàn
+bộ tên công ty thì người đó hoặc người thừa kế, người đại diện theo pháp luật
+của họ có quyền yêu cầu công ty chấm dứt việc sử dụng tên đó.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_181"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 181. Tiếp nhận
+thành viên mới&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty có thể tiếp nhận thêm thành
+viên hợp danh hoặc thành viên góp vốn; việc tiếp nhận thành viên mới của công
+ty phải được Hội đồng thành viên chấp thuận.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên hợp danh hoặc thành viên
+góp vốn phải nộp đủ số vốn cam kết góp vào công ty trong thời hạn 15 ngày, kể
+từ ngày được chấp thuận, trừ trường hợp Hội đồng thành viên quyết định thời hạn
+khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Thành viên hợp danh mới phải cùng liên
+đới chịu trách nhiệm bằng toàn bộ tài sản của mình đối với các khoản nợ và nghĩa
+vụ tài sản khác của công ty, trừ trường hợp thành viên đó và các thành viên còn
+lại có thỏa thuận khác.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_182"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 182. Quyền
+và nghĩa vụ của thành viên góp vốn&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thành viên góp vốn có các quyền
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tham gia họp, thảo luận và biểu quyết
+tại Hội đồng thành viên về việc sửa đổi, bổ sung Điều lệ công ty, sửa đổi, bổ
+sung các quyền và nghĩa vụ của thành viên góp vốn, về tổ chức lại và giải thể
+công ty và các nội dung khác của Điều lệ công ty có liên quan trực tiếp đến
+quyền và nghĩa vụ của họ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Được chia lợi nhuận hằng năm tương
+ứng &lt;span style="background:white"&gt;với&lt;/span&gt; tỷ lệ vốn góp trong vốn điều lệ
+của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Được cung cấp báo cáo tài chính
+hằng năm của công ty; có quyền yêu cầu Chủ tịch Hội đồng thành viên, thành viên
+hợp danh cung cấp đầy đủ và trung thực các thông tin về tình hình và kết quả
+kinh doanh của công ty; xem xét sổ kế toán, biên bản, hợp đồng, giao dịch, hồ
+sơ và tài liệu khác của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Chuyển nhượng phần vốn góp của mình
+tại công ty cho người khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Nhân danh cá nhân hoặc nhân danh người
+khác tiến hành kinh doanh các ngành, nghề kinh doanh của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Định đoạt phần vốn góp của mình
+bằng cách để thừa kế, tặng cho, thế chấp, cầm cố và các hình thức khác theo quy
+định của pháp luật và Điều lệ công ty; trường hợp chết thì người thừa kế thay
+thế thành viên đã chết trở thành thành viên góp vốn của công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Được chia một phần giá trị tài sản
+còn lại &lt;span style="background:white"&gt;của&lt;/span&gt; công ty tương ứng với tỷ lệ
+vốn góp trong vốn điều lệ công ty khi công ty giải thể hoặc phá sản;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;h) Các quyền khác theo quy định của Luật
+này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên góp vốn có các nghĩa vụ
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chịu trách nhiệm về các khoản nợ và
+nghĩa vụ tài sản khác của công ty trong phạm vi số vốn đã cam kết góp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Không được tham gia quản lý công ty,
+không được tiến hành công việc kinh doanh nhân danh công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Tuân thủ Điều lệ, nội quy công ty và
+quyết định của Hội đồng thành viên;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Các nghĩa vụ khác theo quy định
+của Luật này và Điều lệ công ty.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="chuong_7"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Chương VII&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_183"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 183. Doanh
+nghiệp tư nhân&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp tư nhân là doanh
+nghiệp do một cá nhân làm chủ và tự chịu trách nhiệm bằng toàn bộ tài sản của
+mình &lt;span style="background:white"&gt;về&lt;/span&gt; mọi hoạt động của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Doanh nghiệp tư nhân không được phát
+hành bất kỳ loại chứng k&lt;span style="background:white"&gt;hoán&lt;/span&gt; nào.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Mỗi cá nhân chỉ được quyền thành
+lập một doanh nghiệp tư nhân. Chủ doanh nghiệp tư nhân không được đồng thời là
+chủ hộ kinh doanh, thành viên công ty hợp danh.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Doanh nghiệp tư nhân không được quyền
+góp vốn thành lập hoặc mua cổ phần, phần vốn góp trong công ty hợp danh, công
+ty trách nhiệm hữu hạn hoặc công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_184"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 184. Vốn
+đầu tư của chủ doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Vốn đầu tư của chủ doanh nghiệp tư
+nhân do chủ doanh nghiệp tự đăng ký. Chủ doanh nghiệp tư nhân có nghĩa vụ đăng ký
+chính xác tổng số vốn đầu tư, trong đó nêu rõ số vốn bằng Đồng Việt Nam, ngoại
+tệ tự do chuyển đổi, vàng và các tài sản khác; đối với vốn bằng tài sản khác
+còn phải ghi rõ loại tài sản, số lượng và giá trị còn lại của mỗi loại tài sản.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Toàn bộ vốn và tài sản kể cả vốn vay
+và tài sản thuê được sử dụng vào hoạt động kinh doanh của doanh nghiệp phải được
+ghi chép đầy đủ vào sổ kế toán và báo cáo tài chính của doanh nghiệp theo quy
+định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trong quá trình hoạt động, chủ doanh
+nghiệp tư nhân có quyền tăng hoặc giảm vốn đầu tư của mình vào hoạt động kinh
+doanh của doanh nghiệp. Việc tăng hoặc giảm vốn đầu tư của chủ doanh nghiệp
+phải được ghi chép đầy đủ vào sổ kế toán. Trường hợp giảm vốn đầu tư xuống thấp
+hơn vốn đầu tư đã đăng ký thì chủ doanh nghiệp tư nhân chỉ được giảm vốn sau
+khi đã đăng ký với Cơ quan đăng ký kinh doanh.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_185"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 185. Quản lý
+doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ doanh nghiệp tư nhân có toàn quyền
+quyết định đối với tất cả hoạt động kinh doanh của doanh nghiệp, việc sử dụng
+lợi nhuận sau khi đã nộp thuế và thực hiện các nghĩa vụ tài chính khác theo quy
+định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ doanh nghiệp tư nhân có thể
+trực tiếp hoặc thuê người khác quản lý, điều hành hoạt động kinh doanh. Trường
+hợp thuê người khác làm Giám đốc quản lý doanh nghiệp thì vẫn phải chịu trách
+nhiệm về mọi hoạt động kinh doanh của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Chủ doanh nghiệp tư nhân là nguyên
+đơn, bị đơn hoặc người có quyền lợi, nghĩa vụ liên quan trước Trọng tài hoặc Tòa
+án trong các tranh chấp liên quan đến doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Chủ doanh nghiệp tư nhân là đại
+diện theo pháp luật của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_186"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 186. Cho thuê
+doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Chủ doanh nghiệp tư nhân có quyền cho
+thuê toàn bộ doanh nghiệp của mình nhưng phải thông báo bằng văn bản kèm theo
+bản sao hợp đồng cho thuê có công chứng đến Cơ quan &lt;span style="background:
+white"&gt;đăng ký&lt;/span&gt; kinh doanh, cơ quan thuế trong thời hạn 03 ngày làm việc,
+kể từ ngày hợp đồng cho thuê có hiệu lực thi hành. Trong thời hạn cho thuê, chủ
+doanh nghiệp tư nhân vẫn phải chịu trách nhiệm trước pháp luật với tư cách là
+chủ sở hữu doanh nghiệp. Quyền và trách nhiệm của chủ sở hữu và người thuê đối &lt;span style="background:white"&gt;với&lt;/span&gt; hoạt động kinh doanh của doanh nghiệp được
+quy định trong hợp đồng cho thuê.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_187"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 187. Bán doanh
+nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chủ doanh nghiệp tư nhân có quyền bán
+doanh nghiệp của mình cho người khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Sau khi bán doanh nghiệp, chủ doanh
+nghiệp tư nhân vẫn phải chịu trách nhiệm về các khoản nợ và nghĩa vụ tài sản
+khác của doanh nghiệp phát sinh trong &lt;span style="background:white"&gt;thời gian&lt;/span&gt;
+trước ngày chuyển giao doanh nghiệp, trừ trường hợp người mua, người bán và chủ
+nợ của doanh nghiệp có thỏa thuận khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Người bán, người mua doanh nghiệp
+phải tuân thủ các quy định của pháp luật về lao động.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Người mua doanh nghiệp phải &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; thay đổi chủ doanh nghiệp tư nhân theo quy
+định của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="chuong_8"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Chương VIII&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_188"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 188. Tập đoàn
+kinh tế, tổng công ty&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tập đoàn kinh tế, tổng công ty
+thuộc các thành phần kinh tế là nhóm công ty có mối quan hệ với nhau thông qua
+sở hữu cổ phần, phần vốn góp hoặc liên kết khác. Tập đoàn &lt;span style="background:white"&gt;kinh tế&lt;/span&gt;, tổng công ty không phải là một loại
+hình doanh nghiệp, không có tư cách pháp nhân, không phải &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; thành lập theo quy định của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tập đoàn kinh tế, tổng công ty có công
+ty mẹ, công ty con và các công ty thành viên khác. Công ty mẹ, công ty con và
+mỗi công ty thành viên trong tập đoàn kinh tế, tổng công ty có quyền và nghĩa
+vụ của doanh nghiệp độc lập theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_189"&gt;&lt;b&gt;Điều 189. Công ty mẹ, công ty
+con&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Một công ty được coi là công ty mẹ
+của công ty khác nếu thuộc một trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Sở hữu trên 50% vốn điều lệ hoặc
+tổng số cổ phần phổ thông của công ty đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Có quyền trực tiếp hoặc gián tiếp quyết
+định bổ nhiệm đa số hoặc tất cả thành viên Hội đồng quản trị, Giám đốc hoặc
+Tổng giám đốc của công ty đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Có quyền quyết định việc sửa đổi, bổ
+sung Điều lệ của công ty đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty con không được đầu tư góp vốn,
+mua cổ phần của công ty mẹ. Các công ty con của cùng một công ty mẹ không được
+cùng nhau góp vốn, mua cổ phần để sở hữu chéo lẫn nhau.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Các công ty con có cùng một công ty
+mẹ là doanh nghiệp có sở hữu ít nhất 65% vốn nhà nước không được cùng nhau góp
+vốn thành lập doanh nghiệp theo quy định của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-969480" class="clsBookmark" name="khoan_4_189" onclick="LS_Tip_Type_Bookmark('.lqhlTip-969480')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-969480')"&gt;&lt;span lang="VI"&gt;4. Chính phủ quy
+định chi tiết khoản 2 và khoản 3 Điều này.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_190"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 190. Quyền
+và trách nhiệm của công ty mẹ đối với công ty con&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Tùy thuộc vào loại hình pháp lý
+của công ty con, công ty mẹ thực hiện quyền và nghĩa vụ của mình với tư cách là
+thành viên, chủ sở hữu hoặc cổ đông trong quan hệ &lt;span style="background:white"&gt;với&lt;/span&gt;
+công ty con theo quy định tương ứng của Luật này và quy định khác của pháp luật
+có liên quan.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hợp đồng, giao dịch và quan hệ khác
+giữa công ty mẹ và công ty con đều phải được thiết lập và thực hiện độc lập,
+bình đẳng theo điều kiện áp dụng đối &lt;span style="background:white"&gt;với&lt;/span&gt; các
+chủ thể pháp lý độc lập.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp công ty mẹ can thiệp ngoài
+thẩm quyền của chủ sở hữu, thành viên hoặc cổ đông và buộc công ty con phải
+thực hiện hoạt động kinh doanh trái với thông lệ kinh doanh bình thường hoặc
+thực hiện hoạt động không sinh lợi mà không đền bù hợp lý trong năm tài chính
+có liên quan, gây thiệt hại cho công ty con thì công ty mẹ phải chịu trách
+nhiệm về thiệt hại đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Người quản lý của công ty mẹ chịu trách
+nhiệm về việc can thiệp buộc công ty con thực hiện hoạt động kinh doanh quy
+định tại khoản 3 Điều này phải liên đới cùng công ty mẹ chịu trách nhiệm về các
+thiệt hại đó.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trường hợp công ty mẹ không đền bù
+cho công ty con theo quy định tại khoản 3 Điều này thì chủ nợ hoặc thành viên, cổ
+đông có sở hữu ít nhất 1% vốn &lt;span style="background:white"&gt;điều&lt;/span&gt; lệ của
+công ty con có quyền nhân danh chính mình hoặc nhân danh công ty con đòi công
+ty mẹ đền bù thiệt hại cho công ty con.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Trường hợp hoạt động kinh doanh như
+quy định tại khoản 3 Điều này do công ty con thực hiện đem lại lợi ích cho công
+ty con khác của cùng một công ty mẹ thì công ty con được hưởng lợi đó phải liên
+đới cùng công ty mẹ hoàn trả khoản lợi được hưởng đó cho công ty con bị thiệt
+hại.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_191"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 191. Báo cáo
+tài chính của công ty mẹ, công ty con&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Vào thời điểm &lt;span style="background:white"&gt;kết&lt;/span&gt; thúc năm tài chính, ngoài báo cáo và tài
+liệu theo quy định của pháp luật, công ty mẹ còn phải lập các báo cáo sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Báo cáo tài chính hợp nhất của
+công ty mẹ theo quy định của pháp luật về kế toán;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Báo cáo tổng hợp kết quả kinh doanh
+hằng năm của công ty mẹ và công ty con; &lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Báo cáo tổng hợp công tác quản lý,
+điều hành của công ty mẹ và công ty con.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Người chịu trách nhiệm lập báo cáo
+quy định tại khoản 1 Điều này chưa được lập và đệ trình các báo cáo đó nếu chưa
+nhận được đầy đủ báo cáo tài chính của các công ty con.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Khi có yêu cầu của người đại diện theo
+pháp luật của công ty mẹ, người đại diện theo pháp luật của công ty con phải cung
+cấp các báo cáo, tài liệu và thông tin cần thiết như quy định để lập báo cáo
+tài chính hợp nhất và báo cáo tổng hợp của công ty mẹ và công ty con.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Người quản lý công ty mẹ sử dụng các
+báo cáo đó để lập báo cáo tài chính hợp nhất và báo cáo tổng hợp của công ty mẹ
+và công ty con nếu không có nghi ngờ về việc báo cáo do công ty con lập và đệ
+trình có thông tin sai lệch, không chính xác hoặc giả mạo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trong trường hợp người quản lý công
+ty mẹ đã &lt;span style="background:white"&gt;áp dụng&lt;/span&gt; các biện pháp cần thiết
+trong phạm vi thẩm quyền mà vẫn không nhận được báo cáo, tài liệu và thông tin
+cần thiết như quy định từ công ty con thì người quản lý công ty mẹ vẫn lập và
+trình báo cáo tài chính hợp nhất, báo cáo tổng hợp của công ty mẹ và công ty
+con. Báo cáo có thể gồm hoặc không gồm các thông tin từ công ty con đó, nhưng
+phải có giải trình cần thiết để tránh hiểu nhầm hoặc hiểu sai lệch.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Các báo cáo, tài liệu quyết toán tài
+chính hằng năm của công ty mẹ, của công ty con và các báo cáo tài chính hợp nhất,
+báo cáo tổng hợp của công ty mẹ và công ty con phải được lưu giữ tại trụ sở
+chính của công ty mẹ. Bản sao của các báo cáo, tài liệu quy định tại khoản này
+phải có ở các chi nhánh của công ty mẹ trên lãnh thổ Việt Nam.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Đối với các công ty con, ngoài các
+báo cáo, tài liệu theo quy định của pháp luật, còn phải lập báo cáo &lt;span style="background:white"&gt;tổng hợp&lt;/span&gt; về mua, bán và các giao dịch khác với công
+ty mẹ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889091" class="clsBookmark" name="chuong_9" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889091')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889091')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Chương IX&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_192"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 192. Chia doanh
+nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty trách nhiệm hữu hạn, công ty
+cổ phần có thể chia các cổ đông, thành viên và tài sản công ty để thành lập hai
+hoặc nhiều công ty mới trong một &lt;span style="background:white"&gt;trong&lt;/span&gt; các
+trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Một phần phần vốn góp, cổ phần của
+các thành viên, cổ đông cùng với tài sản tương ứng với giá trị phần vốn góp, cổ
+phần được chia sang cho các công ty mới theo tỷ lệ sở hữu trong công ty bị chia
+và tương ứng giá trị tài sản được chuyển cho công ty mới;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Toàn bộ phần vốn góp, cổ phần của một
+hoặc một số thành viên, cổ đông cùng &lt;span style="background:white"&gt;với&lt;/span&gt; tài
+sản tương ứng với giá trị cổ phần, phần vốn góp họ được chuyển sang cho các công
+ty mới;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;c) Kết&lt;/span&gt;&lt;span lang="VI"&gt; hợp cả hai trường hợp quy định tại điểm a và điểm b khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thủ tục chia công ty trách nhiệm
+hữu hạn, công ty cổ phần được quy định như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Hội đồng thành viên, chủ sở hữu công
+ty hoặc Đại hội đồng cổ đông của công ty bị chia thông qua nghị quyết chia công
+ty theo quy định của Luật này và Điều lệ công ty. Nghị quyết chia công ty phải
+có các nội dung chủ yếu về tên, địa chỉ trụ sở chính của công ty bị chia; tên
+các công ty sẽ thành lập; nguyên tắc, cách thức và thủ tục chia tài sản công
+ty; phương án sử dụng lao động; cách thức phân chia, thời hạn và thủ tục chuyển
+đổi phần vốn góp, cổ phần, trái phiếu của công ty bị chia sang các công ty mới
+thành lập; nguyên tắc giải quyết các nghĩa vụ của công ty bị chia; thời hạn thực
+hiện chia công ty. Nghị quyết chia công ty phải được gửi đến tất cả các chủ nợ
+và thông báo cho người lao động biết trong thời hạn 15 ngày, kể từ ngày thông
+qua nghị quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thành viên, chủ sở hữu công ty
+hoặc cổ đông của công ty mới được thành lập thông qua Điều lệ, bầu hoặc bổ
+nhiệm Chủ tịch Hội đồng thành viên, Chủ tịch công ty, Hội đồng quản trị, Giám
+đốc hoặc Tổng giám đốc và tiến hành &lt;span style="background:white"&gt;đăng ký&lt;/span&gt;
+doanh nghiệp theo quy định của Luật này. Trong trường hợp này, hồ sơ đăng ký
+doanh nghiệp đối với công ty mới phải kèm theo nghị quyết chia công ty quy định
+tại điểm a khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Số lượng thành viên, cổ đông và số
+lượng, tỷ lệ sở hữu cổ phần, phần vốn góp của thành viên, cổ đông và vốn điều
+lệ của các công ty mới sẽ được ghi tương ứng với cách thức phân chia, chuyển
+đổi phần vốn góp, cổ phần của công ty bị chia sang các công ty mới tương ứng
+với các trường hợp quy định tại khoản 1 Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Công ty bị chia chấm dứt tồn tại sau
+khi các công ty mới được cấp Giấy chứng nhận đăng ký doanh nghiệp. Các công ty
+mới phải cùng liên đới chịu trách nhiệm &lt;span style="background:white"&gt;về&lt;/span&gt;
+các khoản nợ chưa thanh toán, hợp đồng lao động và nghĩa vụ tài sản khác của công
+ty bị chia hoặc thỏa thuận với chủ nợ, khách hàng và người lao động để một trong
+số các công ty đó thực hiện các nghĩa vụ này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Cơ quan đăng ký kinh doanh cập
+nhật tình trạng pháp lý của công ty bị chia &lt;span style="background:white"&gt;trong&lt;/span&gt;
+&lt;span style="background:white"&gt;Cơ sở&lt;/span&gt; dữ liệu quốc gia về &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp khi cấp Giấy chứng nhận đăng
+ký doanh nghiệp cho công ty mới. Trường hợp công ty mới có địa chỉ trụ sở chính
+ngoài tỉnh, thành phố trực thuộc trung ương nơi công ty bị chia có trụ sở chính
+thì Cơ quan đăng ký kinh doanh nơi đặt trụ sở chính công ty mới phải thông báo
+việc &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp công ty mới cho
+Cơ quan đăng ký kinh doanh nơi công ty bị chia đặt trụ sở chính để cập nhật
+tình trạng pháp lý của công ty bị chia trên &lt;span style="background:white"&gt;Cơ
+sở&lt;/span&gt; dữ liệu quốc gia về đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_193"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 193. Tách doanh
+nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty trách nhiệm hữu hạn, công ty
+cổ phần có thể tách bằng cách chuyển một phần tài sản, quyền và nghĩa vụ của công
+ty hiện có (sau đây gọi là công ty bị tách) để thành lập một hoặc một số công
+ty trách nhiệm hữu hạn, công ty cổ phần mới (sau đây gọi là công ty được tách)
+mà không chấm dứt tồn tại của công ty bị tách.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tách công ty có thể thực hiện theo
+một &lt;span style="background:white"&gt;trong&lt;/span&gt; các phương thức sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Một phần phần vốn góp, cổ phần của
+các thành viên, cổ đông cùng với tài sản tương ứng với giá trị phần vốn góp, cổ
+phần được chuyển sang cho các công ty mới theo tỷ lệ sở hữu trong công ty bị tách
+và tương ứng giá trị tài sản được chuyển cho công ty mới;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Toàn bộ phần vốn góp, cổ phần của một
+hoặc một số thành viên, cổ đông cùng với tài sản tương ứng &lt;span style="background:white"&gt;với&lt;/span&gt; giá trị cổ phần, phần vốn góp của họ được chuyển
+sang cho các công ty mới;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Kết hợp cả hai trường hợp quy định
+tại điểm a và điểm b khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty bị tách phải đăng ký thay
+đổi vốn điều lệ và số lượng thành viên tương ứng &lt;span style="background:white"&gt;với&lt;/span&gt;
+phần vốn góp, cổ phần và số lượng thành viên giảm xuống đồng thời với đăng ký doanh
+nghiệp các công ty mới.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Thủ tục tách công ty trách nhiệm
+hữu hạn và công ty cổ phần được quy định như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Hội đồng thành viên, chủ sở hữu công
+ty hoặc Đại hội đồng cổ đông của công ty bị tách thông qua nghị quyết tách công
+ty theo quy định của Luật này và Điều lệ công ty. Nghị quyết tách công ty phải
+có các nội dung chủ yếu về tên, địa chỉ trụ sở chính của công ty bị tách; tên
+công ty được tách sẽ thành lập; phương án sử dụng lao động; cách thức tách công
+ty; giá trị tài sản, các quyền và nghĩa vụ được chuyển từ công ty bị tách sang
+công ty được tách; thời hạn thực hiện tách công ty. Nghị quyết tách công ty
+phải được gửi đến tất cả các chủ nợ và thông báo cho người lao động biết trong
+thời hạn 15 ngày, kể từ ngày thông qua nghị quyết;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Các thành viên, chủ sở hữu công ty
+hoặc các cổ đông của công ty được tách thông qua Điều lệ, bầu hoặc bổ nhiệm Chủ
+tịch Hội đồng thành viên, Chủ tịch công ty, Hội đồng quản trị, Giám đốc hoặc
+Tổng giám đốc và tiến hành đăng ký doanh nghiệp theo quy định của Luật này.
+Trường hợp này, hồ sơ đăng ký doanh nghiệp phải kèm theo nghị quyết tách công
+ty quy định tại điểm a khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Sau khi đăng ký doanh nghiệp, công
+ty bị tách và công ty được tách phải cùng liên đới chịu trách nhiệm về các
+khoản nợ chưa thanh toán, hợp đồng lao động và nghĩa vụ tài sản khác của công
+ty bị tách, trừ trường hợp công ty bị tách, công ty mới thành lập, chủ nợ,
+khách hàng và người lao động của công ty bị tách có thỏa thuận khác.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_194"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 194. Hợp nhất
+doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hai hoặc một số công ty (sau đây
+gọi là công ty bị hợp nhất) có thể hợp nhất thành một công ty mới (sau đây gọi
+là công ty hợp nhất), đồng thời chấm dứt tồn tại của các công ty bị hợp nhất.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thủ tục hợp nhất công ty được quy định
+như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Các công ty bị hợp nhất chuẩn bị
+hợp đồng hợp nhất. Hợp đồng hợp nhất phải có các nội dung chủ yếu về tên, địa
+chỉ trụ sở chính của các công ty bị hợp nhất; tên, địa chỉ trụ sở chính của
+công ty hợp nhất; thủ tục và điều kiện hợp nhất; phương án sử dụng lao động;
+thời hạn, thủ tục và điều kiện chuyển đổi tài sản, chuyển đổi phần vốn góp, cổ
+phần, trái phiếu của công ty bị hợp nhất thành phần vốn góp, cổ phần, trái
+phiếu của công ty hợp nhất; thời hạn thực hiện hợp nhất; dự thảo Điều lệ công
+ty hợp nhất;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Các thành viên, chủ sở hữu công ty
+hoặc các cổ đông của các công ty bị hợp nhất thông qua hợp đồng hợp nhất, Điều lệ
+công ty hợp nhất, bầu hoặc bổ nhiệm Chủ tịch Hội đồng thành viên, Chủ tịch công
+ty, Hội đồng quản trị, Giám đốc hoặc Tổng giám đốc công ty hợp nhất và tiến
+hành &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp công ty hợp
+nhất theo quy định của Luật này. &lt;span style="background:white"&gt;Hợp đồng&lt;/span&gt;
+hợp nhất phải được gửi đến các chủ nợ và thông báo cho người lao động biết &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn 15 ngày, kể từ ngày thông qua.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp hợp nhất mà theo đó công
+ty hợp nhất có thị phần từ 30% đến 50% trên thị trường liên quan thì đại diện
+hợp pháp của công ty bị hợp nhất phải thông báo cho cơ quan quản lý cạnh tranh
+trước khi tiến hành hợp nhất, trừ &lt;span style="background:white"&gt;trường hợp&lt;/span&gt;
+Luật &lt;span style="background:white"&gt;cạnh tranh&lt;/span&gt; có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Cấm các &lt;span style="background:white"&gt;trường
+hợp&lt;/span&gt; hợp nhất mà theo đó công ty hợp nhất có thị phần trên 50% trên thị trường
+có liên quan, trừ trường hợp Luật cạnh tranh có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Hồ sơ, trình tự &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp công ty hợp nhất thực hiện
+theo các quy định tương ứng của Luật này và phải kèm theo bản sao các giấy tờ
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;a) Hợp đồng hợp nhất;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Nghị quyết và biên bản họp thông qua
+hợp đồng hợp nhất của các công ty bị hợp nhất.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Sau khi đăng ký doanh nghiệp, các công
+ty bị hợp nhất chấm dứt tồn tại; công ty hợp nhất được hưởng các quyền và lợi
+ích &lt;span style="background:white"&gt;hợp pháp&lt;/span&gt;, chịu trách nhiệm về các khoản
+nợ chưa thanh toán, hợp đồng lao động và các nghĩa vụ tài sản khác của các công
+ty bị hợp nhất.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Cơ quan đăng ký kinh doanh cập
+nhật tình trạng pháp lý của công ty bị hợp nhất trên Cơ sở dữ liệu quốc gia về &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp khi cấp Giấy chứng nhận đăng
+ký doanh nghiệp cho công ty hợp nhất. Trường hợp công ty bị hợp nhất có địa chỉ
+trụ sở chính ngoài tỉnh, thành phố trực thuộc trung ương nơi đặt trụ sở chính
+công ty hợp nhất thì Cơ quan đăng ký kinh doanh nơi công ty hợp nhất phải thông
+báo việc &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp cho Cơ quan
+đăng ký kinh doanh nơi đặt trụ sở chính công ty bị hợp nhất để cập nhật tình
+trạng pháp lý của công ty bị hợp nhất trên Cơ sở dữ liệu quốc gia về đăng ký
+doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_195"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 195. Sáp nhập
+doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Một hoặc một số công ty (sau đây
+gọi là công ty bị sáp nhập) có thể sáp nhập vào một công ty khác (sau đây gọi
+là công ty nhận sáp nhập) bằng cách chuyển toàn bộ tài sản, quyền, nghĩa vụ và
+lợi ích hợp pháp sang công ty nhận sáp nhập, đồng thời chấm dứt sự tồn tại của
+công ty bị sáp nhập.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thủ tục sáp nhập công ty được quy định
+như sau:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Các công ty liên quan chuẩn bị hợp
+đồng sáp nhập và dự thảo Điều lệ công ty nhận sáp nhập. Hợp đồng sáp nhập phải có
+các nội dung chủ yếu về tên, địa chỉ trụ sở chính của công ty nhận sáp nhập; tên,
+địa chỉ trụ sở chính của công ty bị sáp nhập; thủ tục và điều kiện sáp nhập;
+phương án sử dụng lao động; cách thức, thủ tục, thời hạn và điều kiện chuyển
+đổi tài sản, chuyển đổi phần vốn góp, cổ phần, trái phiếu của công ty bị sáp
+nhập thành phần vốn góp, cổ phần, trái phiếu của công ty nhận sáp nhập; thời
+hạn thực hiện sáp nhập;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Các thành viên, chủ sở hữu công ty
+hoặc các cổ đông của các công ty liên quan thông qua hợp đồng sáp nhập, Điều lệ
+công ty nhận sáp nhập và tiến hành đăng ký doanh nghiệp công ty nhận sáp nhập theo
+quy định của Luật này. Hợp đồng sáp nhập phải được gửi đến tất cả các chủ nợ và
+thông báo cho người lao động biết trong thời hạn 15 ngày, kể từ ngày thông qua;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Sau khi &lt;span style="background:
+white"&gt;đăng ký&lt;/span&gt; doanh nghiệp, công ty bị sáp nhập chấm dứt tồn tại; công ty
+nhận sáp nhập được hưởng các quyền và lợi ích hợp pháp, chịu trách nhiệm về các
+khoản nợ chưa thanh toán, &lt;span style="background:white"&gt;hợp đồng&lt;/span&gt; lao động
+và nghĩa vụ tài sản khác của công ty bị sáp nhập.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp sáp nhập mà theo đó công
+ty nhận sáp nhập có thị phần từ 30% đến 50% trên thị trường liên quan thì đại
+diện hợp pháp của công ty thông báo cho cơ quan quản lý cạnh tranh trước khi
+tiến hành sáp nhập, trừ trường hợp Luật cạnh tranh có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Cấm các trường hợp sáp nhập các công ty
+mà theo đó công ty nhận sáp nhập có thị phần trên 50% trên thị trường có liên
+quan, trừ trường hợp Luật cạnh tranh có quy định khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Hồ sơ, trình tự đăng ký doanh
+nghiệp công ty nhận sáp nhập thực hiện theo các quy định tương ứng của Luật này
+và phải kèm theo bản sao các giấy tờ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;a) Hợp đồng sáp nhập;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Nghị quyết và biên bản họp thông qua
+hợp đồng sáp nhập của các công ty nhận sáp nhập;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Nghị quyết và biên bản họp thông qua
+hợp đồng sáp nhập của các công ty bị sáp nhập, trừ trường hợp công ty nhận sáp
+nhập là thành viên, cổ đông sở hữu trên 65% vốn điều lệ hoặc cổ phần có quyền
+biểu quyết của công ty bị sáp nhập.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Cơ quan đăng ký kinh doanh tiến hành
+cập nhật tình trạng pháp lý của công ty bị sáp nhập trên Cơ sở dữ liệu quốc gia
+về đăng ký doanh nghiệp và thực hiện thay đổi nội dung đăng ký doanh nghiệp cho
+công ty nhận sáp nhập.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp công ty bị sáp nhập có địa
+chỉ trụ sở chính ngoài tỉnh, thành phố trực thuộc trung ương nơi đặt trụ sở chính
+công ty nhận sáp nhập thì Cơ quan &lt;span style="background:white"&gt;đăng ký&lt;/span&gt;
+kinh doanh nơi công ty nhận sáp nhập thông báo việc &lt;span style="background:
+white"&gt;đăng ký&lt;/span&gt; doanh nghiệp cho Cơ quan đăng ký kinh doanh nơi đặt trụ
+sở chính công ty bị sáp nhập để cập nhật tình trạng pháp lý của công ty bị sáp
+nhập trên Cơ sở dữ liệu &lt;span style="background:white"&gt;quốc&lt;/span&gt; gia &lt;span style="background:white"&gt;về&lt;/span&gt; đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889096" class="clsBookmark" name="dieu_196" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889096')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889096')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 196.
+Chuyển đổi công ty trách nhiệm hữu hạn thành công ty cổ phần&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Đối với doanh nghiệp nhà nước
+chuyển đổi thành công ty cổ phần thì thực hiện theo quy định &lt;span style="background:white"&gt;của&lt;/span&gt; pháp luật về việc chuyển công ty nhà nước
+thành công ty cổ phần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty trách nhiệm hữu hạn có thể
+chuyển đổi thành công ty cổ phần theo phương thức sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chuyển đổi thành công ty cổ phần mà
+không huy động thêm tổ chức, cá nhân khác cùng góp vốn, không bán phần vốn góp
+cho tổ chức, cá nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chuyển đổi thành công ty cổ phần
+bằng cách huy động thêm tổ chức, cá nhân khác góp vốn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Chuyển đổi thành công ty cổ phần
+bằng cách bán toàn bộ hoặc một phần phần vốn góp cho một hoặc một số tổ chức,
+cá nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Kết hợp phương thức quy định tại các
+điểm a, b và c khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty phải đăng ký chuyển đổi công
+ty với Cơ quan đăng ký kinh doanh &lt;span style="background:white"&gt;trong&lt;/span&gt; thời
+hạn 10 ngày, kể từ ngày hoàn thành việc chuyển đổi. Trong thời hạn 05 ngày làm
+việc, kể từ ngày nhận hồ sơ chuyển đổi, cơ quan &lt;span style="background:white"&gt;đăng
+ký&lt;/span&gt; doanh nghiệp cấp lại Giấy chứng nhận đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Công ty chuyển đổi đương nhiên kế thừa
+toàn bộ các quyền và lợi ích hợp pháp, chịu trách nhiệm về các khoản nợ, gồm cả
+nợ thuế, hợp đồng lao động và các nghĩa vụ khác của công ty được chuyển đổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trong thời hạn 07 ngày làm việc,
+kể từ ngày cấp Giấy chứng nhận đăng ký doanh nghiệp, Cơ quan đăng ký kinh doanh
+phải thông báo cho các cơ quan nhà nước có liên quan theo quy định tại khoản 1
+Điều 34 của Luật này; đồng thời cập nhật tình trạng pháp lý của công ty trên Cơ
+sở dữ liệu quốc gia về đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889097" class="clsBookmark" name="dieu_197" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889097')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889097')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 197.
+Chuyển đổi công ty cổ phần thành công ty trách nhiệm hữu hạn một thành viên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty cổ phần có thể chuyển đổi thành
+công ty trách nhiệm hữu hạn một thành viên theo phương thức sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Một cổ đông nhận chuyển nhượng toàn
+bộ cổ phần, phần vốn góp tương ứng của tất cả các cổ đông còn lại;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Một tổ chức hoặc cá nhân không
+phải là cổ đông nhận chuyển nhượng toàn bộ số cổ phần của tất cả cổ đông của
+công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Công ty chỉ còn lại một cổ đông trong
+thời gian vượt quá thời hạn yêu cầu số lượng tối thiểu công ty cổ phần theo quy
+định tại Điều 110 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Việc chuyển nhượng hoặc nhận góp
+vốn đầu tư bằng cổ phần, phần vốn góp quy &lt;/span&gt;định&lt;span lang="VI"&gt; tại khoản 1
+Điều này phải thực hiện theo giá thị trường, giá được định theo phương pháp tài
+sản, phương pháp dòng tiền chiết khấu hoặc phương pháp khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trong thời hạn 15 ngày, kể từ ngày
+hoàn thành việc chuyển nhượng cổ phần theo quy định tại điểm a và điểm b khoản 1
+Điều này và xảy ra trường hợp điểm c khoản 1 Điều này, công ty gửi hoặc nộp hồ
+sơ chuyển đổi tại Cơ quan đăng ký &lt;span style="background:white"&gt;kinh&lt;/span&gt; doanh
+nơi doanh nghiệp đã đăng ký. Trong thời hạn 05 ngày làm việc, kể từ ngày nhận
+hồ sơ chuyển đổi, Cơ quan đăng ký kinh doanh cấp Giấy chứng nhận &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Công ty chuyển đổi đương nhiên kế thừa
+toàn bộ các quyền và lợi ích hợp pháp, chịu trách nhiệm về các khoản nợ, gồm cả
+nợ thuế, &lt;span style="background:white"&gt;hợp đồng&lt;/span&gt; lao động và các nghĩa
+vụ khác của công ty được chuyển đổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trong thời hạn 07 ngày làm việc,
+kể từ ngày cấp Giấy chứng nhận đăng ký doanh nghiệp, Cơ quan đăng ký kinh doanh
+phải thông báo cho các cơ quan nhà nước liên quan theo quy định tại khoản 1
+Điều 34 của Luật này; đồng thời cập nhật tình trạng pháp lý của công ty trên &lt;span style="background:white"&gt;Cơ sở&lt;/span&gt; dữ liệu quốc gia về đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889098" class="clsBookmark" name="dieu_198" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889098')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889098')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 198.
+Chuyển đổi công ty cổ phần thành công ty trách nhiệm hữu hạn hai thành viên trở
+lên&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Công ty cổ phần có thể chuyển đổi thành
+công ty trách nhiệm hữu hạn theo phương thức sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Chuyển đổi thành công ty trách
+nhiệm hữu hạn mà không huy động thêm hoặc chuyển nhượng cổ phần cho tổ chức, cá
+nhân khác;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chuyển đổi thành công ty trách
+nhiệm hữu hạn đồng thời với huy động thêm tổ chức, cá nhân khác góp vốn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Chuyển đổi thành công ty trách
+nhiệm hữu hạn đồng thời với chuyển nhượng toàn bộ hoặc một phần của toàn bộ
+hoặc một phần cổ phần cho tổ chức, cá nhân khác góp vốn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Chuyển đổi thành công ty trách
+nhiệm hữu hạn &lt;span style="background:white"&gt;kết&lt;/span&gt; hợp các phương thức quy
+định tại các điểm a, b và c khoản này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Công ty phải đăng ký chuyển đổi công
+ty với Cơ quan đăng ký kinh doanh trong thời hạn 10 ngày, kể từ ngày hoàn thành
+việc chuyển đổi. Trong thời hạn 05 ngày làm việc, &lt;span style="background:white"&gt;kể
+từ&lt;/span&gt; ngày nhận hồ sơ chuyển đổi, Cơ quan đăng ký kinh doanh &lt;span style="background:white"&gt;cấp&lt;/span&gt; Giấy chứng nhận đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Công ty chuyển đổi đương nhiên kế thừa
+toàn bộ các quyền và lợi ích hợp pháp, chịu trách nhiệm về các khoản nợ, gồm cả
+nợ thuế, hợp đồng lao động và các nghĩa vụ khác của công ty được chuyển đổi.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Trong thời hạn 07 ngày làm việc,
+kể từ ngày cấp Giấy chứng nhận đăng ký doanh nghiệp, Cơ quan đăng ký kinh doanh
+phải thông báo cho các cơ quan nhà nước có liên quan theo quy định tại khoản 1
+Điều 34 của Luật này; đồng thời cập nhật tình trạng pháp lý của công ty trên Cơ
+sở dữ liệu quốc gia về đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889099" class="clsBookmark" name="dieu_199" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889099')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889099')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 199.
+Chuyển đổi doanh nghiệp tư nhân thành công ty trách nhiệm hữu hạn&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp tư nhân có thể chuyển
+đổi thành công ty trách nhiệm hữu hạn theo quyết định của chủ doanh nghiệp tư nhân
+nếu đủ các điều kiện sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Có đủ các &lt;span style="background:
+white"&gt;điều&lt;/span&gt; kiện theo quy định tại khoản 1 Điều 28 của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Chủ doanh nghiệp tư nhân phải là chủ
+sở hữu công ty (đối &lt;span style="background:white"&gt;với&lt;/span&gt; trường hợp chuyển
+đổi thành công ty trách nhiệm hữu hạn một thành viên do cá nhân làm chủ sở hữu)
+hoặc thành viên (đối với trường hợp chuyển đổi thành công ty trách nhiệm hữu
+hạn hai thành viên trở lên);&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Chủ doanh nghiệp tư nhân cam kết
+bằng văn bản chịu trách nhiệm cá nhân bằng toàn bộ tài sản của mình đối với tất
+cả các khoản nợ chưa thanh toán của doanh nghiệp tư nhân và cam kết thanh toán
+đủ số nợ khi đến hạn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Chủ doanh nghiệp tư nhân có thỏa thuận
+bằng văn bản với các bên của hợp đồng chưa thanh lý về việc công ty trách nhiệm
+hữu hạn được chuyển đổi tiếp nhận và thực hiện các hợp đồng đó;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Chủ doanh nghiệp tư nhân cam kết
+bằng văn bản hoặc có thỏa thuận bằng văn bản với các thành viên góp vốn khác về
+việc tiếp nhận và sử dụng lao động hiện có của doanh nghiệp tư nhân.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trong thời hạn 05 ngày làm việc,
+kể từ ngày nhận hồ sơ, Cơ quan &lt;span style="background:white"&gt;đăng ký&lt;/span&gt;
+kinh doanh xem xét và cấp Giấy chứng nhận đăng ký doanh nghiệp nếu có đủ các
+điều kiện quy định tại khoản 1 Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trong thời hạn 07 ngày làm việc,
+kể từ ngày cấp Giấy chứng nhận đăng ký doanh nghiệp quy định tại khoản 2 Điều
+này, Cơ quan đăng ký kinh doanh phải thông báo cho các cơ quan nhà nước có liên
+quan theo quy định tại khoản 1 Điều 34 của Luật này; đồng thời cập nhật tình
+trạng pháp lý của doanh nghiệp trên &lt;span style="background:white"&gt;Cơ sở&lt;/span&gt;
+dữ liệu quốc gia về &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-702512" class="clsBookmark" name="dieu_200" onclick="LS_Tip_Type_Bookmark('.lqhlTip-702512')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-702512')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 200. Tạm ngừng
+kinh doanh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp có quyền tạm ngừng kinh
+doanh nhưng phải thông báo bằng văn bản về thời điểm và thời hạn tạm ngừng hoặc
+tiếp tục kinh doanh cho Cơ quan đăng ký kinh doanh chậm nhất 15 ngày trước ngày
+tạm ngừng hoặc tiếp tục kinh doanh. Quy định này áp dụng &lt;span style="background:white"&gt;trong&lt;/span&gt; &lt;span style="background:white"&gt;trường hợp&lt;/span&gt;
+doanh nghiệp tiếp tục kinh doanh trước thời hạn đã thông báo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Cơ quan đăng ký kinh doanh, cơ
+quan nhà nước có thẩm quyền yêu cầu doanh nghiệp tạm ngừng kinh doanh ngành,
+nghề kinh doanh có &lt;span style="background:white"&gt;điều&lt;/span&gt; kiện khi phát
+hiện doanh nghiệp không có đủ &lt;span style="background:white"&gt;điều kiện&lt;/span&gt;
+theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trong thời gian tạm ngừng kinh doanh,
+doanh nghiệp phải nộp đủ số thuế còn nợ; tiếp tục thanh toán các khoản nợ, hoàn
+thành việc thực hiện hợp đồng đã ký với khách hàng và người lao động, trừ
+trường hợp doanh nghiệp, chủ nợ, khách hàng và ng&lt;span style="background:white"&gt;ườ&lt;/span&gt;i
+lao động có thỏa thuận khác.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_201"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 201. Các trường
+hợp và &lt;span style="background:white"&gt;điều&lt;/span&gt; kiện giải thể doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp bị giải thể trong các
+trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Kết thúc thời hạn hoạt động đã ghi
+trong Điều lệ công ty mà không có quyết định gia hạn;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Theo quyết định của chủ doanh
+nghiệp đối với doanh nghiệp tư nhân, của tất cả thành viên hợp danh đối với
+công ty hợp danh, của Hội đồng thành viên, chủ sở hữu công ty đối với công ty
+trách nhiệm hữu hạn, của Đại hội đồng cổ đông đối với công ty cổ phần;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Công ty không còn đủ số lượng
+thành viên tối thiểu theo quy định của Luật này trong thời hạn 06 tháng liên
+tục mà không làm thủ tục chuyển đổi loại hình doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Bị thu hồi Giấy chứng nhận &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Doanh nghiệp chỉ được giải thể khi
+bảo đảm thanh toán hết các khoản nợ và nghĩa vụ tài sản khác và doanh nghiệp không
+trong quá trình giải quyết tranh chấp tại Tòa án hoặc cơ quan trọng tài. Người
+quản lý có liên quan và doanh nghiệp quy định tại điểm d khoản 1 Điều này cùng
+liên đới chịu trách nhiệm về các khoản nợ của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-702514" class="clsBookmark" name="dieu_202" onclick="LS_Tip_Type_Bookmark('.lqhlTip-702514')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-702514')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 202. Trình
+tự, thủ tục giải thể doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Việc giải thể doanh nghiệp trong các trường
+hợp quy định tại các điểm a, b và c khoản 1 Điều 201 của Luật này được thực
+hiện theo quy định sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Thông qua quyết định giải thể doanh
+nghiệp. Quyết định giải thể doanh nghiệp phải có các nội dung chủ yếu sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Tên, địa chỉ trụ sở chính của doanh
+nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;b) Lý do giải thể;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Thời hạn, thủ tục thanh lý hợp
+đồng và thanh toán các khoản nợ của doanh nghiệp; thời hạn thanh toán nợ, thanh
+lý hợp đồng không được vượt quá 06 tháng, kể từ ngày thông qua quyết định giải
+thể;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Phương án xử lý các nghĩa vụ phát sinh
+từ hợp đồng lao động;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Họ, tên, chữ ký của người đại diện
+theo pháp luật của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chủ doanh nghiệp tư nhân, Hội đồng
+thành viên hoặc chủ sở hữu công ty, Hội đồng quản trị trực tiếp tổ chức thanh lý
+tài sản doanh nghiệp, trừ trường hợp Điều lệ công ty quy định thành lập tổ chức
+thanh lý riêng.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trong thời hạn 07 ngày làm việc kể
+từ ngày thông qua, quyết định giải thể và biên bản họp phải được gửi đến Cơ quan
+đăng ký kinh doanh, cơ quan thuế, người lao động trong doanh nghiệp, đăng quyết
+định giải thể trên Cổng thông tin quốc gia về đăng ký doanh nghiệp và phải được
+niêm yết công khai tại trụ sở chính, chi nhánh, văn phòng đại diện của doanh
+nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp doanh nghiệp còn nghĩa vụ tài
+chính chưa thanh toán thì phải gửi kèm theo quyết định giải thể phương án giải
+quyết nợ đến các chủ nợ, người có quyền lợi và nghĩa vụ có liên quan. Thông báo
+phải có tên, địa chỉ của chủ nợ; số nợ, thời hạn, địa điểm và phương thức thanh
+toán số nợ đó; cách thức và thời hạn giải quyết khiếu nại của chủ nợ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Cơ quan đăng ký kinh doanh phải thông
+báo tình trạng doanh nghiệp đang làm thủ tục giải thể trên Cổng thông tin quốc
+gia về đăng ký doanh nghiệp ngay sau khi nhận được quyết định giải thể của doanh
+nghiệp. Kèm theo thông báo phải đăng tải quyết định giải thể và phương án giải
+quyết nợ (nếu có).&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Các khoản nợ của doanh nghiệp được
+thanh toán theo thứ tự sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Các khoản nợ lương, trợ cấp thôi việc,
+bảo hiểm xã hội theo quy định của pháp luật và các quyền lợi khác của người lao
+động theo thỏa ước lao động tập thể và hợp đồng lao động đã ký &lt;span style="background:white"&gt;kết&lt;/span&gt;;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Nợ thuế;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Các khoản nợ khác.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Sau khi đã thanh toán hết các
+khoản nợ và chi phí giải thể doanh nghiệp, phần còn lại chia cho chủ doanh
+nghiệp tư nhân, các thành viên, cổ đông hoặc chủ sở hữu công ty theo tỷ lệ sở
+hữu phần vốn góp, cổ phần.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;7. Người đại diện theo pháp luật của doanh
+nghiệp gửi đề nghị giải thể cho Cơ quan đăng ký kinh doanh trong 05 ngày làm
+việc kể từ ngày thanh toán hết các khoản nợ của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;8. Sau thời hạn 180 ngày, kể từ ngày nhận
+được quyết định giải thể theo khoản 3 Điều này mà không nhận được ý kiến &lt;span style="background:white"&gt;về&lt;/span&gt; việc giải thể từ doanh nghiệp hoặc phản đối của
+bên có liên quan bằng văn bản hoặc trong 05 ngày làm việc kể từ ngày nhận hồ sơ
+giải thể, Cơ quan đăng ký kinh doanh cập nhật tình trạng pháp lý của doanh
+nghiệp trên Cơ sở dữ liệu quốc gia về đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;9. Chính phủ quy định chi tiết về trình
+tự, thủ tục giải thể doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_203"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 203. Giải thể
+doanh nghiệp trong &lt;span style="background:white"&gt;trường hợp&lt;/span&gt; bị thu hồi
+Giấy chứng nhận đăng ký doanh nghiệp hoặc theo quyết định của Tòa án&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Việc giải thể doanh nghiệp theo quy
+định tại điểm d khoản 1 Điều 201 của Luật này được thực hiện theo trình tự, thủ
+tục sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cơ quan đăng ký kinh doanh, phải thông
+báo tình trạng doanh nghiệp đang làm thủ tục giải thể trên Cổng thông tin &lt;span style="background:white"&gt;quốc&lt;/span&gt; gia &lt;span style="background:white"&gt;về&lt;/span&gt;
+đăng ký doanh nghiệp đồng thời với việc ra quyết định thu hồi Giấy chứng nhận &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp hoặc ngay sau khi nhận
+được quyết định giải thể của Tòa án đã có hiệu lực thi hành. Kèm theo thông báo
+phải đăng tải quyết định thu hồi Giấy chứng nhận đăng ký doanh nghiệp hoặc &lt;span style="background:white"&gt;quyết&lt;/span&gt; định của Tòa án;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Trong thời hạn 10 ngày, kể từ ngày
+nhận được quyết định thu hồi Giấy chứng nhận đăng ký doanh nghiệp hoặc quyết
+định của Tòa án có hiệu lực, doanh nghiệp phải triệu tập họp để quyết định giải
+thể. Quyết định giải thể và bản sao quyết định thu hồi Giấy chứng nhận đăng ký
+doanh nghiệp hoặc quyết định của Tòa án có hiệu lực phải được gửi đến Cơ quan
+đăng ký kinh doanh, cơ quan thuế, người lao động trong doanh nghiệp và phải
+được niêm yết công khai tại trụ sở chính và chi nhánh của doanh nghiệp. Đối với
+trường hợp mà pháp luật yêu cầu phải đăng báo thì quyết định giải thể doanh
+nghiệp phải được đăng ít nhất trên một tờ báo viết hoặc báo điện tử &lt;span style="background:white"&gt;trong&lt;/span&gt; ba số liên tiếp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Trường hợp doanh nghiệp còn nghĩa vụ tài
+chính chưa thanh toán thì phải đồng thời gửi kèm theo quyết định giải thể của
+doanh nghiệp phương án giải quyết nợ đến các chủ nợ, người có quyền lợi và nghĩa
+vụ có liên quan. Thông báo phải có tên, địa chỉ của chủ nợ; số nợ, thời hạn,
+địa điểm và phương thức thanh toán số nợ đó; cách thức và thời hạn giải quyết
+khiếu nại của chủ nợ.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Việc thanh toán các khoản nợ của doanh
+nghiệp được thực hiện theo &lt;span style="background:white"&gt;quy định&lt;/span&gt; tại
+khoản 5 Điều 202 của Luật này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Người đại diện theo pháp luật của doanh
+nghiệp gửi đề nghị giải thể cho Cơ quan đăng ký kinh doanh &lt;span style="background:white"&gt;trong&lt;/span&gt; 05 ngày làm việc, kể từ ngày thanh toán
+hết các khoản nợ của doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Sau thời hạn 180 ngày, kể từ ngày thông
+báo tình trạng giải thể doanh nghiệp theo quy định tại khoản 1 Điều này mà
+không nhận phản đối của bên có liên quan bằng văn bản hoặc &lt;span style="background:white"&gt;trong&lt;/span&gt; 05 ngày làm việc kể từ ngày nhận hồ sơ
+giải thể, Cơ quan đăng ký kinh doanh cập nhật tình trạng pháp lý của doanh
+nghiệp trên Cơ sở dữ liệu quốc gia về đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Cá nhân người quản lý công ty có liên
+quan phải chịu trách nhiệm cá nhân về thiệt hại do việc không thực hiện hoặc
+không thực hiện đúng quy định tại Điều này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_204"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 204. Hồ sơ
+giải thể doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Hồ sơ giải thể doanh nghiệp bao
+gồm giấy tờ sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thông báo về giải thể doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Báo cáo thanh lý tài sản doanh nghiệp;
+danh sách chủ nợ và số nợ đã thanh toán, gồm cả thanh toán hết các khoản nợ về
+thuế và nợ tiền đóng bảo hiểm xã hội, người lao động sau khi quyết định giải
+thể doanh nghiệp (nếu có);&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Con dấu và giấy chứng nhận mẫu dấu
+(nếu có);&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Giấy chứng nhận đăng ký doanh
+nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Thành viên Hội đồng quản trị công ty
+cổ phần, thành viên Hội đồng thành viên công ty trách nhiệm hữu hạn, chủ sở hữu
+công ty, chủ doanh nghiệp tư nhân, Giám đốc hoặc Tổng giám đốc, thành viên hợp
+danh, người đại diện theo pháp luật của doanh nghiệp chịu trách nhiệm về tính
+trung thực, chính xác của hồ sơ giải thể doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trường hợp hồ sơ giải thể không chính
+xác, giả mạo, những người quy định tại khoản 2 Điều này phải liên đới chịu
+trách nhiệm thanh toán số nợ chưa thanh toán, số thuế chưa nộp và quyền lợi của
+người lao động chưa được giải quyết và chịu trách nhiệm cá nhân trước pháp luật
+về những hệ quả phát sinh &lt;span style="background:white"&gt;trong&lt;/span&gt; thời hạn
+05 năm, kể từ ngày nộp hồ sơ giải thể doanh nghiệp đến Cơ quan &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; kinh doanh.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_205"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 205. Các hoạt
+động bị cấm kể từ khi có quyết định giải thể&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Kể từ khi có quyết định giải thể doanh
+nghiệp, nghiêm cấm doanh nghiệp, người quản lý doanh nghiệp thực hiện các hoạt
+động sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Cất giấu, tẩu tán tài sản;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Từ bỏ hoặc giảm bớt quyền đòi nợ;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Chuyển các khoản nợ không có bảo
+đảm thành các khoản nợ có bảo đảm bằng tài sản của doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Ký kết hợp đồng mới trừ trường hợp
+để thực hiện giải thể doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Cầm cố, thế chấp, tặng cho, cho thuê
+tài sản;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Chấm dứt thực hiện hợp đồng đã có hiệu
+lực;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Huy động vốn dưới mọi hình thức.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Tùy theo tính chất và mức độ vi
+phạm, cá nhân có hành vi vi phạm khoản 1 Điều này có thể bị xử phạt vi phạm
+hành chính hoặc truy cứu trách nhiệm hình sự; nếu gây thiệt hại thì phải bồi
+thường.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-702518" class="clsBookmark" name="dieu_206" onclick="LS_Tip_Type_Bookmark('.lqhlTip-702518')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-702518')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 206. Chấm dứt
+hoạt động chi nhánh, văn phòng đại diện&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chi nhánh, văn phòng đại diện của doanh
+nghiệp được chấm dứt hoạt động theo quyết định của chính doanh nghiệp đó hoặc
+theo &lt;span style="background:white"&gt;quyết định&lt;/span&gt; thu hồi Giấy chứng nhận &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; hoạt động chi nhánh, văn phòng đại diện
+của cơ quan nhà nước có &lt;span style="background:white"&gt;thẩm quyền&lt;/span&gt;.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Hồ sơ chấm dứt hoạt động chi nhánh,
+văn phòng đại diện bao gồm:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Quyết định của doanh nghiệp về
+chấm dứt hoạt động chi nhánh, văn phòng đại diện hoặc quyết định thu hồi Giấy
+chứng nhận đăng ký hoạt động chi nhánh, văn phòng đại diện của cơ quan nhà nước
+có thẩm quyền;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Danh sách chủ nợ và số nợ chưa thanh
+toán, gồm cả nợ thuế của chi nhánh và nợ tiền đóng bảo hiểm xã hội;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Danh sách người lao động và quyền lợi
+tương ứng hiện hành của người lao động;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Giấy chứng nhận đăng ký hoạt động của
+chi nhánh, văn phòng đại diện;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Con dấu của chi nhánh, văn phòng
+đại diện (nếu có).&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Người đại diện theo pháp luật của doanh
+nghiệp và người đứng đầu chi nhánh, văn phòng đại diện bị giải thể liên đới
+chịu trách nhiệm về tính trung thực và chính xác của hồ sơ chấm dứt hoạt động
+chi nhánh, văn phòng đại diện.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;4. Doanh nghiệp có chi nhánh đã chấm dứt
+hoạt động chịu trách nhiệm thực hiện các hợp đồng, thanh toán các khoản nợ, gồm
+cả nợ thuế của chi nhánh và tiếp tục sử dụng lao động hoặc giải quyết đủ quyền
+lợi hợp pháp cho người lao động đã làm việc tại chi nhánh theo quy định của
+pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;5. Trong thời hạn 05 ngày làm việc,
+kể từ ngày nhận đủ hồ sơ chấm dứt hoạt động chi nhánh quy định tại khoản 2 Điều
+này, Cơ quan đăng ký kinh doanh cập nhật tình trạng pháp lý của chi nhánh, &lt;span style="background:white"&gt;văn&lt;/span&gt; phòng đại diện trên Cơ sở dữ liệu quốc gia về
+đăng ký doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_207"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 207. Phá
+sản doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Việc phá sản doanh nghiệp được thực hiện
+theo quy định của pháp luật về phá sản.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="chuong_10"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Chương X&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889106" class="clsBookmark" name="dieu_208" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889106')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889106')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 208. Trách
+nhiệm các cơ quan quản lý nhà nước&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Chính phủ thống nhất quản lý nhà nước
+đối &lt;span style="background:white"&gt;với&lt;/span&gt; doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Các bộ, cơ quan ngang bộ chịu trách
+nhiệm trước Chính phủ về việc thực hiện nhiệm vụ được phân công &lt;span style="background:white"&gt;trong&lt;/span&gt; quản lý nhà nước đối &lt;span style="background:white"&gt;với&lt;/span&gt; doanh nghiệp.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Trong phạm vi nhiệm vụ, quyền hạn được
+phân công, các bộ, cơ quan ngang bộ chỉ đạo các cơ quan chuyên môn định kỳ gửi
+cho Cơ quan đăng ký kinh doanh nơi doanh nghiệp có trụ sở chính các thông tin
+sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Thông tin về giấy phép kinh doanh,
+giấy chứng nhận đủ điều kiện kinh doanh, chứng chỉ hành nghề, giấy chứng nhận hoặc
+văn bản chấp thuận về điều kiện &lt;span style="background:white"&gt;kinh&lt;/span&gt; doanh
+đã cấp cho doanh nghiệp và quyết định xử phạt đối &lt;span style="background:white"&gt;với&lt;/span&gt;
+hành vi vi phạm hành chính của doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Thông tin về tình hình hoạt động và
+nộp thuế của doanh nghiệp từ báo cáo thuế của doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-969481" class="clsBookmark" name="diem_3_208_3" onclick="LS_Tip_Type_Bookmark('.lqhlTip-969481')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-969481')"&gt;&lt;span lang="VI"&gt;c) Phối hợp, chia
+sẻ thông tin về &lt;span style="background:white"&gt;tình hình&lt;/span&gt; hoạt động doanh
+nghiệp để nâng cao hiệu lực quản lý nhà nước.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;4. Ủy ban&lt;/span&gt;&lt;span lang="VI"&gt; nhân dân tỉnh, thành phố trực thuộc trung ương thực hiện quản lý nhà nước
+đối với doanh nghiệp &lt;span style="background:white"&gt;trong&lt;/span&gt; phạm vi địa
+phương.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI" style="background:white"&gt;5. Ủy ban&lt;/span&gt;&lt;span lang="VI"&gt; nhân dân tỉnh, thành phố trực thuộc trung ương &lt;span style="background:
+white"&gt;trong&lt;/span&gt; phạm vi nhiệm vụ, quyền hạn được phân công chịu trách nhiệm
+&lt;span style="background:white"&gt;chỉ đạo&lt;/span&gt; các cơ quan chuyên môn trực thuộc
+và &lt;span style="background:white"&gt;Ủy ban&lt;/span&gt; nhân dân cấp huyện định kỳ gửi
+cho Cơ quan &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; kinh doanh nơi doanh nghiệp
+có trụ sở chính các thông tin theo quy định tại khoản 2 Điều này.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;6. Chính phủ quy định chi tiết Điều
+này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_209"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 209. Cơ
+quan đăng ký &lt;span style="background:white"&gt;kinh&lt;/span&gt; doanh&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cơ quan đăng ký kinh doanh có
+nhiệm vụ, quyền hạn sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Giải quyết việc đăng ký doanh
+nghiệp và cấp Giấy chứng nhận đăng ký doanh nghiệp theo quy định của pháp luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Phối hợp xây dựng, quản lý Hệ
+thống thông tin quốc gia về đăng ký doanh nghiệp; cung cấp thông tin cho cơ
+quan nhà nước, tổ chức và cá nhân có yêu cầu theo quy định của pháp luật;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Yêu cầu doanh nghiệp báo cáo về
+việc tuân thủ các quy định của Luật này khi xét thấy cần thiết; đôn đốc việc
+thực hiện nghĩa vụ báo cáo của doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Trực tiếp hoặc đề nghị cơ quan nhà
+nước có thẩm quyền kiểm tra doanh nghiệp theo những nội dung trong hồ sơ đăng ký
+doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Chịu trách nhiệm về tính hợp lệ
+của hồ sơ đăng ký doanh nghiệp, không chịu trách nhiệm về những vi phạm của
+doanh nghiệp xảy ra trước và sau đăng ký doanh nghiệp;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;e) Xử lý vi phạm các quy định về đăng
+ký doanh nghiệp theo quy định của pháp luật; thu hồi Giấy chứng nhận &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; doanh nghiệp và yêu cầu doanh nghiệp làm
+thủ tục giải thể theo quy định của Luật này;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;g) Thực hiện các nhiệm vụ, quyền hạn khác
+theo quy định của Luật này và quy định khác của pháp luật có liên quan.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a name="khoan_2_209"&gt;&lt;span lang="VI"&gt;2. Chính phủ quy
+định hệ thống tổ chức Cơ quan đăng ký kinh doanh.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889108" class="clsBookmark" name="dieu_210" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889108')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889108')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 210. Xử lý
+vi phạm&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Cơ quan, tổ chức, cá nhân vi phạm
+quy định của Luật này thì tùy theo tính chất và mức độ vi phạm mà bị xử lý kỷ
+luật, xử phạt vi phạm hành chính, trường hợp gây thiệt hại thì phải bồi thường,
+cá nhân có thể bị truy cứu trách nhiệm hình sự theo quy định của pháp luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;2. Chính phủ quy định chi tiết về xử phạt
+vi phạm hành chính đối với hành vi vi phạm những quy định của Luật này.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-889109" class="clsBookmark" name="dieu_211" onclick="LS_Tip_Type_Bookmark('.lqhlTip-889109')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-889109')"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 211. Thu
+hồi Giấy chứng nhận đăng ký doanh nghiệp&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Doanh nghiệp bị thu hồi Giấy chứng
+nhận đăng ký doanh nghiệp trong các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Nội dung kê khai trong hồ sơ đăng ký
+doanh nghiệp là giả mạo;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Doanh nghiệp do những người bị cấm
+thành lập doanh nghiệp theo khoản 2 Điều 18 của Luật này thành lập;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Doanh nghiệp ngừng hoạt động kinh doanh
+01 năm mà không thông báo với Cơ quan đăng ký kinh doanh và cơ quan thuế;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;d) Doanh nghiệp không gửi báo cáo theo
+quy định tại điểm c khoản 1 Điều 209 của Luật này đến Cơ quan đăng ký kinh doanh
+trong thời hạn 06 tháng, kể từ ngày hết hạn gửi báo cáo hoặc có yêu cầu bằng
+văn bản;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;đ) Trường hợp khác theo quyết định
+của Tòa án.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935231" class="clsBookmark" name="khoan_2_211" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935231')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935231')"&gt;&lt;span lang="VI"&gt;2. Chính phủ quy
+định trình tự, thủ tục thu hồi Giấy chứng nhận &lt;span style="background:white"&gt;đăng
+ký&lt;/span&gt; doanh nghiệp.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_212"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 212. Hiệu lực
+thi hành&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;1. Luật này có hiệu lực thi hành từ ngày
+01 tháng 7 năm 2015. Luật doanh nghiệp số 60/2005/QH11 ngày 29 tháng 11 năm
+2005 và Luật sửa đổi, bổ sung &lt;a name="dc_1"&gt;Điều 170 của Luật doanh nghiệp&lt;/a&gt;
+số 37/2013/QH13 ngày 20 tháng 6 năm 2013 hết hiệu lực thi hành kể từ ngày Luật này
+có hiệu lực, trừ các trường hợp sau đây:&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;a) Đối &lt;span style="background:white"&gt;với&lt;/span&gt;
+công ty trách nhiệm hữu hạn thành lập trước ngày Luật này có hiệu lực, thời hạn
+góp vốn thực hiện theo quy định tại Điều lệ công ty;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;b) Các doanh nghiệp do Nhà nước nắm giữ
+vốn điều lệ phải thực hiện tái cơ cấu để bảo đảm tuân thủ đúng quy định tại khoản
+2 và khoản 3 Điều 189 của Luật này trước ngày 01 tháng 7 năm 2017;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;c) Các công ty không có cổ phần hoặc phần
+vốn góp do Nhà nước nắm giữ thực hiện góp vốn, mua cổ phần trước ngày 01 tháng
+7 năm 2015 không phải thực hiện theo quy định tại Khoản 2 Điều 189 của Luật này
+nhưng không được tăng tỷ lệ sở hữu chéo.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;a atmm=".lqhlTootip-935232" class="clsBookmark" name="khoan_2_212" onclick="LS_Tip_Type_Bookmark('.lqhlTip-935232')" onmouseout="hideddrivetip();" onmouseover="LS_Tootip_Type_Bookmark('.lqhlTootip-935232')"&gt;&lt;span lang="VI"&gt;2. Hộ kinh doanh
+sử dụng thường xuyên từ 10 lao động trở lên phải đăng ký thành lập doanh nghiệp
+hoạt động theo quy định của Luật này. Hộ kinh doanh có quy mô nhỏ thực hiện &lt;span style="background:white"&gt;đăng ký&lt;/span&gt; kinh doanh và hoạt động theo quy định
+của Chính phủ.&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;3. Căn cứ vào quy định của Luật này, Chính
+phủ quy định chi tiết việc tổ chức quản lý và hoạt động &lt;span style="background:
+white"&gt;của&lt;/span&gt; doanh nghiệp nhà nước trực tiếp phục vụ quốc phòng, an ninh
+hoặc kết hợp &lt;span style="background:white"&gt;kinh tế&lt;/span&gt; &lt;span style="background:white"&gt;với&lt;/span&gt; &lt;span style="background:white"&gt;quốc&lt;/span&gt;
+phòng, an ninh.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p style="margin-top:6.0pt"&gt;&lt;a name="dieu_213"&gt;&lt;b&gt;&lt;span lang="VI"&gt;Điều 213. Quy
+định chi tiết&lt;/span&gt;&lt;/b&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;span lang="VI"&gt;Chính phủ quy định chi tiết các điều,
+khoản được giao trong Luật.&lt;/span&gt;&lt;/p&gt;
+&lt;p style="margin-top:6.0pt"&gt;&lt;i&gt;&lt;span lang="VI"&gt;Luật này đã được Quốc hội nước
+Cộng hòa xã hội chủ nghĩa Việt Nam khóa XIII, kỳ họp thứ 8 thông qua ngày 26 &lt;span style="background:white"&gt;tháng&lt;/span&gt; 11 năm 2014.&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -2973,10 +9655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2984,1716 +9666,2358 @@
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C17" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C18" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C23" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C24" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C25" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C34" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C36" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C38" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C39" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C40" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C42" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C43" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C44" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C45" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C49" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C50" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C51" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C52" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C54" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C55" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C56" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C57" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C58" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C59" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C60" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C61" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C62" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C63" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C64" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C65" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C66" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C67" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C68" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C69" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C70" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C71" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C72" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C73" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C74" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C75" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C76" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C77" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C78" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C79" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C80" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C81" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C82" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C83" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C84" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C85" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C86" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C87" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C88" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C89" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C90" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C91" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C92" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C93" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C94" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C95" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C96" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C97" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C98" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C99" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C100" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C101" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C102" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C103" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C104" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C105" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C106" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C107" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C108" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C109" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C110" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C111" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C112" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C113" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C114" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C115" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C116" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C117" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C118" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C119" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C120" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C121" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C122" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C123" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C124" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C125" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C126" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C127" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C128" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C129" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C130" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C131" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C132" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C133" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C134" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C135" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C136" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C137" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C138" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C139" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C140" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C141" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C142" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C143" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C144" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C145" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C146" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C147" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C148" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C149" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C150" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C151" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C152" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C153" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C154" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C155" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C156" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C157" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C158" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C159" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C160" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C161" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C162" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C163" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C164" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C165" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C166" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C167" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C168" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C169" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C170" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C171" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C172" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C173" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C174" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C175" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C176" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C177" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C178" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C179" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C180" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C181" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C182" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C183" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C184" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C185" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C186" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C187" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C188" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C189" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C190" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C191" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C192" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C193" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C194" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C195" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C196" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C197" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C198" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C199" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C200" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C201" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C202" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C203" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C204" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C205" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C206" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C207" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C208" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C209" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C210" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C211" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C212" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C213" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>214</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
